--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -774,25 +774,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1164,10 +1164,10 @@
   <dimension ref="A1:EE76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Y38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomRight" activeCell="AC46" sqref="AC46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1260,181 +1260,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82">
+      <c r="D1" s="79">
         <v>42322</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="82">
+      <c r="J1" s="79">
         <v>42323</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="82">
+      <c r="P1" s="79">
         <v>42324</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="82">
+      <c r="V1" s="79">
         <v>42325</v>
       </c>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="82">
+      <c r="AB1" s="79">
         <v>42326</v>
       </c>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="82">
+      <c r="AH1" s="79">
         <v>42327</v>
       </c>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="82">
+      <c r="AN1" s="79">
         <v>42328</v>
       </c>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="82">
+      <c r="AT1" s="79">
         <v>42329</v>
       </c>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="82">
+      <c r="AZ1" s="79">
         <v>42330</v>
       </c>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="82">
+      <c r="BF1" s="79">
         <v>42331</v>
       </c>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="83"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="82">
+      <c r="BL1" s="79">
         <v>42332</v>
       </c>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="83"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="80"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="82">
+      <c r="BR1" s="79">
         <v>42333</v>
       </c>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83"/>
-      <c r="BV1" s="83"/>
+      <c r="BS1" s="80"/>
+      <c r="BT1" s="80"/>
+      <c r="BU1" s="80"/>
+      <c r="BV1" s="80"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="82">
+      <c r="BX1" s="79">
         <v>42334</v>
       </c>
-      <c r="BY1" s="83"/>
-      <c r="BZ1" s="83"/>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="83"/>
+      <c r="BY1" s="80"/>
+      <c r="BZ1" s="80"/>
+      <c r="CA1" s="80"/>
+      <c r="CB1" s="80"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="82">
+      <c r="CD1" s="79">
         <v>42335</v>
       </c>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="83"/>
-      <c r="CG1" s="83"/>
-      <c r="CH1" s="83"/>
+      <c r="CE1" s="80"/>
+      <c r="CF1" s="80"/>
+      <c r="CG1" s="80"/>
+      <c r="CH1" s="80"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="82">
+      <c r="CJ1" s="79">
         <v>42336</v>
       </c>
-      <c r="CK1" s="83"/>
-      <c r="CL1" s="83"/>
-      <c r="CM1" s="83"/>
-      <c r="CN1" s="83"/>
+      <c r="CK1" s="80"/>
+      <c r="CL1" s="80"/>
+      <c r="CM1" s="80"/>
+      <c r="CN1" s="80"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="82">
+      <c r="CP1" s="79">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="83"/>
-      <c r="CR1" s="83"/>
-      <c r="CS1" s="83"/>
-      <c r="CT1" s="83"/>
+      <c r="CQ1" s="80"/>
+      <c r="CR1" s="80"/>
+      <c r="CS1" s="80"/>
+      <c r="CT1" s="80"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="82">
+      <c r="CV1" s="79">
         <v>42338</v>
       </c>
-      <c r="CW1" s="83"/>
-      <c r="CX1" s="83"/>
-      <c r="CY1" s="83"/>
-      <c r="CZ1" s="83"/>
+      <c r="CW1" s="80"/>
+      <c r="CX1" s="80"/>
+      <c r="CY1" s="80"/>
+      <c r="CZ1" s="80"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="82">
+      <c r="DB1" s="79">
         <v>42339</v>
       </c>
-      <c r="DC1" s="83"/>
-      <c r="DD1" s="83"/>
-      <c r="DE1" s="83"/>
-      <c r="DF1" s="83"/>
+      <c r="DC1" s="80"/>
+      <c r="DD1" s="80"/>
+      <c r="DE1" s="80"/>
+      <c r="DF1" s="80"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="82">
+      <c r="DH1" s="79">
         <v>42340</v>
       </c>
-      <c r="DI1" s="83"/>
-      <c r="DJ1" s="83"/>
-      <c r="DK1" s="83"/>
-      <c r="DL1" s="83"/>
+      <c r="DI1" s="80"/>
+      <c r="DJ1" s="80"/>
+      <c r="DK1" s="80"/>
+      <c r="DL1" s="80"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="82">
+      <c r="DN1" s="79">
         <v>42341</v>
       </c>
-      <c r="DO1" s="83"/>
-      <c r="DP1" s="83"/>
-      <c r="DQ1" s="83"/>
-      <c r="DR1" s="83"/>
+      <c r="DO1" s="80"/>
+      <c r="DP1" s="80"/>
+      <c r="DQ1" s="80"/>
+      <c r="DR1" s="80"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="82">
+      <c r="DT1" s="79">
         <v>42342</v>
       </c>
-      <c r="DU1" s="83"/>
-      <c r="DV1" s="83"/>
-      <c r="DW1" s="83"/>
-      <c r="DX1" s="83"/>
+      <c r="DU1" s="80"/>
+      <c r="DV1" s="80"/>
+      <c r="DW1" s="80"/>
+      <c r="DX1" s="80"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="82">
+      <c r="DZ1" s="79">
         <v>42343</v>
       </c>
-      <c r="EA1" s="83"/>
-      <c r="EB1" s="83"/>
-      <c r="EC1" s="83"/>
-      <c r="ED1" s="83"/>
+      <c r="EA1" s="80"/>
+      <c r="EB1" s="80"/>
+      <c r="EC1" s="80"/>
+      <c r="ED1" s="80"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -1849,7 +1849,9 @@
       <c r="AB3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AC3" s="77"/>
+      <c r="AC3" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="AD3" s="74"/>
       <c r="AE3" s="74"/>
       <c r="AF3" s="75"/>
@@ -2899,7 +2901,7 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="85" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="6">
@@ -3197,7 +3199,7 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="85" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="6">
@@ -5095,7 +5097,7 @@
       <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="82" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="6"/>
@@ -5240,7 +5242,7 @@
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="85"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
@@ -7986,9 +7988,11 @@
       <c r="Y45" s="9"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="6"/>
+      <c r="AB45" s="6">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="AC45" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="AD45" s="8"/>
       <c r="AE45" s="9"/>
@@ -8883,7 +8887,7 @@
       <c r="B51" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="84" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="14"/>
@@ -9026,7 +9030,7 @@
       <c r="B52" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="79"/>
+      <c r="C52" s="84"/>
       <c r="D52" s="14"/>
       <c r="E52" s="18"/>
       <c r="F52" s="8"/>
@@ -9882,7 +9886,7 @@
       <c r="B58" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="84" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="14"/>
@@ -10025,7 +10029,7 @@
       <c r="B59" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="79"/>
+      <c r="C59" s="84"/>
       <c r="D59" s="14"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
@@ -10166,7 +10170,7 @@
       <c r="B60" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="79"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="14"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -10913,11 +10917,11 @@
       <c r="Z64" s="31"/>
       <c r="AB64" s="28">
         <f>SUM(AB3:AB61)</f>
-        <v>0.20833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="AC64" s="29">
         <f>SUM(AC3:AC61)</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="AD64" s="30" t="s">
         <v>37</v>
@@ -12294,6 +12298,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DT1:DX1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="DZ1:ED1"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C25:C26"/>
@@ -12310,20 +12328,6 @@
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DT1:DX1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -345,7 +345,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +404,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -590,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,6 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,21 +802,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,10 +1185,10 @@
   <dimension ref="A1:EE76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Y38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="AC46" sqref="AC46"/>
+      <selection pane="bottomRight" activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1260,181 +1281,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79">
+      <c r="D1" s="80">
         <v>42322</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="79">
+      <c r="J1" s="80">
         <v>42323</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="79">
+      <c r="P1" s="80">
         <v>42324</v>
       </c>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="79">
+      <c r="V1" s="80">
         <v>42325</v>
       </c>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="79">
+      <c r="AB1" s="80">
         <v>42326</v>
       </c>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="79">
+      <c r="AH1" s="80">
         <v>42327</v>
       </c>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="79">
+      <c r="AN1" s="80">
         <v>42328</v>
       </c>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="79">
+      <c r="AT1" s="80">
         <v>42329</v>
       </c>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="79">
+      <c r="AZ1" s="80">
         <v>42330</v>
       </c>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="81"/>
+      <c r="BD1" s="81"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="79">
+      <c r="BF1" s="80">
         <v>42331</v>
       </c>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="79">
+      <c r="BL1" s="80">
         <v>42332</v>
       </c>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="80"/>
-      <c r="BO1" s="80"/>
-      <c r="BP1" s="80"/>
+      <c r="BM1" s="81"/>
+      <c r="BN1" s="81"/>
+      <c r="BO1" s="81"/>
+      <c r="BP1" s="81"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="79">
+      <c r="BR1" s="80">
         <v>42333</v>
       </c>
-      <c r="BS1" s="80"/>
-      <c r="BT1" s="80"/>
-      <c r="BU1" s="80"/>
-      <c r="BV1" s="80"/>
+      <c r="BS1" s="81"/>
+      <c r="BT1" s="81"/>
+      <c r="BU1" s="81"/>
+      <c r="BV1" s="81"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="79">
+      <c r="BX1" s="80">
         <v>42334</v>
       </c>
-      <c r="BY1" s="80"/>
-      <c r="BZ1" s="80"/>
-      <c r="CA1" s="80"/>
-      <c r="CB1" s="80"/>
+      <c r="BY1" s="81"/>
+      <c r="BZ1" s="81"/>
+      <c r="CA1" s="81"/>
+      <c r="CB1" s="81"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="79">
+      <c r="CD1" s="80">
         <v>42335</v>
       </c>
-      <c r="CE1" s="80"/>
-      <c r="CF1" s="80"/>
-      <c r="CG1" s="80"/>
-      <c r="CH1" s="80"/>
+      <c r="CE1" s="81"/>
+      <c r="CF1" s="81"/>
+      <c r="CG1" s="81"/>
+      <c r="CH1" s="81"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="79">
+      <c r="CJ1" s="80">
         <v>42336</v>
       </c>
-      <c r="CK1" s="80"/>
-      <c r="CL1" s="80"/>
-      <c r="CM1" s="80"/>
-      <c r="CN1" s="80"/>
+      <c r="CK1" s="81"/>
+      <c r="CL1" s="81"/>
+      <c r="CM1" s="81"/>
+      <c r="CN1" s="81"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="79">
+      <c r="CP1" s="80">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="80"/>
-      <c r="CR1" s="80"/>
-      <c r="CS1" s="80"/>
-      <c r="CT1" s="80"/>
+      <c r="CQ1" s="81"/>
+      <c r="CR1" s="81"/>
+      <c r="CS1" s="81"/>
+      <c r="CT1" s="81"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="79">
+      <c r="CV1" s="80">
         <v>42338</v>
       </c>
-      <c r="CW1" s="80"/>
-      <c r="CX1" s="80"/>
-      <c r="CY1" s="80"/>
-      <c r="CZ1" s="80"/>
+      <c r="CW1" s="81"/>
+      <c r="CX1" s="81"/>
+      <c r="CY1" s="81"/>
+      <c r="CZ1" s="81"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="79">
+      <c r="DB1" s="80">
         <v>42339</v>
       </c>
-      <c r="DC1" s="80"/>
-      <c r="DD1" s="80"/>
-      <c r="DE1" s="80"/>
-      <c r="DF1" s="80"/>
+      <c r="DC1" s="81"/>
+      <c r="DD1" s="81"/>
+      <c r="DE1" s="81"/>
+      <c r="DF1" s="81"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="79">
+      <c r="DH1" s="80">
         <v>42340</v>
       </c>
-      <c r="DI1" s="80"/>
-      <c r="DJ1" s="80"/>
-      <c r="DK1" s="80"/>
-      <c r="DL1" s="80"/>
+      <c r="DI1" s="81"/>
+      <c r="DJ1" s="81"/>
+      <c r="DK1" s="81"/>
+      <c r="DL1" s="81"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="79">
+      <c r="DN1" s="80">
         <v>42341</v>
       </c>
-      <c r="DO1" s="80"/>
-      <c r="DP1" s="80"/>
-      <c r="DQ1" s="80"/>
-      <c r="DR1" s="80"/>
+      <c r="DO1" s="81"/>
+      <c r="DP1" s="81"/>
+      <c r="DQ1" s="81"/>
+      <c r="DR1" s="81"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="79">
+      <c r="DT1" s="80">
         <v>42342</v>
       </c>
-      <c r="DU1" s="80"/>
-      <c r="DV1" s="80"/>
-      <c r="DW1" s="80"/>
-      <c r="DX1" s="80"/>
+      <c r="DU1" s="81"/>
+      <c r="DV1" s="81"/>
+      <c r="DW1" s="81"/>
+      <c r="DX1" s="81"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="79">
+      <c r="DZ1" s="80">
         <v>42343</v>
       </c>
-      <c r="EA1" s="80"/>
-      <c r="EB1" s="80"/>
-      <c r="EC1" s="80"/>
-      <c r="ED1" s="80"/>
+      <c r="EA1" s="81"/>
+      <c r="EB1" s="81"/>
+      <c r="EC1" s="81"/>
+      <c r="ED1" s="81"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -1859,7 +1880,9 @@
       <c r="AH3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AI3" s="77"/>
+      <c r="AI3" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="AJ3" s="74"/>
       <c r="AK3" s="74"/>
       <c r="AL3" s="75"/>
@@ -2601,7 +2624,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2751,7 +2774,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2901,7 +2924,7 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="84" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="6">
@@ -3051,7 +3074,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="81"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3199,7 +3222,7 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="84" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="6">
@@ -3247,11 +3270,15 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="12"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="7"/>
+      <c r="AH12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="9"/>
-      <c r="AL12" s="10"/>
+      <c r="AL12" s="70"/>
       <c r="AM12" s="12"/>
       <c r="AN12" s="6"/>
       <c r="AO12" s="7"/>
@@ -3357,7 +3384,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3511,7 +3538,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -4129,11 +4156,13 @@
       <c r="AK18" s="9"/>
       <c r="AL18" s="10"/>
       <c r="AM18" s="12"/>
-      <c r="AN18" s="56"/>
+      <c r="AN18" s="56">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AO18" s="7"/>
       <c r="AP18" s="8"/>
       <c r="AQ18" s="9"/>
-      <c r="AR18" s="42"/>
+      <c r="AR18" s="89"/>
       <c r="AS18" s="12"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="7"/>
@@ -4991,11 +5020,13 @@
       <c r="AK24" s="9"/>
       <c r="AL24" s="10"/>
       <c r="AM24" s="12"/>
-      <c r="AN24" s="56"/>
+      <c r="AN24" s="56">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AO24" s="7"/>
       <c r="AP24" s="8"/>
       <c r="AQ24" s="9"/>
-      <c r="AR24" s="42"/>
+      <c r="AR24" s="88"/>
       <c r="AS24" s="12"/>
       <c r="AT24" s="6"/>
       <c r="AU24" s="7"/>
@@ -5097,7 +5128,7 @@
       <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="85" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="6"/>
@@ -5242,7 +5273,7 @@
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="83"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
@@ -5671,7 +5702,7 @@
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="82" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="6"/>
@@ -5816,7 +5847,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -5959,7 +5990,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6569,7 +6600,9 @@
       <c r="AH35" s="6">
         <v>0.125</v>
       </c>
-      <c r="AI35" s="7"/>
+      <c r="AI35" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="9"/>
       <c r="AL35" s="53"/>
@@ -6821,7 +6854,7 @@
       <c r="B37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6"/>
@@ -6966,7 +6999,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
@@ -7998,11 +8031,15 @@
       <c r="AE45" s="9"/>
       <c r="AF45" s="53"/>
       <c r="AG45" s="12"/>
-      <c r="AH45" s="57"/>
-      <c r="AI45" s="58"/>
+      <c r="AH45" s="57">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="58">
+        <v>6.25E-2</v>
+      </c>
       <c r="AJ45" s="59"/>
       <c r="AK45" s="60"/>
-      <c r="AL45" s="50"/>
+      <c r="AL45" s="79"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="6"/>
       <c r="AO45" s="7"/>
@@ -8288,7 +8325,7 @@
       <c r="AI47" s="7"/>
       <c r="AJ47" s="8"/>
       <c r="AK47" s="9"/>
-      <c r="AL47" s="54"/>
+      <c r="AL47" s="69"/>
       <c r="AM47" s="12"/>
       <c r="AN47" s="6">
         <v>8.3333333333333329E-2</v>
@@ -8296,7 +8333,7 @@
       <c r="AO47" s="7"/>
       <c r="AP47" s="8"/>
       <c r="AQ47" s="9"/>
-      <c r="AR47" s="52"/>
+      <c r="AR47" s="53"/>
       <c r="AS47" s="12"/>
       <c r="AT47" s="6"/>
       <c r="AU47" s="7"/>
@@ -8409,7 +8446,7 @@
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
-      <c r="N48" s="10"/>
+      <c r="N48" s="69"/>
       <c r="O48" s="12"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="18"/>
@@ -8568,13 +8605,11 @@
       <c r="G49" s="18"/>
       <c r="H49" s="10"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="J49" s="14"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
-      <c r="N49" s="54"/>
+      <c r="N49" s="69"/>
       <c r="O49" s="12"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="18"/>
@@ -8887,7 +8922,7 @@
       <c r="B51" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="83" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="14"/>
@@ -9030,7 +9065,7 @@
       <c r="B52" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="84"/>
+      <c r="C52" s="83"/>
       <c r="D52" s="14"/>
       <c r="E52" s="18"/>
       <c r="F52" s="8"/>
@@ -9886,7 +9921,7 @@
       <c r="B58" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="84" t="s">
+      <c r="C58" s="83" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="14"/>
@@ -10029,7 +10064,7 @@
       <c r="B59" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="84"/>
+      <c r="C59" s="83"/>
       <c r="D59" s="14"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
@@ -10170,7 +10205,7 @@
       <c r="B60" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="84"/>
+      <c r="C60" s="83"/>
       <c r="D60" s="14"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -10869,7 +10904,7 @@
       <c r="H64" s="31"/>
       <c r="J64" s="28">
         <f>SUM(J3:J61)</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K64" s="29">
         <f>SUM(K3:K61)</f>
@@ -10937,7 +10972,7 @@
       </c>
       <c r="AI64" s="29">
         <f>SUM(AI3:AI61)</f>
-        <v>0</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="AJ64" s="30" t="s">
         <v>37</v>
@@ -10949,7 +10984,7 @@
       <c r="AL64" s="31"/>
       <c r="AN64" s="28">
         <f>SUM(AN3:AN61)</f>
-        <v>0.37499999999999994</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="AO64" s="29">
         <f>SUM(AO3:AO61)</f>
@@ -11248,9 +11283,9 @@
       <c r="AH65" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AI65" s="33" t="e">
+      <c r="AI65" s="33">
         <f>AK64/AI64</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="34"/>
       <c r="AN65" s="32" t="s">
@@ -11604,9 +11639,9 @@
       <c r="AH67" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AI67" s="35" t="e">
+      <c r="AI67" s="35">
         <f>1-AI65</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="34"/>
       <c r="AN67" s="32" t="s">
@@ -12308,26 +12343,26 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="P1:T1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DT1:DX1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="DZ1:ED1"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C25:C26"/>
+    <mergeCell ref="DZ1:ED1"/>
     <mergeCell ref="CJ1:CN1"/>
     <mergeCell ref="CP1:CT1"/>
     <mergeCell ref="CV1:CZ1"/>
     <mergeCell ref="DB1:DF1"/>
     <mergeCell ref="DH1:DL1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DT1:DX1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="BF1:BJ1"/>
     <mergeCell ref="BL1:BP1"/>
     <mergeCell ref="BR1:BV1"/>
     <mergeCell ref="BX1:CB1"/>
     <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AZ1:BD1"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -12409,18 +12444,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -793,6 +793,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,8 +819,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,10 +1185,10 @@
   <dimension ref="A1:EE76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="AR18" sqref="AR18"/>
+      <selection pane="bottomRight" activeCell="AI46" sqref="AI46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,181 +1281,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80">
+      <c r="D1" s="82">
         <v>42322</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="80">
+      <c r="J1" s="82">
         <v>42323</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="80">
+      <c r="P1" s="82">
         <v>42324</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="80">
+      <c r="V1" s="82">
         <v>42325</v>
       </c>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="80">
+      <c r="AB1" s="82">
         <v>42326</v>
       </c>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="80">
+      <c r="AH1" s="82">
         <v>42327</v>
       </c>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="80">
+      <c r="AN1" s="82">
         <v>42328</v>
       </c>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="80">
+      <c r="AT1" s="82">
         <v>42329</v>
       </c>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="80">
+      <c r="AZ1" s="82">
         <v>42330</v>
       </c>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="80">
+      <c r="BF1" s="82">
         <v>42331</v>
       </c>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="83"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="80">
+      <c r="BL1" s="82">
         <v>42332</v>
       </c>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="83"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="80">
+      <c r="BR1" s="82">
         <v>42333</v>
       </c>
-      <c r="BS1" s="81"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="81"/>
+      <c r="BS1" s="83"/>
+      <c r="BT1" s="83"/>
+      <c r="BU1" s="83"/>
+      <c r="BV1" s="83"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="80">
+      <c r="BX1" s="82">
         <v>42334</v>
       </c>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="81"/>
-      <c r="CA1" s="81"/>
-      <c r="CB1" s="81"/>
+      <c r="BY1" s="83"/>
+      <c r="BZ1" s="83"/>
+      <c r="CA1" s="83"/>
+      <c r="CB1" s="83"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="80">
+      <c r="CD1" s="82">
         <v>42335</v>
       </c>
-      <c r="CE1" s="81"/>
-      <c r="CF1" s="81"/>
-      <c r="CG1" s="81"/>
-      <c r="CH1" s="81"/>
+      <c r="CE1" s="83"/>
+      <c r="CF1" s="83"/>
+      <c r="CG1" s="83"/>
+      <c r="CH1" s="83"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="80">
+      <c r="CJ1" s="82">
         <v>42336</v>
       </c>
-      <c r="CK1" s="81"/>
-      <c r="CL1" s="81"/>
-      <c r="CM1" s="81"/>
-      <c r="CN1" s="81"/>
+      <c r="CK1" s="83"/>
+      <c r="CL1" s="83"/>
+      <c r="CM1" s="83"/>
+      <c r="CN1" s="83"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="80">
+      <c r="CP1" s="82">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="81"/>
-      <c r="CR1" s="81"/>
-      <c r="CS1" s="81"/>
-      <c r="CT1" s="81"/>
+      <c r="CQ1" s="83"/>
+      <c r="CR1" s="83"/>
+      <c r="CS1" s="83"/>
+      <c r="CT1" s="83"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="80">
+      <c r="CV1" s="82">
         <v>42338</v>
       </c>
-      <c r="CW1" s="81"/>
-      <c r="CX1" s="81"/>
-      <c r="CY1" s="81"/>
-      <c r="CZ1" s="81"/>
+      <c r="CW1" s="83"/>
+      <c r="CX1" s="83"/>
+      <c r="CY1" s="83"/>
+      <c r="CZ1" s="83"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="80">
+      <c r="DB1" s="82">
         <v>42339</v>
       </c>
-      <c r="DC1" s="81"/>
-      <c r="DD1" s="81"/>
-      <c r="DE1" s="81"/>
-      <c r="DF1" s="81"/>
+      <c r="DC1" s="83"/>
+      <c r="DD1" s="83"/>
+      <c r="DE1" s="83"/>
+      <c r="DF1" s="83"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="80">
+      <c r="DH1" s="82">
         <v>42340</v>
       </c>
-      <c r="DI1" s="81"/>
-      <c r="DJ1" s="81"/>
-      <c r="DK1" s="81"/>
-      <c r="DL1" s="81"/>
+      <c r="DI1" s="83"/>
+      <c r="DJ1" s="83"/>
+      <c r="DK1" s="83"/>
+      <c r="DL1" s="83"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="80">
+      <c r="DN1" s="82">
         <v>42341</v>
       </c>
-      <c r="DO1" s="81"/>
-      <c r="DP1" s="81"/>
-      <c r="DQ1" s="81"/>
-      <c r="DR1" s="81"/>
+      <c r="DO1" s="83"/>
+      <c r="DP1" s="83"/>
+      <c r="DQ1" s="83"/>
+      <c r="DR1" s="83"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="80">
+      <c r="DT1" s="82">
         <v>42342</v>
       </c>
-      <c r="DU1" s="81"/>
-      <c r="DV1" s="81"/>
-      <c r="DW1" s="81"/>
-      <c r="DX1" s="81"/>
+      <c r="DU1" s="83"/>
+      <c r="DV1" s="83"/>
+      <c r="DW1" s="83"/>
+      <c r="DX1" s="83"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="80">
+      <c r="DZ1" s="82">
         <v>42343</v>
       </c>
-      <c r="EA1" s="81"/>
-      <c r="EB1" s="81"/>
-      <c r="EC1" s="81"/>
-      <c r="ED1" s="81"/>
+      <c r="EA1" s="83"/>
+      <c r="EB1" s="83"/>
+      <c r="EC1" s="83"/>
+      <c r="ED1" s="83"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -2624,7 +2624,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="84" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2774,7 +2774,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="86" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="6">
@@ -3074,7 +3074,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="86" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="6">
@@ -3384,7 +3384,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3538,7 +3538,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="AO18" s="7"/>
       <c r="AP18" s="8"/>
       <c r="AQ18" s="9"/>
-      <c r="AR18" s="89"/>
+      <c r="AR18" s="81"/>
       <c r="AS18" s="12"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="7"/>
@@ -5026,7 +5026,7 @@
       <c r="AO24" s="7"/>
       <c r="AP24" s="8"/>
       <c r="AQ24" s="9"/>
-      <c r="AR24" s="88"/>
+      <c r="AR24" s="80"/>
       <c r="AS24" s="12"/>
       <c r="AT24" s="6"/>
       <c r="AU24" s="7"/>
@@ -5128,7 +5128,7 @@
       <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="87" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="6"/>
@@ -5273,7 +5273,7 @@
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="86"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
@@ -5702,7 +5702,7 @@
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="84" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="6"/>
@@ -5847,7 +5847,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="82"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -5990,7 +5990,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6854,7 +6854,7 @@
       <c r="B37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="84" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6"/>
@@ -6999,7 +6999,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="82"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="58">
-        <v>6.25E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="AJ45" s="59"/>
       <c r="AK45" s="60"/>
@@ -8922,7 +8922,7 @@
       <c r="B51" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="85" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="14"/>
@@ -9065,7 +9065,7 @@
       <c r="B52" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="83"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="14"/>
       <c r="E52" s="18"/>
       <c r="F52" s="8"/>
@@ -9921,7 +9921,7 @@
       <c r="B58" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="83" t="s">
+      <c r="C58" s="85" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="14"/>
@@ -10064,7 +10064,7 @@
       <c r="B59" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="83"/>
+      <c r="C59" s="85"/>
       <c r="D59" s="14"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
@@ -10205,7 +10205,7 @@
       <c r="B60" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="83"/>
+      <c r="C60" s="85"/>
       <c r="D60" s="14"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="AI64" s="29">
         <f>SUM(AI3:AI61)</f>
-        <v>0.22916666666666666</v>
+        <v>0.3125</v>
       </c>
       <c r="AJ64" s="30" t="s">
         <v>37</v>
@@ -12444,18 +12444,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -795,14 +795,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1185,10 +1185,10 @@
   <dimension ref="A1:EE76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AA24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="AI46" sqref="AI46"/>
+      <selection pane="bottomRight" activeCell="AI39" sqref="AI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,181 +1281,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82">
+      <c r="D1" s="83">
         <v>42322</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="82">
+      <c r="J1" s="83">
         <v>42323</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="82">
+      <c r="P1" s="83">
         <v>42324</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="82">
+      <c r="V1" s="83">
         <v>42325</v>
       </c>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="82">
+      <c r="AB1" s="83">
         <v>42326</v>
       </c>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="82">
+      <c r="AH1" s="83">
         <v>42327</v>
       </c>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="82">
+      <c r="AN1" s="83">
         <v>42328</v>
       </c>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="82">
+      <c r="AT1" s="83">
         <v>42329</v>
       </c>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="82">
+      <c r="AZ1" s="83">
         <v>42330</v>
       </c>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="82">
+      <c r="BF1" s="83">
         <v>42331</v>
       </c>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="83"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="82">
+      <c r="BL1" s="83">
         <v>42332</v>
       </c>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="83"/>
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="84"/>
+      <c r="BP1" s="84"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="82">
+      <c r="BR1" s="83">
         <v>42333</v>
       </c>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83"/>
-      <c r="BV1" s="83"/>
+      <c r="BS1" s="84"/>
+      <c r="BT1" s="84"/>
+      <c r="BU1" s="84"/>
+      <c r="BV1" s="84"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="82">
+      <c r="BX1" s="83">
         <v>42334</v>
       </c>
-      <c r="BY1" s="83"/>
-      <c r="BZ1" s="83"/>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="83"/>
+      <c r="BY1" s="84"/>
+      <c r="BZ1" s="84"/>
+      <c r="CA1" s="84"/>
+      <c r="CB1" s="84"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="82">
+      <c r="CD1" s="83">
         <v>42335</v>
       </c>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="83"/>
-      <c r="CG1" s="83"/>
-      <c r="CH1" s="83"/>
+      <c r="CE1" s="84"/>
+      <c r="CF1" s="84"/>
+      <c r="CG1" s="84"/>
+      <c r="CH1" s="84"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="82">
+      <c r="CJ1" s="83">
         <v>42336</v>
       </c>
-      <c r="CK1" s="83"/>
-      <c r="CL1" s="83"/>
-      <c r="CM1" s="83"/>
-      <c r="CN1" s="83"/>
+      <c r="CK1" s="84"/>
+      <c r="CL1" s="84"/>
+      <c r="CM1" s="84"/>
+      <c r="CN1" s="84"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="82">
+      <c r="CP1" s="83">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="83"/>
-      <c r="CR1" s="83"/>
-      <c r="CS1" s="83"/>
-      <c r="CT1" s="83"/>
+      <c r="CQ1" s="84"/>
+      <c r="CR1" s="84"/>
+      <c r="CS1" s="84"/>
+      <c r="CT1" s="84"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="82">
+      <c r="CV1" s="83">
         <v>42338</v>
       </c>
-      <c r="CW1" s="83"/>
-      <c r="CX1" s="83"/>
-      <c r="CY1" s="83"/>
-      <c r="CZ1" s="83"/>
+      <c r="CW1" s="84"/>
+      <c r="CX1" s="84"/>
+      <c r="CY1" s="84"/>
+      <c r="CZ1" s="84"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="82">
+      <c r="DB1" s="83">
         <v>42339</v>
       </c>
-      <c r="DC1" s="83"/>
-      <c r="DD1" s="83"/>
-      <c r="DE1" s="83"/>
-      <c r="DF1" s="83"/>
+      <c r="DC1" s="84"/>
+      <c r="DD1" s="84"/>
+      <c r="DE1" s="84"/>
+      <c r="DF1" s="84"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="82">
+      <c r="DH1" s="83">
         <v>42340</v>
       </c>
-      <c r="DI1" s="83"/>
-      <c r="DJ1" s="83"/>
-      <c r="DK1" s="83"/>
-      <c r="DL1" s="83"/>
+      <c r="DI1" s="84"/>
+      <c r="DJ1" s="84"/>
+      <c r="DK1" s="84"/>
+      <c r="DL1" s="84"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="82">
+      <c r="DN1" s="83">
         <v>42341</v>
       </c>
-      <c r="DO1" s="83"/>
-      <c r="DP1" s="83"/>
-      <c r="DQ1" s="83"/>
-      <c r="DR1" s="83"/>
+      <c r="DO1" s="84"/>
+      <c r="DP1" s="84"/>
+      <c r="DQ1" s="84"/>
+      <c r="DR1" s="84"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="82">
+      <c r="DT1" s="83">
         <v>42342</v>
       </c>
-      <c r="DU1" s="83"/>
-      <c r="DV1" s="83"/>
-      <c r="DW1" s="83"/>
-      <c r="DX1" s="83"/>
+      <c r="DU1" s="84"/>
+      <c r="DV1" s="84"/>
+      <c r="DW1" s="84"/>
+      <c r="DX1" s="84"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="82">
+      <c r="DZ1" s="83">
         <v>42343</v>
       </c>
-      <c r="EA1" s="83"/>
-      <c r="EB1" s="83"/>
-      <c r="EC1" s="83"/>
-      <c r="ED1" s="83"/>
+      <c r="EA1" s="84"/>
+      <c r="EB1" s="84"/>
+      <c r="EC1" s="84"/>
+      <c r="ED1" s="84"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -2624,7 +2624,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="82" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2774,7 +2774,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3538,7 +3538,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -5702,7 +5702,7 @@
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="82" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="6"/>
@@ -5847,7 +5847,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="84"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -5990,7 +5990,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="84"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6733,7 +6733,9 @@
       <c r="V36" s="56">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W36" s="7"/>
+      <c r="W36" s="7">
+        <v>6.25E-2</v>
+      </c>
       <c r="X36" s="8"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="54"/>
@@ -6854,7 +6856,7 @@
       <c r="B37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6"/>
@@ -6999,7 +7001,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="84"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
@@ -7024,19 +7026,21 @@
       <c r="Y38" s="55"/>
       <c r="Z38" s="22"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="AB38" s="6"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="9"/>
-      <c r="AF38" s="54"/>
+      <c r="AF38" s="10"/>
       <c r="AG38" s="12"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="7"/>
+      <c r="AH38" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AI38" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AJ38" s="8"/>
       <c r="AK38" s="9"/>
-      <c r="AL38" s="10"/>
+      <c r="AL38" s="54"/>
       <c r="AM38" s="12"/>
       <c r="AN38" s="6"/>
       <c r="AO38" s="7"/>
@@ -8172,19 +8176,20 @@
       <c r="Y46" s="9"/>
       <c r="Z46" s="10"/>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="7"/>
+      <c r="AB46" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AC46" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AD46" s="8"/>
       <c r="AE46" s="9"/>
-      <c r="AF46" s="10"/>
+      <c r="AF46" s="54"/>
       <c r="AG46" s="12"/>
-      <c r="AH46" s="6">
-        <v>0.125</v>
-      </c>
+      <c r="AH46" s="6"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="8"/>
       <c r="AK46" s="9"/>
-      <c r="AL46" s="54"/>
       <c r="AM46" s="12"/>
       <c r="AN46" s="6"/>
       <c r="AO46" s="7"/>
@@ -10940,7 +10945,7 @@
       </c>
       <c r="W64" s="29">
         <f>SUM(W3:W61)</f>
-        <v>0.22916666666666663</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="X64" s="30" t="s">
         <v>37</v>
@@ -10952,11 +10957,11 @@
       <c r="Z64" s="31"/>
       <c r="AB64" s="28">
         <f>SUM(AB3:AB61)</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="AC64" s="29">
         <f>SUM(AC3:AC61)</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD64" s="30" t="s">
         <v>37</v>
@@ -10968,11 +10973,11 @@
       <c r="AF64" s="31"/>
       <c r="AH64" s="28">
         <f>SUM(AH3:AH61)</f>
-        <v>0.29166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="AI64" s="29">
         <f>SUM(AI3:AI61)</f>
-        <v>0.3125</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="AJ64" s="30" t="s">
         <v>37</v>
@@ -12333,6 +12338,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DT1:DX1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="BR1:BV1"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AN1:AR1"/>
@@ -12345,24 +12368,6 @@
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DT1:DX1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="AB1:AF1"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -795,14 +795,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1185,10 +1185,10 @@
   <dimension ref="A1:EE76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AA24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AK33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="AI39" sqref="AI39"/>
+      <selection pane="bottomRight" activeCell="AR45" sqref="AR45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,181 +1281,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83">
+      <c r="D1" s="82">
         <v>42322</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="83">
+      <c r="J1" s="82">
         <v>42323</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="83">
+      <c r="P1" s="82">
         <v>42324</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="83">
+      <c r="V1" s="82">
         <v>42325</v>
       </c>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="83">
+      <c r="AB1" s="82">
         <v>42326</v>
       </c>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="83">
+      <c r="AH1" s="82">
         <v>42327</v>
       </c>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="83">
+      <c r="AN1" s="82">
         <v>42328</v>
       </c>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="83">
+      <c r="AT1" s="82">
         <v>42329</v>
       </c>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="83">
+      <c r="AZ1" s="82">
         <v>42330</v>
       </c>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="83">
+      <c r="BF1" s="82">
         <v>42331</v>
       </c>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="83"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="83">
+      <c r="BL1" s="82">
         <v>42332</v>
       </c>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="84"/>
-      <c r="BP1" s="84"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="83"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="83">
+      <c r="BR1" s="82">
         <v>42333</v>
       </c>
-      <c r="BS1" s="84"/>
-      <c r="BT1" s="84"/>
-      <c r="BU1" s="84"/>
-      <c r="BV1" s="84"/>
+      <c r="BS1" s="83"/>
+      <c r="BT1" s="83"/>
+      <c r="BU1" s="83"/>
+      <c r="BV1" s="83"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="83">
+      <c r="BX1" s="82">
         <v>42334</v>
       </c>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="84"/>
-      <c r="CA1" s="84"/>
-      <c r="CB1" s="84"/>
+      <c r="BY1" s="83"/>
+      <c r="BZ1" s="83"/>
+      <c r="CA1" s="83"/>
+      <c r="CB1" s="83"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="83">
+      <c r="CD1" s="82">
         <v>42335</v>
       </c>
-      <c r="CE1" s="84"/>
-      <c r="CF1" s="84"/>
-      <c r="CG1" s="84"/>
-      <c r="CH1" s="84"/>
+      <c r="CE1" s="83"/>
+      <c r="CF1" s="83"/>
+      <c r="CG1" s="83"/>
+      <c r="CH1" s="83"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="83">
+      <c r="CJ1" s="82">
         <v>42336</v>
       </c>
-      <c r="CK1" s="84"/>
-      <c r="CL1" s="84"/>
-      <c r="CM1" s="84"/>
-      <c r="CN1" s="84"/>
+      <c r="CK1" s="83"/>
+      <c r="CL1" s="83"/>
+      <c r="CM1" s="83"/>
+      <c r="CN1" s="83"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="83">
+      <c r="CP1" s="82">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="84"/>
-      <c r="CR1" s="84"/>
-      <c r="CS1" s="84"/>
-      <c r="CT1" s="84"/>
+      <c r="CQ1" s="83"/>
+      <c r="CR1" s="83"/>
+      <c r="CS1" s="83"/>
+      <c r="CT1" s="83"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="83">
+      <c r="CV1" s="82">
         <v>42338</v>
       </c>
-      <c r="CW1" s="84"/>
-      <c r="CX1" s="84"/>
-      <c r="CY1" s="84"/>
-      <c r="CZ1" s="84"/>
+      <c r="CW1" s="83"/>
+      <c r="CX1" s="83"/>
+      <c r="CY1" s="83"/>
+      <c r="CZ1" s="83"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="83">
+      <c r="DB1" s="82">
         <v>42339</v>
       </c>
-      <c r="DC1" s="84"/>
-      <c r="DD1" s="84"/>
-      <c r="DE1" s="84"/>
-      <c r="DF1" s="84"/>
+      <c r="DC1" s="83"/>
+      <c r="DD1" s="83"/>
+      <c r="DE1" s="83"/>
+      <c r="DF1" s="83"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="83">
+      <c r="DH1" s="82">
         <v>42340</v>
       </c>
-      <c r="DI1" s="84"/>
-      <c r="DJ1" s="84"/>
-      <c r="DK1" s="84"/>
-      <c r="DL1" s="84"/>
+      <c r="DI1" s="83"/>
+      <c r="DJ1" s="83"/>
+      <c r="DK1" s="83"/>
+      <c r="DL1" s="83"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="83">
+      <c r="DN1" s="82">
         <v>42341</v>
       </c>
-      <c r="DO1" s="84"/>
-      <c r="DP1" s="84"/>
-      <c r="DQ1" s="84"/>
-      <c r="DR1" s="84"/>
+      <c r="DO1" s="83"/>
+      <c r="DP1" s="83"/>
+      <c r="DQ1" s="83"/>
+      <c r="DR1" s="83"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="83">
+      <c r="DT1" s="82">
         <v>42342</v>
       </c>
-      <c r="DU1" s="84"/>
-      <c r="DV1" s="84"/>
-      <c r="DW1" s="84"/>
-      <c r="DX1" s="84"/>
+      <c r="DU1" s="83"/>
+      <c r="DV1" s="83"/>
+      <c r="DW1" s="83"/>
+      <c r="DX1" s="83"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="83">
+      <c r="DZ1" s="82">
         <v>42343</v>
       </c>
-      <c r="EA1" s="84"/>
-      <c r="EB1" s="84"/>
-      <c r="EC1" s="84"/>
-      <c r="ED1" s="84"/>
+      <c r="EA1" s="83"/>
+      <c r="EB1" s="83"/>
+      <c r="EC1" s="83"/>
+      <c r="ED1" s="83"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -1890,7 +1890,9 @@
       <c r="AN3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AO3" s="77"/>
+      <c r="AO3" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="AP3" s="74"/>
       <c r="AQ3" s="74"/>
       <c r="AR3" s="75"/>
@@ -2624,7 +2626,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="84" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2774,7 +2776,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3074,7 +3076,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3384,7 +3386,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3538,7 +3540,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -5702,7 +5704,7 @@
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="84" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="6"/>
@@ -5847,7 +5849,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="82"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -5990,7 +5992,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6856,7 +6858,7 @@
       <c r="B37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="84" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6"/>
@@ -6897,11 +6899,15 @@
       <c r="AK37" s="9"/>
       <c r="AL37" s="10"/>
       <c r="AM37" s="12"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="7"/>
+      <c r="AN37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AP37" s="8"/>
       <c r="AQ37" s="9"/>
-      <c r="AR37" s="10"/>
+      <c r="AR37" s="70"/>
       <c r="AS37" s="12"/>
       <c r="AT37" s="6"/>
       <c r="AU37" s="7"/>
@@ -7001,7 +7007,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="82"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
@@ -8045,11 +8051,15 @@
       <c r="AK45" s="60"/>
       <c r="AL45" s="79"/>
       <c r="AM45" s="12"/>
-      <c r="AN45" s="6"/>
-      <c r="AO45" s="7"/>
+      <c r="AN45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="AP45" s="8"/>
       <c r="AQ45" s="9"/>
-      <c r="AR45" s="10"/>
+      <c r="AR45" s="53"/>
       <c r="AS45" s="12"/>
       <c r="AT45" s="6"/>
       <c r="AU45" s="7"/>
@@ -8335,7 +8345,9 @@
       <c r="AN47" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AO47" s="7"/>
+      <c r="AO47" s="7">
+        <v>6.25E-2</v>
+      </c>
       <c r="AP47" s="8"/>
       <c r="AQ47" s="9"/>
       <c r="AR47" s="53"/>
@@ -10993,7 +11005,7 @@
       </c>
       <c r="AO64" s="29">
         <f>SUM(AO3:AO61)</f>
-        <v>0</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="AP64" s="30" t="s">
         <v>37</v>
@@ -11296,9 +11308,9 @@
       <c r="AN65" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AO65" s="33" t="e">
+      <c r="AO65" s="33">
         <f>AQ64/AO64</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="34"/>
       <c r="AT65" s="32" t="s">
@@ -11652,9 +11664,9 @@
       <c r="AN67" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AO67" s="35" t="e">
+      <c r="AO67" s="35">
         <f>1-AO65</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AR67" s="34"/>
       <c r="AT67" s="32" t="s">
@@ -12338,6 +12350,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -12350,24 +12380,6 @@
     <mergeCell ref="BX1:CB1"/>
     <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="701"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="701"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -795,14 +795,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1185,90 +1185,89 @@
   <dimension ref="A1:EE76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AA24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AC27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="AI39" sqref="AI39"/>
+      <selection pane="bottomRight" activeCell="AN36" sqref="AN36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125"/>
-    <col min="2" max="2" width="29.42578125"/>
-    <col min="3" max="3" width="33.5703125"/>
-    <col min="4" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625"/>
+    <col min="2" max="2" width="29.44140625"/>
+    <col min="3" max="3" width="33.5546875"/>
+    <col min="4" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" customWidth="1"/>
     <col min="16" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" customWidth="1"/>
-    <col min="22" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="8.7109375" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" customWidth="1"/>
-    <col min="28" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="8.7109375" customWidth="1"/>
-    <col min="33" max="33" width="3.85546875" customWidth="1"/>
-    <col min="34" max="37" width="9.140625" style="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1"/>
-    <col min="39" max="39" width="3.85546875" customWidth="1"/>
-    <col min="40" max="43" width="9.140625" style="1"/>
-    <col min="44" max="44" width="8.7109375" customWidth="1"/>
-    <col min="45" max="45" width="3.85546875" customWidth="1"/>
-    <col min="46" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="8.7109375" customWidth="1"/>
-    <col min="51" max="51" width="3.85546875" customWidth="1"/>
-    <col min="52" max="55" width="9.140625" style="1"/>
-    <col min="56" max="56" width="8.7109375" customWidth="1"/>
-    <col min="57" max="57" width="3.85546875" customWidth="1"/>
-    <col min="58" max="61" width="9.140625" style="1"/>
-    <col min="62" max="62" width="8.7109375" customWidth="1"/>
-    <col min="63" max="63" width="3.85546875" customWidth="1"/>
-    <col min="64" max="67" width="9.140625" style="1"/>
-    <col min="68" max="68" width="8.7109375" customWidth="1"/>
-    <col min="69" max="69" width="3.85546875" customWidth="1"/>
-    <col min="70" max="73" width="9.140625" style="1"/>
-    <col min="74" max="74" width="8.7109375" customWidth="1"/>
-    <col min="75" max="75" width="3.85546875" customWidth="1"/>
-    <col min="76" max="79" width="9.140625" style="1"/>
-    <col min="80" max="80" width="8.7109375" customWidth="1"/>
-    <col min="81" max="81" width="3.85546875" customWidth="1"/>
-    <col min="82" max="85" width="9.140625" style="1"/>
-    <col min="86" max="86" width="8.7109375" customWidth="1"/>
-    <col min="87" max="87" width="3.85546875" customWidth="1"/>
-    <col min="88" max="91" width="9.140625" style="1"/>
-    <col min="92" max="92" width="8.7109375" customWidth="1"/>
-    <col min="93" max="93" width="3.85546875" customWidth="1"/>
-    <col min="94" max="97" width="9.140625" style="1"/>
-    <col min="98" max="98" width="8.7109375" customWidth="1"/>
-    <col min="99" max="99" width="3.85546875" customWidth="1"/>
-    <col min="100" max="103" width="9.140625" style="1"/>
-    <col min="104" max="104" width="8.7109375" customWidth="1"/>
-    <col min="105" max="105" width="3.85546875" customWidth="1"/>
-    <col min="106" max="109" width="9.140625" style="1"/>
-    <col min="110" max="110" width="8.7109375" customWidth="1"/>
-    <col min="111" max="111" width="3.85546875" customWidth="1"/>
-    <col min="112" max="115" width="9.140625" style="1"/>
-    <col min="116" max="116" width="8.7109375" customWidth="1"/>
-    <col min="117" max="117" width="3.85546875" customWidth="1"/>
-    <col min="118" max="121" width="9.140625" style="1"/>
-    <col min="122" max="122" width="8.7109375" customWidth="1"/>
-    <col min="123" max="123" width="3.85546875" customWidth="1"/>
-    <col min="124" max="127" width="9.140625" style="1"/>
-    <col min="128" max="128" width="8.7109375" customWidth="1"/>
-    <col min="129" max="129" width="3.85546875" customWidth="1"/>
-    <col min="130" max="132" width="9.140625" style="1"/>
-    <col min="133" max="133" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.7109375" customWidth="1"/>
-    <col min="135" max="135" width="3.85546875" customWidth="1"/>
-    <col min="136" max="986" width="8.85546875"/>
+    <col min="17" max="19" width="9.109375" style="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" customWidth="1"/>
+    <col min="22" max="25" width="9.109375" style="1"/>
+    <col min="26" max="26" width="8.6640625" customWidth="1"/>
+    <col min="27" max="27" width="3.88671875" customWidth="1"/>
+    <col min="28" max="31" width="9.109375" style="1"/>
+    <col min="32" max="32" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="3.88671875" customWidth="1"/>
+    <col min="34" max="37" width="9.109375" style="1"/>
+    <col min="38" max="38" width="8.6640625" customWidth="1"/>
+    <col min="39" max="39" width="3.88671875" customWidth="1"/>
+    <col min="40" max="43" width="9.109375" style="1"/>
+    <col min="44" max="44" width="8.6640625" customWidth="1"/>
+    <col min="45" max="45" width="3.88671875" customWidth="1"/>
+    <col min="46" max="49" width="9.109375" style="1"/>
+    <col min="50" max="50" width="8.6640625" customWidth="1"/>
+    <col min="51" max="51" width="3.88671875" customWidth="1"/>
+    <col min="52" max="55" width="9.109375" style="1"/>
+    <col min="56" max="56" width="8.6640625" customWidth="1"/>
+    <col min="57" max="57" width="3.88671875" customWidth="1"/>
+    <col min="58" max="61" width="9.109375" style="1"/>
+    <col min="62" max="62" width="8.6640625" customWidth="1"/>
+    <col min="63" max="63" width="3.88671875" customWidth="1"/>
+    <col min="64" max="67" width="9.109375" style="1"/>
+    <col min="68" max="68" width="8.6640625" customWidth="1"/>
+    <col min="69" max="69" width="3.88671875" customWidth="1"/>
+    <col min="70" max="73" width="9.109375" style="1"/>
+    <col min="74" max="74" width="8.6640625" customWidth="1"/>
+    <col min="75" max="75" width="3.88671875" customWidth="1"/>
+    <col min="76" max="79" width="9.109375" style="1"/>
+    <col min="80" max="80" width="8.6640625" customWidth="1"/>
+    <col min="81" max="81" width="3.88671875" customWidth="1"/>
+    <col min="82" max="85" width="9.109375" style="1"/>
+    <col min="86" max="86" width="8.6640625" customWidth="1"/>
+    <col min="87" max="87" width="3.88671875" customWidth="1"/>
+    <col min="88" max="91" width="9.109375" style="1"/>
+    <col min="92" max="92" width="8.6640625" customWidth="1"/>
+    <col min="93" max="93" width="3.88671875" customWidth="1"/>
+    <col min="94" max="97" width="9.109375" style="1"/>
+    <col min="98" max="98" width="8.6640625" customWidth="1"/>
+    <col min="99" max="99" width="3.88671875" customWidth="1"/>
+    <col min="100" max="103" width="9.109375" style="1"/>
+    <col min="104" max="104" width="8.6640625" customWidth="1"/>
+    <col min="105" max="105" width="3.88671875" customWidth="1"/>
+    <col min="106" max="109" width="9.109375" style="1"/>
+    <col min="110" max="110" width="8.6640625" customWidth="1"/>
+    <col min="111" max="111" width="3.88671875" customWidth="1"/>
+    <col min="112" max="115" width="9.109375" style="1"/>
+    <col min="116" max="116" width="8.6640625" customWidth="1"/>
+    <col min="117" max="117" width="3.88671875" customWidth="1"/>
+    <col min="118" max="121" width="9.109375" style="1"/>
+    <col min="122" max="122" width="8.6640625" customWidth="1"/>
+    <col min="123" max="123" width="3.88671875" customWidth="1"/>
+    <col min="124" max="127" width="9.109375" style="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="3.88671875" customWidth="1"/>
+    <col min="130" max="132" width="9.109375" style="1"/>
+    <col min="133" max="133" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.6640625" customWidth="1"/>
+    <col min="135" max="135" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:135">
@@ -1281,181 +1280,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83">
+      <c r="D1" s="82">
         <v>42322</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="83">
+      <c r="J1" s="82">
         <v>42323</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="83">
+      <c r="P1" s="82">
         <v>42324</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="83">
+      <c r="V1" s="82">
         <v>42325</v>
       </c>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="83">
+      <c r="AB1" s="82">
         <v>42326</v>
       </c>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="83">
+      <c r="AH1" s="82">
         <v>42327</v>
       </c>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="83">
+      <c r="AN1" s="82">
         <v>42328</v>
       </c>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="83">
+      <c r="AT1" s="82">
         <v>42329</v>
       </c>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="83">
+      <c r="AZ1" s="82">
         <v>42330</v>
       </c>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="83">
+      <c r="BF1" s="82">
         <v>42331</v>
       </c>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="83"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="83">
+      <c r="BL1" s="82">
         <v>42332</v>
       </c>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="84"/>
-      <c r="BP1" s="84"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="83"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="83">
+      <c r="BR1" s="82">
         <v>42333</v>
       </c>
-      <c r="BS1" s="84"/>
-      <c r="BT1" s="84"/>
-      <c r="BU1" s="84"/>
-      <c r="BV1" s="84"/>
+      <c r="BS1" s="83"/>
+      <c r="BT1" s="83"/>
+      <c r="BU1" s="83"/>
+      <c r="BV1" s="83"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="83">
+      <c r="BX1" s="82">
         <v>42334</v>
       </c>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="84"/>
-      <c r="CA1" s="84"/>
-      <c r="CB1" s="84"/>
+      <c r="BY1" s="83"/>
+      <c r="BZ1" s="83"/>
+      <c r="CA1" s="83"/>
+      <c r="CB1" s="83"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="83">
+      <c r="CD1" s="82">
         <v>42335</v>
       </c>
-      <c r="CE1" s="84"/>
-      <c r="CF1" s="84"/>
-      <c r="CG1" s="84"/>
-      <c r="CH1" s="84"/>
+      <c r="CE1" s="83"/>
+      <c r="CF1" s="83"/>
+      <c r="CG1" s="83"/>
+      <c r="CH1" s="83"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="83">
+      <c r="CJ1" s="82">
         <v>42336</v>
       </c>
-      <c r="CK1" s="84"/>
-      <c r="CL1" s="84"/>
-      <c r="CM1" s="84"/>
-      <c r="CN1" s="84"/>
+      <c r="CK1" s="83"/>
+      <c r="CL1" s="83"/>
+      <c r="CM1" s="83"/>
+      <c r="CN1" s="83"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="83">
+      <c r="CP1" s="82">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="84"/>
-      <c r="CR1" s="84"/>
-      <c r="CS1" s="84"/>
-      <c r="CT1" s="84"/>
+      <c r="CQ1" s="83"/>
+      <c r="CR1" s="83"/>
+      <c r="CS1" s="83"/>
+      <c r="CT1" s="83"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="83">
+      <c r="CV1" s="82">
         <v>42338</v>
       </c>
-      <c r="CW1" s="84"/>
-      <c r="CX1" s="84"/>
-      <c r="CY1" s="84"/>
-      <c r="CZ1" s="84"/>
+      <c r="CW1" s="83"/>
+      <c r="CX1" s="83"/>
+      <c r="CY1" s="83"/>
+      <c r="CZ1" s="83"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="83">
+      <c r="DB1" s="82">
         <v>42339</v>
       </c>
-      <c r="DC1" s="84"/>
-      <c r="DD1" s="84"/>
-      <c r="DE1" s="84"/>
-      <c r="DF1" s="84"/>
+      <c r="DC1" s="83"/>
+      <c r="DD1" s="83"/>
+      <c r="DE1" s="83"/>
+      <c r="DF1" s="83"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="83">
+      <c r="DH1" s="82">
         <v>42340</v>
       </c>
-      <c r="DI1" s="84"/>
-      <c r="DJ1" s="84"/>
-      <c r="DK1" s="84"/>
-      <c r="DL1" s="84"/>
+      <c r="DI1" s="83"/>
+      <c r="DJ1" s="83"/>
+      <c r="DK1" s="83"/>
+      <c r="DL1" s="83"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="83">
+      <c r="DN1" s="82">
         <v>42341</v>
       </c>
-      <c r="DO1" s="84"/>
-      <c r="DP1" s="84"/>
-      <c r="DQ1" s="84"/>
-      <c r="DR1" s="84"/>
+      <c r="DO1" s="83"/>
+      <c r="DP1" s="83"/>
+      <c r="DQ1" s="83"/>
+      <c r="DR1" s="83"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="83">
+      <c r="DT1" s="82">
         <v>42342</v>
       </c>
-      <c r="DU1" s="84"/>
-      <c r="DV1" s="84"/>
-      <c r="DW1" s="84"/>
-      <c r="DX1" s="84"/>
+      <c r="DU1" s="83"/>
+      <c r="DV1" s="83"/>
+      <c r="DW1" s="83"/>
+      <c r="DX1" s="83"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="83">
+      <c r="DZ1" s="82">
         <v>42343</v>
       </c>
-      <c r="EA1" s="84"/>
-      <c r="EB1" s="84"/>
-      <c r="EC1" s="84"/>
-      <c r="ED1" s="84"/>
+      <c r="EA1" s="83"/>
+      <c r="EB1" s="83"/>
+      <c r="EC1" s="83"/>
+      <c r="ED1" s="83"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -2478,11 +2477,10 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="12"/>
@@ -2624,7 +2622,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="84" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2774,7 +2772,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3074,7 +3072,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3384,7 +3382,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3538,7 +3536,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -4112,7 +4110,7 @@
       <c r="ED17" s="10"/>
       <c r="EE17" s="12"/>
     </row>
-    <row r="18" spans="1:135" ht="30">
+    <row r="18" spans="1:135">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>68</v>
@@ -4257,7 +4255,7 @@
       <c r="ED18" s="10"/>
       <c r="EE18" s="12"/>
     </row>
-    <row r="19" spans="1:135" ht="30">
+    <row r="19" spans="1:135">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>68</v>
@@ -4400,7 +4398,7 @@
       <c r="ED19" s="10"/>
       <c r="EE19" s="12"/>
     </row>
-    <row r="20" spans="1:135" ht="30">
+    <row r="20" spans="1:135">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>68</v>
@@ -5702,7 +5700,7 @@
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="84" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="6"/>
@@ -5847,7 +5845,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="82"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -5990,7 +5988,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6586,7 +6584,9 @@
       <c r="V35" s="56">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W35" s="7"/>
+      <c r="W35" s="7">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="X35" s="8"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="52"/>
@@ -6747,10 +6747,12 @@
       <c r="AF36" s="10"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="6"/>
-      <c r="AI36" s="7"/>
+      <c r="AI36" s="7">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="AJ36" s="8"/>
       <c r="AK36" s="9"/>
-      <c r="AL36" s="10"/>
+      <c r="AL36" s="52"/>
       <c r="AM36" s="12"/>
       <c r="AN36" s="6"/>
       <c r="AO36" s="7"/>
@@ -6856,7 +6858,7 @@
       <c r="B37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="84" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6"/>
@@ -6886,16 +6888,14 @@
       <c r="AB37" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AC37" s="7"/>
+      <c r="AC37" s="7">
+        <v>0</v>
+      </c>
       <c r="AD37" s="8"/>
       <c r="AE37" s="9"/>
       <c r="AF37" s="52"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="6"/>
-      <c r="AI37" s="7"/>
-      <c r="AJ37" s="8"/>
-      <c r="AK37" s="9"/>
-      <c r="AL37" s="10"/>
       <c r="AM37" s="12"/>
       <c r="AN37" s="6"/>
       <c r="AO37" s="7"/>
@@ -7001,7 +7001,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="82"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
@@ -7282,7 +7282,7 @@
       <c r="ED39" s="10"/>
       <c r="EE39" s="12"/>
     </row>
-    <row r="40" spans="1:135" ht="30">
+    <row r="40" spans="1:135" ht="28.8">
       <c r="A40" s="2"/>
       <c r="B40" s="17" t="s">
         <v>77</v>
@@ -7425,7 +7425,7 @@
       <c r="ED40" s="10"/>
       <c r="EE40" s="12"/>
     </row>
-    <row r="41" spans="1:135" ht="30">
+    <row r="41" spans="1:135" ht="28.8">
       <c r="A41" s="2"/>
       <c r="B41" s="17" t="s">
         <v>77</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="ED63" s="16"/>
     </row>
-    <row r="64" spans="1:135" ht="15.75" thickBot="1">
+    <row r="64" spans="1:135" ht="15" thickBot="1">
       <c r="C64" s="27" t="s">
         <v>36</v>
       </c>
@@ -10904,7 +10904,7 @@
       </c>
       <c r="G64" s="29">
         <f>SUM(G3:G61)</f>
-        <v>0.125</v>
+        <v>1.125</v>
       </c>
       <c r="H64" s="31"/>
       <c r="J64" s="28">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="W64" s="29">
         <f>SUM(W3:W61)</f>
-        <v>0.29166666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="X64" s="30" t="s">
         <v>37</v>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="AI64" s="29">
         <f>SUM(AI3:AI61)</f>
-        <v>0.39583333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="AJ64" s="30" t="s">
         <v>37</v>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="E65" s="33">
         <f>G64/E64</f>
-        <v>0.75</v>
+        <v>6.75</v>
       </c>
       <c r="H65" s="34"/>
       <c r="J65" s="32" t="s">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="E66" s="33">
         <f>G64/D64</f>
-        <v>0.19999999999999996</v>
+        <v>1.7999999999999996</v>
       </c>
       <c r="H66" s="34"/>
       <c r="J66" s="32" t="s">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="E67" s="35">
         <f>1-E65</f>
-        <v>0.25</v>
+        <v>-5.75</v>
       </c>
       <c r="H67" s="34"/>
       <c r="J67" s="32" t="s">
@@ -11784,7 +11784,7 @@
       </c>
       <c r="E68" s="35">
         <f>1-E66</f>
-        <v>0.8</v>
+        <v>-0.7999999999999996</v>
       </c>
       <c r="H68" s="34"/>
       <c r="J68" s="32" t="s">
@@ -12338,6 +12338,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -12350,24 +12368,6 @@
     <mergeCell ref="BX1:CB1"/>
     <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -12383,20 +12383,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.42578125"/>
-    <col min="2" max="2" width="10.28515625"/>
+    <col min="1" max="1" width="33.44140625"/>
+    <col min="2" max="2" width="10.33203125"/>
     <col min="3" max="3" width="32"/>
     <col min="4" max="4" width="16"/>
-    <col min="5" max="5" width="12.85546875"/>
-    <col min="6" max="6" width="14.28515625"/>
-    <col min="7" max="7" width="18.7109375"/>
+    <col min="5" max="5" width="12.88671875"/>
+    <col min="6" max="6" width="14.33203125"/>
+    <col min="7" max="7" width="18.6640625"/>
     <col min="8" max="8" width="21"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="19.42578125"/>
-    <col min="11" max="11" width="23.42578125"/>
-    <col min="12" max="1025" width="8.85546875"/>
+    <col min="9" max="9" width="14.44140625"/>
+    <col min="10" max="10" width="19.44140625"/>
+    <col min="11" max="11" width="23.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -12439,13 +12438,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="56.85546875"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875"/>
+    <col min="4" max="4" width="56.88671875"/>
+    <col min="5" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="701"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="701"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="90">
   <si>
     <t>Cód.</t>
   </si>
@@ -261,12 +261,6 @@
     <t>Casos de Teste</t>
   </si>
   <si>
-    <t>Arquivo do Casos de Teste 2</t>
-  </si>
-  <si>
-    <t>Arquivo do Casos de Teste 1</t>
-  </si>
-  <si>
     <t>Criar arquivo de apresentacao PPT</t>
   </si>
   <si>
@@ -286,6 +280,15 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>Criar arquivo sprint_backlog_1.pdf</t>
+  </si>
+  <si>
+    <t>Criar do Casos de Teste 1</t>
+  </si>
+  <si>
+    <t>Criar do Casos de Teste 2</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,14 +798,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -818,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,92 +1188,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EE76"/>
+  <dimension ref="A1:EE78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AC27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="AN36" sqref="AN36"/>
+      <selection pane="bottomRight" activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.44140625"/>
-    <col min="2" max="2" width="29.44140625"/>
-    <col min="3" max="3" width="33.5546875"/>
-    <col min="4" max="5" width="11.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125"/>
+    <col min="2" max="2" width="29.42578125"/>
+    <col min="3" max="3" width="33.5703125"/>
+    <col min="4" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="3.44140625" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
     <col min="16" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9.109375" style="1"/>
-    <col min="20" max="20" width="8.6640625" customWidth="1"/>
-    <col min="21" max="21" width="3.44140625" customWidth="1"/>
-    <col min="22" max="25" width="9.109375" style="1"/>
-    <col min="26" max="26" width="8.6640625" customWidth="1"/>
-    <col min="27" max="27" width="3.88671875" customWidth="1"/>
-    <col min="28" max="31" width="9.109375" style="1"/>
-    <col min="32" max="32" width="8.6640625" customWidth="1"/>
-    <col min="33" max="33" width="3.88671875" customWidth="1"/>
-    <col min="34" max="37" width="9.109375" style="1"/>
-    <col min="38" max="38" width="8.6640625" customWidth="1"/>
-    <col min="39" max="39" width="3.88671875" customWidth="1"/>
-    <col min="40" max="43" width="9.109375" style="1"/>
-    <col min="44" max="44" width="8.6640625" customWidth="1"/>
-    <col min="45" max="45" width="3.88671875" customWidth="1"/>
-    <col min="46" max="49" width="9.109375" style="1"/>
-    <col min="50" max="50" width="8.6640625" customWidth="1"/>
-    <col min="51" max="51" width="3.88671875" customWidth="1"/>
-    <col min="52" max="55" width="9.109375" style="1"/>
-    <col min="56" max="56" width="8.6640625" customWidth="1"/>
-    <col min="57" max="57" width="3.88671875" customWidth="1"/>
-    <col min="58" max="61" width="9.109375" style="1"/>
-    <col min="62" max="62" width="8.6640625" customWidth="1"/>
-    <col min="63" max="63" width="3.88671875" customWidth="1"/>
-    <col min="64" max="67" width="9.109375" style="1"/>
-    <col min="68" max="68" width="8.6640625" customWidth="1"/>
-    <col min="69" max="69" width="3.88671875" customWidth="1"/>
-    <col min="70" max="73" width="9.109375" style="1"/>
-    <col min="74" max="74" width="8.6640625" customWidth="1"/>
-    <col min="75" max="75" width="3.88671875" customWidth="1"/>
-    <col min="76" max="79" width="9.109375" style="1"/>
-    <col min="80" max="80" width="8.6640625" customWidth="1"/>
-    <col min="81" max="81" width="3.88671875" customWidth="1"/>
-    <col min="82" max="85" width="9.109375" style="1"/>
-    <col min="86" max="86" width="8.6640625" customWidth="1"/>
-    <col min="87" max="87" width="3.88671875" customWidth="1"/>
-    <col min="88" max="91" width="9.109375" style="1"/>
-    <col min="92" max="92" width="8.6640625" customWidth="1"/>
-    <col min="93" max="93" width="3.88671875" customWidth="1"/>
-    <col min="94" max="97" width="9.109375" style="1"/>
-    <col min="98" max="98" width="8.6640625" customWidth="1"/>
-    <col min="99" max="99" width="3.88671875" customWidth="1"/>
-    <col min="100" max="103" width="9.109375" style="1"/>
-    <col min="104" max="104" width="8.6640625" customWidth="1"/>
-    <col min="105" max="105" width="3.88671875" customWidth="1"/>
-    <col min="106" max="109" width="9.109375" style="1"/>
-    <col min="110" max="110" width="8.6640625" customWidth="1"/>
-    <col min="111" max="111" width="3.88671875" customWidth="1"/>
-    <col min="112" max="115" width="9.109375" style="1"/>
-    <col min="116" max="116" width="8.6640625" customWidth="1"/>
-    <col min="117" max="117" width="3.88671875" customWidth="1"/>
-    <col min="118" max="121" width="9.109375" style="1"/>
-    <col min="122" max="122" width="8.6640625" customWidth="1"/>
-    <col min="123" max="123" width="3.88671875" customWidth="1"/>
-    <col min="124" max="127" width="9.109375" style="1"/>
-    <col min="128" max="128" width="8.6640625" customWidth="1"/>
-    <col min="129" max="129" width="3.88671875" customWidth="1"/>
-    <col min="130" max="132" width="9.109375" style="1"/>
-    <col min="133" max="133" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.6640625" customWidth="1"/>
-    <col min="135" max="135" width="3.88671875" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" customWidth="1"/>
+    <col min="22" max="25" width="9.140625" style="1"/>
+    <col min="26" max="26" width="8.7109375" customWidth="1"/>
+    <col min="27" max="27" width="3.85546875" customWidth="1"/>
+    <col min="28" max="31" width="9.140625" style="1"/>
+    <col min="32" max="32" width="8.7109375" customWidth="1"/>
+    <col min="33" max="33" width="3.85546875" customWidth="1"/>
+    <col min="34" max="37" width="9.140625" style="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1"/>
+    <col min="39" max="39" width="3.85546875" customWidth="1"/>
+    <col min="40" max="43" width="9.140625" style="1"/>
+    <col min="44" max="44" width="8.7109375" customWidth="1"/>
+    <col min="45" max="45" width="3.85546875" customWidth="1"/>
+    <col min="46" max="49" width="9.140625" style="1"/>
+    <col min="50" max="50" width="8.7109375" customWidth="1"/>
+    <col min="51" max="51" width="3.85546875" customWidth="1"/>
+    <col min="52" max="55" width="9.140625" style="1"/>
+    <col min="56" max="56" width="8.7109375" customWidth="1"/>
+    <col min="57" max="57" width="3.85546875" customWidth="1"/>
+    <col min="58" max="61" width="9.140625" style="1"/>
+    <col min="62" max="62" width="8.7109375" customWidth="1"/>
+    <col min="63" max="63" width="3.85546875" customWidth="1"/>
+    <col min="64" max="67" width="9.140625" style="1"/>
+    <col min="68" max="68" width="8.7109375" customWidth="1"/>
+    <col min="69" max="69" width="3.85546875" customWidth="1"/>
+    <col min="70" max="73" width="9.140625" style="1"/>
+    <col min="74" max="74" width="8.7109375" customWidth="1"/>
+    <col min="75" max="75" width="3.85546875" customWidth="1"/>
+    <col min="76" max="79" width="9.140625" style="1"/>
+    <col min="80" max="80" width="8.7109375" customWidth="1"/>
+    <col min="81" max="81" width="3.85546875" customWidth="1"/>
+    <col min="82" max="85" width="9.140625" style="1"/>
+    <col min="86" max="86" width="8.7109375" customWidth="1"/>
+    <col min="87" max="87" width="3.85546875" customWidth="1"/>
+    <col min="88" max="91" width="9.140625" style="1"/>
+    <col min="92" max="92" width="8.7109375" customWidth="1"/>
+    <col min="93" max="93" width="3.85546875" customWidth="1"/>
+    <col min="94" max="97" width="9.140625" style="1"/>
+    <col min="98" max="98" width="8.7109375" customWidth="1"/>
+    <col min="99" max="99" width="3.85546875" customWidth="1"/>
+    <col min="100" max="103" width="9.140625" style="1"/>
+    <col min="104" max="104" width="8.7109375" customWidth="1"/>
+    <col min="105" max="105" width="3.85546875" customWidth="1"/>
+    <col min="106" max="109" width="9.140625" style="1"/>
+    <col min="110" max="110" width="8.7109375" customWidth="1"/>
+    <col min="111" max="111" width="3.85546875" customWidth="1"/>
+    <col min="112" max="115" width="9.140625" style="1"/>
+    <col min="116" max="116" width="8.7109375" customWidth="1"/>
+    <col min="117" max="117" width="3.85546875" customWidth="1"/>
+    <col min="118" max="121" width="9.140625" style="1"/>
+    <col min="122" max="122" width="8.7109375" customWidth="1"/>
+    <col min="123" max="123" width="3.85546875" customWidth="1"/>
+    <col min="124" max="127" width="9.140625" style="1"/>
+    <col min="128" max="128" width="8.7109375" customWidth="1"/>
+    <col min="129" max="129" width="3.85546875" customWidth="1"/>
+    <col min="130" max="132" width="9.140625" style="1"/>
+    <col min="133" max="133" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.7109375" customWidth="1"/>
+    <col min="135" max="135" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:135">
@@ -1280,181 +1286,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82">
+      <c r="D1" s="83">
         <v>42322</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="82">
+      <c r="J1" s="83">
         <v>42323</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="82">
+      <c r="P1" s="83">
         <v>42324</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="82">
+      <c r="V1" s="83">
         <v>42325</v>
       </c>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="82">
+      <c r="AB1" s="83">
         <v>42326</v>
       </c>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="82">
+      <c r="AH1" s="83">
         <v>42327</v>
       </c>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="82">
+      <c r="AN1" s="83">
         <v>42328</v>
       </c>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="82">
+      <c r="AT1" s="83">
         <v>42329</v>
       </c>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="82">
+      <c r="AZ1" s="83">
         <v>42330</v>
       </c>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="82">
+      <c r="BF1" s="83">
         <v>42331</v>
       </c>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="83"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="82">
+      <c r="BL1" s="83">
         <v>42332</v>
       </c>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="83"/>
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="84"/>
+      <c r="BP1" s="84"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="82">
+      <c r="BR1" s="83">
         <v>42333</v>
       </c>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83"/>
-      <c r="BV1" s="83"/>
+      <c r="BS1" s="84"/>
+      <c r="BT1" s="84"/>
+      <c r="BU1" s="84"/>
+      <c r="BV1" s="84"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="82">
+      <c r="BX1" s="83">
         <v>42334</v>
       </c>
-      <c r="BY1" s="83"/>
-      <c r="BZ1" s="83"/>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="83"/>
+      <c r="BY1" s="84"/>
+      <c r="BZ1" s="84"/>
+      <c r="CA1" s="84"/>
+      <c r="CB1" s="84"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="82">
+      <c r="CD1" s="83">
         <v>42335</v>
       </c>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="83"/>
-      <c r="CG1" s="83"/>
-      <c r="CH1" s="83"/>
+      <c r="CE1" s="84"/>
+      <c r="CF1" s="84"/>
+      <c r="CG1" s="84"/>
+      <c r="CH1" s="84"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="82">
+      <c r="CJ1" s="83">
         <v>42336</v>
       </c>
-      <c r="CK1" s="83"/>
-      <c r="CL1" s="83"/>
-      <c r="CM1" s="83"/>
-      <c r="CN1" s="83"/>
+      <c r="CK1" s="84"/>
+      <c r="CL1" s="84"/>
+      <c r="CM1" s="84"/>
+      <c r="CN1" s="84"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="82">
+      <c r="CP1" s="83">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="83"/>
-      <c r="CR1" s="83"/>
-      <c r="CS1" s="83"/>
-      <c r="CT1" s="83"/>
+      <c r="CQ1" s="84"/>
+      <c r="CR1" s="84"/>
+      <c r="CS1" s="84"/>
+      <c r="CT1" s="84"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="82">
+      <c r="CV1" s="83">
         <v>42338</v>
       </c>
-      <c r="CW1" s="83"/>
-      <c r="CX1" s="83"/>
-      <c r="CY1" s="83"/>
-      <c r="CZ1" s="83"/>
+      <c r="CW1" s="84"/>
+      <c r="CX1" s="84"/>
+      <c r="CY1" s="84"/>
+      <c r="CZ1" s="84"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="82">
+      <c r="DB1" s="83">
         <v>42339</v>
       </c>
-      <c r="DC1" s="83"/>
-      <c r="DD1" s="83"/>
-      <c r="DE1" s="83"/>
-      <c r="DF1" s="83"/>
+      <c r="DC1" s="84"/>
+      <c r="DD1" s="84"/>
+      <c r="DE1" s="84"/>
+      <c r="DF1" s="84"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="82">
+      <c r="DH1" s="83">
         <v>42340</v>
       </c>
-      <c r="DI1" s="83"/>
-      <c r="DJ1" s="83"/>
-      <c r="DK1" s="83"/>
-      <c r="DL1" s="83"/>
+      <c r="DI1" s="84"/>
+      <c r="DJ1" s="84"/>
+      <c r="DK1" s="84"/>
+      <c r="DL1" s="84"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="82">
+      <c r="DN1" s="83">
         <v>42341</v>
       </c>
-      <c r="DO1" s="83"/>
-      <c r="DP1" s="83"/>
-      <c r="DQ1" s="83"/>
-      <c r="DR1" s="83"/>
+      <c r="DO1" s="84"/>
+      <c r="DP1" s="84"/>
+      <c r="DQ1" s="84"/>
+      <c r="DR1" s="84"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="82">
+      <c r="DT1" s="83">
         <v>42342</v>
       </c>
-      <c r="DU1" s="83"/>
-      <c r="DV1" s="83"/>
-      <c r="DW1" s="83"/>
-      <c r="DX1" s="83"/>
+      <c r="DU1" s="84"/>
+      <c r="DV1" s="84"/>
+      <c r="DW1" s="84"/>
+      <c r="DX1" s="84"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="82">
+      <c r="DZ1" s="83">
         <v>42343</v>
       </c>
-      <c r="EA1" s="83"/>
-      <c r="EB1" s="83"/>
-      <c r="EC1" s="83"/>
-      <c r="ED1" s="83"/>
+      <c r="EA1" s="84"/>
+      <c r="EB1" s="84"/>
+      <c r="EC1" s="84"/>
+      <c r="ED1" s="84"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -1897,7 +1903,9 @@
       <c r="AT3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AU3" s="77"/>
+      <c r="AU3" s="72">
+        <v>0</v>
+      </c>
       <c r="AV3" s="74"/>
       <c r="AW3" s="74"/>
       <c r="AX3" s="75"/>
@@ -1905,7 +1913,9 @@
       <c r="AZ3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="BA3" s="77"/>
+      <c r="BA3" s="72">
+        <v>0</v>
+      </c>
       <c r="BB3" s="74"/>
       <c r="BC3" s="74"/>
       <c r="BD3" s="75"/>
@@ -1913,7 +1923,9 @@
       <c r="BF3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="BG3" s="77"/>
+      <c r="BG3" s="72">
+        <v>0</v>
+      </c>
       <c r="BH3" s="74"/>
       <c r="BI3" s="74"/>
       <c r="BJ3" s="75"/>
@@ -1921,7 +1933,9 @@
       <c r="BL3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="BM3" s="77"/>
+      <c r="BM3" s="72">
+        <v>0</v>
+      </c>
       <c r="BN3" s="74"/>
       <c r="BO3" s="74"/>
       <c r="BP3" s="75"/>
@@ -1929,7 +1943,9 @@
       <c r="BR3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="BS3" s="77"/>
+      <c r="BS3" s="72">
+        <v>0</v>
+      </c>
       <c r="BT3" s="74"/>
       <c r="BU3" s="74"/>
       <c r="BV3" s="75"/>
@@ -1937,7 +1953,9 @@
       <c r="BX3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="BY3" s="77"/>
+      <c r="BY3" s="72">
+        <v>0</v>
+      </c>
       <c r="BZ3" s="74"/>
       <c r="CA3" s="74"/>
       <c r="CB3" s="75"/>
@@ -1945,7 +1963,9 @@
       <c r="CD3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CE3" s="77"/>
+      <c r="CE3" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="CF3" s="74"/>
       <c r="CG3" s="74"/>
       <c r="CH3" s="75"/>
@@ -2622,7 +2642,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="82" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2772,7 +2792,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3072,7 +3092,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3382,7 +3402,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3536,7 +3556,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -4110,13 +4130,13 @@
       <c r="ED17" s="10"/>
       <c r="EE17" s="12"/>
     </row>
-    <row r="18" spans="1:135">
+    <row r="18" spans="1:135" ht="30">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -4201,7 +4221,9 @@
       <c r="CD18" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CE18" s="7"/>
+      <c r="CE18" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="CF18" s="8"/>
       <c r="CG18" s="9"/>
       <c r="CH18" s="53"/>
@@ -4255,13 +4277,13 @@
       <c r="ED18" s="10"/>
       <c r="EE18" s="12"/>
     </row>
-    <row r="19" spans="1:135">
+    <row r="19" spans="1:135" ht="30">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -4398,13 +4420,13 @@
       <c r="ED19" s="10"/>
       <c r="EE19" s="12"/>
     </row>
-    <row r="20" spans="1:135">
+    <row r="20" spans="1:135" ht="30">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -4980,7 +5002,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -5018,13 +5040,11 @@
       <c r="AK24" s="9"/>
       <c r="AL24" s="10"/>
       <c r="AM24" s="12"/>
-      <c r="AN24" s="56">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="AN24" s="56"/>
       <c r="AO24" s="7"/>
       <c r="AP24" s="8"/>
       <c r="AQ24" s="9"/>
-      <c r="AR24" s="80"/>
+      <c r="AR24" s="63"/>
       <c r="AS24" s="12"/>
       <c r="AT24" s="6"/>
       <c r="AU24" s="7"/>
@@ -5063,12 +5083,14 @@
       <c r="CB24" s="10"/>
       <c r="CC24" s="12"/>
       <c r="CD24" s="6">
+        <v>0</v>
+      </c>
+      <c r="CE24" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CE24" s="7"/>
       <c r="CF24" s="8"/>
       <c r="CG24" s="9"/>
-      <c r="CH24" s="52"/>
+      <c r="CH24" s="53"/>
       <c r="CI24" s="12"/>
       <c r="CJ24" s="6"/>
       <c r="CK24" s="7"/>
@@ -5120,14 +5142,12 @@
       <c r="EE24" s="12"/>
     </row>
     <row r="25" spans="1:135">
-      <c r="A25" s="2">
-        <v>16</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>23</v>
+      <c r="C25" s="67" t="s">
+        <v>87</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -5165,11 +5185,13 @@
       <c r="AK25" s="9"/>
       <c r="AL25" s="10"/>
       <c r="AM25" s="12"/>
-      <c r="AN25" s="6"/>
+      <c r="AN25" s="56">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AO25" s="7"/>
       <c r="AP25" s="8"/>
       <c r="AQ25" s="9"/>
-      <c r="AR25" s="10"/>
+      <c r="AR25" s="80"/>
       <c r="AS25" s="12"/>
       <c r="AT25" s="6"/>
       <c r="AU25" s="7"/>
@@ -5207,19 +5229,19 @@
       <c r="CA25" s="9"/>
       <c r="CB25" s="10"/>
       <c r="CC25" s="12"/>
-      <c r="CD25" s="6"/>
+      <c r="CD25" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CE25" s="7"/>
       <c r="CF25" s="8"/>
       <c r="CG25" s="9"/>
-      <c r="CH25" s="10"/>
+      <c r="CH25" s="52"/>
       <c r="CI25" s="12"/>
-      <c r="CJ25" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="CJ25" s="6"/>
       <c r="CK25" s="7"/>
       <c r="CL25" s="8"/>
       <c r="CM25" s="9"/>
-      <c r="CN25" s="52"/>
+      <c r="CN25" s="10"/>
       <c r="CO25" s="12"/>
       <c r="CP25" s="6"/>
       <c r="CQ25" s="7"/>
@@ -5266,12 +5288,14 @@
     </row>
     <row r="26" spans="1:135">
       <c r="A26" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="88"/>
+      <c r="C26" s="87" t="s">
+        <v>23</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
@@ -5362,7 +5386,7 @@
       <c r="CK26" s="7"/>
       <c r="CL26" s="8"/>
       <c r="CM26" s="9"/>
-      <c r="CN26" s="54"/>
+      <c r="CN26" s="52"/>
       <c r="CO26" s="12"/>
       <c r="CP26" s="6"/>
       <c r="CQ26" s="7"/>
@@ -5408,13 +5432,13 @@
       <c r="EE26" s="12"/>
     </row>
     <row r="27" spans="1:135">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>17</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>82</v>
-      </c>
+      <c r="C27" s="88"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -5493,15 +5517,15 @@
       <c r="CA27" s="9"/>
       <c r="CB27" s="10"/>
       <c r="CC27" s="12"/>
-      <c r="CD27" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="CD27" s="6"/>
       <c r="CE27" s="7"/>
       <c r="CF27" s="8"/>
       <c r="CG27" s="9"/>
-      <c r="CH27" s="53"/>
+      <c r="CH27" s="10"/>
       <c r="CI27" s="12"/>
-      <c r="CJ27" s="6"/>
+      <c r="CJ27" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="CK27" s="7"/>
       <c r="CL27" s="8"/>
       <c r="CM27" s="9"/>
@@ -5551,14 +5575,12 @@
       <c r="EE27" s="12"/>
     </row>
     <row r="28" spans="1:135">
-      <c r="A28" s="2">
-        <v>18</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -5638,17 +5660,21 @@
       <c r="CA28" s="9"/>
       <c r="CB28" s="10"/>
       <c r="CC28" s="12"/>
-      <c r="CD28" s="6"/>
-      <c r="CE28" s="7"/>
+      <c r="CD28" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="CE28" s="7">
+        <v>0</v>
+      </c>
       <c r="CF28" s="8"/>
       <c r="CG28" s="9"/>
-      <c r="CH28" s="10"/>
+      <c r="CH28" s="53"/>
       <c r="CI28" s="12"/>
       <c r="CJ28" s="6"/>
       <c r="CK28" s="7"/>
       <c r="CL28" s="8"/>
       <c r="CM28" s="9"/>
-      <c r="CN28" s="10"/>
+      <c r="CN28" s="54"/>
       <c r="CO28" s="12"/>
       <c r="CP28" s="6"/>
       <c r="CQ28" s="7"/>
@@ -5695,13 +5721,13 @@
     </row>
     <row r="29" spans="1:135">
       <c r="A29" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="84" t="s">
-        <v>23</v>
+      <c r="C29" s="46" t="s">
+        <v>73</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -5829,23 +5855,23 @@
       <c r="DW29" s="9"/>
       <c r="DX29" s="10"/>
       <c r="DY29" s="12"/>
-      <c r="DZ29" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="DZ29" s="6"/>
       <c r="EA29" s="7"/>
       <c r="EB29" s="8"/>
-      <c r="EC29" s="8"/>
-      <c r="ED29" s="53"/>
+      <c r="EC29" s="9"/>
+      <c r="ED29" s="10"/>
       <c r="EE29" s="12"/>
     </row>
     <row r="30" spans="1:135">
       <c r="A30" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="84"/>
+      <c r="C30" s="82" t="s">
+        <v>23</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -5977,18 +6003,18 @@
       </c>
       <c r="EA30" s="7"/>
       <c r="EB30" s="8"/>
-      <c r="EC30" s="9"/>
-      <c r="ED30" s="52"/>
+      <c r="EC30" s="8"/>
+      <c r="ED30" s="53"/>
       <c r="EE30" s="12"/>
     </row>
     <row r="31" spans="1:135">
       <c r="A31" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="84"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6121,17 +6147,17 @@
       <c r="EA31" s="7"/>
       <c r="EB31" s="8"/>
       <c r="EC31" s="9"/>
-      <c r="ED31" s="54"/>
+      <c r="ED31" s="52"/>
       <c r="EE31" s="12"/>
     </row>
     <row r="32" spans="1:135">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>21</v>
+      </c>
       <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="68" t="s">
-        <v>87</v>
-      </c>
+      <c r="C32" s="82"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -6168,7 +6194,7 @@
       <c r="AK32" s="9"/>
       <c r="AL32" s="10"/>
       <c r="AM32" s="12"/>
-      <c r="AN32" s="56"/>
+      <c r="AN32" s="6"/>
       <c r="AO32" s="7"/>
       <c r="AP32" s="8"/>
       <c r="AQ32" s="9"/>
@@ -6252,15 +6278,15 @@
       <c r="DQ32" s="9"/>
       <c r="DR32" s="10"/>
       <c r="DS32" s="12"/>
-      <c r="DT32" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="DT32" s="6"/>
       <c r="DU32" s="7"/>
       <c r="DV32" s="8"/>
       <c r="DW32" s="9"/>
-      <c r="DX32" s="54"/>
+      <c r="DX32" s="10"/>
       <c r="DY32" s="12"/>
-      <c r="DZ32" s="6"/>
+      <c r="DZ32" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="EA32" s="7"/>
       <c r="EB32" s="8"/>
       <c r="EC32" s="9"/>
@@ -6272,8 +6298,8 @@
       <c r="B33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="67" t="s">
-        <v>83</v>
+      <c r="C33" s="68" t="s">
+        <v>85</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -6315,7 +6341,7 @@
       <c r="AO33" s="7"/>
       <c r="AP33" s="8"/>
       <c r="AQ33" s="9"/>
-      <c r="AR33" s="42"/>
+      <c r="AR33" s="10"/>
       <c r="AS33" s="12"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="7"/>
@@ -6353,13 +6379,11 @@
       <c r="CA33" s="9"/>
       <c r="CB33" s="10"/>
       <c r="CC33" s="12"/>
-      <c r="CD33" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="CD33" s="6"/>
       <c r="CE33" s="7"/>
       <c r="CF33" s="8"/>
       <c r="CG33" s="9"/>
-      <c r="CH33" s="52"/>
+      <c r="CH33" s="10"/>
       <c r="CI33" s="12"/>
       <c r="CJ33" s="6"/>
       <c r="CK33" s="7"/>
@@ -6398,18 +6422,18 @@
       <c r="DR33" s="10"/>
       <c r="DS33" s="12"/>
       <c r="DT33" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="DU33" s="7"/>
       <c r="DV33" s="8"/>
       <c r="DW33" s="9"/>
-      <c r="DX33" s="52"/>
+      <c r="DX33" s="54"/>
       <c r="DY33" s="12"/>
       <c r="DZ33" s="6"/>
       <c r="EA33" s="7"/>
       <c r="EB33" s="8"/>
       <c r="EC33" s="9"/>
-      <c r="ED33" s="10"/>
+      <c r="ED33" s="54"/>
       <c r="EE33" s="12"/>
     </row>
     <row r="34" spans="1:135">
@@ -6417,8 +6441,8 @@
       <c r="B34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>82</v>
+      <c r="C34" s="67" t="s">
+        <v>81</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -6456,11 +6480,11 @@
       <c r="AK34" s="9"/>
       <c r="AL34" s="10"/>
       <c r="AM34" s="12"/>
-      <c r="AN34" s="6"/>
+      <c r="AN34" s="56"/>
       <c r="AO34" s="7"/>
       <c r="AP34" s="8"/>
       <c r="AQ34" s="9"/>
-      <c r="AR34" s="10"/>
+      <c r="AR34" s="42"/>
       <c r="AS34" s="12"/>
       <c r="AT34" s="6"/>
       <c r="AU34" s="7"/>
@@ -6498,17 +6522,19 @@
       <c r="CA34" s="9"/>
       <c r="CB34" s="10"/>
       <c r="CC34" s="12"/>
-      <c r="CD34" s="6"/>
+      <c r="CD34" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CE34" s="7"/>
       <c r="CF34" s="8"/>
       <c r="CG34" s="9"/>
-      <c r="CH34" s="10"/>
+      <c r="CH34" s="52"/>
       <c r="CI34" s="12"/>
       <c r="CJ34" s="6"/>
       <c r="CK34" s="7"/>
       <c r="CL34" s="8"/>
       <c r="CM34" s="9"/>
-      <c r="CN34" s="54"/>
+      <c r="CN34" s="10"/>
       <c r="CO34" s="12"/>
       <c r="CP34" s="6"/>
       <c r="CQ34" s="7"/>
@@ -6546,7 +6572,7 @@
       <c r="DU34" s="7"/>
       <c r="DV34" s="8"/>
       <c r="DW34" s="9"/>
-      <c r="DX34" s="53"/>
+      <c r="DX34" s="52"/>
       <c r="DY34" s="12"/>
       <c r="DZ34" s="6"/>
       <c r="EA34" s="7"/>
@@ -6557,11 +6583,11 @@
     </row>
     <row r="35" spans="1:135">
       <c r="A35" s="2"/>
-      <c r="B35" s="17" t="s">
-        <v>13</v>
+      <c r="B35" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -6581,15 +6607,11 @@
       <c r="S35" s="9"/>
       <c r="T35" s="10"/>
       <c r="U35" s="12"/>
-      <c r="V35" s="56">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W35" s="7">
-        <v>0.10416666666666667</v>
-      </c>
+      <c r="V35" s="6"/>
+      <c r="W35" s="7"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="9"/>
-      <c r="Z35" s="52"/>
+      <c r="Z35" s="10"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="7"/>
@@ -6597,15 +6619,11 @@
       <c r="AE35" s="9"/>
       <c r="AF35" s="10"/>
       <c r="AG35" s="12"/>
-      <c r="AH35" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AI35" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="7"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="9"/>
-      <c r="AL35" s="53"/>
+      <c r="AL35" s="10"/>
       <c r="AM35" s="12"/>
       <c r="AN35" s="6"/>
       <c r="AO35" s="7"/>
@@ -6659,7 +6677,7 @@
       <c r="CK35" s="7"/>
       <c r="CL35" s="8"/>
       <c r="CM35" s="9"/>
-      <c r="CN35" s="10"/>
+      <c r="CN35" s="54"/>
       <c r="CO35" s="12"/>
       <c r="CP35" s="6"/>
       <c r="CQ35" s="7"/>
@@ -6691,17 +6709,19 @@
       <c r="DQ35" s="9"/>
       <c r="DR35" s="10"/>
       <c r="DS35" s="12"/>
-      <c r="DT35" s="6"/>
+      <c r="DT35" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DU35" s="7"/>
       <c r="DV35" s="8"/>
       <c r="DW35" s="9"/>
-      <c r="DX35" s="10"/>
+      <c r="DX35" s="53"/>
       <c r="DY35" s="12"/>
       <c r="DZ35" s="6"/>
       <c r="EA35" s="7"/>
       <c r="EB35" s="8"/>
       <c r="EC35" s="9"/>
-      <c r="ED35" s="50"/>
+      <c r="ED35" s="10"/>
       <c r="EE35" s="12"/>
     </row>
     <row r="36" spans="1:135">
@@ -6734,11 +6754,11 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="W36" s="7">
-        <v>6.25E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="X36" s="8"/>
       <c r="Y36" s="9"/>
-      <c r="Z36" s="54"/>
+      <c r="Z36" s="52"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="7"/>
@@ -6746,13 +6766,15 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="10"/>
       <c r="AG36" s="12"/>
-      <c r="AH36" s="6"/>
+      <c r="AH36" s="6">
+        <v>0.125</v>
+      </c>
       <c r="AI36" s="7">
-        <v>0.10416666666666667</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AJ36" s="8"/>
       <c r="AK36" s="9"/>
-      <c r="AL36" s="52"/>
+      <c r="AL36" s="53"/>
       <c r="AM36" s="12"/>
       <c r="AN36" s="6"/>
       <c r="AO36" s="7"/>
@@ -6851,15 +6873,13 @@
       <c r="ED36" s="50"/>
       <c r="EE36" s="12"/>
     </row>
-    <row r="37" spans="1:135" ht="14.1" customHeight="1">
-      <c r="A37" s="2">
-        <v>22</v>
-      </c>
+    <row r="37" spans="1:135">
+      <c r="A37" s="2"/>
       <c r="B37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="84" t="s">
-        <v>14</v>
+      <c r="C37" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
@@ -6879,23 +6899,29 @@
       <c r="S37" s="9"/>
       <c r="T37" s="10"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="22"/>
+      <c r="V37" s="56">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W37" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="54"/>
       <c r="AA37" s="12"/>
-      <c r="AB37" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC37" s="7">
-        <v>0</v>
-      </c>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="7"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="9"/>
-      <c r="AF37" s="52"/>
+      <c r="AF37" s="10"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="6"/>
+      <c r="AI37" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="52"/>
       <c r="AM37" s="12"/>
       <c r="AN37" s="6"/>
       <c r="AO37" s="7"/>
@@ -6991,17 +7017,19 @@
       <c r="EA37" s="7"/>
       <c r="EB37" s="8"/>
       <c r="EC37" s="9"/>
-      <c r="ED37" s="10"/>
+      <c r="ED37" s="50"/>
       <c r="EE37" s="12"/>
     </row>
-    <row r="38" spans="1:135">
+    <row r="38" spans="1:135" ht="14.1" customHeight="1">
       <c r="A38" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="84"/>
+      <c r="C38" s="82" t="s">
+        <v>14</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
@@ -7026,21 +7054,17 @@
       <c r="Y38" s="55"/>
       <c r="Z38" s="22"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="7"/>
+      <c r="AB38" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0</v>
+      </c>
       <c r="AD38" s="8"/>
       <c r="AE38" s="9"/>
-      <c r="AF38" s="10"/>
+      <c r="AF38" s="52"/>
       <c r="AG38" s="12"/>
-      <c r="AH38" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AI38" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="9"/>
-      <c r="AL38" s="54"/>
+      <c r="AH38" s="6"/>
       <c r="AM38" s="12"/>
       <c r="AN38" s="6"/>
       <c r="AO38" s="7"/>
@@ -7141,14 +7165,12 @@
     </row>
     <row r="39" spans="1:135">
       <c r="A39" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="C39" s="82"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -7167,11 +7189,11 @@
       <c r="S39" s="9"/>
       <c r="T39" s="10"/>
       <c r="U39" s="12"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="10"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="22"/>
       <c r="AA39" s="12"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="7"/>
@@ -7179,11 +7201,15 @@
       <c r="AE39" s="9"/>
       <c r="AF39" s="10"/>
       <c r="AG39" s="12"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="7"/>
+      <c r="AH39" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AI39" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="9"/>
-      <c r="AL39" s="10"/>
+      <c r="AL39" s="54"/>
       <c r="AM39" s="12"/>
       <c r="AN39" s="6"/>
       <c r="AO39" s="7"/>
@@ -7282,13 +7308,15 @@
       <c r="ED39" s="10"/>
       <c r="EE39" s="12"/>
     </row>
-    <row r="40" spans="1:135" ht="28.8">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:135">
+      <c r="A40" s="2">
+        <v>24</v>
+      </c>
       <c r="B40" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>86</v>
+        <v>13</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -7332,13 +7360,11 @@
       <c r="AQ40" s="9"/>
       <c r="AR40" s="10"/>
       <c r="AS40" s="12"/>
-      <c r="AT40" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="AT40" s="6"/>
       <c r="AU40" s="7"/>
       <c r="AV40" s="8"/>
       <c r="AW40" s="9"/>
-      <c r="AX40" s="54"/>
+      <c r="AX40" s="10"/>
       <c r="AY40" s="12"/>
       <c r="AZ40" s="6"/>
       <c r="BA40" s="7"/>
@@ -7425,13 +7451,13 @@
       <c r="ED40" s="10"/>
       <c r="EE40" s="12"/>
     </row>
-    <row r="41" spans="1:135" ht="28.8">
+    <row r="41" spans="1:135" ht="30">
       <c r="A41" s="2"/>
       <c r="B41" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -7475,11 +7501,13 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="10"/>
       <c r="AS41" s="12"/>
-      <c r="AT41" s="6"/>
+      <c r="AT41" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AU41" s="7"/>
       <c r="AV41" s="8"/>
       <c r="AW41" s="9"/>
-      <c r="AX41" s="50"/>
+      <c r="AX41" s="54"/>
       <c r="AY41" s="12"/>
       <c r="AZ41" s="6"/>
       <c r="BA41" s="7"/>
@@ -7517,13 +7545,11 @@
       <c r="CG41" s="9"/>
       <c r="CH41" s="10"/>
       <c r="CI41" s="12"/>
-      <c r="CJ41" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="CJ41" s="6"/>
       <c r="CK41" s="7"/>
       <c r="CL41" s="8"/>
       <c r="CM41" s="9"/>
-      <c r="CN41" s="54"/>
+      <c r="CN41" s="10"/>
       <c r="CO41" s="12"/>
       <c r="CP41" s="6"/>
       <c r="CQ41" s="7"/>
@@ -7568,10 +7594,14 @@
       <c r="ED41" s="10"/>
       <c r="EE41" s="12"/>
     </row>
-    <row r="42" spans="1:135">
+    <row r="42" spans="1:135" ht="30">
       <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
@@ -7656,7 +7686,9 @@
       <c r="CG42" s="9"/>
       <c r="CH42" s="10"/>
       <c r="CI42" s="12"/>
-      <c r="CJ42" s="6"/>
+      <c r="CJ42" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="CK42" s="7"/>
       <c r="CL42" s="8"/>
       <c r="CM42" s="9"/>
@@ -7707,12 +7739,8 @@
     </row>
     <row r="43" spans="1:135">
       <c r="A43" s="2"/>
-      <c r="B43" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>81</v>
-      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
@@ -7791,13 +7819,11 @@
       <c r="CA43" s="9"/>
       <c r="CB43" s="10"/>
       <c r="CC43" s="12"/>
-      <c r="CD43" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="CD43" s="6"/>
       <c r="CE43" s="7"/>
       <c r="CF43" s="8"/>
       <c r="CG43" s="9"/>
-      <c r="CH43" s="54"/>
+      <c r="CH43" s="10"/>
       <c r="CI43" s="12"/>
       <c r="CJ43" s="6"/>
       <c r="CK43" s="7"/>
@@ -7854,7 +7880,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
@@ -7934,11 +7960,15 @@
       <c r="CA44" s="9"/>
       <c r="CB44" s="10"/>
       <c r="CC44" s="12"/>
-      <c r="CD44" s="6"/>
-      <c r="CE44" s="7"/>
+      <c r="CD44" s="6">
+        <v>0</v>
+      </c>
+      <c r="CE44" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="CF44" s="8"/>
       <c r="CG44" s="9"/>
-      <c r="CH44" s="10"/>
+      <c r="CH44" s="53"/>
       <c r="CI44" s="12"/>
       <c r="CJ44" s="6"/>
       <c r="CK44" s="7"/>
@@ -7976,13 +8006,11 @@
       <c r="DQ44" s="9"/>
       <c r="DR44" s="10"/>
       <c r="DS44" s="12"/>
-      <c r="DT44" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="DT44" s="6"/>
       <c r="DU44" s="7"/>
       <c r="DV44" s="8"/>
       <c r="DW44" s="9"/>
-      <c r="DX44" s="54"/>
+      <c r="DX44" s="10"/>
       <c r="DY44" s="12"/>
       <c r="DZ44" s="6"/>
       <c r="EA44" s="7"/>
@@ -7992,14 +8020,12 @@
       <c r="EE44" s="12"/>
     </row>
     <row r="45" spans="1:135">
-      <c r="A45" s="2">
-        <v>25</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>17</v>
+        <v>79</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -8025,25 +8051,17 @@
       <c r="Y45" s="9"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="6">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AC45" s="7">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="7"/>
       <c r="AD45" s="8"/>
       <c r="AE45" s="9"/>
-      <c r="AF45" s="53"/>
+      <c r="AF45" s="10"/>
       <c r="AG45" s="12"/>
-      <c r="AH45" s="57">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="58">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ45" s="59"/>
-      <c r="AK45" s="60"/>
-      <c r="AL45" s="79"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="10"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="6"/>
       <c r="AO45" s="7"/>
@@ -8055,7 +8073,7 @@
       <c r="AU45" s="7"/>
       <c r="AV45" s="8"/>
       <c r="AW45" s="9"/>
-      <c r="AX45" s="10"/>
+      <c r="AX45" s="50"/>
       <c r="AY45" s="12"/>
       <c r="AZ45" s="6"/>
       <c r="BA45" s="7"/>
@@ -8087,17 +8105,19 @@
       <c r="CA45" s="9"/>
       <c r="CB45" s="10"/>
       <c r="CC45" s="12"/>
-      <c r="CD45" s="6"/>
+      <c r="CD45" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="CE45" s="7"/>
       <c r="CF45" s="8"/>
       <c r="CG45" s="9"/>
-      <c r="CH45" s="10"/>
+      <c r="CH45" s="54"/>
       <c r="CI45" s="12"/>
       <c r="CJ45" s="6"/>
       <c r="CK45" s="7"/>
       <c r="CL45" s="8"/>
       <c r="CM45" s="9"/>
-      <c r="CN45" s="10"/>
+      <c r="CN45" s="54"/>
       <c r="CO45" s="12"/>
       <c r="CP45" s="6"/>
       <c r="CQ45" s="7"/>
@@ -8143,14 +8163,12 @@
       <c r="EE45" s="12"/>
     </row>
     <row r="46" spans="1:135">
-      <c r="A46" s="2">
-        <v>26</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>18</v>
+        <v>79</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -8176,20 +8194,17 @@
       <c r="Y46" s="9"/>
       <c r="Z46" s="10"/>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="AC46" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="7"/>
       <c r="AD46" s="8"/>
       <c r="AE46" s="9"/>
-      <c r="AF46" s="54"/>
+      <c r="AF46" s="10"/>
       <c r="AG46" s="12"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="8"/>
       <c r="AK46" s="9"/>
+      <c r="AL46" s="10"/>
       <c r="AM46" s="12"/>
       <c r="AN46" s="6"/>
       <c r="AO46" s="7"/>
@@ -8201,7 +8216,7 @@
       <c r="AU46" s="7"/>
       <c r="AV46" s="8"/>
       <c r="AW46" s="9"/>
-      <c r="AX46" s="10"/>
+      <c r="AX46" s="50"/>
       <c r="AY46" s="12"/>
       <c r="AZ46" s="6"/>
       <c r="BA46" s="7"/>
@@ -8243,7 +8258,7 @@
       <c r="CK46" s="7"/>
       <c r="CL46" s="8"/>
       <c r="CM46" s="9"/>
-      <c r="CN46" s="10"/>
+      <c r="CN46" s="54"/>
       <c r="CO46" s="12"/>
       <c r="CP46" s="6"/>
       <c r="CQ46" s="7"/>
@@ -8275,11 +8290,13 @@
       <c r="DQ46" s="9"/>
       <c r="DR46" s="10"/>
       <c r="DS46" s="12"/>
-      <c r="DT46" s="6"/>
+      <c r="DT46" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="DU46" s="7"/>
       <c r="DV46" s="8"/>
       <c r="DW46" s="9"/>
-      <c r="DX46" s="10"/>
+      <c r="DX46" s="54"/>
       <c r="DY46" s="12"/>
       <c r="DZ46" s="6"/>
       <c r="EA46" s="7"/>
@@ -8289,12 +8306,14 @@
       <c r="EE46" s="12"/>
     </row>
     <row r="47" spans="1:135">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2">
+        <v>25</v>
+      </c>
       <c r="B47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="46" t="s">
-        <v>85</v>
+      <c r="C47" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -8320,25 +8339,31 @@
       <c r="Y47" s="9"/>
       <c r="Z47" s="10"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="7"/>
+      <c r="AB47" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AC47" s="7">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="AD47" s="8"/>
       <c r="AE47" s="9"/>
-      <c r="AF47" s="10"/>
+      <c r="AF47" s="53"/>
       <c r="AG47" s="12"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="7"/>
-      <c r="AJ47" s="8"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="69"/>
+      <c r="AH47" s="57">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="58">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ47" s="59"/>
+      <c r="AK47" s="60"/>
+      <c r="AL47" s="79"/>
       <c r="AM47" s="12"/>
-      <c r="AN47" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="AN47" s="6"/>
       <c r="AO47" s="7"/>
       <c r="AP47" s="8"/>
       <c r="AQ47" s="9"/>
-      <c r="AR47" s="53"/>
+      <c r="AR47" s="10"/>
       <c r="AS47" s="12"/>
       <c r="AT47" s="6"/>
       <c r="AU47" s="7"/>
@@ -8431,341 +8456,304 @@
       <c r="ED47" s="10"/>
       <c r="EE47" s="12"/>
     </row>
-    <row r="48" spans="1:135" ht="14.1" customHeight="1">
+    <row r="48" spans="1:135">
       <c r="A48" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="18"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="10"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="69"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10"/>
       <c r="O48" s="12"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="9"/>
       <c r="T48" s="10"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="9"/>
       <c r="Z48" s="10"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="18"/>
-      <c r="AE48" s="18"/>
-      <c r="AF48" s="10"/>
+      <c r="AB48" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="AC48" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="54"/>
       <c r="AG48" s="12"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="18"/>
-      <c r="AJ48" s="18"/>
-      <c r="AK48" s="18"/>
-      <c r="AL48" s="10"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="9"/>
       <c r="AM48" s="12"/>
-      <c r="AN48" s="14"/>
-      <c r="AO48" s="18"/>
-      <c r="AP48" s="18"/>
-      <c r="AQ48" s="18"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="8"/>
+      <c r="AQ48" s="9"/>
       <c r="AR48" s="10"/>
       <c r="AS48" s="12"/>
-      <c r="AT48" s="14"/>
-      <c r="AU48" s="18"/>
-      <c r="AV48" s="18"/>
-      <c r="AW48" s="18"/>
+      <c r="AT48" s="6"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="8"/>
+      <c r="AW48" s="9"/>
       <c r="AX48" s="10"/>
       <c r="AY48" s="12"/>
-      <c r="AZ48" s="14"/>
-      <c r="BA48" s="18"/>
-      <c r="BB48" s="18"/>
-      <c r="BC48" s="18"/>
+      <c r="AZ48" s="6"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" s="8"/>
+      <c r="BC48" s="9"/>
       <c r="BD48" s="10"/>
       <c r="BE48" s="12"/>
-      <c r="BF48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BG48" s="18"/>
-      <c r="BH48" s="18"/>
-      <c r="BI48" s="18"/>
-      <c r="BJ48" s="52"/>
+      <c r="BF48" s="6"/>
+      <c r="BG48" s="7"/>
+      <c r="BH48" s="8"/>
+      <c r="BI48" s="9"/>
+      <c r="BJ48" s="10"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BM48" s="18"/>
-      <c r="BN48" s="18"/>
-      <c r="BO48" s="18"/>
-      <c r="BP48" s="52"/>
+      <c r="BL48" s="6"/>
+      <c r="BM48" s="7"/>
+      <c r="BN48" s="8"/>
+      <c r="BO48" s="9"/>
+      <c r="BP48" s="10"/>
       <c r="BQ48" s="12"/>
-      <c r="BR48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BS48" s="18"/>
-      <c r="BT48" s="18"/>
-      <c r="BU48" s="18"/>
-      <c r="BV48" s="52"/>
+      <c r="BR48" s="6"/>
+      <c r="BS48" s="7"/>
+      <c r="BT48" s="8"/>
+      <c r="BU48" s="9"/>
+      <c r="BV48" s="10"/>
       <c r="BW48" s="12"/>
-      <c r="BX48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BY48" s="18"/>
-      <c r="BZ48" s="18"/>
-      <c r="CA48" s="18"/>
-      <c r="CB48" s="52"/>
+      <c r="BX48" s="6"/>
+      <c r="BY48" s="7"/>
+      <c r="BZ48" s="8"/>
+      <c r="CA48" s="9"/>
+      <c r="CB48" s="10"/>
       <c r="CC48" s="12"/>
-      <c r="CD48" s="14"/>
-      <c r="CE48" s="18"/>
-      <c r="CF48" s="18"/>
-      <c r="CG48" s="18"/>
+      <c r="CD48" s="6"/>
+      <c r="CE48" s="7"/>
+      <c r="CF48" s="8"/>
+      <c r="CG48" s="9"/>
       <c r="CH48" s="10"/>
       <c r="CI48" s="12"/>
-      <c r="CJ48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="CK48" s="18"/>
-      <c r="CL48" s="18"/>
-      <c r="CM48" s="18"/>
-      <c r="CN48" s="52"/>
+      <c r="CJ48" s="6"/>
+      <c r="CK48" s="7"/>
+      <c r="CL48" s="8"/>
+      <c r="CM48" s="9"/>
+      <c r="CN48" s="10"/>
       <c r="CO48" s="12"/>
-      <c r="CP48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="CQ48" s="18"/>
-      <c r="CR48" s="18"/>
-      <c r="CS48" s="18"/>
-      <c r="CT48" s="52"/>
+      <c r="CP48" s="6"/>
+      <c r="CQ48" s="7"/>
+      <c r="CR48" s="8"/>
+      <c r="CS48" s="9"/>
+      <c r="CT48" s="10"/>
       <c r="CU48" s="12"/>
-      <c r="CV48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="CW48" s="18"/>
-      <c r="CX48" s="18"/>
-      <c r="CY48" s="18"/>
-      <c r="CZ48" s="52"/>
+      <c r="CV48" s="6"/>
+      <c r="CW48" s="7"/>
+      <c r="CX48" s="8"/>
+      <c r="CY48" s="9"/>
+      <c r="CZ48" s="10"/>
       <c r="DA48" s="12"/>
-      <c r="DB48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="DC48" s="18"/>
-      <c r="DD48" s="18"/>
-      <c r="DE48" s="18"/>
-      <c r="DF48" s="52"/>
+      <c r="DB48" s="6"/>
+      <c r="DC48" s="7"/>
+      <c r="DD48" s="8"/>
+      <c r="DE48" s="9"/>
+      <c r="DF48" s="10"/>
       <c r="DG48" s="12"/>
-      <c r="DH48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="DI48" s="18"/>
-      <c r="DJ48" s="18"/>
-      <c r="DK48" s="18"/>
-      <c r="DL48" s="52"/>
+      <c r="DH48" s="6"/>
+      <c r="DI48" s="7"/>
+      <c r="DJ48" s="8"/>
+      <c r="DK48" s="9"/>
+      <c r="DL48" s="10"/>
       <c r="DM48" s="12"/>
-      <c r="DN48" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="DO48" s="18"/>
-      <c r="DP48" s="18"/>
-      <c r="DQ48" s="18"/>
-      <c r="DR48" s="52"/>
+      <c r="DN48" s="6"/>
+      <c r="DO48" s="7"/>
+      <c r="DP48" s="8"/>
+      <c r="DQ48" s="9"/>
+      <c r="DR48" s="10"/>
       <c r="DS48" s="12"/>
-      <c r="DT48" s="14"/>
-      <c r="DU48" s="18"/>
-      <c r="DV48" s="18"/>
-      <c r="DW48" s="18"/>
+      <c r="DT48" s="6"/>
+      <c r="DU48" s="7"/>
+      <c r="DV48" s="8"/>
+      <c r="DW48" s="9"/>
       <c r="DX48" s="10"/>
       <c r="DY48" s="12"/>
-      <c r="DZ48" s="14"/>
-      <c r="EA48" s="18"/>
-      <c r="EB48" s="18"/>
-      <c r="EC48" s="18"/>
+      <c r="DZ48" s="6"/>
+      <c r="EA48" s="7"/>
+      <c r="EB48" s="8"/>
+      <c r="EC48" s="9"/>
       <c r="ED48" s="10"/>
       <c r="EE48" s="12"/>
     </row>
-    <row r="49" spans="1:135" ht="14.1" customHeight="1">
-      <c r="A49" s="2">
-        <v>28</v>
-      </c>
+    <row r="49" spans="1:135">
+      <c r="A49" s="2"/>
       <c r="B49" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="18"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="10"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="69"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="10"/>
       <c r="O49" s="12"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="9"/>
       <c r="T49" s="10"/>
       <c r="U49" s="12"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="9"/>
       <c r="Z49" s="10"/>
       <c r="AA49" s="12"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="18"/>
-      <c r="AD49" s="18"/>
-      <c r="AE49" s="18"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="9"/>
       <c r="AF49" s="10"/>
       <c r="AG49" s="12"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="18"/>
-      <c r="AJ49" s="18"/>
-      <c r="AK49" s="18"/>
-      <c r="AL49" s="10"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="69"/>
       <c r="AM49" s="12"/>
-      <c r="AN49" s="14"/>
-      <c r="AO49" s="18"/>
-      <c r="AP49" s="18"/>
-      <c r="AQ49" s="18"/>
-      <c r="AR49" s="10"/>
+      <c r="AN49" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="8"/>
+      <c r="AQ49" s="9"/>
+      <c r="AR49" s="53"/>
       <c r="AS49" s="12"/>
-      <c r="AT49" s="14"/>
-      <c r="AU49" s="18"/>
-      <c r="AV49" s="18"/>
-      <c r="AW49" s="18"/>
+      <c r="AT49" s="6"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="8"/>
+      <c r="AW49" s="9"/>
       <c r="AX49" s="10"/>
       <c r="AY49" s="12"/>
-      <c r="AZ49" s="14"/>
-      <c r="BA49" s="18"/>
-      <c r="BB49" s="18"/>
-      <c r="BC49" s="18"/>
+      <c r="AZ49" s="6"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" s="8"/>
+      <c r="BC49" s="9"/>
       <c r="BD49" s="10"/>
       <c r="BE49" s="12"/>
-      <c r="BF49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BG49" s="18"/>
-      <c r="BH49" s="18"/>
-      <c r="BI49" s="18"/>
-      <c r="BJ49" s="54"/>
+      <c r="BF49" s="6"/>
+      <c r="BG49" s="7"/>
+      <c r="BH49" s="8"/>
+      <c r="BI49" s="9"/>
+      <c r="BJ49" s="10"/>
       <c r="BK49" s="12"/>
-      <c r="BL49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BM49" s="18"/>
-      <c r="BN49" s="18"/>
-      <c r="BO49" s="18"/>
-      <c r="BP49" s="54"/>
+      <c r="BL49" s="6"/>
+      <c r="BM49" s="7"/>
+      <c r="BN49" s="8"/>
+      <c r="BO49" s="9"/>
+      <c r="BP49" s="10"/>
       <c r="BQ49" s="12"/>
-      <c r="BR49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BS49" s="18"/>
-      <c r="BT49" s="18"/>
-      <c r="BU49" s="18"/>
-      <c r="BV49" s="54"/>
+      <c r="BR49" s="6"/>
+      <c r="BS49" s="7"/>
+      <c r="BT49" s="8"/>
+      <c r="BU49" s="9"/>
+      <c r="BV49" s="10"/>
       <c r="BW49" s="12"/>
-      <c r="BX49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BY49" s="18"/>
-      <c r="BZ49" s="18"/>
-      <c r="CA49" s="18"/>
-      <c r="CB49" s="54"/>
+      <c r="BX49" s="6"/>
+      <c r="BY49" s="7"/>
+      <c r="BZ49" s="8"/>
+      <c r="CA49" s="9"/>
+      <c r="CB49" s="10"/>
       <c r="CC49" s="12"/>
-      <c r="CD49" s="14"/>
-      <c r="CE49" s="18"/>
-      <c r="CF49" s="18"/>
-      <c r="CG49" s="18"/>
+      <c r="CD49" s="6"/>
+      <c r="CE49" s="7"/>
+      <c r="CF49" s="8"/>
+      <c r="CG49" s="9"/>
       <c r="CH49" s="10"/>
       <c r="CI49" s="12"/>
-      <c r="CJ49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="CK49" s="18"/>
-      <c r="CL49" s="18"/>
-      <c r="CM49" s="18"/>
-      <c r="CN49" s="54"/>
+      <c r="CJ49" s="6"/>
+      <c r="CK49" s="7"/>
+      <c r="CL49" s="8"/>
+      <c r="CM49" s="9"/>
+      <c r="CN49" s="10"/>
       <c r="CO49" s="12"/>
-      <c r="CP49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="CQ49" s="18"/>
-      <c r="CR49" s="18"/>
-      <c r="CS49" s="18"/>
-      <c r="CT49" s="54"/>
+      <c r="CP49" s="6"/>
+      <c r="CQ49" s="7"/>
+      <c r="CR49" s="8"/>
+      <c r="CS49" s="9"/>
+      <c r="CT49" s="10"/>
       <c r="CU49" s="12"/>
-      <c r="CV49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="CW49" s="18"/>
-      <c r="CX49" s="18"/>
-      <c r="CY49" s="18"/>
-      <c r="CZ49" s="54"/>
+      <c r="CV49" s="6"/>
+      <c r="CW49" s="7"/>
+      <c r="CX49" s="8"/>
+      <c r="CY49" s="9"/>
+      <c r="CZ49" s="10"/>
       <c r="DA49" s="12"/>
-      <c r="DB49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="DC49" s="18"/>
-      <c r="DD49" s="18"/>
-      <c r="DE49" s="18"/>
-      <c r="DF49" s="54"/>
+      <c r="DB49" s="6"/>
+      <c r="DC49" s="7"/>
+      <c r="DD49" s="8"/>
+      <c r="DE49" s="9"/>
+      <c r="DF49" s="10"/>
       <c r="DG49" s="12"/>
-      <c r="DH49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="DI49" s="18"/>
-      <c r="DJ49" s="18"/>
-      <c r="DK49" s="18"/>
-      <c r="DL49" s="54"/>
+      <c r="DH49" s="6"/>
+      <c r="DI49" s="7"/>
+      <c r="DJ49" s="8"/>
+      <c r="DK49" s="9"/>
+      <c r="DL49" s="10"/>
       <c r="DM49" s="12"/>
-      <c r="DN49" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="DO49" s="18"/>
-      <c r="DP49" s="18"/>
-      <c r="DQ49" s="18"/>
-      <c r="DR49" s="54"/>
+      <c r="DN49" s="6"/>
+      <c r="DO49" s="7"/>
+      <c r="DP49" s="8"/>
+      <c r="DQ49" s="9"/>
+      <c r="DR49" s="10"/>
       <c r="DS49" s="12"/>
-      <c r="DT49" s="14"/>
-      <c r="DU49" s="18"/>
-      <c r="DV49" s="18"/>
-      <c r="DW49" s="18"/>
+      <c r="DT49" s="6"/>
+      <c r="DU49" s="7"/>
+      <c r="DV49" s="8"/>
+      <c r="DW49" s="9"/>
       <c r="DX49" s="10"/>
       <c r="DY49" s="12"/>
-      <c r="DZ49" s="14"/>
-      <c r="EA49" s="18"/>
-      <c r="EB49" s="18"/>
-      <c r="EC49" s="18"/>
+      <c r="DZ49" s="6"/>
+      <c r="EA49" s="7"/>
+      <c r="EB49" s="8"/>
+      <c r="EC49" s="9"/>
       <c r="ED49" s="10"/>
       <c r="EE49" s="12"/>
     </row>
-    <row r="50" spans="1:135">
+    <row r="50" spans="1:135" ht="14.1" customHeight="1">
       <c r="A50" s="2">
-        <v>29</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="18"/>
@@ -8777,7 +8765,7 @@
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
-      <c r="N50" s="10"/>
+      <c r="N50" s="69"/>
       <c r="O50" s="12"/>
       <c r="P50" s="14"/>
       <c r="Q50" s="18"/>
@@ -8827,7 +8815,7 @@
       <c r="BG50" s="18"/>
       <c r="BH50" s="18"/>
       <c r="BI50" s="18"/>
-      <c r="BJ50" s="53"/>
+      <c r="BJ50" s="52"/>
       <c r="BK50" s="12"/>
       <c r="BL50" s="14">
         <v>8.3333333333333329E-2</v>
@@ -8835,7 +8823,7 @@
       <c r="BM50" s="18"/>
       <c r="BN50" s="18"/>
       <c r="BO50" s="18"/>
-      <c r="BP50" s="53"/>
+      <c r="BP50" s="52"/>
       <c r="BQ50" s="12"/>
       <c r="BR50" s="14">
         <v>8.3333333333333329E-2</v>
@@ -8843,7 +8831,7 @@
       <c r="BS50" s="18"/>
       <c r="BT50" s="18"/>
       <c r="BU50" s="18"/>
-      <c r="BV50" s="53"/>
+      <c r="BV50" s="52"/>
       <c r="BW50" s="12"/>
       <c r="BX50" s="14">
         <v>8.3333333333333329E-2</v>
@@ -8851,7 +8839,7 @@
       <c r="BY50" s="18"/>
       <c r="BZ50" s="18"/>
       <c r="CA50" s="18"/>
-      <c r="CB50" s="53"/>
+      <c r="CB50" s="52"/>
       <c r="CC50" s="12"/>
       <c r="CD50" s="14"/>
       <c r="CE50" s="18"/>
@@ -8865,7 +8853,7 @@
       <c r="CK50" s="18"/>
       <c r="CL50" s="18"/>
       <c r="CM50" s="18"/>
-      <c r="CN50" s="53"/>
+      <c r="CN50" s="52"/>
       <c r="CO50" s="12"/>
       <c r="CP50" s="14">
         <v>8.3333333333333329E-2</v>
@@ -8873,7 +8861,7 @@
       <c r="CQ50" s="18"/>
       <c r="CR50" s="18"/>
       <c r="CS50" s="18"/>
-      <c r="CT50" s="53"/>
+      <c r="CT50" s="52"/>
       <c r="CU50" s="12"/>
       <c r="CV50" s="14">
         <v>8.3333333333333329E-2</v>
@@ -8881,7 +8869,7 @@
       <c r="CW50" s="18"/>
       <c r="CX50" s="18"/>
       <c r="CY50" s="18"/>
-      <c r="CZ50" s="53"/>
+      <c r="CZ50" s="52"/>
       <c r="DA50" s="12"/>
       <c r="DB50" s="14">
         <v>8.3333333333333329E-2</v>
@@ -8889,7 +8877,7 @@
       <c r="DC50" s="18"/>
       <c r="DD50" s="18"/>
       <c r="DE50" s="18"/>
-      <c r="DF50" s="53"/>
+      <c r="DF50" s="52"/>
       <c r="DG50" s="12"/>
       <c r="DH50" s="14">
         <v>8.3333333333333329E-2</v>
@@ -8897,7 +8885,7 @@
       <c r="DI50" s="18"/>
       <c r="DJ50" s="18"/>
       <c r="DK50" s="18"/>
-      <c r="DL50" s="53"/>
+      <c r="DL50" s="52"/>
       <c r="DM50" s="12"/>
       <c r="DN50" s="14">
         <v>8.3333333333333329E-2</v>
@@ -8905,7 +8893,7 @@
       <c r="DO50" s="18"/>
       <c r="DP50" s="18"/>
       <c r="DQ50" s="18"/>
-      <c r="DR50" s="53"/>
+      <c r="DR50" s="52"/>
       <c r="DS50" s="12"/>
       <c r="DT50" s="14"/>
       <c r="DU50" s="18"/>
@@ -8920,15 +8908,15 @@
       <c r="ED50" s="10"/>
       <c r="EE50" s="12"/>
     </row>
-    <row r="51" spans="1:135">
+    <row r="51" spans="1:135" ht="14.1" customHeight="1">
       <c r="A51" s="2">
-        <v>30</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="18"/>
@@ -8940,7 +8928,7 @@
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
-      <c r="N51" s="10"/>
+      <c r="N51" s="69"/>
       <c r="O51" s="12"/>
       <c r="P51" s="14"/>
       <c r="Q51" s="18"/>
@@ -8984,29 +8972,37 @@
       <c r="BC51" s="18"/>
       <c r="BD51" s="10"/>
       <c r="BE51" s="12"/>
-      <c r="BF51" s="14"/>
+      <c r="BF51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="BG51" s="18"/>
       <c r="BH51" s="18"/>
       <c r="BI51" s="18"/>
-      <c r="BJ51" s="10"/>
+      <c r="BJ51" s="54"/>
       <c r="BK51" s="12"/>
-      <c r="BL51" s="14"/>
+      <c r="BL51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="BM51" s="18"/>
       <c r="BN51" s="18"/>
       <c r="BO51" s="18"/>
-      <c r="BP51" s="10"/>
+      <c r="BP51" s="54"/>
       <c r="BQ51" s="12"/>
-      <c r="BR51" s="14"/>
+      <c r="BR51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="BS51" s="18"/>
       <c r="BT51" s="18"/>
       <c r="BU51" s="18"/>
-      <c r="BV51" s="10"/>
+      <c r="BV51" s="54"/>
       <c r="BW51" s="12"/>
-      <c r="BX51" s="14"/>
+      <c r="BX51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="BY51" s="18"/>
       <c r="BZ51" s="18"/>
       <c r="CA51" s="18"/>
-      <c r="CB51" s="10"/>
+      <c r="CB51" s="54"/>
       <c r="CC51" s="12"/>
       <c r="CD51" s="14"/>
       <c r="CE51" s="18"/>
@@ -9014,41 +9010,53 @@
       <c r="CG51" s="18"/>
       <c r="CH51" s="10"/>
       <c r="CI51" s="12"/>
-      <c r="CJ51" s="14"/>
+      <c r="CJ51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CK51" s="18"/>
       <c r="CL51" s="18"/>
       <c r="CM51" s="18"/>
-      <c r="CN51" s="10"/>
+      <c r="CN51" s="54"/>
       <c r="CO51" s="12"/>
-      <c r="CP51" s="14"/>
+      <c r="CP51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CQ51" s="18"/>
       <c r="CR51" s="18"/>
       <c r="CS51" s="18"/>
-      <c r="CT51" s="10"/>
+      <c r="CT51" s="54"/>
       <c r="CU51" s="12"/>
-      <c r="CV51" s="14"/>
+      <c r="CV51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CW51" s="18"/>
       <c r="CX51" s="18"/>
       <c r="CY51" s="18"/>
-      <c r="CZ51" s="10"/>
+      <c r="CZ51" s="54"/>
       <c r="DA51" s="12"/>
-      <c r="DB51" s="14"/>
+      <c r="DB51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DC51" s="18"/>
       <c r="DD51" s="18"/>
       <c r="DE51" s="18"/>
-      <c r="DF51" s="10"/>
+      <c r="DF51" s="54"/>
       <c r="DG51" s="12"/>
-      <c r="DH51" s="14"/>
+      <c r="DH51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DI51" s="18"/>
       <c r="DJ51" s="18"/>
       <c r="DK51" s="18"/>
-      <c r="DL51" s="10"/>
+      <c r="DL51" s="54"/>
       <c r="DM51" s="12"/>
-      <c r="DN51" s="14"/>
+      <c r="DN51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DO51" s="18"/>
       <c r="DP51" s="18"/>
       <c r="DQ51" s="18"/>
-      <c r="DR51" s="10"/>
+      <c r="DR51" s="54"/>
       <c r="DS51" s="12"/>
       <c r="DT51" s="14"/>
       <c r="DU51" s="18"/>
@@ -9065,12 +9073,14 @@
     </row>
     <row r="52" spans="1:135">
       <c r="A52" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="85"/>
+      <c r="C52" s="46" t="s">
+        <v>65</v>
+      </c>
       <c r="D52" s="14"/>
       <c r="E52" s="18"/>
       <c r="F52" s="8"/>
@@ -9125,29 +9135,45 @@
       <c r="BC52" s="18"/>
       <c r="BD52" s="10"/>
       <c r="BE52" s="12"/>
-      <c r="BF52" s="14"/>
-      <c r="BG52" s="18"/>
+      <c r="BF52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BG52" s="90">
+        <v>0</v>
+      </c>
       <c r="BH52" s="18"/>
       <c r="BI52" s="18"/>
-      <c r="BJ52" s="10"/>
+      <c r="BJ52" s="53"/>
       <c r="BK52" s="12"/>
-      <c r="BL52" s="14"/>
-      <c r="BM52" s="18"/>
+      <c r="BL52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BM52" s="90">
+        <v>0</v>
+      </c>
       <c r="BN52" s="18"/>
       <c r="BO52" s="18"/>
-      <c r="BP52" s="10"/>
+      <c r="BP52" s="53"/>
       <c r="BQ52" s="12"/>
-      <c r="BR52" s="14"/>
-      <c r="BS52" s="18"/>
+      <c r="BR52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BS52" s="90">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="BT52" s="18"/>
       <c r="BU52" s="18"/>
-      <c r="BV52" s="10"/>
+      <c r="BV52" s="53"/>
       <c r="BW52" s="12"/>
-      <c r="BX52" s="14"/>
-      <c r="BY52" s="18"/>
+      <c r="BX52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BY52" s="90">
+        <v>6.25E-2</v>
+      </c>
       <c r="BZ52" s="18"/>
       <c r="CA52" s="18"/>
-      <c r="CB52" s="10"/>
+      <c r="CB52" s="53"/>
       <c r="CC52" s="12"/>
       <c r="CD52" s="14"/>
       <c r="CE52" s="18"/>
@@ -9155,41 +9181,53 @@
       <c r="CG52" s="18"/>
       <c r="CH52" s="10"/>
       <c r="CI52" s="12"/>
-      <c r="CJ52" s="14"/>
+      <c r="CJ52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CK52" s="18"/>
       <c r="CL52" s="18"/>
       <c r="CM52" s="18"/>
-      <c r="CN52" s="10"/>
+      <c r="CN52" s="53"/>
       <c r="CO52" s="12"/>
-      <c r="CP52" s="14"/>
+      <c r="CP52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CQ52" s="18"/>
       <c r="CR52" s="18"/>
       <c r="CS52" s="18"/>
-      <c r="CT52" s="10"/>
+      <c r="CT52" s="53"/>
       <c r="CU52" s="12"/>
-      <c r="CV52" s="14"/>
+      <c r="CV52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CW52" s="18"/>
       <c r="CX52" s="18"/>
       <c r="CY52" s="18"/>
-      <c r="CZ52" s="10"/>
+      <c r="CZ52" s="53"/>
       <c r="DA52" s="12"/>
-      <c r="DB52" s="14"/>
+      <c r="DB52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DC52" s="18"/>
       <c r="DD52" s="18"/>
       <c r="DE52" s="18"/>
-      <c r="DF52" s="10"/>
+      <c r="DF52" s="53"/>
       <c r="DG52" s="12"/>
-      <c r="DH52" s="14"/>
+      <c r="DH52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DI52" s="18"/>
       <c r="DJ52" s="18"/>
       <c r="DK52" s="18"/>
-      <c r="DL52" s="10"/>
+      <c r="DL52" s="53"/>
       <c r="DM52" s="12"/>
-      <c r="DN52" s="14"/>
+      <c r="DN52" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DO52" s="18"/>
       <c r="DP52" s="18"/>
       <c r="DQ52" s="18"/>
-      <c r="DR52" s="10"/>
+      <c r="DR52" s="53"/>
       <c r="DS52" s="12"/>
       <c r="DT52" s="14"/>
       <c r="DU52" s="18"/>
@@ -9206,13 +9244,13 @@
     </row>
     <row r="53" spans="1:135">
       <c r="A53" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C53" s="85" t="s">
+        <v>20</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="18"/>
@@ -9349,141 +9387,139 @@
     </row>
     <row r="54" spans="1:135">
       <c r="A54" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="C54" s="85"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="18"/>
       <c r="H54" s="10"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="20"/>
+      <c r="J54" s="14"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
       <c r="N54" s="10"/>
       <c r="O54" s="12"/>
-      <c r="P54" s="20"/>
+      <c r="P54" s="14"/>
       <c r="Q54" s="18"/>
       <c r="R54" s="18"/>
       <c r="S54" s="18"/>
       <c r="T54" s="10"/>
       <c r="U54" s="12"/>
-      <c r="V54" s="20"/>
+      <c r="V54" s="14"/>
       <c r="W54" s="18"/>
       <c r="X54" s="18"/>
       <c r="Y54" s="18"/>
       <c r="Z54" s="10"/>
       <c r="AA54" s="12"/>
-      <c r="AB54" s="20"/>
+      <c r="AB54" s="14"/>
       <c r="AC54" s="18"/>
       <c r="AD54" s="18"/>
       <c r="AE54" s="18"/>
       <c r="AF54" s="10"/>
       <c r="AG54" s="12"/>
-      <c r="AH54" s="20"/>
+      <c r="AH54" s="14"/>
       <c r="AI54" s="18"/>
       <c r="AJ54" s="18"/>
       <c r="AK54" s="18"/>
       <c r="AL54" s="10"/>
       <c r="AM54" s="12"/>
-      <c r="AN54" s="20"/>
+      <c r="AN54" s="14"/>
       <c r="AO54" s="18"/>
       <c r="AP54" s="18"/>
       <c r="AQ54" s="18"/>
       <c r="AR54" s="10"/>
       <c r="AS54" s="12"/>
-      <c r="AT54" s="20"/>
+      <c r="AT54" s="14"/>
       <c r="AU54" s="18"/>
       <c r="AV54" s="18"/>
       <c r="AW54" s="18"/>
       <c r="AX54" s="10"/>
       <c r="AY54" s="12"/>
-      <c r="AZ54" s="20"/>
+      <c r="AZ54" s="14"/>
       <c r="BA54" s="18"/>
       <c r="BB54" s="18"/>
       <c r="BC54" s="18"/>
       <c r="BD54" s="10"/>
       <c r="BE54" s="12"/>
-      <c r="BF54" s="20"/>
+      <c r="BF54" s="14"/>
       <c r="BG54" s="18"/>
       <c r="BH54" s="18"/>
       <c r="BI54" s="18"/>
       <c r="BJ54" s="10"/>
       <c r="BK54" s="12"/>
-      <c r="BL54" s="20"/>
+      <c r="BL54" s="14"/>
       <c r="BM54" s="18"/>
       <c r="BN54" s="18"/>
       <c r="BO54" s="18"/>
       <c r="BP54" s="10"/>
       <c r="BQ54" s="12"/>
-      <c r="BR54" s="20"/>
+      <c r="BR54" s="14"/>
       <c r="BS54" s="18"/>
       <c r="BT54" s="18"/>
       <c r="BU54" s="18"/>
       <c r="BV54" s="10"/>
       <c r="BW54" s="12"/>
-      <c r="BX54" s="20"/>
+      <c r="BX54" s="14"/>
       <c r="BY54" s="18"/>
       <c r="BZ54" s="18"/>
       <c r="CA54" s="18"/>
       <c r="CB54" s="10"/>
       <c r="CC54" s="12"/>
-      <c r="CD54" s="20"/>
+      <c r="CD54" s="14"/>
       <c r="CE54" s="18"/>
       <c r="CF54" s="18"/>
       <c r="CG54" s="18"/>
       <c r="CH54" s="10"/>
       <c r="CI54" s="12"/>
-      <c r="CJ54" s="20"/>
+      <c r="CJ54" s="14"/>
       <c r="CK54" s="18"/>
       <c r="CL54" s="18"/>
       <c r="CM54" s="18"/>
       <c r="CN54" s="10"/>
       <c r="CO54" s="12"/>
-      <c r="CP54" s="20"/>
+      <c r="CP54" s="14"/>
       <c r="CQ54" s="18"/>
       <c r="CR54" s="18"/>
       <c r="CS54" s="18"/>
       <c r="CT54" s="10"/>
       <c r="CU54" s="12"/>
-      <c r="CV54" s="20"/>
+      <c r="CV54" s="14"/>
       <c r="CW54" s="18"/>
       <c r="CX54" s="18"/>
       <c r="CY54" s="18"/>
       <c r="CZ54" s="10"/>
       <c r="DA54" s="12"/>
-      <c r="DB54" s="20"/>
+      <c r="DB54" s="14"/>
       <c r="DC54" s="18"/>
       <c r="DD54" s="18"/>
       <c r="DE54" s="18"/>
       <c r="DF54" s="10"/>
       <c r="DG54" s="12"/>
-      <c r="DH54" s="20"/>
+      <c r="DH54" s="14"/>
       <c r="DI54" s="18"/>
       <c r="DJ54" s="18"/>
       <c r="DK54" s="18"/>
       <c r="DL54" s="10"/>
       <c r="DM54" s="12"/>
-      <c r="DN54" s="20"/>
+      <c r="DN54" s="14"/>
       <c r="DO54" s="18"/>
       <c r="DP54" s="18"/>
       <c r="DQ54" s="18"/>
       <c r="DR54" s="10"/>
       <c r="DS54" s="12"/>
-      <c r="DT54" s="20"/>
+      <c r="DT54" s="14"/>
       <c r="DU54" s="18"/>
       <c r="DV54" s="18"/>
       <c r="DW54" s="18"/>
       <c r="DX54" s="10"/>
       <c r="DY54" s="12"/>
-      <c r="DZ54" s="20"/>
+      <c r="DZ54" s="14"/>
       <c r="EA54" s="18"/>
       <c r="EB54" s="18"/>
       <c r="EC54" s="18"/>
@@ -9492,141 +9528,141 @@
     </row>
     <row r="55" spans="1:135">
       <c r="A55" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="14"/>
       <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="18"/>
       <c r="H55" s="10"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="20"/>
+      <c r="J55" s="14"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="10"/>
       <c r="O55" s="12"/>
-      <c r="P55" s="20"/>
+      <c r="P55" s="14"/>
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
       <c r="S55" s="18"/>
       <c r="T55" s="10"/>
       <c r="U55" s="12"/>
-      <c r="V55" s="20"/>
+      <c r="V55" s="14"/>
       <c r="W55" s="18"/>
       <c r="X55" s="18"/>
       <c r="Y55" s="18"/>
       <c r="Z55" s="10"/>
       <c r="AA55" s="12"/>
-      <c r="AB55" s="20"/>
+      <c r="AB55" s="14"/>
       <c r="AC55" s="18"/>
       <c r="AD55" s="18"/>
       <c r="AE55" s="18"/>
       <c r="AF55" s="10"/>
       <c r="AG55" s="12"/>
-      <c r="AH55" s="20"/>
+      <c r="AH55" s="14"/>
       <c r="AI55" s="18"/>
       <c r="AJ55" s="18"/>
       <c r="AK55" s="18"/>
       <c r="AL55" s="10"/>
       <c r="AM55" s="12"/>
-      <c r="AN55" s="20"/>
+      <c r="AN55" s="14"/>
       <c r="AO55" s="18"/>
       <c r="AP55" s="18"/>
       <c r="AQ55" s="18"/>
       <c r="AR55" s="10"/>
       <c r="AS55" s="12"/>
-      <c r="AT55" s="20"/>
+      <c r="AT55" s="14"/>
       <c r="AU55" s="18"/>
       <c r="AV55" s="18"/>
       <c r="AW55" s="18"/>
       <c r="AX55" s="10"/>
       <c r="AY55" s="12"/>
-      <c r="AZ55" s="20"/>
+      <c r="AZ55" s="14"/>
       <c r="BA55" s="18"/>
       <c r="BB55" s="18"/>
       <c r="BC55" s="18"/>
       <c r="BD55" s="10"/>
       <c r="BE55" s="12"/>
-      <c r="BF55" s="20"/>
+      <c r="BF55" s="14"/>
       <c r="BG55" s="18"/>
       <c r="BH55" s="18"/>
       <c r="BI55" s="18"/>
       <c r="BJ55" s="10"/>
       <c r="BK55" s="12"/>
-      <c r="BL55" s="20"/>
+      <c r="BL55" s="14"/>
       <c r="BM55" s="18"/>
       <c r="BN55" s="18"/>
       <c r="BO55" s="18"/>
       <c r="BP55" s="10"/>
       <c r="BQ55" s="12"/>
-      <c r="BR55" s="20"/>
+      <c r="BR55" s="14"/>
       <c r="BS55" s="18"/>
       <c r="BT55" s="18"/>
       <c r="BU55" s="18"/>
       <c r="BV55" s="10"/>
       <c r="BW55" s="12"/>
-      <c r="BX55" s="20"/>
+      <c r="BX55" s="14"/>
       <c r="BY55" s="18"/>
       <c r="BZ55" s="18"/>
       <c r="CA55" s="18"/>
       <c r="CB55" s="10"/>
       <c r="CC55" s="12"/>
-      <c r="CD55" s="20"/>
+      <c r="CD55" s="14"/>
       <c r="CE55" s="18"/>
       <c r="CF55" s="18"/>
       <c r="CG55" s="18"/>
       <c r="CH55" s="10"/>
       <c r="CI55" s="12"/>
-      <c r="CJ55" s="20"/>
+      <c r="CJ55" s="14"/>
       <c r="CK55" s="18"/>
       <c r="CL55" s="18"/>
       <c r="CM55" s="18"/>
       <c r="CN55" s="10"/>
       <c r="CO55" s="12"/>
-      <c r="CP55" s="20"/>
+      <c r="CP55" s="14"/>
       <c r="CQ55" s="18"/>
       <c r="CR55" s="18"/>
       <c r="CS55" s="18"/>
       <c r="CT55" s="10"/>
       <c r="CU55" s="12"/>
-      <c r="CV55" s="20"/>
+      <c r="CV55" s="14"/>
       <c r="CW55" s="18"/>
       <c r="CX55" s="18"/>
       <c r="CY55" s="18"/>
       <c r="CZ55" s="10"/>
       <c r="DA55" s="12"/>
-      <c r="DB55" s="20"/>
+      <c r="DB55" s="14"/>
       <c r="DC55" s="18"/>
       <c r="DD55" s="18"/>
       <c r="DE55" s="18"/>
       <c r="DF55" s="10"/>
       <c r="DG55" s="12"/>
-      <c r="DH55" s="20"/>
+      <c r="DH55" s="14"/>
       <c r="DI55" s="18"/>
       <c r="DJ55" s="18"/>
       <c r="DK55" s="18"/>
       <c r="DL55" s="10"/>
       <c r="DM55" s="12"/>
-      <c r="DN55" s="20"/>
+      <c r="DN55" s="14"/>
       <c r="DO55" s="18"/>
       <c r="DP55" s="18"/>
       <c r="DQ55" s="18"/>
       <c r="DR55" s="10"/>
       <c r="DS55" s="12"/>
-      <c r="DT55" s="20"/>
+      <c r="DT55" s="14"/>
       <c r="DU55" s="18"/>
       <c r="DV55" s="18"/>
       <c r="DW55" s="18"/>
       <c r="DX55" s="10"/>
       <c r="DY55" s="12"/>
-      <c r="DZ55" s="20"/>
+      <c r="DZ55" s="14"/>
       <c r="EA55" s="18"/>
       <c r="EB55" s="18"/>
       <c r="EC55" s="18"/>
@@ -9635,13 +9671,13 @@
     </row>
     <row r="56" spans="1:135">
       <c r="A56" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="18"/>
@@ -9778,141 +9814,141 @@
     </row>
     <row r="57" spans="1:135">
       <c r="A57" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D57" s="20"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="10"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="14"/>
+      <c r="J57" s="20"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="10"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="14"/>
+      <c r="P57" s="20"/>
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
       <c r="T57" s="10"/>
       <c r="U57" s="12"/>
-      <c r="V57" s="14"/>
+      <c r="V57" s="20"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="14"/>
+      <c r="AB57" s="20"/>
       <c r="AC57" s="18"/>
       <c r="AD57" s="18"/>
       <c r="AE57" s="18"/>
       <c r="AF57" s="10"/>
       <c r="AG57" s="12"/>
-      <c r="AH57" s="14"/>
+      <c r="AH57" s="20"/>
       <c r="AI57" s="18"/>
       <c r="AJ57" s="18"/>
       <c r="AK57" s="18"/>
       <c r="AL57" s="10"/>
       <c r="AM57" s="12"/>
-      <c r="AN57" s="14"/>
+      <c r="AN57" s="20"/>
       <c r="AO57" s="18"/>
       <c r="AP57" s="18"/>
       <c r="AQ57" s="18"/>
       <c r="AR57" s="10"/>
       <c r="AS57" s="12"/>
-      <c r="AT57" s="14"/>
+      <c r="AT57" s="20"/>
       <c r="AU57" s="18"/>
       <c r="AV57" s="18"/>
       <c r="AW57" s="18"/>
       <c r="AX57" s="10"/>
       <c r="AY57" s="12"/>
-      <c r="AZ57" s="14"/>
+      <c r="AZ57" s="20"/>
       <c r="BA57" s="18"/>
       <c r="BB57" s="18"/>
       <c r="BC57" s="18"/>
       <c r="BD57" s="10"/>
       <c r="BE57" s="12"/>
-      <c r="BF57" s="14"/>
+      <c r="BF57" s="20"/>
       <c r="BG57" s="18"/>
       <c r="BH57" s="18"/>
       <c r="BI57" s="18"/>
       <c r="BJ57" s="10"/>
       <c r="BK57" s="12"/>
-      <c r="BL57" s="14"/>
+      <c r="BL57" s="20"/>
       <c r="BM57" s="18"/>
       <c r="BN57" s="18"/>
       <c r="BO57" s="18"/>
       <c r="BP57" s="10"/>
       <c r="BQ57" s="12"/>
-      <c r="BR57" s="14"/>
+      <c r="BR57" s="20"/>
       <c r="BS57" s="18"/>
       <c r="BT57" s="18"/>
       <c r="BU57" s="18"/>
       <c r="BV57" s="10"/>
       <c r="BW57" s="12"/>
-      <c r="BX57" s="14"/>
+      <c r="BX57" s="20"/>
       <c r="BY57" s="18"/>
       <c r="BZ57" s="18"/>
       <c r="CA57" s="18"/>
       <c r="CB57" s="10"/>
       <c r="CC57" s="12"/>
-      <c r="CD57" s="14"/>
+      <c r="CD57" s="20"/>
       <c r="CE57" s="18"/>
       <c r="CF57" s="18"/>
       <c r="CG57" s="18"/>
       <c r="CH57" s="10"/>
       <c r="CI57" s="12"/>
-      <c r="CJ57" s="14"/>
+      <c r="CJ57" s="20"/>
       <c r="CK57" s="18"/>
       <c r="CL57" s="18"/>
       <c r="CM57" s="18"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="12"/>
-      <c r="CP57" s="14"/>
+      <c r="CP57" s="20"/>
       <c r="CQ57" s="18"/>
       <c r="CR57" s="18"/>
       <c r="CS57" s="18"/>
       <c r="CT57" s="10"/>
       <c r="CU57" s="12"/>
-      <c r="CV57" s="14"/>
+      <c r="CV57" s="20"/>
       <c r="CW57" s="18"/>
       <c r="CX57" s="18"/>
       <c r="CY57" s="18"/>
       <c r="CZ57" s="10"/>
       <c r="DA57" s="12"/>
-      <c r="DB57" s="14"/>
+      <c r="DB57" s="20"/>
       <c r="DC57" s="18"/>
       <c r="DD57" s="18"/>
       <c r="DE57" s="18"/>
       <c r="DF57" s="10"/>
       <c r="DG57" s="12"/>
-      <c r="DH57" s="14"/>
+      <c r="DH57" s="20"/>
       <c r="DI57" s="18"/>
       <c r="DJ57" s="18"/>
       <c r="DK57" s="18"/>
       <c r="DL57" s="10"/>
       <c r="DM57" s="12"/>
-      <c r="DN57" s="14"/>
+      <c r="DN57" s="20"/>
       <c r="DO57" s="18"/>
       <c r="DP57" s="18"/>
       <c r="DQ57" s="18"/>
       <c r="DR57" s="10"/>
       <c r="DS57" s="12"/>
-      <c r="DT57" s="14"/>
+      <c r="DT57" s="20"/>
       <c r="DU57" s="18"/>
       <c r="DV57" s="18"/>
       <c r="DW57" s="18"/>
       <c r="DX57" s="10"/>
       <c r="DY57" s="12"/>
-      <c r="DZ57" s="14"/>
+      <c r="DZ57" s="20"/>
       <c r="EA57" s="18"/>
       <c r="EB57" s="18"/>
       <c r="EC57" s="18"/>
@@ -9921,141 +9957,141 @@
     </row>
     <row r="58" spans="1:135">
       <c r="A58" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="14"/>
+      <c r="C58" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="20"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="10"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="14"/>
+      <c r="J58" s="20"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58" s="10"/>
       <c r="O58" s="12"/>
-      <c r="P58" s="14"/>
+      <c r="P58" s="20"/>
       <c r="Q58" s="18"/>
       <c r="R58" s="18"/>
       <c r="S58" s="18"/>
       <c r="T58" s="10"/>
       <c r="U58" s="12"/>
-      <c r="V58" s="14"/>
+      <c r="V58" s="20"/>
       <c r="W58" s="18"/>
       <c r="X58" s="18"/>
       <c r="Y58" s="18"/>
       <c r="Z58" s="10"/>
       <c r="AA58" s="12"/>
-      <c r="AB58" s="14"/>
+      <c r="AB58" s="20"/>
       <c r="AC58" s="18"/>
       <c r="AD58" s="18"/>
       <c r="AE58" s="18"/>
       <c r="AF58" s="10"/>
       <c r="AG58" s="12"/>
-      <c r="AH58" s="14"/>
+      <c r="AH58" s="20"/>
       <c r="AI58" s="18"/>
       <c r="AJ58" s="18"/>
       <c r="AK58" s="18"/>
       <c r="AL58" s="10"/>
       <c r="AM58" s="12"/>
-      <c r="AN58" s="14"/>
+      <c r="AN58" s="20"/>
       <c r="AO58" s="18"/>
       <c r="AP58" s="18"/>
       <c r="AQ58" s="18"/>
       <c r="AR58" s="10"/>
       <c r="AS58" s="12"/>
-      <c r="AT58" s="14"/>
+      <c r="AT58" s="20"/>
       <c r="AU58" s="18"/>
       <c r="AV58" s="18"/>
       <c r="AW58" s="18"/>
       <c r="AX58" s="10"/>
       <c r="AY58" s="12"/>
-      <c r="AZ58" s="14"/>
+      <c r="AZ58" s="20"/>
       <c r="BA58" s="18"/>
       <c r="BB58" s="18"/>
       <c r="BC58" s="18"/>
       <c r="BD58" s="10"/>
       <c r="BE58" s="12"/>
-      <c r="BF58" s="14"/>
+      <c r="BF58" s="20"/>
       <c r="BG58" s="18"/>
       <c r="BH58" s="18"/>
       <c r="BI58" s="18"/>
       <c r="BJ58" s="10"/>
       <c r="BK58" s="12"/>
-      <c r="BL58" s="14"/>
+      <c r="BL58" s="20"/>
       <c r="BM58" s="18"/>
       <c r="BN58" s="18"/>
       <c r="BO58" s="18"/>
       <c r="BP58" s="10"/>
       <c r="BQ58" s="12"/>
-      <c r="BR58" s="14"/>
+      <c r="BR58" s="20"/>
       <c r="BS58" s="18"/>
       <c r="BT58" s="18"/>
       <c r="BU58" s="18"/>
       <c r="BV58" s="10"/>
       <c r="BW58" s="12"/>
-      <c r="BX58" s="14"/>
+      <c r="BX58" s="20"/>
       <c r="BY58" s="18"/>
       <c r="BZ58" s="18"/>
       <c r="CA58" s="18"/>
       <c r="CB58" s="10"/>
       <c r="CC58" s="12"/>
-      <c r="CD58" s="14"/>
+      <c r="CD58" s="20"/>
       <c r="CE58" s="18"/>
       <c r="CF58" s="18"/>
       <c r="CG58" s="18"/>
       <c r="CH58" s="10"/>
       <c r="CI58" s="12"/>
-      <c r="CJ58" s="14"/>
+      <c r="CJ58" s="20"/>
       <c r="CK58" s="18"/>
       <c r="CL58" s="18"/>
       <c r="CM58" s="18"/>
       <c r="CN58" s="10"/>
       <c r="CO58" s="12"/>
-      <c r="CP58" s="14"/>
+      <c r="CP58" s="20"/>
       <c r="CQ58" s="18"/>
       <c r="CR58" s="18"/>
       <c r="CS58" s="18"/>
       <c r="CT58" s="10"/>
       <c r="CU58" s="12"/>
-      <c r="CV58" s="14"/>
+      <c r="CV58" s="20"/>
       <c r="CW58" s="18"/>
       <c r="CX58" s="18"/>
       <c r="CY58" s="18"/>
       <c r="CZ58" s="10"/>
       <c r="DA58" s="12"/>
-      <c r="DB58" s="14"/>
+      <c r="DB58" s="20"/>
       <c r="DC58" s="18"/>
       <c r="DD58" s="18"/>
       <c r="DE58" s="18"/>
       <c r="DF58" s="10"/>
       <c r="DG58" s="12"/>
-      <c r="DH58" s="14"/>
+      <c r="DH58" s="20"/>
       <c r="DI58" s="18"/>
       <c r="DJ58" s="18"/>
       <c r="DK58" s="18"/>
       <c r="DL58" s="10"/>
       <c r="DM58" s="12"/>
-      <c r="DN58" s="14"/>
+      <c r="DN58" s="20"/>
       <c r="DO58" s="18"/>
       <c r="DP58" s="18"/>
       <c r="DQ58" s="18"/>
       <c r="DR58" s="10"/>
       <c r="DS58" s="12"/>
-      <c r="DT58" s="14"/>
+      <c r="DT58" s="20"/>
       <c r="DU58" s="18"/>
       <c r="DV58" s="18"/>
       <c r="DW58" s="18"/>
       <c r="DX58" s="10"/>
       <c r="DY58" s="12"/>
-      <c r="DZ58" s="14"/>
+      <c r="DZ58" s="20"/>
       <c r="EA58" s="18"/>
       <c r="EB58" s="18"/>
       <c r="EC58" s="18"/>
@@ -10064,12 +10100,14 @@
     </row>
     <row r="59" spans="1:135">
       <c r="A59" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="85"/>
+      <c r="C59" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="D59" s="14"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
@@ -10205,12 +10243,14 @@
     </row>
     <row r="60" spans="1:135">
       <c r="A60" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="85"/>
+      <c r="C60" s="85" t="s">
+        <v>30</v>
+      </c>
       <c r="D60" s="14"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -10346,141 +10386,139 @@
     </row>
     <row r="61" spans="1:135">
       <c r="A61" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="6"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="10"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="6"/>
+      <c r="J61" s="14"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="10"/>
       <c r="O61" s="12"/>
-      <c r="P61" s="6"/>
+      <c r="P61" s="14"/>
       <c r="Q61" s="18"/>
       <c r="R61" s="18"/>
       <c r="S61" s="18"/>
       <c r="T61" s="10"/>
       <c r="U61" s="12"/>
-      <c r="V61" s="6"/>
+      <c r="V61" s="14"/>
       <c r="W61" s="18"/>
       <c r="X61" s="18"/>
       <c r="Y61" s="18"/>
       <c r="Z61" s="10"/>
       <c r="AA61" s="12"/>
-      <c r="AB61" s="6"/>
+      <c r="AB61" s="14"/>
       <c r="AC61" s="18"/>
       <c r="AD61" s="18"/>
       <c r="AE61" s="18"/>
       <c r="AF61" s="10"/>
       <c r="AG61" s="12"/>
-      <c r="AH61" s="6"/>
+      <c r="AH61" s="14"/>
       <c r="AI61" s="18"/>
       <c r="AJ61" s="18"/>
       <c r="AK61" s="18"/>
       <c r="AL61" s="10"/>
       <c r="AM61" s="12"/>
-      <c r="AN61" s="6"/>
+      <c r="AN61" s="14"/>
       <c r="AO61" s="18"/>
       <c r="AP61" s="18"/>
       <c r="AQ61" s="18"/>
       <c r="AR61" s="10"/>
       <c r="AS61" s="12"/>
-      <c r="AT61" s="6"/>
+      <c r="AT61" s="14"/>
       <c r="AU61" s="18"/>
       <c r="AV61" s="18"/>
       <c r="AW61" s="18"/>
       <c r="AX61" s="10"/>
       <c r="AY61" s="12"/>
-      <c r="AZ61" s="6"/>
+      <c r="AZ61" s="14"/>
       <c r="BA61" s="18"/>
       <c r="BB61" s="18"/>
       <c r="BC61" s="18"/>
       <c r="BD61" s="10"/>
       <c r="BE61" s="12"/>
-      <c r="BF61" s="6"/>
+      <c r="BF61" s="14"/>
       <c r="BG61" s="18"/>
       <c r="BH61" s="18"/>
       <c r="BI61" s="18"/>
       <c r="BJ61" s="10"/>
       <c r="BK61" s="12"/>
-      <c r="BL61" s="6"/>
+      <c r="BL61" s="14"/>
       <c r="BM61" s="18"/>
       <c r="BN61" s="18"/>
       <c r="BO61" s="18"/>
       <c r="BP61" s="10"/>
       <c r="BQ61" s="12"/>
-      <c r="BR61" s="6"/>
+      <c r="BR61" s="14"/>
       <c r="BS61" s="18"/>
       <c r="BT61" s="18"/>
       <c r="BU61" s="18"/>
       <c r="BV61" s="10"/>
       <c r="BW61" s="12"/>
-      <c r="BX61" s="6"/>
+      <c r="BX61" s="14"/>
       <c r="BY61" s="18"/>
       <c r="BZ61" s="18"/>
       <c r="CA61" s="18"/>
       <c r="CB61" s="10"/>
       <c r="CC61" s="12"/>
-      <c r="CD61" s="6"/>
+      <c r="CD61" s="14"/>
       <c r="CE61" s="18"/>
       <c r="CF61" s="18"/>
       <c r="CG61" s="18"/>
       <c r="CH61" s="10"/>
       <c r="CI61" s="12"/>
-      <c r="CJ61" s="6"/>
+      <c r="CJ61" s="14"/>
       <c r="CK61" s="18"/>
       <c r="CL61" s="18"/>
       <c r="CM61" s="18"/>
       <c r="CN61" s="10"/>
       <c r="CO61" s="12"/>
-      <c r="CP61" s="6"/>
+      <c r="CP61" s="14"/>
       <c r="CQ61" s="18"/>
       <c r="CR61" s="18"/>
       <c r="CS61" s="18"/>
       <c r="CT61" s="10"/>
       <c r="CU61" s="12"/>
-      <c r="CV61" s="6"/>
+      <c r="CV61" s="14"/>
       <c r="CW61" s="18"/>
       <c r="CX61" s="18"/>
       <c r="CY61" s="18"/>
       <c r="CZ61" s="10"/>
       <c r="DA61" s="12"/>
-      <c r="DB61" s="6"/>
+      <c r="DB61" s="14"/>
       <c r="DC61" s="18"/>
       <c r="DD61" s="18"/>
       <c r="DE61" s="18"/>
       <c r="DF61" s="10"/>
       <c r="DG61" s="12"/>
-      <c r="DH61" s="6"/>
+      <c r="DH61" s="14"/>
       <c r="DI61" s="18"/>
       <c r="DJ61" s="18"/>
       <c r="DK61" s="18"/>
       <c r="DL61" s="10"/>
       <c r="DM61" s="12"/>
-      <c r="DN61" s="6"/>
+      <c r="DN61" s="14"/>
       <c r="DO61" s="18"/>
       <c r="DP61" s="18"/>
       <c r="DQ61" s="18"/>
       <c r="DR61" s="10"/>
       <c r="DS61" s="12"/>
-      <c r="DT61" s="6"/>
+      <c r="DT61" s="14"/>
       <c r="DU61" s="18"/>
       <c r="DV61" s="18"/>
       <c r="DW61" s="18"/>
       <c r="DX61" s="10"/>
       <c r="DY61" s="12"/>
-      <c r="DZ61" s="6"/>
+      <c r="DZ61" s="14"/>
       <c r="EA61" s="18"/>
       <c r="EB61" s="18"/>
       <c r="EC61" s="18"/>
@@ -10488,1565 +10526,1757 @@
       <c r="EE61" s="12"/>
     </row>
     <row r="62" spans="1:135">
-      <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="16"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="16"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="16"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="24"/>
-      <c r="X62" s="24"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="16"/>
-      <c r="AB62" s="23"/>
-      <c r="AC62" s="24"/>
-      <c r="AD62" s="24"/>
-      <c r="AE62" s="24"/>
-      <c r="AF62" s="16"/>
-      <c r="AH62" s="23"/>
-      <c r="AI62" s="24"/>
-      <c r="AJ62" s="24"/>
-      <c r="AK62" s="24"/>
-      <c r="AL62" s="16"/>
-      <c r="AN62" s="23"/>
-      <c r="AO62" s="24"/>
-      <c r="AP62" s="24"/>
-      <c r="AQ62" s="24"/>
-      <c r="AR62" s="16"/>
-      <c r="AT62" s="23"/>
-      <c r="AU62" s="24"/>
-      <c r="AV62" s="24"/>
-      <c r="AW62" s="24"/>
-      <c r="AX62" s="16"/>
-      <c r="AZ62" s="23"/>
-      <c r="BA62" s="24"/>
-      <c r="BB62" s="24"/>
-      <c r="BC62" s="24"/>
-      <c r="BD62" s="16"/>
-      <c r="BF62" s="23"/>
-      <c r="BG62" s="24"/>
-      <c r="BH62" s="24"/>
-      <c r="BI62" s="24"/>
-      <c r="BJ62" s="16"/>
-      <c r="BL62" s="23"/>
-      <c r="BM62" s="24"/>
-      <c r="BN62" s="24"/>
-      <c r="BO62" s="24"/>
-      <c r="BP62" s="16"/>
-      <c r="BR62" s="23"/>
-      <c r="BS62" s="24"/>
-      <c r="BT62" s="24"/>
-      <c r="BU62" s="24"/>
-      <c r="BV62" s="16"/>
-      <c r="BX62" s="23"/>
-      <c r="BY62" s="24"/>
-      <c r="BZ62" s="24"/>
-      <c r="CA62" s="24"/>
-      <c r="CB62" s="16"/>
-      <c r="CD62" s="23"/>
-      <c r="CE62" s="24"/>
-      <c r="CF62" s="24"/>
-      <c r="CG62" s="24"/>
-      <c r="CH62" s="16"/>
-      <c r="CJ62" s="23"/>
-      <c r="CK62" s="24"/>
-      <c r="CL62" s="24"/>
-      <c r="CM62" s="24"/>
-      <c r="CN62" s="16"/>
-      <c r="CP62" s="23"/>
-      <c r="CQ62" s="24"/>
-      <c r="CR62" s="24"/>
-      <c r="CS62" s="24"/>
-      <c r="CT62" s="16"/>
-      <c r="CV62" s="23"/>
-      <c r="CW62" s="24"/>
-      <c r="CX62" s="24"/>
-      <c r="CY62" s="24"/>
-      <c r="CZ62" s="16"/>
-      <c r="DB62" s="23"/>
-      <c r="DC62" s="24"/>
-      <c r="DD62" s="24"/>
-      <c r="DE62" s="24"/>
-      <c r="DF62" s="16"/>
-      <c r="DH62" s="23"/>
-      <c r="DI62" s="24"/>
-      <c r="DJ62" s="24"/>
-      <c r="DK62" s="24"/>
-      <c r="DL62" s="16"/>
-      <c r="DN62" s="23"/>
-      <c r="DO62" s="24"/>
-      <c r="DP62" s="24"/>
-      <c r="DQ62" s="24"/>
-      <c r="DR62" s="16"/>
-      <c r="DT62" s="23"/>
-      <c r="DU62" s="24"/>
-      <c r="DV62" s="24"/>
-      <c r="DW62" s="24"/>
-      <c r="DX62" s="16"/>
-      <c r="DZ62" s="23"/>
-      <c r="EA62" s="24"/>
-      <c r="EB62" s="24"/>
-      <c r="EC62" s="24"/>
-      <c r="ED62" s="16"/>
+      <c r="A62" s="2">
+        <v>46</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="85"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="18"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="18"/>
+      <c r="AE62" s="18"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="18"/>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="10"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="14"/>
+      <c r="AO62" s="18"/>
+      <c r="AP62" s="18"/>
+      <c r="AQ62" s="18"/>
+      <c r="AR62" s="10"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="14"/>
+      <c r="AU62" s="18"/>
+      <c r="AV62" s="18"/>
+      <c r="AW62" s="18"/>
+      <c r="AX62" s="10"/>
+      <c r="AY62" s="12"/>
+      <c r="AZ62" s="14"/>
+      <c r="BA62" s="18"/>
+      <c r="BB62" s="18"/>
+      <c r="BC62" s="18"/>
+      <c r="BD62" s="10"/>
+      <c r="BE62" s="12"/>
+      <c r="BF62" s="14"/>
+      <c r="BG62" s="18"/>
+      <c r="BH62" s="18"/>
+      <c r="BI62" s="18"/>
+      <c r="BJ62" s="10"/>
+      <c r="BK62" s="12"/>
+      <c r="BL62" s="14"/>
+      <c r="BM62" s="18"/>
+      <c r="BN62" s="18"/>
+      <c r="BO62" s="18"/>
+      <c r="BP62" s="10"/>
+      <c r="BQ62" s="12"/>
+      <c r="BR62" s="14"/>
+      <c r="BS62" s="18"/>
+      <c r="BT62" s="18"/>
+      <c r="BU62" s="18"/>
+      <c r="BV62" s="10"/>
+      <c r="BW62" s="12"/>
+      <c r="BX62" s="14"/>
+      <c r="BY62" s="18"/>
+      <c r="BZ62" s="18"/>
+      <c r="CA62" s="18"/>
+      <c r="CB62" s="10"/>
+      <c r="CC62" s="12"/>
+      <c r="CD62" s="14"/>
+      <c r="CE62" s="18"/>
+      <c r="CF62" s="18"/>
+      <c r="CG62" s="18"/>
+      <c r="CH62" s="10"/>
+      <c r="CI62" s="12"/>
+      <c r="CJ62" s="14"/>
+      <c r="CK62" s="18"/>
+      <c r="CL62" s="18"/>
+      <c r="CM62" s="18"/>
+      <c r="CN62" s="10"/>
+      <c r="CO62" s="12"/>
+      <c r="CP62" s="14"/>
+      <c r="CQ62" s="18"/>
+      <c r="CR62" s="18"/>
+      <c r="CS62" s="18"/>
+      <c r="CT62" s="10"/>
+      <c r="CU62" s="12"/>
+      <c r="CV62" s="14"/>
+      <c r="CW62" s="18"/>
+      <c r="CX62" s="18"/>
+      <c r="CY62" s="18"/>
+      <c r="CZ62" s="10"/>
+      <c r="DA62" s="12"/>
+      <c r="DB62" s="14"/>
+      <c r="DC62" s="18"/>
+      <c r="DD62" s="18"/>
+      <c r="DE62" s="18"/>
+      <c r="DF62" s="10"/>
+      <c r="DG62" s="12"/>
+      <c r="DH62" s="14"/>
+      <c r="DI62" s="18"/>
+      <c r="DJ62" s="18"/>
+      <c r="DK62" s="18"/>
+      <c r="DL62" s="10"/>
+      <c r="DM62" s="12"/>
+      <c r="DN62" s="14"/>
+      <c r="DO62" s="18"/>
+      <c r="DP62" s="18"/>
+      <c r="DQ62" s="18"/>
+      <c r="DR62" s="10"/>
+      <c r="DS62" s="12"/>
+      <c r="DT62" s="14"/>
+      <c r="DU62" s="18"/>
+      <c r="DV62" s="18"/>
+      <c r="DW62" s="18"/>
+      <c r="DX62" s="10"/>
+      <c r="DY62" s="12"/>
+      <c r="DZ62" s="14"/>
+      <c r="EA62" s="18"/>
+      <c r="EB62" s="18"/>
+      <c r="EC62" s="18"/>
+      <c r="ED62" s="10"/>
+      <c r="EE62" s="12"/>
     </row>
     <row r="63" spans="1:135">
-      <c r="D63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" s="16"/>
-      <c r="J63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N63" s="16"/>
-      <c r="P63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="R63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="S63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="T63" s="16"/>
-      <c r="V63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="W63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="X63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z63" s="16"/>
-      <c r="AB63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF63" s="16"/>
-      <c r="AH63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL63" s="16"/>
-      <c r="AN63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR63" s="16"/>
-      <c r="AT63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX63" s="16"/>
-      <c r="AZ63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD63" s="16"/>
-      <c r="BF63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="BI63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ63" s="16"/>
-      <c r="BL63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="BN63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="BO63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="BP63" s="16"/>
-      <c r="BR63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="BS63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="BT63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="BU63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="BV63" s="16"/>
-      <c r="BX63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="BY63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="BZ63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="CA63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="CB63" s="16"/>
-      <c r="CD63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="CE63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="CF63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="CG63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="CH63" s="16"/>
-      <c r="CJ63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="CK63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="CL63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="CM63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="CN63" s="16"/>
-      <c r="CP63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="CQ63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="CR63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="CS63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="CT63" s="16"/>
-      <c r="CV63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="CW63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="CX63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="CY63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="CZ63" s="16"/>
-      <c r="DB63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="DC63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="DD63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="DE63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="DF63" s="16"/>
-      <c r="DH63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="DI63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="DJ63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="DK63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="DL63" s="16"/>
-      <c r="DN63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="DO63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="DP63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="DQ63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="DR63" s="16"/>
-      <c r="DT63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="DU63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="DV63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="DW63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="DX63" s="16"/>
-      <c r="DZ63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="EA63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="EB63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="EC63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="ED63" s="16"/>
+      <c r="A63" s="2">
+        <v>47</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="18"/>
+      <c r="AD63" s="18"/>
+      <c r="AE63" s="18"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="18"/>
+      <c r="AJ63" s="18"/>
+      <c r="AK63" s="18"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="18"/>
+      <c r="AP63" s="18"/>
+      <c r="AQ63" s="18"/>
+      <c r="AR63" s="10"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="6"/>
+      <c r="AU63" s="18"/>
+      <c r="AV63" s="18"/>
+      <c r="AW63" s="18"/>
+      <c r="AX63" s="10"/>
+      <c r="AY63" s="12"/>
+      <c r="AZ63" s="6"/>
+      <c r="BA63" s="18"/>
+      <c r="BB63" s="18"/>
+      <c r="BC63" s="18"/>
+      <c r="BD63" s="10"/>
+      <c r="BE63" s="12"/>
+      <c r="BF63" s="6"/>
+      <c r="BG63" s="18"/>
+      <c r="BH63" s="18"/>
+      <c r="BI63" s="18"/>
+      <c r="BJ63" s="10"/>
+      <c r="BK63" s="12"/>
+      <c r="BL63" s="6"/>
+      <c r="BM63" s="18"/>
+      <c r="BN63" s="18"/>
+      <c r="BO63" s="18"/>
+      <c r="BP63" s="10"/>
+      <c r="BQ63" s="12"/>
+      <c r="BR63" s="6"/>
+      <c r="BS63" s="18"/>
+      <c r="BT63" s="18"/>
+      <c r="BU63" s="18"/>
+      <c r="BV63" s="10"/>
+      <c r="BW63" s="12"/>
+      <c r="BX63" s="6"/>
+      <c r="BY63" s="18"/>
+      <c r="BZ63" s="18"/>
+      <c r="CA63" s="18"/>
+      <c r="CB63" s="10"/>
+      <c r="CC63" s="12"/>
+      <c r="CD63" s="6"/>
+      <c r="CE63" s="18"/>
+      <c r="CF63" s="18"/>
+      <c r="CG63" s="18"/>
+      <c r="CH63" s="10"/>
+      <c r="CI63" s="12"/>
+      <c r="CJ63" s="6"/>
+      <c r="CK63" s="18"/>
+      <c r="CL63" s="18"/>
+      <c r="CM63" s="18"/>
+      <c r="CN63" s="10"/>
+      <c r="CO63" s="12"/>
+      <c r="CP63" s="6"/>
+      <c r="CQ63" s="18"/>
+      <c r="CR63" s="18"/>
+      <c r="CS63" s="18"/>
+      <c r="CT63" s="10"/>
+      <c r="CU63" s="12"/>
+      <c r="CV63" s="6"/>
+      <c r="CW63" s="18"/>
+      <c r="CX63" s="18"/>
+      <c r="CY63" s="18"/>
+      <c r="CZ63" s="10"/>
+      <c r="DA63" s="12"/>
+      <c r="DB63" s="6"/>
+      <c r="DC63" s="18"/>
+      <c r="DD63" s="18"/>
+      <c r="DE63" s="18"/>
+      <c r="DF63" s="10"/>
+      <c r="DG63" s="12"/>
+      <c r="DH63" s="6"/>
+      <c r="DI63" s="18"/>
+      <c r="DJ63" s="18"/>
+      <c r="DK63" s="18"/>
+      <c r="DL63" s="10"/>
+      <c r="DM63" s="12"/>
+      <c r="DN63" s="6"/>
+      <c r="DO63" s="18"/>
+      <c r="DP63" s="18"/>
+      <c r="DQ63" s="18"/>
+      <c r="DR63" s="10"/>
+      <c r="DS63" s="12"/>
+      <c r="DT63" s="6"/>
+      <c r="DU63" s="18"/>
+      <c r="DV63" s="18"/>
+      <c r="DW63" s="18"/>
+      <c r="DX63" s="10"/>
+      <c r="DY63" s="12"/>
+      <c r="DZ63" s="6"/>
+      <c r="EA63" s="18"/>
+      <c r="EB63" s="18"/>
+      <c r="EC63" s="18"/>
+      <c r="ED63" s="10"/>
+      <c r="EE63" s="12"/>
     </row>
-    <row r="64" spans="1:135" ht="15" thickBot="1">
-      <c r="C64" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="28">
-        <f>SUM(D3:D61)</f>
-        <v>0.62500000000000011</v>
-      </c>
-      <c r="E64" s="29">
-        <f>SUM(E3:E61)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="29">
-        <f>SUM(G3:G61)</f>
-        <v>1.125</v>
-      </c>
-      <c r="H64" s="31"/>
-      <c r="J64" s="28">
-        <f>SUM(J3:J61)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K64" s="29">
-        <f>SUM(K3:K61)</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="M64" s="29">
-        <f>SUM(M3:M61)</f>
-        <v>0</v>
-      </c>
-      <c r="N64" s="31"/>
-      <c r="P64" s="28">
-        <f>SUM(P3:P61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="Q64" s="29">
-        <f>SUM(Q3:Q61)</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="R64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="S64" s="29">
-        <f>SUM(S3:S61)</f>
-        <v>0</v>
-      </c>
-      <c r="T64" s="31"/>
-      <c r="V64" s="28">
-        <f>SUM(V3:V61)</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="W64" s="29">
-        <f>SUM(W3:W61)</f>
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="X64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y64" s="29">
-        <f>SUM(Y3:Y61)</f>
-        <v>0</v>
-      </c>
-      <c r="Z64" s="31"/>
-      <c r="AB64" s="28">
-        <f>SUM(AB3:AB61)</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="AC64" s="29">
-        <f>SUM(AC3:AC61)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AD64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE64" s="29">
-        <f>SUM(AE3:AE61)</f>
-        <v>0</v>
-      </c>
-      <c r="AF64" s="31"/>
-      <c r="AH64" s="28">
-        <f>SUM(AH3:AH61)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AI64" s="29">
-        <f>SUM(AI3:AI61)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK64" s="29">
-        <f>SUM(AK3:AK61)</f>
-        <v>0</v>
-      </c>
-      <c r="AL64" s="31"/>
-      <c r="AN64" s="28">
-        <f>SUM(AN3:AN61)</f>
-        <v>0.54166666666666674</v>
-      </c>
-      <c r="AO64" s="29">
-        <f>SUM(AO3:AO61)</f>
-        <v>0</v>
-      </c>
-      <c r="AP64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ64" s="29">
-        <f>SUM(AQ3:AQ61)</f>
-        <v>0</v>
-      </c>
-      <c r="AR64" s="31"/>
-      <c r="AT64" s="28">
-        <f>SUM(AT3:AT61)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AU64" s="29">
-        <f>SUM(AU3:AU61)</f>
-        <v>0</v>
-      </c>
-      <c r="AV64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW64" s="29">
-        <f>SUM(AW3:AW61)</f>
-        <v>0</v>
-      </c>
-      <c r="AX64" s="31"/>
-      <c r="AZ64" s="28">
-        <f>SUM(AZ3:AZ61)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="BA64" s="29">
-        <f>SUM(BA3:BA61)</f>
-        <v>0</v>
-      </c>
-      <c r="BB64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC64" s="29">
-        <f>SUM(BC3:BC61)</f>
-        <v>0</v>
-      </c>
-      <c r="BD64" s="31"/>
-      <c r="BF64" s="28">
-        <f>SUM(BF3:BF61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="BG64" s="29">
-        <f>SUM(BG3:BG61)</f>
-        <v>0</v>
-      </c>
-      <c r="BH64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BI64" s="29">
-        <f>SUM(BI3:BI61)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ64" s="31"/>
-      <c r="BL64" s="28">
-        <f>SUM(BL3:BL61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="BM64" s="29">
-        <f>SUM(BM3:BM61)</f>
-        <v>0</v>
-      </c>
-      <c r="BN64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BO64" s="29">
-        <f>SUM(BO3:BO61)</f>
-        <v>0</v>
-      </c>
-      <c r="BP64" s="31"/>
-      <c r="BR64" s="28">
-        <f>SUM(BR3:BR61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="BS64" s="29">
-        <f>SUM(BS3:BS61)</f>
-        <v>0</v>
-      </c>
-      <c r="BT64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BU64" s="29">
-        <f>SUM(BU3:BU61)</f>
-        <v>0</v>
-      </c>
-      <c r="BV64" s="31"/>
-      <c r="BX64" s="28">
-        <f>SUM(BX3:BX61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="BY64" s="29">
-        <f>SUM(BY3:BY61)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="CA64" s="29">
-        <f>SUM(CA3:CA61)</f>
-        <v>0</v>
-      </c>
-      <c r="CB64" s="31"/>
-      <c r="CD64" s="28">
-        <f>SUM(CD3:CD61)</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="CE64" s="29">
-        <f>SUM(CE3:CE61)</f>
-        <v>0</v>
-      </c>
-      <c r="CF64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="CG64" s="29">
-        <f>SUM(CG3:CG61)</f>
-        <v>0</v>
-      </c>
-      <c r="CH64" s="31"/>
-      <c r="CJ64" s="28">
-        <f>SUM(CJ3:CJ61)</f>
-        <v>0.37499999999999994</v>
-      </c>
-      <c r="CK64" s="29">
-        <f>SUM(CK3:CK61)</f>
-        <v>0</v>
-      </c>
-      <c r="CL64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="CM64" s="29">
-        <f>SUM(CM3:CM61)</f>
-        <v>0</v>
-      </c>
-      <c r="CN64" s="31"/>
-      <c r="CP64" s="28">
-        <f>SUM(CP3:CP61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="CQ64" s="29">
-        <f>SUM(CQ3:CQ61)</f>
-        <v>0</v>
-      </c>
-      <c r="CR64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="CS64" s="29">
-        <f>SUM(CS3:CS61)</f>
-        <v>0</v>
-      </c>
-      <c r="CT64" s="31"/>
-      <c r="CV64" s="28">
-        <f>SUM(CV3:CV61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="CW64" s="29">
-        <f>SUM(CW3:CW61)</f>
-        <v>0</v>
-      </c>
-      <c r="CX64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="CY64" s="29">
-        <f>SUM(CY3:CY61)</f>
-        <v>0</v>
-      </c>
-      <c r="CZ64" s="31"/>
-      <c r="DB64" s="28">
-        <f>SUM(DB3:DB61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="DC64" s="29">
-        <f>SUM(DC3:DC61)</f>
-        <v>0</v>
-      </c>
-      <c r="DD64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="DE64" s="29">
-        <f>SUM(DE3:DE61)</f>
-        <v>0</v>
-      </c>
-      <c r="DF64" s="31"/>
-      <c r="DH64" s="28">
-        <f>SUM(DH3:DH61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="DI64" s="29">
-        <f>SUM(DI3:DI61)</f>
-        <v>0</v>
-      </c>
-      <c r="DJ64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="DK64" s="29">
-        <f>SUM(DK3:DK61)</f>
-        <v>0</v>
-      </c>
-      <c r="DL64" s="31"/>
-      <c r="DN64" s="28">
-        <f>SUM(DN3:DN61)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="DO64" s="29">
-        <f>SUM(DO3:DO61)</f>
-        <v>0</v>
-      </c>
-      <c r="DP64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="DQ64" s="29">
-        <f>SUM(DQ3:DQ61)</f>
-        <v>0</v>
-      </c>
-      <c r="DR64" s="31"/>
-      <c r="DT64" s="28">
-        <f>SUM(DT3:DT61)</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="DU64" s="29">
-        <f>SUM(DU3:DU61)</f>
-        <v>0</v>
-      </c>
-      <c r="DV64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="DW64" s="29">
-        <f>SUM(DW3:DW61)</f>
-        <v>0</v>
-      </c>
-      <c r="DX64" s="31"/>
-      <c r="DZ64" s="28">
-        <f>SUM(DZ3:DZ61)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="EA64" s="29">
-        <f>SUM(EA3:EA61)</f>
-        <v>0</v>
-      </c>
-      <c r="EB64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="EC64" s="29">
-        <f>SUM(EC3:EC61)</f>
-        <v>0</v>
-      </c>
-      <c r="ED64" s="31"/>
+    <row r="64" spans="1:135">
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="16"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="16"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="16"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="16"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="16"/>
+      <c r="AH64" s="23"/>
+      <c r="AI64" s="24"/>
+      <c r="AJ64" s="24"/>
+      <c r="AK64" s="24"/>
+      <c r="AL64" s="16"/>
+      <c r="AN64" s="23"/>
+      <c r="AO64" s="24"/>
+      <c r="AP64" s="24"/>
+      <c r="AQ64" s="24"/>
+      <c r="AR64" s="16"/>
+      <c r="AT64" s="23"/>
+      <c r="AU64" s="24"/>
+      <c r="AV64" s="24"/>
+      <c r="AW64" s="24"/>
+      <c r="AX64" s="16"/>
+      <c r="AZ64" s="23"/>
+      <c r="BA64" s="24"/>
+      <c r="BB64" s="24"/>
+      <c r="BC64" s="24"/>
+      <c r="BD64" s="16"/>
+      <c r="BF64" s="23"/>
+      <c r="BG64" s="24"/>
+      <c r="BH64" s="24"/>
+      <c r="BI64" s="24"/>
+      <c r="BJ64" s="16"/>
+      <c r="BL64" s="23"/>
+      <c r="BM64" s="24"/>
+      <c r="BN64" s="24"/>
+      <c r="BO64" s="24"/>
+      <c r="BP64" s="16"/>
+      <c r="BR64" s="23"/>
+      <c r="BS64" s="24"/>
+      <c r="BT64" s="24"/>
+      <c r="BU64" s="24"/>
+      <c r="BV64" s="16"/>
+      <c r="BX64" s="23"/>
+      <c r="BY64" s="24"/>
+      <c r="BZ64" s="24"/>
+      <c r="CA64" s="24"/>
+      <c r="CB64" s="16"/>
+      <c r="CD64" s="23"/>
+      <c r="CE64" s="24"/>
+      <c r="CF64" s="24"/>
+      <c r="CG64" s="24"/>
+      <c r="CH64" s="16"/>
+      <c r="CJ64" s="23"/>
+      <c r="CK64" s="24"/>
+      <c r="CL64" s="24"/>
+      <c r="CM64" s="24"/>
+      <c r="CN64" s="16"/>
+      <c r="CP64" s="23"/>
+      <c r="CQ64" s="24"/>
+      <c r="CR64" s="24"/>
+      <c r="CS64" s="24"/>
+      <c r="CT64" s="16"/>
+      <c r="CV64" s="23"/>
+      <c r="CW64" s="24"/>
+      <c r="CX64" s="24"/>
+      <c r="CY64" s="24"/>
+      <c r="CZ64" s="16"/>
+      <c r="DB64" s="23"/>
+      <c r="DC64" s="24"/>
+      <c r="DD64" s="24"/>
+      <c r="DE64" s="24"/>
+      <c r="DF64" s="16"/>
+      <c r="DH64" s="23"/>
+      <c r="DI64" s="24"/>
+      <c r="DJ64" s="24"/>
+      <c r="DK64" s="24"/>
+      <c r="DL64" s="16"/>
+      <c r="DN64" s="23"/>
+      <c r="DO64" s="24"/>
+      <c r="DP64" s="24"/>
+      <c r="DQ64" s="24"/>
+      <c r="DR64" s="16"/>
+      <c r="DT64" s="23"/>
+      <c r="DU64" s="24"/>
+      <c r="DV64" s="24"/>
+      <c r="DW64" s="24"/>
+      <c r="DX64" s="16"/>
+      <c r="DZ64" s="23"/>
+      <c r="EA64" s="24"/>
+      <c r="EB64" s="24"/>
+      <c r="EC64" s="24"/>
+      <c r="ED64" s="16"/>
     </row>
     <row r="65" spans="3:134">
-      <c r="D65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="33">
-        <f>G64/E64</f>
-        <v>6.75</v>
-      </c>
-      <c r="H65" s="34"/>
-      <c r="J65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K65" s="33" t="e">
-        <f>M64/K64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N65" s="34"/>
-      <c r="P65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q65" s="33">
-        <f>S64/Q64</f>
+      <c r="D65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="J65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N65" s="16"/>
+      <c r="P65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="S65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T65" s="16"/>
+      <c r="V65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="W65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="X65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z65" s="16"/>
+      <c r="AB65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF65" s="16"/>
+      <c r="AH65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL65" s="16"/>
+      <c r="AN65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR65" s="16"/>
+      <c r="AT65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX65" s="16"/>
+      <c r="AZ65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD65" s="16"/>
+      <c r="BF65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ65" s="16"/>
+      <c r="BL65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BP65" s="16"/>
+      <c r="BR65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="BS65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV65" s="16"/>
+      <c r="BX65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="BY65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CB65" s="16"/>
+      <c r="CD65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="CG65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CH65" s="16"/>
+      <c r="CJ65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="CM65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN65" s="16"/>
+      <c r="CP65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="CQ65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="CR65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="CS65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CT65" s="16"/>
+      <c r="CV65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="CW65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="CX65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="CY65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ65" s="16"/>
+      <c r="DB65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="DC65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="DD65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="DF65" s="16"/>
+      <c r="DH65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="DI65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="DJ65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="DL65" s="16"/>
+      <c r="DN65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="DO65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="DP65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="DQ65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="DR65" s="16"/>
+      <c r="DT65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="DU65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="DV65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="DW65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="DX65" s="16"/>
+      <c r="DZ65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="EA65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="EB65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="EC65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="ED65" s="16"/>
+    </row>
+    <row r="66" spans="3:134" ht="15.75" thickBot="1">
+      <c r="C66" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="28">
+        <f>SUM(D3:D63)</f>
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="E66" s="29">
+        <f>SUM(E3:E63)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="29">
+        <f>SUM(G3:G63)</f>
+        <v>1.125</v>
+      </c>
+      <c r="H66" s="31"/>
+      <c r="J66" s="28">
+        <f>SUM(J3:J63)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K66" s="29">
+        <f>SUM(K3:K63)</f>
         <v>0</v>
       </c>
-      <c r="T65" s="34"/>
-      <c r="V65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="W65" s="33">
-        <f>Y64/W64</f>
+      <c r="L66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M66" s="29">
+        <f>SUM(M3:M63)</f>
         <v>0</v>
       </c>
-      <c r="Z65" s="34"/>
-      <c r="AB65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC65" s="33">
-        <f>AE64/AC64</f>
+      <c r="N66" s="31"/>
+      <c r="P66" s="28">
+        <f>SUM(P3:P63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="Q66" s="29">
+        <f>SUM(Q3:Q63)</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="R66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S66" s="29">
+        <f>SUM(S3:S63)</f>
         <v>0</v>
       </c>
-      <c r="AF65" s="34"/>
-      <c r="AH65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI65" s="33">
-        <f>AK64/AI64</f>
+      <c r="T66" s="31"/>
+      <c r="V66" s="28">
+        <f>SUM(V3:V63)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="W66" s="29">
+        <f>SUM(W3:W63)</f>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="X66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y66" s="29">
+        <f>SUM(Y3:Y63)</f>
         <v>0</v>
       </c>
-      <c r="AL65" s="34"/>
-      <c r="AN65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO65" s="33" t="e">
-        <f>AQ64/AO64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR65" s="34"/>
-      <c r="AT65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU65" s="33" t="e">
-        <f>AW64/AU64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX65" s="34"/>
-      <c r="AZ65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA65" s="33" t="e">
-        <f>BC64/BA64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD65" s="34"/>
-      <c r="BF65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG65" s="33" t="e">
-        <f>BI64/BG64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ65" s="34"/>
-      <c r="BL65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BM65" s="33" t="e">
-        <f>BO64/BM64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP65" s="34"/>
-      <c r="BR65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BS65" s="33" t="e">
-        <f>BU64/BS64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BV65" s="34"/>
-      <c r="BX65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BY65" s="33" t="e">
-        <f>CA64/BY64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CB65" s="34"/>
-      <c r="CD65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="CE65" s="33" t="e">
-        <f>CG64/CE64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH65" s="34"/>
-      <c r="CJ65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="CK65" s="33" t="e">
-        <f>CM64/CK64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CN65" s="34"/>
-      <c r="CP65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="CQ65" s="33" t="e">
-        <f>CS64/CQ64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CT65" s="34"/>
-      <c r="CV65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="CW65" s="33" t="e">
-        <f>CY64/CW64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CZ65" s="34"/>
-      <c r="DB65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC65" s="33" t="e">
-        <f>DE64/DC64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DF65" s="34"/>
-      <c r="DH65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI65" s="33" t="e">
-        <f>DK64/DI64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DL65" s="34"/>
-      <c r="DN65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO65" s="33" t="e">
-        <f>DQ64/DO64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DR65" s="34"/>
-      <c r="DT65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="DU65" s="33" t="e">
-        <f>DW64/DU64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DX65" s="34"/>
-      <c r="DZ65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="EA65" s="33" t="e">
-        <f>EC64/EA64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="ED65" s="34"/>
-    </row>
-    <row r="66" spans="3:134">
-      <c r="D66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="33">
-        <f>G64/D64</f>
-        <v>1.7999999999999996</v>
-      </c>
-      <c r="H66" s="34"/>
-      <c r="J66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K66" s="33">
-        <f>M64/J64</f>
+      <c r="Z66" s="31"/>
+      <c r="AB66" s="28">
+        <f>SUM(AB3:AB63)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="AC66" s="29">
+        <f>SUM(AC3:AC63)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AD66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE66" s="29">
+        <f>SUM(AE3:AE63)</f>
         <v>0</v>
       </c>
-      <c r="N66" s="34"/>
-      <c r="P66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q66" s="33">
-        <f>S64/P64</f>
+      <c r="AF66" s="31"/>
+      <c r="AH66" s="28">
+        <f>SUM(AH3:AH63)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AI66" s="29">
+        <f>SUM(AI3:AI63)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK66" s="29">
+        <f>SUM(AK3:AK63)</f>
         <v>0</v>
       </c>
-      <c r="T66" s="34"/>
-      <c r="V66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W66" s="33">
-        <f>Y64/V64</f>
+      <c r="AL66" s="31"/>
+      <c r="AN66" s="28">
+        <f>SUM(AN3:AN63)</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="AO66" s="29">
+        <f>SUM(AO3:AO63)</f>
         <v>0</v>
       </c>
-      <c r="Z66" s="34"/>
-      <c r="AB66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC66" s="33">
-        <f>AE64/AB64</f>
+      <c r="AP66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ66" s="29">
+        <f>SUM(AQ3:AQ63)</f>
         <v>0</v>
       </c>
-      <c r="AF66" s="34"/>
-      <c r="AH66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI66" s="33">
-        <f>AK64/AH64</f>
+      <c r="AR66" s="31"/>
+      <c r="AT66" s="28">
+        <f>SUM(AT3:AT63)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AU66" s="29">
+        <f>SUM(AU3:AU63)</f>
         <v>0</v>
       </c>
-      <c r="AL66" s="34"/>
-      <c r="AN66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO66" s="33">
-        <f>AQ64/AN64</f>
+      <c r="AV66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW66" s="29">
+        <f>SUM(AW3:AW63)</f>
         <v>0</v>
       </c>
-      <c r="AR66" s="34"/>
-      <c r="AT66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU66" s="33">
-        <f>AW64/AT64</f>
+      <c r="AX66" s="31"/>
+      <c r="AZ66" s="28">
+        <f>SUM(AZ3:AZ63)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="BA66" s="29">
+        <f>SUM(BA3:BA63)</f>
         <v>0</v>
       </c>
-      <c r="AX66" s="34"/>
-      <c r="AZ66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA66" s="33">
-        <f>BC64/AZ64</f>
+      <c r="BB66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC66" s="29">
+        <f>SUM(BC3:BC63)</f>
         <v>0</v>
       </c>
-      <c r="BD66" s="34"/>
-      <c r="BF66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG66" s="33">
-        <f>BI64/BF64</f>
+      <c r="BD66" s="31"/>
+      <c r="BF66" s="28">
+        <f>SUM(BF3:BF63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="BG66" s="29">
+        <f>SUM(BG3:BG63)</f>
         <v>0</v>
       </c>
-      <c r="BJ66" s="34"/>
-      <c r="BL66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM66" s="33">
-        <f>BO64/BL64</f>
+      <c r="BH66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI66" s="29">
+        <f>SUM(BI3:BI63)</f>
         <v>0</v>
       </c>
-      <c r="BP66" s="34"/>
-      <c r="BR66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS66" s="33">
-        <f>BU64/BR64</f>
+      <c r="BJ66" s="31"/>
+      <c r="BL66" s="28">
+        <f>SUM(BL3:BL63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="BM66" s="29">
+        <f>SUM(BM3:BM63)</f>
         <v>0</v>
       </c>
-      <c r="BV66" s="34"/>
-      <c r="BX66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY66" s="33">
-        <f>CA64/BX64</f>
+      <c r="BN66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO66" s="29">
+        <f>SUM(BO3:BO63)</f>
         <v>0</v>
       </c>
-      <c r="CB66" s="34"/>
-      <c r="CD66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE66" s="33">
-        <f>CG64/CD64</f>
+      <c r="BP66" s="31"/>
+      <c r="BR66" s="28">
+        <f>SUM(BR3:BR63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="BS66" s="29">
+        <f>SUM(BS3:BS63)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="BT66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU66" s="29">
+        <f>SUM(BU3:BU63)</f>
         <v>0</v>
       </c>
-      <c r="CH66" s="34"/>
-      <c r="CJ66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK66" s="33">
-        <f>CM64/CJ64</f>
+      <c r="BV66" s="31"/>
+      <c r="BX66" s="28">
+        <f>SUM(BX3:BX63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="BY66" s="29">
+        <f>SUM(BY3:BY63)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="BZ66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA66" s="29">
+        <f>SUM(CA3:CA63)</f>
         <v>0</v>
       </c>
-      <c r="CN66" s="34"/>
-      <c r="CP66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="CQ66" s="33">
-        <f>CS64/CP64</f>
+      <c r="CB66" s="31"/>
+      <c r="CD66" s="28">
+        <f>SUM(CD3:CD63)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="CE66" s="29">
+        <f>SUM(CE3:CE63)</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="CF66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG66" s="29">
+        <f>SUM(CG3:CG63)</f>
         <v>0</v>
       </c>
-      <c r="CT66" s="34"/>
-      <c r="CV66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW66" s="33">
-        <f>CY64/CV64</f>
+      <c r="CH66" s="31"/>
+      <c r="CJ66" s="28">
+        <f>SUM(CJ3:CJ63)</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="CK66" s="29">
+        <f>SUM(CK3:CK63)</f>
         <v>0</v>
       </c>
-      <c r="CZ66" s="34"/>
-      <c r="DB66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="DC66" s="33">
-        <f>DE64/DB64</f>
+      <c r="CL66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM66" s="29">
+        <f>SUM(CM3:CM63)</f>
         <v>0</v>
       </c>
-      <c r="DF66" s="34"/>
-      <c r="DH66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="DI66" s="33">
-        <f>DK64/DH64</f>
+      <c r="CN66" s="31"/>
+      <c r="CP66" s="28">
+        <f>SUM(CP3:CP63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="CQ66" s="29">
+        <f>SUM(CQ3:CQ63)</f>
         <v>0</v>
       </c>
-      <c r="DL66" s="34"/>
-      <c r="DN66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="DO66" s="33">
-        <f>DQ64/DN64</f>
+      <c r="CR66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="CS66" s="29">
+        <f>SUM(CS3:CS63)</f>
         <v>0</v>
       </c>
-      <c r="DR66" s="34"/>
-      <c r="DT66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="DU66" s="33">
-        <f>DW64/DT64</f>
+      <c r="CT66" s="31"/>
+      <c r="CV66" s="28">
+        <f>SUM(CV3:CV63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="CW66" s="29">
+        <f>SUM(CW3:CW63)</f>
         <v>0</v>
       </c>
-      <c r="DX66" s="34"/>
-      <c r="DZ66" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="EA66" s="33">
-        <f>EC64/DZ64</f>
+      <c r="CX66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="CY66" s="29">
+        <f>SUM(CY3:CY63)</f>
         <v>0</v>
       </c>
-      <c r="ED66" s="34"/>
+      <c r="CZ66" s="31"/>
+      <c r="DB66" s="28">
+        <f>SUM(DB3:DB63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="DC66" s="29">
+        <f>SUM(DC3:DC63)</f>
+        <v>0</v>
+      </c>
+      <c r="DD66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="DE66" s="29">
+        <f>SUM(DE3:DE63)</f>
+        <v>0</v>
+      </c>
+      <c r="DF66" s="31"/>
+      <c r="DH66" s="28">
+        <f>SUM(DH3:DH63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="DI66" s="29">
+        <f>SUM(DI3:DI63)</f>
+        <v>0</v>
+      </c>
+      <c r="DJ66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="DK66" s="29">
+        <f>SUM(DK3:DK63)</f>
+        <v>0</v>
+      </c>
+      <c r="DL66" s="31"/>
+      <c r="DN66" s="28">
+        <f>SUM(DN3:DN63)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="DO66" s="29">
+        <f>SUM(DO3:DO63)</f>
+        <v>0</v>
+      </c>
+      <c r="DP66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="DQ66" s="29">
+        <f>SUM(DQ3:DQ63)</f>
+        <v>0</v>
+      </c>
+      <c r="DR66" s="31"/>
+      <c r="DT66" s="28">
+        <f>SUM(DT3:DT63)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="DU66" s="29">
+        <f>SUM(DU3:DU63)</f>
+        <v>0</v>
+      </c>
+      <c r="DV66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="DW66" s="29">
+        <f>SUM(DW3:DW63)</f>
+        <v>0</v>
+      </c>
+      <c r="DX66" s="31"/>
+      <c r="DZ66" s="28">
+        <f>SUM(DZ3:DZ63)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="EA66" s="29">
+        <f>SUM(EA3:EA63)</f>
+        <v>0</v>
+      </c>
+      <c r="EB66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="EC66" s="29">
+        <f>SUM(EC3:EC63)</f>
+        <v>0</v>
+      </c>
+      <c r="ED66" s="31"/>
     </row>
     <row r="67" spans="3:134">
       <c r="D67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="35">
-        <f>1-E65</f>
-        <v>-5.75</v>
+        <v>38</v>
+      </c>
+      <c r="E67" s="33">
+        <f>G66/E66</f>
+        <v>6.75</v>
       </c>
       <c r="H67" s="34"/>
       <c r="J67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K67" s="35" t="e">
-        <f>1-K65</f>
+        <v>38</v>
+      </c>
+      <c r="K67" s="33" t="e">
+        <f>M66/K66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N67" s="34"/>
       <c r="P67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q67" s="35">
-        <f>1-Q65</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="Q67" s="33">
+        <f>S66/Q66</f>
+        <v>0</v>
       </c>
       <c r="T67" s="34"/>
       <c r="V67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W67" s="35">
-        <f>1-W65</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="W67" s="33">
+        <f>Y66/W66</f>
+        <v>0</v>
       </c>
       <c r="Z67" s="34"/>
       <c r="AB67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC67" s="35">
-        <f>1-AC65</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="AC67" s="33">
+        <f>AE66/AC66</f>
+        <v>0</v>
       </c>
       <c r="AF67" s="34"/>
       <c r="AH67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI67" s="35">
-        <f>1-AI65</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="AI67" s="33">
+        <f>AK66/AI66</f>
+        <v>0</v>
       </c>
       <c r="AL67" s="34"/>
       <c r="AN67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO67" s="35" t="e">
-        <f>1-AO65</f>
+        <v>38</v>
+      </c>
+      <c r="AO67" s="33" t="e">
+        <f>AQ66/AO66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR67" s="34"/>
       <c r="AT67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU67" s="35" t="e">
-        <f>1-AU65</f>
+        <v>38</v>
+      </c>
+      <c r="AU67" s="33" t="e">
+        <f>AW66/AU66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AX67" s="34"/>
       <c r="AZ67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA67" s="35" t="e">
-        <f>1-BA65</f>
+        <v>38</v>
+      </c>
+      <c r="BA67" s="33" t="e">
+        <f>BC66/BA66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD67" s="34"/>
       <c r="BF67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG67" s="35" t="e">
-        <f>1-BG65</f>
+        <v>38</v>
+      </c>
+      <c r="BG67" s="33" t="e">
+        <f>BI66/BG66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ67" s="34"/>
       <c r="BL67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM67" s="35" t="e">
-        <f>1-BM65</f>
+        <v>38</v>
+      </c>
+      <c r="BM67" s="33" t="e">
+        <f>BO66/BM66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BP67" s="34"/>
       <c r="BR67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BS67" s="35" t="e">
-        <f>1-BS65</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="BS67" s="33">
+        <f>BU66/BS66</f>
+        <v>0</v>
       </c>
       <c r="BV67" s="34"/>
       <c r="BX67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BY67" s="35" t="e">
-        <f>1-BY65</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="BY67" s="33">
+        <f>CA66/BY66</f>
+        <v>0</v>
       </c>
       <c r="CB67" s="34"/>
       <c r="CD67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="CE67" s="35" t="e">
-        <f>1-CE65</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="CE67" s="33">
+        <f>CG66/CE66</f>
+        <v>0</v>
       </c>
       <c r="CH67" s="34"/>
       <c r="CJ67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="CK67" s="35" t="e">
-        <f>1-CK65</f>
+        <v>38</v>
+      </c>
+      <c r="CK67" s="33" t="e">
+        <f>CM66/CK66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CN67" s="34"/>
       <c r="CP67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="CQ67" s="35" t="e">
-        <f>1-CQ65</f>
+        <v>38</v>
+      </c>
+      <c r="CQ67" s="33" t="e">
+        <f>CS66/CQ66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CT67" s="34"/>
       <c r="CV67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="CW67" s="35" t="e">
-        <f>1-CW65</f>
+        <v>38</v>
+      </c>
+      <c r="CW67" s="33" t="e">
+        <f>CY66/CW66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CZ67" s="34"/>
       <c r="DB67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC67" s="35" t="e">
-        <f>1-DC65</f>
+        <v>38</v>
+      </c>
+      <c r="DC67" s="33" t="e">
+        <f>DE66/DC66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DF67" s="34"/>
       <c r="DH67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI67" s="35" t="e">
-        <f>1-DI65</f>
+        <v>38</v>
+      </c>
+      <c r="DI67" s="33" t="e">
+        <f>DK66/DI66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DL67" s="34"/>
       <c r="DN67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="DO67" s="35" t="e">
-        <f>1-DO65</f>
+        <v>38</v>
+      </c>
+      <c r="DO67" s="33" t="e">
+        <f>DQ66/DO66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DR67" s="34"/>
       <c r="DT67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="DU67" s="35" t="e">
-        <f>1-DU65</f>
+        <v>38</v>
+      </c>
+      <c r="DU67" s="33" t="e">
+        <f>DW66/DU66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DX67" s="34"/>
       <c r="DZ67" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="EA67" s="35" t="e">
-        <f>1-EA65</f>
+        <v>38</v>
+      </c>
+      <c r="EA67" s="33" t="e">
+        <f>EC66/EA66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="ED67" s="34"/>
     </row>
     <row r="68" spans="3:134">
       <c r="D68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="35">
-        <f>1-E66</f>
-        <v>-0.7999999999999996</v>
+        <v>39</v>
+      </c>
+      <c r="E68" s="33">
+        <f>G66/D66</f>
+        <v>1.7999999999999996</v>
       </c>
       <c r="H68" s="34"/>
       <c r="J68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K68" s="35">
-        <f>1-K66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="K68" s="33">
+        <f>M66/J66</f>
+        <v>0</v>
       </c>
       <c r="N68" s="34"/>
       <c r="P68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q68" s="35">
-        <f>1-Q66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="Q68" s="33">
+        <f>S66/P66</f>
+        <v>0</v>
       </c>
       <c r="T68" s="34"/>
       <c r="V68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="W68" s="35">
-        <f>1-W66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="W68" s="33">
+        <f>Y66/V66</f>
+        <v>0</v>
       </c>
       <c r="Z68" s="34"/>
       <c r="AB68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC68" s="35">
-        <f>1-AC66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AC68" s="33">
+        <f>AE66/AB66</f>
+        <v>0</v>
       </c>
       <c r="AF68" s="34"/>
       <c r="AH68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI68" s="35">
-        <f>1-AI66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AI68" s="33">
+        <f>AK66/AH66</f>
+        <v>0</v>
       </c>
       <c r="AL68" s="34"/>
       <c r="AN68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO68" s="35">
-        <f>1-AO66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AO68" s="33">
+        <f>AQ66/AN66</f>
+        <v>0</v>
       </c>
       <c r="AR68" s="34"/>
       <c r="AT68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU68" s="35">
-        <f>1-AU66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AU68" s="33">
+        <f>AW66/AT66</f>
+        <v>0</v>
       </c>
       <c r="AX68" s="34"/>
       <c r="AZ68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA68" s="35">
-        <f>1-BA66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BA68" s="33">
+        <f>BC66/AZ66</f>
+        <v>0</v>
       </c>
       <c r="BD68" s="34"/>
       <c r="BF68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG68" s="35">
-        <f>1-BG66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BG68" s="33">
+        <f>BI66/BF66</f>
+        <v>0</v>
       </c>
       <c r="BJ68" s="34"/>
       <c r="BL68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM68" s="35">
-        <f>1-BM66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BM68" s="33">
+        <f>BO66/BL66</f>
+        <v>0</v>
       </c>
       <c r="BP68" s="34"/>
       <c r="BR68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BS68" s="35">
-        <f>1-BS66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BS68" s="33">
+        <f>BU66/BR66</f>
+        <v>0</v>
       </c>
       <c r="BV68" s="34"/>
       <c r="BX68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY68" s="35">
-        <f>1-BY66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BY68" s="33">
+        <f>CA66/BX66</f>
+        <v>0</v>
       </c>
       <c r="CB68" s="34"/>
       <c r="CD68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="CE68" s="35">
-        <f>1-CE66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="CE68" s="33">
+        <f>CG66/CD66</f>
+        <v>0</v>
       </c>
       <c r="CH68" s="34"/>
       <c r="CJ68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="CK68" s="35">
-        <f>1-CK66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="CK68" s="33">
+        <f>CM66/CJ66</f>
+        <v>0</v>
       </c>
       <c r="CN68" s="34"/>
       <c r="CP68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="CQ68" s="35">
-        <f>1-CQ66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="CQ68" s="33">
+        <f>CS66/CP66</f>
+        <v>0</v>
       </c>
       <c r="CT68" s="34"/>
       <c r="CV68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="CW68" s="35">
-        <f>1-CW66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="CW68" s="33">
+        <f>CY66/CV66</f>
+        <v>0</v>
       </c>
       <c r="CZ68" s="34"/>
       <c r="DB68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DC68" s="35">
-        <f>1-DC66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="DC68" s="33">
+        <f>DE66/DB66</f>
+        <v>0</v>
       </c>
       <c r="DF68" s="34"/>
       <c r="DH68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DI68" s="35">
-        <f>1-DI66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="DI68" s="33">
+        <f>DK66/DH66</f>
+        <v>0</v>
       </c>
       <c r="DL68" s="34"/>
       <c r="DN68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DO68" s="35">
-        <f>1-DO66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="DO68" s="33">
+        <f>DQ66/DN66</f>
+        <v>0</v>
       </c>
       <c r="DR68" s="34"/>
       <c r="DT68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DU68" s="35">
-        <f>1-DU66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="DU68" s="33">
+        <f>DW66/DT66</f>
+        <v>0</v>
       </c>
       <c r="DX68" s="34"/>
       <c r="DZ68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="EA68" s="35">
-        <f>1-EA66</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="EA68" s="33">
+        <f>EC66/DZ66</f>
+        <v>0</v>
       </c>
       <c r="ED68" s="34"/>
     </row>
     <row r="69" spans="3:134">
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="AB69"/>
-      <c r="AC69"/>
-      <c r="AH69"/>
-      <c r="AI69"/>
-      <c r="AN69"/>
-      <c r="AO69"/>
-      <c r="AT69"/>
-      <c r="AU69"/>
-      <c r="AZ69"/>
-      <c r="BA69"/>
-      <c r="BF69"/>
-      <c r="BG69"/>
-      <c r="BL69"/>
-      <c r="BM69"/>
-      <c r="BR69"/>
-      <c r="BS69"/>
-      <c r="BX69"/>
-      <c r="BY69"/>
-      <c r="CD69"/>
-      <c r="CE69"/>
-      <c r="CJ69"/>
-      <c r="CK69"/>
-      <c r="CP69"/>
-      <c r="CQ69"/>
-      <c r="CV69"/>
-      <c r="CW69"/>
-      <c r="DB69"/>
-      <c r="DC69"/>
-      <c r="DH69"/>
-      <c r="DI69"/>
-      <c r="DN69"/>
-      <c r="DO69"/>
-      <c r="DT69"/>
-      <c r="DU69"/>
-      <c r="DZ69"/>
-      <c r="EA69"/>
+      <c r="D69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="35">
+        <f>1-E67</f>
+        <v>-5.75</v>
+      </c>
+      <c r="H69" s="34"/>
+      <c r="J69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="35" t="e">
+        <f>1-K67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N69" s="34"/>
+      <c r="P69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q69" s="35">
+        <f>1-Q67</f>
+        <v>1</v>
+      </c>
+      <c r="T69" s="34"/>
+      <c r="V69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="W69" s="35">
+        <f>1-W67</f>
+        <v>1</v>
+      </c>
+      <c r="Z69" s="34"/>
+      <c r="AB69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC69" s="35">
+        <f>1-AC67</f>
+        <v>1</v>
+      </c>
+      <c r="AF69" s="34"/>
+      <c r="AH69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI69" s="35">
+        <f>1-AI67</f>
+        <v>1</v>
+      </c>
+      <c r="AL69" s="34"/>
+      <c r="AN69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO69" s="35" t="e">
+        <f>1-AO67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR69" s="34"/>
+      <c r="AT69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU69" s="35" t="e">
+        <f>1-AU67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX69" s="34"/>
+      <c r="AZ69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA69" s="35" t="e">
+        <f>1-BA67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD69" s="34"/>
+      <c r="BF69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG69" s="35" t="e">
+        <f>1-BG67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ69" s="34"/>
+      <c r="BL69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM69" s="35" t="e">
+        <f>1-BM67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP69" s="34"/>
+      <c r="BR69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BS69" s="35">
+        <f>1-BS67</f>
+        <v>1</v>
+      </c>
+      <c r="BV69" s="34"/>
+      <c r="BX69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY69" s="35">
+        <f>1-BY67</f>
+        <v>1</v>
+      </c>
+      <c r="CB69" s="34"/>
+      <c r="CD69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="CE69" s="35">
+        <f>1-CE67</f>
+        <v>1</v>
+      </c>
+      <c r="CH69" s="34"/>
+      <c r="CJ69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="CK69" s="35" t="e">
+        <f>1-CK67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CN69" s="34"/>
+      <c r="CP69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="CQ69" s="35" t="e">
+        <f>1-CQ67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CT69" s="34"/>
+      <c r="CV69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW69" s="35" t="e">
+        <f>1-CW67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CZ69" s="34"/>
+      <c r="DB69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC69" s="35" t="e">
+        <f>1-DC67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF69" s="34"/>
+      <c r="DH69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI69" s="35" t="e">
+        <f>1-DI67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DL69" s="34"/>
+      <c r="DN69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="DO69" s="35" t="e">
+        <f>1-DO67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DR69" s="34"/>
+      <c r="DT69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="DU69" s="35" t="e">
+        <f>1-DU67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DX69" s="34"/>
+      <c r="DZ69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="EA69" s="35" t="e">
+        <f>1-EA67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="ED69" s="34"/>
     </row>
     <row r="70" spans="3:134">
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="AB70"/>
-      <c r="AC70"/>
-      <c r="AH70"/>
-      <c r="AI70"/>
-      <c r="AN70"/>
-      <c r="AO70"/>
-      <c r="AT70"/>
-      <c r="AU70"/>
-      <c r="AZ70"/>
-      <c r="BA70"/>
-      <c r="BF70"/>
-      <c r="BG70"/>
-      <c r="BL70"/>
-      <c r="BM70"/>
-      <c r="BR70"/>
-      <c r="BS70"/>
-      <c r="BX70"/>
-      <c r="BY70"/>
-      <c r="CD70"/>
-      <c r="CE70"/>
-      <c r="CJ70"/>
-      <c r="CK70"/>
-      <c r="CP70"/>
-      <c r="CQ70"/>
-      <c r="CV70"/>
-      <c r="CW70"/>
-      <c r="DB70"/>
-      <c r="DC70"/>
-      <c r="DH70"/>
-      <c r="DI70"/>
-      <c r="DN70"/>
-      <c r="DO70"/>
-      <c r="DT70"/>
-      <c r="DU70"/>
-      <c r="DZ70"/>
-      <c r="EA70"/>
+      <c r="D70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="35">
+        <f>1-E68</f>
+        <v>-0.7999999999999996</v>
+      </c>
+      <c r="H70" s="34"/>
+      <c r="J70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="35">
+        <f>1-K68</f>
+        <v>1</v>
+      </c>
+      <c r="N70" s="34"/>
+      <c r="P70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q70" s="35">
+        <f>1-Q68</f>
+        <v>1</v>
+      </c>
+      <c r="T70" s="34"/>
+      <c r="V70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="W70" s="35">
+        <f>1-W68</f>
+        <v>1</v>
+      </c>
+      <c r="Z70" s="34"/>
+      <c r="AB70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC70" s="35">
+        <f>1-AC68</f>
+        <v>1</v>
+      </c>
+      <c r="AF70" s="34"/>
+      <c r="AH70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI70" s="35">
+        <f>1-AI68</f>
+        <v>1</v>
+      </c>
+      <c r="AL70" s="34"/>
+      <c r="AN70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO70" s="35">
+        <f>1-AO68</f>
+        <v>1</v>
+      </c>
+      <c r="AR70" s="34"/>
+      <c r="AT70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU70" s="35">
+        <f>1-AU68</f>
+        <v>1</v>
+      </c>
+      <c r="AX70" s="34"/>
+      <c r="AZ70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA70" s="35">
+        <f>1-BA68</f>
+        <v>1</v>
+      </c>
+      <c r="BD70" s="34"/>
+      <c r="BF70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG70" s="35">
+        <f>1-BG68</f>
+        <v>1</v>
+      </c>
+      <c r="BJ70" s="34"/>
+      <c r="BL70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM70" s="35">
+        <f>1-BM68</f>
+        <v>1</v>
+      </c>
+      <c r="BP70" s="34"/>
+      <c r="BR70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS70" s="35">
+        <f>1-BS68</f>
+        <v>1</v>
+      </c>
+      <c r="BV70" s="34"/>
+      <c r="BX70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY70" s="35">
+        <f>1-BY68</f>
+        <v>1</v>
+      </c>
+      <c r="CB70" s="34"/>
+      <c r="CD70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="CE70" s="35">
+        <f>1-CE68</f>
+        <v>1</v>
+      </c>
+      <c r="CH70" s="34"/>
+      <c r="CJ70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="CK70" s="35">
+        <f>1-CK68</f>
+        <v>1</v>
+      </c>
+      <c r="CN70" s="34"/>
+      <c r="CP70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="CQ70" s="35">
+        <f>1-CQ68</f>
+        <v>1</v>
+      </c>
+      <c r="CT70" s="34"/>
+      <c r="CV70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="CW70" s="35">
+        <f>1-CW68</f>
+        <v>1</v>
+      </c>
+      <c r="CZ70" s="34"/>
+      <c r="DB70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="DC70" s="35">
+        <f>1-DC68</f>
+        <v>1</v>
+      </c>
+      <c r="DF70" s="34"/>
+      <c r="DH70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="DI70" s="35">
+        <f>1-DI68</f>
+        <v>1</v>
+      </c>
+      <c r="DL70" s="34"/>
+      <c r="DN70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="DO70" s="35">
+        <f>1-DO68</f>
+        <v>1</v>
+      </c>
+      <c r="DR70" s="34"/>
+      <c r="DT70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="DU70" s="35">
+        <f>1-DU68</f>
+        <v>1</v>
+      </c>
+      <c r="DX70" s="34"/>
+      <c r="DZ70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="EA70" s="35">
+        <f>1-EA68</f>
+        <v>1</v>
+      </c>
+      <c r="ED70" s="34"/>
     </row>
     <row r="71" spans="3:134">
       <c r="D71"/>
@@ -12141,221 +12371,295 @@
       <c r="EA72"/>
     </row>
     <row r="73" spans="3:134">
-      <c r="C73" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" s="36" t="e">
-        <f>SUM(D3:D61)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E73" s="37"/>
-      <c r="J73" s="36" t="e">
-        <f>SUM(J3:J61)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K73" s="37"/>
-      <c r="P73" s="36" t="e">
-        <f>SUM(P3:P61)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q73" s="37"/>
-      <c r="V73" s="36" t="e">
-        <f>SUM(V3:V61)+SUM(#REF!)+SUM(#REF!)+SUM(AE3:AE61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W73" s="37"/>
-      <c r="AB73" s="36" t="e">
-        <f>SUM(AB3:AB61)+SUM(#REF!)+SUM(#REF!)+SUM(AK3:AK61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC73" s="37"/>
-      <c r="AH73" s="36" t="e">
-        <f>SUM(AH3:AH61)+SUM(#REF!)+SUM(#REF!)+SUM(AQ3:AQ61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI73" s="37"/>
-      <c r="AN73" s="36" t="e">
-        <f>SUM(AN3:AN61)+SUM(#REF!)+SUM(#REF!)+SUM(AW3:AW61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO73" s="37"/>
-      <c r="AT73" s="36" t="e">
-        <f>SUM(AT3:AT61)+SUM(#REF!)+SUM(#REF!)+SUM(BC3:BC61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU73" s="37"/>
-      <c r="AZ73" s="36" t="e">
-        <f>SUM(AZ3:AZ61)+SUM(#REF!)+SUM(#REF!)+SUM(BI3:BI61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA73" s="37"/>
-      <c r="BF73" s="36" t="e">
-        <f>SUM(BF3:BF61)+SUM(#REF!)+SUM(#REF!)+SUM(BO3:BO61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG73" s="37"/>
-      <c r="BL73" s="36" t="e">
-        <f>SUM(BL3:BL61)+SUM(#REF!)+SUM(#REF!)+SUM(BU3:BU61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM73" s="37"/>
-      <c r="BR73" s="36" t="e">
-        <f>SUM(BR3:BR61)+SUM(#REF!)+SUM(#REF!)+SUM(CA3:CA61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS73" s="37"/>
-      <c r="BX73" s="36" t="e">
-        <f>SUM(BX3:BX61)+SUM(#REF!)+SUM(#REF!)+SUM(CG3:CG61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BY73" s="37"/>
-      <c r="CD73" s="36" t="e">
-        <f>SUM(CD3:CD61)+SUM(#REF!)+SUM(#REF!)+SUM(CM3:CM61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CE73" s="37"/>
-      <c r="CJ73" s="36" t="e">
-        <f>SUM(CJ3:CJ61)+SUM(#REF!)+SUM(#REF!)+SUM(CS3:CS61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CK73" s="37"/>
-      <c r="CP73" s="36" t="e">
-        <f>SUM(CP3:CP61)+SUM(#REF!)+SUM(#REF!)+SUM(CY3:CY61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CQ73" s="37"/>
-      <c r="CV73" s="36" t="e">
-        <f>SUM(CV3:CV61)+SUM(#REF!)+SUM(#REF!)+SUM(DE3:DE61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CW73" s="37"/>
-      <c r="DB73" s="36" t="e">
-        <f>SUM(DB3:DB61)+SUM(#REF!)+SUM(#REF!)+SUM(DK3:DK61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DC73" s="37"/>
-      <c r="DH73" s="36" t="e">
-        <f>SUM(DH3:DH61)+SUM(#REF!)+SUM(#REF!)+SUM(DQ3:DQ61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DI73" s="37"/>
-      <c r="DN73" s="36" t="e">
-        <f>SUM(DN3:DN61)+SUM(#REF!)+SUM(#REF!)+SUM(DW3:DW61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DO73" s="37"/>
-      <c r="DT73" s="36" t="e">
-        <f>SUM(DT3:DT61)+SUM(#REF!)+SUM(#REF!)+SUM(EC3:EC61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DU73" s="37"/>
-      <c r="DZ73" s="36" t="e">
-        <f>SUM(DZ3:DZ61)+SUM(#REF!)+SUM(#REF!)+SUM(EI3:EI61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EA73" s="37"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AN73"/>
+      <c r="AO73"/>
+      <c r="AT73"/>
+      <c r="AU73"/>
+      <c r="AZ73"/>
+      <c r="BA73"/>
+      <c r="BF73"/>
+      <c r="BG73"/>
+      <c r="BL73"/>
+      <c r="BM73"/>
+      <c r="BR73"/>
+      <c r="BS73"/>
+      <c r="BX73"/>
+      <c r="BY73"/>
+      <c r="CD73"/>
+      <c r="CE73"/>
+      <c r="CJ73"/>
+      <c r="CK73"/>
+      <c r="CP73"/>
+      <c r="CQ73"/>
+      <c r="CV73"/>
+      <c r="CW73"/>
+      <c r="DB73"/>
+      <c r="DC73"/>
+      <c r="DH73"/>
+      <c r="DI73"/>
+      <c r="DN73"/>
+      <c r="DO73"/>
+      <c r="DT73"/>
+      <c r="DU73"/>
+      <c r="DZ73"/>
+      <c r="EA73"/>
     </row>
     <row r="74" spans="3:134">
-      <c r="C74" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="V74" s="36"/>
-      <c r="AB74" s="36"/>
-      <c r="AH74" s="36"/>
-      <c r="AN74" s="36"/>
-      <c r="AT74" s="36"/>
-      <c r="AZ74" s="36"/>
-      <c r="BF74" s="36"/>
-      <c r="BL74" s="36"/>
-      <c r="BR74" s="36"/>
-      <c r="BX74" s="36"/>
-      <c r="CD74" s="36"/>
-      <c r="CJ74" s="36"/>
-      <c r="CP74" s="36"/>
-      <c r="CV74" s="36"/>
-      <c r="DB74" s="36"/>
-      <c r="DH74" s="36"/>
-      <c r="DN74" s="36"/>
-      <c r="DT74" s="36"/>
-      <c r="DZ74" s="36"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AN74"/>
+      <c r="AO74"/>
+      <c r="AT74"/>
+      <c r="AU74"/>
+      <c r="AZ74"/>
+      <c r="BA74"/>
+      <c r="BF74"/>
+      <c r="BG74"/>
+      <c r="BL74"/>
+      <c r="BM74"/>
+      <c r="BR74"/>
+      <c r="BS74"/>
+      <c r="BX74"/>
+      <c r="BY74"/>
+      <c r="CD74"/>
+      <c r="CE74"/>
+      <c r="CJ74"/>
+      <c r="CK74"/>
+      <c r="CP74"/>
+      <c r="CQ74"/>
+      <c r="CV74"/>
+      <c r="CW74"/>
+      <c r="DB74"/>
+      <c r="DC74"/>
+      <c r="DH74"/>
+      <c r="DI74"/>
+      <c r="DN74"/>
+      <c r="DO74"/>
+      <c r="DT74"/>
+      <c r="DU74"/>
+      <c r="DZ74"/>
+      <c r="EA74"/>
     </row>
     <row r="75" spans="3:134">
       <c r="C75" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="V75" s="36"/>
-      <c r="AB75" s="36"/>
-      <c r="AH75" s="36"/>
-      <c r="AN75" s="36"/>
-      <c r="AT75" s="36"/>
-      <c r="AZ75" s="36"/>
-      <c r="BF75" s="36"/>
-      <c r="BL75" s="36"/>
-      <c r="BR75" s="36"/>
-      <c r="BX75" s="36"/>
-      <c r="CD75" s="36"/>
-      <c r="CJ75" s="36"/>
-      <c r="CP75" s="36"/>
-      <c r="CV75" s="36"/>
-      <c r="DB75" s="36"/>
-      <c r="DH75" s="36"/>
-      <c r="DN75" s="36"/>
-      <c r="DT75" s="36"/>
-      <c r="DZ75" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="D75" s="36" t="e">
+        <f>SUM(D3:D63)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E75" s="37"/>
+      <c r="J75" s="36" t="e">
+        <f>SUM(J3:J63)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K75" s="37"/>
+      <c r="P75" s="36" t="e">
+        <f>SUM(P3:P63)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q75" s="37"/>
+      <c r="V75" s="36" t="e">
+        <f>SUM(V3:V63)+SUM(#REF!)+SUM(#REF!)+SUM(AE3:AE63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W75" s="37"/>
+      <c r="AB75" s="36" t="e">
+        <f>SUM(AB3:AB63)+SUM(#REF!)+SUM(#REF!)+SUM(AK3:AK63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AC75" s="37"/>
+      <c r="AH75" s="36" t="e">
+        <f>SUM(AH3:AH63)+SUM(#REF!)+SUM(#REF!)+SUM(AQ3:AQ63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI75" s="37"/>
+      <c r="AN75" s="36" t="e">
+        <f>SUM(AN3:AN63)+SUM(#REF!)+SUM(#REF!)+SUM(AW3:AW63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO75" s="37"/>
+      <c r="AT75" s="36" t="e">
+        <f>SUM(AT3:AT63)+SUM(#REF!)+SUM(#REF!)+SUM(BC3:BC63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU75" s="37"/>
+      <c r="AZ75" s="36" t="e">
+        <f>SUM(AZ3:AZ63)+SUM(#REF!)+SUM(#REF!)+SUM(BI3:BI63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BA75" s="37"/>
+      <c r="BF75" s="36" t="e">
+        <f>SUM(BF3:BF63)+SUM(#REF!)+SUM(#REF!)+SUM(BO3:BO63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BG75" s="37"/>
+      <c r="BL75" s="36" t="e">
+        <f>SUM(BL3:BL63)+SUM(#REF!)+SUM(#REF!)+SUM(BU3:BU63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BM75" s="37"/>
+      <c r="BR75" s="36" t="e">
+        <f>SUM(BR3:BR63)+SUM(#REF!)+SUM(#REF!)+SUM(CA3:CA63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BS75" s="37"/>
+      <c r="BX75" s="36" t="e">
+        <f>SUM(BX3:BX63)+SUM(#REF!)+SUM(#REF!)+SUM(CG3:CG63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BY75" s="37"/>
+      <c r="CD75" s="36" t="e">
+        <f>SUM(CD3:CD63)+SUM(#REF!)+SUM(#REF!)+SUM(CM3:CM63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CE75" s="37"/>
+      <c r="CJ75" s="36" t="e">
+        <f>SUM(CJ3:CJ63)+SUM(#REF!)+SUM(#REF!)+SUM(CS3:CS63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CK75" s="37"/>
+      <c r="CP75" s="36" t="e">
+        <f>SUM(CP3:CP63)+SUM(#REF!)+SUM(#REF!)+SUM(CY3:CY63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CQ75" s="37"/>
+      <c r="CV75" s="36" t="e">
+        <f>SUM(CV3:CV63)+SUM(#REF!)+SUM(#REF!)+SUM(DE3:DE63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CW75" s="37"/>
+      <c r="DB75" s="36" t="e">
+        <f>SUM(DB3:DB63)+SUM(#REF!)+SUM(#REF!)+SUM(DK3:DK63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="DC75" s="37"/>
+      <c r="DH75" s="36" t="e">
+        <f>SUM(DH3:DH63)+SUM(#REF!)+SUM(#REF!)+SUM(DQ3:DQ63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="DI75" s="37"/>
+      <c r="DN75" s="36" t="e">
+        <f>SUM(DN3:DN63)+SUM(#REF!)+SUM(#REF!)+SUM(DW3:DW63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="DO75" s="37"/>
+      <c r="DT75" s="36" t="e">
+        <f>SUM(DT3:DT63)+SUM(#REF!)+SUM(#REF!)+SUM(EC3:EC63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="DU75" s="37"/>
+      <c r="DZ75" s="36" t="e">
+        <f>SUM(DZ3:DZ63)+SUM(#REF!)+SUM(#REF!)+SUM(EI3:EI63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="EA75" s="37"/>
     </row>
     <row r="76" spans="3:134">
       <c r="C76" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="V76" s="36"/>
+      <c r="AB76" s="36"/>
+      <c r="AH76" s="36"/>
+      <c r="AN76" s="36"/>
+      <c r="AT76" s="36"/>
+      <c r="AZ76" s="36"/>
+      <c r="BF76" s="36"/>
+      <c r="BL76" s="36"/>
+      <c r="BR76" s="36"/>
+      <c r="BX76" s="36"/>
+      <c r="CD76" s="36"/>
+      <c r="CJ76" s="36"/>
+      <c r="CP76" s="36"/>
+      <c r="CV76" s="36"/>
+      <c r="DB76" s="36"/>
+      <c r="DH76" s="36"/>
+      <c r="DN76" s="36"/>
+      <c r="DT76" s="36"/>
+      <c r="DZ76" s="36"/>
+    </row>
+    <row r="77" spans="3:134">
+      <c r="C77" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="V77" s="36"/>
+      <c r="AB77" s="36"/>
+      <c r="AH77" s="36"/>
+      <c r="AN77" s="36"/>
+      <c r="AT77" s="36"/>
+      <c r="AZ77" s="36"/>
+      <c r="BF77" s="36"/>
+      <c r="BL77" s="36"/>
+      <c r="BR77" s="36"/>
+      <c r="BX77" s="36"/>
+      <c r="CD77" s="36"/>
+      <c r="CJ77" s="36"/>
+      <c r="CP77" s="36"/>
+      <c r="CV77" s="36"/>
+      <c r="DB77" s="36"/>
+      <c r="DH77" s="36"/>
+      <c r="DN77" s="36"/>
+      <c r="DT77" s="36"/>
+      <c r="DZ77" s="36"/>
+    </row>
+    <row r="78" spans="3:134">
+      <c r="C78" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="P76" s="33"/>
-      <c r="V76" s="33"/>
-      <c r="AB76" s="33"/>
-      <c r="AH76" s="33"/>
-      <c r="AN76" s="33"/>
-      <c r="AT76" s="33"/>
-      <c r="AZ76" s="33"/>
-      <c r="BF76" s="33"/>
-      <c r="BL76" s="33"/>
-      <c r="BR76" s="33"/>
-      <c r="BX76" s="33"/>
-      <c r="CD76" s="33"/>
-      <c r="CJ76" s="33"/>
-      <c r="CP76" s="33"/>
-      <c r="CV76" s="33"/>
-      <c r="DB76" s="33"/>
-      <c r="DH76" s="33"/>
-      <c r="DN76" s="33"/>
-      <c r="DT76" s="33"/>
-      <c r="DZ76" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="V78" s="33"/>
+      <c r="AB78" s="33"/>
+      <c r="AH78" s="33"/>
+      <c r="AN78" s="33"/>
+      <c r="AT78" s="33"/>
+      <c r="AZ78" s="33"/>
+      <c r="BF78" s="33"/>
+      <c r="BL78" s="33"/>
+      <c r="BR78" s="33"/>
+      <c r="BX78" s="33"/>
+      <c r="CD78" s="33"/>
+      <c r="CJ78" s="33"/>
+      <c r="CP78" s="33"/>
+      <c r="CV78" s="33"/>
+      <c r="DB78" s="33"/>
+      <c r="DH78" s="33"/>
+      <c r="DN78" s="33"/>
+      <c r="DT78" s="33"/>
+      <c r="DZ78" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -12368,6 +12672,24 @@
     <mergeCell ref="BX1:CB1"/>
     <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -12383,19 +12705,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.44140625"/>
-    <col min="2" max="2" width="10.33203125"/>
+    <col min="1" max="1" width="33.42578125"/>
+    <col min="2" max="2" width="10.28515625"/>
     <col min="3" max="3" width="32"/>
     <col min="4" max="4" width="16"/>
-    <col min="5" max="5" width="12.88671875"/>
-    <col min="6" max="6" width="14.33203125"/>
-    <col min="7" max="7" width="18.6640625"/>
+    <col min="5" max="5" width="12.85546875"/>
+    <col min="6" max="6" width="14.28515625"/>
+    <col min="7" max="7" width="18.7109375"/>
     <col min="8" max="8" width="21"/>
-    <col min="9" max="9" width="14.44140625"/>
-    <col min="10" max="10" width="19.44140625"/>
-    <col min="11" max="11" width="23.44140625"/>
+    <col min="9" max="9" width="14.42578125"/>
+    <col min="10" max="10" width="19.42578125"/>
+    <col min="11" max="11" width="23.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -12438,13 +12760,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875"/>
-    <col min="4" max="4" width="56.88671875"/>
-    <col min="5" max="1025" width="10.5546875"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="56.85546875"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12483,7 +12805,7 @@
         <v>42322</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>55</v>

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -798,14 +798,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -821,9 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1191,10 +1191,10 @@
   <dimension ref="A1:EE78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AW45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="BA4" sqref="BA4"/>
+      <selection pane="bottomRight" activeCell="CE46" sqref="CE46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2642,7 +2642,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="85" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2792,7 +2792,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="87" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="6">
@@ -3092,7 +3092,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="87" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="6">
@@ -3402,7 +3402,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="88" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="6"/>
@@ -5438,7 +5438,7 @@
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="88"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -5869,7 +5869,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="85" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6"/>
@@ -6014,7 +6014,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6157,7 +6157,7 @@
       <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="82"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -7027,7 +7027,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="85" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6"/>
@@ -7170,7 +7170,7 @@
       <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="82"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -8108,7 +8108,9 @@
       <c r="CD45" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CE45" s="7"/>
+      <c r="CE45" s="7">
+        <v>0</v>
+      </c>
       <c r="CF45" s="8"/>
       <c r="CG45" s="9"/>
       <c r="CH45" s="54"/>
@@ -8803,16 +8805,20 @@
       <c r="AW50" s="18"/>
       <c r="AX50" s="10"/>
       <c r="AY50" s="12"/>
-      <c r="AZ50" s="14"/>
-      <c r="BA50" s="18"/>
+      <c r="AZ50" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BA50" s="82">
+        <v>0.125</v>
+      </c>
       <c r="BB50" s="18"/>
       <c r="BC50" s="18"/>
-      <c r="BD50" s="10"/>
+      <c r="BD50" s="54"/>
       <c r="BE50" s="12"/>
       <c r="BF50" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG50" s="18"/>
+      <c r="BG50" s="82"/>
       <c r="BH50" s="18"/>
       <c r="BI50" s="18"/>
       <c r="BJ50" s="52"/>
@@ -8966,16 +8972,22 @@
       <c r="AW51" s="18"/>
       <c r="AX51" s="10"/>
       <c r="AY51" s="12"/>
-      <c r="AZ51" s="14"/>
-      <c r="BA51" s="18"/>
+      <c r="AZ51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BA51" s="82">
+        <v>0.125</v>
+      </c>
       <c r="BB51" s="18"/>
       <c r="BC51" s="18"/>
-      <c r="BD51" s="10"/>
+      <c r="BD51" s="54"/>
       <c r="BE51" s="12"/>
       <c r="BF51" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG51" s="18"/>
+      <c r="BG51" s="82">
+        <v>0.125</v>
+      </c>
       <c r="BH51" s="18"/>
       <c r="BI51" s="18"/>
       <c r="BJ51" s="54"/>
@@ -8983,7 +8995,9 @@
       <c r="BL51" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BM51" s="18"/>
+      <c r="BM51" s="82">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="BN51" s="18"/>
       <c r="BO51" s="18"/>
       <c r="BP51" s="54"/>
@@ -8991,7 +9005,9 @@
       <c r="BR51" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BS51" s="18"/>
+      <c r="BS51" s="82">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="BT51" s="18"/>
       <c r="BU51" s="18"/>
       <c r="BV51" s="54"/>
@@ -8999,7 +9015,9 @@
       <c r="BX51" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BY51" s="18"/>
+      <c r="BY51" s="82">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="BZ51" s="18"/>
       <c r="CA51" s="18"/>
       <c r="CB51" s="54"/>
@@ -9138,7 +9156,7 @@
       <c r="BF52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG52" s="90">
+      <c r="BG52" s="82">
         <v>0</v>
       </c>
       <c r="BH52" s="18"/>
@@ -9148,7 +9166,7 @@
       <c r="BL52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BM52" s="90">
+      <c r="BM52" s="82">
         <v>0</v>
       </c>
       <c r="BN52" s="18"/>
@@ -9158,7 +9176,7 @@
       <c r="BR52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BS52" s="90">
+      <c r="BS52" s="82">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="BT52" s="18"/>
@@ -9168,7 +9186,7 @@
       <c r="BX52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BY52" s="90">
+      <c r="BY52" s="82">
         <v>6.25E-2</v>
       </c>
       <c r="BZ52" s="18"/>
@@ -9249,7 +9267,7 @@
       <c r="B53" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="86" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="14"/>
@@ -9392,7 +9410,7 @@
       <c r="B54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="85"/>
+      <c r="C54" s="86"/>
       <c r="D54" s="14"/>
       <c r="E54" s="18"/>
       <c r="F54" s="8"/>
@@ -10248,7 +10266,7 @@
       <c r="B60" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="86" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="14"/>
@@ -10391,7 +10409,7 @@
       <c r="B61" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="85"/>
+      <c r="C61" s="86"/>
       <c r="D61" s="14"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -10532,7 +10550,7 @@
       <c r="B62" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="85"/>
+      <c r="C62" s="86"/>
       <c r="D62" s="14"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
@@ -11343,11 +11361,11 @@
       <c r="AX66" s="31"/>
       <c r="AZ66" s="28">
         <f>SUM(AZ3:AZ63)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="BA66" s="29">
         <f>SUM(BA3:BA63)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BB66" s="30" t="s">
         <v>37</v>
@@ -11363,7 +11381,7 @@
       </c>
       <c r="BG66" s="29">
         <f>SUM(BG3:BG63)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="BH66" s="30" t="s">
         <v>37</v>
@@ -11379,7 +11397,7 @@
       </c>
       <c r="BM66" s="29">
         <f>SUM(BM3:BM63)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="BN66" s="30" t="s">
         <v>37</v>
@@ -11395,7 +11413,7 @@
       </c>
       <c r="BS66" s="29">
         <f>SUM(BS3:BS63)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="BT66" s="30" t="s">
         <v>37</v>
@@ -11411,7 +11429,7 @@
       </c>
       <c r="BY66" s="29">
         <f>SUM(BY3:BY63)</f>
-        <v>6.25E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="BZ66" s="30" t="s">
         <v>37</v>
@@ -11634,25 +11652,25 @@
       <c r="AZ67" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="BA67" s="33" t="e">
+      <c r="BA67" s="33">
         <f>BC66/BA66</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="BD67" s="34"/>
       <c r="BF67" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="BG67" s="33" t="e">
+      <c r="BG67" s="33">
         <f>BI66/BG66</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="BJ67" s="34"/>
       <c r="BL67" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="BM67" s="33" t="e">
+      <c r="BM67" s="33">
         <f>BO66/BM66</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="BP67" s="34"/>
       <c r="BR67" s="32" t="s">
@@ -11990,25 +12008,25 @@
       <c r="AZ69" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="BA69" s="35" t="e">
+      <c r="BA69" s="35">
         <f>1-BA67</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="BD69" s="34"/>
       <c r="BF69" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="BG69" s="35" t="e">
+      <c r="BG69" s="35">
         <f>1-BG67</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="BJ69" s="34"/>
       <c r="BL69" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="BM69" s="35" t="e">
+      <c r="BM69" s="35">
         <f>1-BM67</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="BP69" s="34"/>
       <c r="BR69" s="32" t="s">
@@ -12660,6 +12678,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -12672,24 +12708,6 @@
     <mergeCell ref="BX1:CB1"/>
     <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -12770,18 +12788,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -798,17 +798,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -824,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1191,10 +1191,10 @@
   <dimension ref="A1:EE78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AW45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="CE46" sqref="CE46"/>
+      <selection pane="bottomRight" activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2642,7 +2642,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="82" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2792,7 +2792,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="86" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="6">
@@ -3092,7 +3092,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="86" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="6">
@@ -3402,7 +3402,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="85"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="87" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="6"/>
@@ -5438,7 +5438,7 @@
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -5869,7 +5869,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="82" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6"/>
@@ -6014,7 +6014,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="85"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6157,7 +6157,7 @@
       <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="85"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -7027,7 +7027,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6"/>
@@ -7170,7 +7170,7 @@
       <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="85"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -8108,9 +8108,7 @@
       <c r="CD45" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CE45" s="7">
-        <v>0</v>
-      </c>
+      <c r="CE45" s="7"/>
       <c r="CF45" s="8"/>
       <c r="CG45" s="9"/>
       <c r="CH45" s="54"/>
@@ -8805,20 +8803,16 @@
       <c r="AW50" s="18"/>
       <c r="AX50" s="10"/>
       <c r="AY50" s="12"/>
-      <c r="AZ50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BA50" s="82">
-        <v>0.125</v>
-      </c>
+      <c r="AZ50" s="14"/>
+      <c r="BA50" s="18"/>
       <c r="BB50" s="18"/>
       <c r="BC50" s="18"/>
-      <c r="BD50" s="54"/>
+      <c r="BD50" s="10"/>
       <c r="BE50" s="12"/>
       <c r="BF50" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG50" s="82"/>
+      <c r="BG50" s="18"/>
       <c r="BH50" s="18"/>
       <c r="BI50" s="18"/>
       <c r="BJ50" s="52"/>
@@ -8972,22 +8966,16 @@
       <c r="AW51" s="18"/>
       <c r="AX51" s="10"/>
       <c r="AY51" s="12"/>
-      <c r="AZ51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BA51" s="82">
-        <v>0.125</v>
-      </c>
+      <c r="AZ51" s="14"/>
+      <c r="BA51" s="18"/>
       <c r="BB51" s="18"/>
       <c r="BC51" s="18"/>
-      <c r="BD51" s="54"/>
+      <c r="BD51" s="10"/>
       <c r="BE51" s="12"/>
       <c r="BF51" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG51" s="82">
-        <v>0.125</v>
-      </c>
+      <c r="BG51" s="18"/>
       <c r="BH51" s="18"/>
       <c r="BI51" s="18"/>
       <c r="BJ51" s="54"/>
@@ -8995,9 +8983,7 @@
       <c r="BL51" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BM51" s="82">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="BM51" s="18"/>
       <c r="BN51" s="18"/>
       <c r="BO51" s="18"/>
       <c r="BP51" s="54"/>
@@ -9005,9 +8991,7 @@
       <c r="BR51" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BS51" s="82">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="BS51" s="18"/>
       <c r="BT51" s="18"/>
       <c r="BU51" s="18"/>
       <c r="BV51" s="54"/>
@@ -9015,9 +8999,7 @@
       <c r="BX51" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BY51" s="82">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="BY51" s="18"/>
       <c r="BZ51" s="18"/>
       <c r="CA51" s="18"/>
       <c r="CB51" s="54"/>
@@ -9156,7 +9138,7 @@
       <c r="BF52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG52" s="82">
+      <c r="BG52" s="90">
         <v>0</v>
       </c>
       <c r="BH52" s="18"/>
@@ -9166,7 +9148,7 @@
       <c r="BL52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BM52" s="82">
+      <c r="BM52" s="90">
         <v>0</v>
       </c>
       <c r="BN52" s="18"/>
@@ -9176,7 +9158,7 @@
       <c r="BR52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BS52" s="82">
+      <c r="BS52" s="90">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="BT52" s="18"/>
@@ -9186,7 +9168,7 @@
       <c r="BX52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BY52" s="82">
+      <c r="BY52" s="90">
         <v>6.25E-2</v>
       </c>
       <c r="BZ52" s="18"/>
@@ -9267,7 +9249,7 @@
       <c r="B53" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="85" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="14"/>
@@ -9410,7 +9392,7 @@
       <c r="B54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="86"/>
+      <c r="C54" s="85"/>
       <c r="D54" s="14"/>
       <c r="E54" s="18"/>
       <c r="F54" s="8"/>
@@ -10266,7 +10248,7 @@
       <c r="B60" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C60" s="85" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="14"/>
@@ -10409,7 +10391,7 @@
       <c r="B61" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="86"/>
+      <c r="C61" s="85"/>
       <c r="D61" s="14"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -10550,7 +10532,7 @@
       <c r="B62" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="86"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="14"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
@@ -11361,11 +11343,11 @@
       <c r="AX66" s="31"/>
       <c r="AZ66" s="28">
         <f>SUM(AZ3:AZ63)</f>
-        <v>0.20833333333333331</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="BA66" s="29">
         <f>SUM(BA3:BA63)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="30" t="s">
         <v>37</v>
@@ -11381,7 +11363,7 @@
       </c>
       <c r="BG66" s="29">
         <f>SUM(BG3:BG63)</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="BH66" s="30" t="s">
         <v>37</v>
@@ -11397,7 +11379,7 @@
       </c>
       <c r="BM66" s="29">
         <f>SUM(BM3:BM63)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="30" t="s">
         <v>37</v>
@@ -11413,7 +11395,7 @@
       </c>
       <c r="BS66" s="29">
         <f>SUM(BS3:BS63)</f>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="BT66" s="30" t="s">
         <v>37</v>
@@ -11429,7 +11411,7 @@
       </c>
       <c r="BY66" s="29">
         <f>SUM(BY3:BY63)</f>
-        <v>0.10416666666666666</v>
+        <v>6.25E-2</v>
       </c>
       <c r="BZ66" s="30" t="s">
         <v>37</v>
@@ -11652,25 +11634,25 @@
       <c r="AZ67" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="BA67" s="33">
+      <c r="BA67" s="33" t="e">
         <f>BC66/BA66</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BD67" s="34"/>
       <c r="BF67" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="BG67" s="33">
+      <c r="BG67" s="33" t="e">
         <f>BI66/BG66</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BJ67" s="34"/>
       <c r="BL67" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="BM67" s="33">
+      <c r="BM67" s="33" t="e">
         <f>BO66/BM66</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BP67" s="34"/>
       <c r="BR67" s="32" t="s">
@@ -12008,25 +11990,25 @@
       <c r="AZ69" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="BA69" s="35">
+      <c r="BA69" s="35" t="e">
         <f>1-BA67</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BD69" s="34"/>
       <c r="BF69" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="BG69" s="35">
+      <c r="BG69" s="35" t="e">
         <f>1-BG67</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BJ69" s="34"/>
       <c r="BL69" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="BM69" s="35">
+      <c r="BM69" s="35" t="e">
         <f>1-BM67</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BP69" s="34"/>
       <c r="BR69" s="32" t="s">
@@ -12678,6 +12660,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DT1:DX1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="BR1:BV1"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AN1:AR1"/>
@@ -12690,24 +12690,6 @@
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DT1:DX1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="AB1:AF1"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -12788,18 +12770,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="91">
   <si>
     <t>Cód.</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Criar do Casos de Teste 2</t>
+  </si>
+  <si>
+    <t>Alterações de projeto</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -798,14 +801,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -822,8 +831,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1188,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EE78"/>
+  <dimension ref="A1:EE80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="DJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="BA4" sqref="BA4"/>
+      <selection pane="bottomRight" activeCell="DV3" sqref="DV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1286,181 +1298,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83">
+      <c r="D1" s="84">
         <v>42322</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="83">
+      <c r="J1" s="84">
         <v>42323</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="83">
+      <c r="P1" s="84">
         <v>42324</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="83">
+      <c r="V1" s="84">
         <v>42325</v>
       </c>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="83">
+      <c r="AB1" s="84">
         <v>42326</v>
       </c>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="83">
+      <c r="AH1" s="84">
         <v>42327</v>
       </c>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="83">
+      <c r="AN1" s="84">
         <v>42328</v>
       </c>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="83">
+      <c r="AT1" s="84">
         <v>42329</v>
       </c>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="83">
+      <c r="AZ1" s="84">
         <v>42330</v>
       </c>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="83">
+      <c r="BF1" s="84">
         <v>42331</v>
       </c>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="85"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="83">
+      <c r="BL1" s="84">
         <v>42332</v>
       </c>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="84"/>
-      <c r="BP1" s="84"/>
+      <c r="BM1" s="85"/>
+      <c r="BN1" s="85"/>
+      <c r="BO1" s="85"/>
+      <c r="BP1" s="85"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="83">
+      <c r="BR1" s="84">
         <v>42333</v>
       </c>
-      <c r="BS1" s="84"/>
-      <c r="BT1" s="84"/>
-      <c r="BU1" s="84"/>
-      <c r="BV1" s="84"/>
+      <c r="BS1" s="85"/>
+      <c r="BT1" s="85"/>
+      <c r="BU1" s="85"/>
+      <c r="BV1" s="85"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="83">
+      <c r="BX1" s="84">
         <v>42334</v>
       </c>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="84"/>
-      <c r="CA1" s="84"/>
-      <c r="CB1" s="84"/>
+      <c r="BY1" s="85"/>
+      <c r="BZ1" s="85"/>
+      <c r="CA1" s="85"/>
+      <c r="CB1" s="85"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="83">
+      <c r="CD1" s="84">
         <v>42335</v>
       </c>
-      <c r="CE1" s="84"/>
-      <c r="CF1" s="84"/>
-      <c r="CG1" s="84"/>
-      <c r="CH1" s="84"/>
+      <c r="CE1" s="85"/>
+      <c r="CF1" s="85"/>
+      <c r="CG1" s="85"/>
+      <c r="CH1" s="85"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="83">
+      <c r="CJ1" s="84">
         <v>42336</v>
       </c>
-      <c r="CK1" s="84"/>
-      <c r="CL1" s="84"/>
-      <c r="CM1" s="84"/>
-      <c r="CN1" s="84"/>
+      <c r="CK1" s="85"/>
+      <c r="CL1" s="85"/>
+      <c r="CM1" s="85"/>
+      <c r="CN1" s="85"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="83">
+      <c r="CP1" s="84">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="84"/>
-      <c r="CR1" s="84"/>
-      <c r="CS1" s="84"/>
-      <c r="CT1" s="84"/>
+      <c r="CQ1" s="85"/>
+      <c r="CR1" s="85"/>
+      <c r="CS1" s="85"/>
+      <c r="CT1" s="85"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="83">
+      <c r="CV1" s="84">
         <v>42338</v>
       </c>
-      <c r="CW1" s="84"/>
-      <c r="CX1" s="84"/>
-      <c r="CY1" s="84"/>
-      <c r="CZ1" s="84"/>
+      <c r="CW1" s="85"/>
+      <c r="CX1" s="85"/>
+      <c r="CY1" s="85"/>
+      <c r="CZ1" s="85"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="83">
+      <c r="DB1" s="84">
         <v>42339</v>
       </c>
-      <c r="DC1" s="84"/>
-      <c r="DD1" s="84"/>
-      <c r="DE1" s="84"/>
-      <c r="DF1" s="84"/>
+      <c r="DC1" s="85"/>
+      <c r="DD1" s="85"/>
+      <c r="DE1" s="85"/>
+      <c r="DF1" s="85"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="83">
+      <c r="DH1" s="84">
         <v>42340</v>
       </c>
-      <c r="DI1" s="84"/>
-      <c r="DJ1" s="84"/>
-      <c r="DK1" s="84"/>
-      <c r="DL1" s="84"/>
+      <c r="DI1" s="85"/>
+      <c r="DJ1" s="85"/>
+      <c r="DK1" s="85"/>
+      <c r="DL1" s="85"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="83">
+      <c r="DN1" s="84">
         <v>42341</v>
       </c>
-      <c r="DO1" s="84"/>
-      <c r="DP1" s="84"/>
-      <c r="DQ1" s="84"/>
-      <c r="DR1" s="84"/>
+      <c r="DO1" s="85"/>
+      <c r="DP1" s="85"/>
+      <c r="DQ1" s="85"/>
+      <c r="DR1" s="85"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="83">
+      <c r="DT1" s="84">
         <v>42342</v>
       </c>
-      <c r="DU1" s="84"/>
-      <c r="DV1" s="84"/>
-      <c r="DW1" s="84"/>
-      <c r="DX1" s="84"/>
+      <c r="DU1" s="85"/>
+      <c r="DV1" s="85"/>
+      <c r="DW1" s="85"/>
+      <c r="DX1" s="85"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="83">
+      <c r="DZ1" s="84">
         <v>42343</v>
       </c>
-      <c r="EA1" s="84"/>
-      <c r="EB1" s="84"/>
-      <c r="EC1" s="84"/>
-      <c r="ED1" s="84"/>
+      <c r="EA1" s="85"/>
+      <c r="EB1" s="85"/>
+      <c r="EC1" s="85"/>
+      <c r="ED1" s="85"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -1973,7 +1985,9 @@
       <c r="CJ3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CK3" s="77"/>
+      <c r="CK3" s="72">
+        <v>0</v>
+      </c>
       <c r="CL3" s="74"/>
       <c r="CM3" s="74"/>
       <c r="CN3" s="75"/>
@@ -1981,7 +1995,9 @@
       <c r="CP3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CQ3" s="77"/>
+      <c r="CQ3" s="72">
+        <v>0</v>
+      </c>
       <c r="CR3" s="74"/>
       <c r="CS3" s="74"/>
       <c r="CT3" s="75"/>
@@ -1989,7 +2005,9 @@
       <c r="CV3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CW3" s="77"/>
+      <c r="CW3" s="72">
+        <v>0</v>
+      </c>
       <c r="CX3" s="74"/>
       <c r="CY3" s="74"/>
       <c r="CZ3" s="75"/>
@@ -1997,7 +2015,9 @@
       <c r="DB3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="DC3" s="77"/>
+      <c r="DC3" s="72">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="DD3" s="74"/>
       <c r="DE3" s="74"/>
       <c r="DF3" s="75"/>
@@ -2642,7 +2662,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="86" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2792,7 +2812,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2942,7 +2962,7 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="88" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="6">
@@ -3092,7 +3112,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3240,7 +3260,7 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="88" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="6">
@@ -3402,7 +3422,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3556,7 +3576,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -5293,7 +5313,7 @@
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="89" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="6"/>
@@ -5438,7 +5458,7 @@
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="88"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -5869,7 +5889,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="86" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6"/>
@@ -6014,7 +6034,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6157,7 +6177,7 @@
       <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="82"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -7027,7 +7047,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="86" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6"/>
@@ -7170,7 +7190,7 @@
       <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="82"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -8812,7 +8832,9 @@
       <c r="BF50" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG50" s="18"/>
+      <c r="BG50" s="83">
+        <v>0</v>
+      </c>
       <c r="BH50" s="18"/>
       <c r="BI50" s="18"/>
       <c r="BJ50" s="52"/>
@@ -8820,7 +8842,9 @@
       <c r="BL50" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BM50" s="18"/>
+      <c r="BM50" s="18">
+        <v>0</v>
+      </c>
       <c r="BN50" s="18"/>
       <c r="BO50" s="18"/>
       <c r="BP50" s="52"/>
@@ -8828,7 +8852,9 @@
       <c r="BR50" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BS50" s="18"/>
+      <c r="BS50" s="83">
+        <v>0</v>
+      </c>
       <c r="BT50" s="18"/>
       <c r="BU50" s="18"/>
       <c r="BV50" s="52"/>
@@ -8836,7 +8862,9 @@
       <c r="BX50" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BY50" s="18"/>
+      <c r="BY50" s="83">
+        <v>0</v>
+      </c>
       <c r="BZ50" s="18"/>
       <c r="CA50" s="18"/>
       <c r="CB50" s="52"/>
@@ -8909,13 +8937,11 @@
       <c r="EE50" s="12"/>
     </row>
     <row r="51" spans="1:135" ht="14.1" customHeight="1">
-      <c r="A51" s="2">
-        <v>28</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="82" t="s">
         <v>64</v>
       </c>
       <c r="D51" s="14"/>
@@ -8966,43 +8992,55 @@
       <c r="AW51" s="18"/>
       <c r="AX51" s="10"/>
       <c r="AY51" s="12"/>
-      <c r="AZ51" s="14"/>
-      <c r="BA51" s="18"/>
+      <c r="AZ51" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA51" s="83">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="BB51" s="18"/>
       <c r="BC51" s="18"/>
-      <c r="BD51" s="10"/>
+      <c r="BD51" s="52"/>
       <c r="BE51" s="12"/>
       <c r="BF51" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG51" s="83">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG51" s="18"/>
       <c r="BH51" s="18"/>
       <c r="BI51" s="18"/>
-      <c r="BJ51" s="54"/>
+      <c r="BJ51" s="52"/>
       <c r="BK51" s="12"/>
       <c r="BL51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BM51" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="BM51" s="83">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="BN51" s="18"/>
       <c r="BO51" s="18"/>
-      <c r="BP51" s="54"/>
+      <c r="BP51" s="52"/>
       <c r="BQ51" s="12"/>
       <c r="BR51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BS51" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="BS51" s="83">
+        <v>0.125</v>
+      </c>
       <c r="BT51" s="18"/>
       <c r="BU51" s="18"/>
-      <c r="BV51" s="54"/>
+      <c r="BV51" s="52"/>
       <c r="BW51" s="12"/>
       <c r="BX51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BY51" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="BY51" s="83">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="BZ51" s="18"/>
       <c r="CA51" s="18"/>
-      <c r="CB51" s="54"/>
+      <c r="CB51" s="52"/>
       <c r="CC51" s="12"/>
       <c r="CD51" s="14"/>
       <c r="CE51" s="18"/>
@@ -9010,53 +9048,41 @@
       <c r="CG51" s="18"/>
       <c r="CH51" s="10"/>
       <c r="CI51" s="12"/>
-      <c r="CJ51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="CJ51" s="14"/>
       <c r="CK51" s="18"/>
       <c r="CL51" s="18"/>
       <c r="CM51" s="18"/>
-      <c r="CN51" s="54"/>
+      <c r="CN51" s="52"/>
       <c r="CO51" s="12"/>
-      <c r="CP51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="CP51" s="14"/>
       <c r="CQ51" s="18"/>
       <c r="CR51" s="18"/>
       <c r="CS51" s="18"/>
-      <c r="CT51" s="54"/>
+      <c r="CT51" s="52"/>
       <c r="CU51" s="12"/>
-      <c r="CV51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="CV51" s="14"/>
       <c r="CW51" s="18"/>
       <c r="CX51" s="18"/>
       <c r="CY51" s="18"/>
-      <c r="CZ51" s="54"/>
+      <c r="CZ51" s="52"/>
       <c r="DA51" s="12"/>
-      <c r="DB51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="DB51" s="14"/>
       <c r="DC51" s="18"/>
       <c r="DD51" s="18"/>
       <c r="DE51" s="18"/>
-      <c r="DF51" s="54"/>
+      <c r="DF51" s="52"/>
       <c r="DG51" s="12"/>
-      <c r="DH51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="DH51" s="14"/>
       <c r="DI51" s="18"/>
       <c r="DJ51" s="18"/>
       <c r="DK51" s="18"/>
-      <c r="DL51" s="54"/>
+      <c r="DL51" s="52"/>
       <c r="DM51" s="12"/>
-      <c r="DN51" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="DN51" s="14"/>
       <c r="DO51" s="18"/>
       <c r="DP51" s="18"/>
       <c r="DQ51" s="18"/>
-      <c r="DR51" s="54"/>
+      <c r="DR51" s="52"/>
       <c r="DS51" s="12"/>
       <c r="DT51" s="14"/>
       <c r="DU51" s="18"/>
@@ -9071,15 +9097,15 @@
       <c r="ED51" s="10"/>
       <c r="EE51" s="12"/>
     </row>
-    <row r="52" spans="1:135">
+    <row r="52" spans="1:135" ht="14.1" customHeight="1">
       <c r="A52" s="2">
-        <v>29</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="18"/>
@@ -9091,7 +9117,7 @@
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
-      <c r="N52" s="10"/>
+      <c r="N52" s="69"/>
       <c r="O52" s="12"/>
       <c r="P52" s="14"/>
       <c r="Q52" s="18"/>
@@ -9129,51 +9155,55 @@
       <c r="AW52" s="18"/>
       <c r="AX52" s="10"/>
       <c r="AY52" s="12"/>
-      <c r="AZ52" s="14"/>
-      <c r="BA52" s="18"/>
+      <c r="AZ52" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA52" s="83">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="BB52" s="18"/>
       <c r="BC52" s="18"/>
-      <c r="BD52" s="10"/>
+      <c r="BD52" s="54"/>
       <c r="BE52" s="12"/>
       <c r="BF52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG52" s="90">
-        <v>0</v>
+      <c r="BG52" s="83">
+        <v>0.14583333333333334</v>
       </c>
       <c r="BH52" s="18"/>
       <c r="BI52" s="18"/>
-      <c r="BJ52" s="53"/>
+      <c r="BJ52" s="54"/>
       <c r="BK52" s="12"/>
       <c r="BL52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BM52" s="90">
-        <v>0</v>
+      <c r="BM52" s="83">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="BN52" s="18"/>
       <c r="BO52" s="18"/>
-      <c r="BP52" s="53"/>
+      <c r="BP52" s="54"/>
       <c r="BQ52" s="12"/>
       <c r="BR52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BS52" s="90">
+      <c r="BS52" s="83">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="BT52" s="18"/>
       <c r="BU52" s="18"/>
-      <c r="BV52" s="53"/>
+      <c r="BV52" s="54"/>
       <c r="BW52" s="12"/>
       <c r="BX52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BY52" s="90">
+      <c r="BY52" s="83">
         <v>6.25E-2</v>
       </c>
       <c r="BZ52" s="18"/>
       <c r="CA52" s="18"/>
-      <c r="CB52" s="53"/>
+      <c r="CB52" s="54"/>
       <c r="CC52" s="12"/>
       <c r="CD52" s="14"/>
       <c r="CE52" s="18"/>
@@ -9187,31 +9217,37 @@
       <c r="CK52" s="18"/>
       <c r="CL52" s="18"/>
       <c r="CM52" s="18"/>
-      <c r="CN52" s="53"/>
+      <c r="CN52" s="54"/>
       <c r="CO52" s="12"/>
       <c r="CP52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CQ52" s="18"/>
+      <c r="CQ52" s="83">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CR52" s="18"/>
       <c r="CS52" s="18"/>
-      <c r="CT52" s="53"/>
+      <c r="CT52" s="54"/>
       <c r="CU52" s="12"/>
       <c r="CV52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CW52" s="18"/>
+      <c r="CW52" s="83">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="CX52" s="18"/>
       <c r="CY52" s="18"/>
-      <c r="CZ52" s="53"/>
+      <c r="CZ52" s="54"/>
       <c r="DA52" s="12"/>
       <c r="DB52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DC52" s="18"/>
+      <c r="DC52" s="83">
+        <v>0.125</v>
+      </c>
       <c r="DD52" s="18"/>
       <c r="DE52" s="18"/>
-      <c r="DF52" s="53"/>
+      <c r="DF52" s="54"/>
       <c r="DG52" s="12"/>
       <c r="DH52" s="14">
         <v>8.3333333333333329E-2</v>
@@ -9219,7 +9255,7 @@
       <c r="DI52" s="18"/>
       <c r="DJ52" s="18"/>
       <c r="DK52" s="18"/>
-      <c r="DL52" s="53"/>
+      <c r="DL52" s="54"/>
       <c r="DM52" s="12"/>
       <c r="DN52" s="14">
         <v>8.3333333333333329E-2</v>
@@ -9227,7 +9263,7 @@
       <c r="DO52" s="18"/>
       <c r="DP52" s="18"/>
       <c r="DQ52" s="18"/>
-      <c r="DR52" s="53"/>
+      <c r="DR52" s="54"/>
       <c r="DS52" s="12"/>
       <c r="DT52" s="14"/>
       <c r="DU52" s="18"/>
@@ -9244,13 +9280,13 @@
     </row>
     <row r="53" spans="1:135">
       <c r="A53" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="85" t="s">
-        <v>20</v>
+      <c r="C53" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="18"/>
@@ -9306,29 +9342,45 @@
       <c r="BC53" s="18"/>
       <c r="BD53" s="10"/>
       <c r="BE53" s="12"/>
-      <c r="BF53" s="14"/>
-      <c r="BG53" s="18"/>
+      <c r="BF53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BG53" s="83">
+        <v>0</v>
+      </c>
       <c r="BH53" s="18"/>
       <c r="BI53" s="18"/>
-      <c r="BJ53" s="10"/>
+      <c r="BJ53" s="53"/>
       <c r="BK53" s="12"/>
-      <c r="BL53" s="14"/>
-      <c r="BM53" s="18"/>
+      <c r="BL53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BM53" s="83">
+        <v>0</v>
+      </c>
       <c r="BN53" s="18"/>
       <c r="BO53" s="18"/>
-      <c r="BP53" s="10"/>
+      <c r="BP53" s="53"/>
       <c r="BQ53" s="12"/>
-      <c r="BR53" s="14"/>
-      <c r="BS53" s="18"/>
+      <c r="BR53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BS53" s="83">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="BT53" s="18"/>
       <c r="BU53" s="18"/>
-      <c r="BV53" s="10"/>
+      <c r="BV53" s="53"/>
       <c r="BW53" s="12"/>
-      <c r="BX53" s="14"/>
-      <c r="BY53" s="18"/>
+      <c r="BX53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BY53" s="83">
+        <v>6.25E-2</v>
+      </c>
       <c r="BZ53" s="18"/>
       <c r="CA53" s="18"/>
-      <c r="CB53" s="10"/>
+      <c r="CB53" s="53"/>
       <c r="CC53" s="12"/>
       <c r="CD53" s="14"/>
       <c r="CE53" s="18"/>
@@ -9336,41 +9388,59 @@
       <c r="CG53" s="18"/>
       <c r="CH53" s="10"/>
       <c r="CI53" s="12"/>
-      <c r="CJ53" s="14"/>
+      <c r="CJ53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="CK53" s="18"/>
       <c r="CL53" s="18"/>
       <c r="CM53" s="18"/>
-      <c r="CN53" s="10"/>
+      <c r="CN53" s="53"/>
       <c r="CO53" s="12"/>
-      <c r="CP53" s="14"/>
-      <c r="CQ53" s="18"/>
+      <c r="CP53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="CQ53" s="83">
+        <v>0</v>
+      </c>
       <c r="CR53" s="18"/>
       <c r="CS53" s="18"/>
-      <c r="CT53" s="10"/>
+      <c r="CT53" s="53"/>
       <c r="CU53" s="12"/>
-      <c r="CV53" s="14"/>
-      <c r="CW53" s="18"/>
+      <c r="CV53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="CW53" s="83">
+        <v>0</v>
+      </c>
       <c r="CX53" s="18"/>
       <c r="CY53" s="18"/>
-      <c r="CZ53" s="10"/>
+      <c r="CZ53" s="53"/>
       <c r="DA53" s="12"/>
-      <c r="DB53" s="14"/>
-      <c r="DC53" s="18"/>
+      <c r="DB53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="DC53" s="83">
+        <v>6.25E-2</v>
+      </c>
       <c r="DD53" s="18"/>
       <c r="DE53" s="18"/>
-      <c r="DF53" s="10"/>
+      <c r="DF53" s="53"/>
       <c r="DG53" s="12"/>
-      <c r="DH53" s="14"/>
+      <c r="DH53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DI53" s="18"/>
       <c r="DJ53" s="18"/>
       <c r="DK53" s="18"/>
-      <c r="DL53" s="10"/>
+      <c r="DL53" s="53"/>
       <c r="DM53" s="12"/>
-      <c r="DN53" s="14"/>
+      <c r="DN53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DO53" s="18"/>
       <c r="DP53" s="18"/>
       <c r="DQ53" s="18"/>
-      <c r="DR53" s="10"/>
+      <c r="DR53" s="53"/>
       <c r="DS53" s="12"/>
       <c r="DT53" s="14"/>
       <c r="DU53" s="18"/>
@@ -9387,12 +9457,14 @@
     </row>
     <row r="54" spans="1:135">
       <c r="A54" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="85"/>
+      <c r="C54" s="87" t="s">
+        <v>20</v>
+      </c>
       <c r="D54" s="14"/>
       <c r="E54" s="18"/>
       <c r="F54" s="8"/>
@@ -9528,14 +9600,12 @@
     </row>
     <row r="55" spans="1:135">
       <c r="A55" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C55" s="87"/>
       <c r="D55" s="14"/>
       <c r="E55" s="18"/>
       <c r="F55" s="8"/>
@@ -9671,141 +9741,141 @@
     </row>
     <row r="56" spans="1:135">
       <c r="A56" s="2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="14"/>
       <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="18"/>
       <c r="H56" s="10"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="20"/>
+      <c r="J56" s="14"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="10"/>
       <c r="O56" s="12"/>
-      <c r="P56" s="20"/>
+      <c r="P56" s="14"/>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
       <c r="S56" s="18"/>
       <c r="T56" s="10"/>
       <c r="U56" s="12"/>
-      <c r="V56" s="20"/>
+      <c r="V56" s="14"/>
       <c r="W56" s="18"/>
       <c r="X56" s="18"/>
       <c r="Y56" s="18"/>
       <c r="Z56" s="10"/>
       <c r="AA56" s="12"/>
-      <c r="AB56" s="20"/>
+      <c r="AB56" s="14"/>
       <c r="AC56" s="18"/>
       <c r="AD56" s="18"/>
       <c r="AE56" s="18"/>
       <c r="AF56" s="10"/>
       <c r="AG56" s="12"/>
-      <c r="AH56" s="20"/>
+      <c r="AH56" s="14"/>
       <c r="AI56" s="18"/>
       <c r="AJ56" s="18"/>
       <c r="AK56" s="18"/>
       <c r="AL56" s="10"/>
       <c r="AM56" s="12"/>
-      <c r="AN56" s="20"/>
+      <c r="AN56" s="14"/>
       <c r="AO56" s="18"/>
       <c r="AP56" s="18"/>
       <c r="AQ56" s="18"/>
       <c r="AR56" s="10"/>
       <c r="AS56" s="12"/>
-      <c r="AT56" s="20"/>
+      <c r="AT56" s="14"/>
       <c r="AU56" s="18"/>
       <c r="AV56" s="18"/>
       <c r="AW56" s="18"/>
       <c r="AX56" s="10"/>
       <c r="AY56" s="12"/>
-      <c r="AZ56" s="20"/>
+      <c r="AZ56" s="14"/>
       <c r="BA56" s="18"/>
       <c r="BB56" s="18"/>
       <c r="BC56" s="18"/>
       <c r="BD56" s="10"/>
       <c r="BE56" s="12"/>
-      <c r="BF56" s="20"/>
+      <c r="BF56" s="14"/>
       <c r="BG56" s="18"/>
       <c r="BH56" s="18"/>
       <c r="BI56" s="18"/>
       <c r="BJ56" s="10"/>
       <c r="BK56" s="12"/>
-      <c r="BL56" s="20"/>
+      <c r="BL56" s="14"/>
       <c r="BM56" s="18"/>
       <c r="BN56" s="18"/>
       <c r="BO56" s="18"/>
       <c r="BP56" s="10"/>
       <c r="BQ56" s="12"/>
-      <c r="BR56" s="20"/>
+      <c r="BR56" s="14"/>
       <c r="BS56" s="18"/>
       <c r="BT56" s="18"/>
       <c r="BU56" s="18"/>
       <c r="BV56" s="10"/>
       <c r="BW56" s="12"/>
-      <c r="BX56" s="20"/>
+      <c r="BX56" s="14"/>
       <c r="BY56" s="18"/>
       <c r="BZ56" s="18"/>
       <c r="CA56" s="18"/>
       <c r="CB56" s="10"/>
       <c r="CC56" s="12"/>
-      <c r="CD56" s="20"/>
+      <c r="CD56" s="14"/>
       <c r="CE56" s="18"/>
       <c r="CF56" s="18"/>
       <c r="CG56" s="18"/>
       <c r="CH56" s="10"/>
       <c r="CI56" s="12"/>
-      <c r="CJ56" s="20"/>
+      <c r="CJ56" s="14"/>
       <c r="CK56" s="18"/>
       <c r="CL56" s="18"/>
       <c r="CM56" s="18"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="12"/>
-      <c r="CP56" s="20"/>
+      <c r="CP56" s="14"/>
       <c r="CQ56" s="18"/>
       <c r="CR56" s="18"/>
       <c r="CS56" s="18"/>
       <c r="CT56" s="10"/>
       <c r="CU56" s="12"/>
-      <c r="CV56" s="20"/>
+      <c r="CV56" s="14"/>
       <c r="CW56" s="18"/>
       <c r="CX56" s="18"/>
       <c r="CY56" s="18"/>
       <c r="CZ56" s="10"/>
       <c r="DA56" s="12"/>
-      <c r="DB56" s="20"/>
+      <c r="DB56" s="14"/>
       <c r="DC56" s="18"/>
       <c r="DD56" s="18"/>
       <c r="DE56" s="18"/>
       <c r="DF56" s="10"/>
       <c r="DG56" s="12"/>
-      <c r="DH56" s="20"/>
+      <c r="DH56" s="14"/>
       <c r="DI56" s="18"/>
       <c r="DJ56" s="18"/>
       <c r="DK56" s="18"/>
       <c r="DL56" s="10"/>
       <c r="DM56" s="12"/>
-      <c r="DN56" s="20"/>
+      <c r="DN56" s="14"/>
       <c r="DO56" s="18"/>
       <c r="DP56" s="18"/>
       <c r="DQ56" s="18"/>
       <c r="DR56" s="10"/>
       <c r="DS56" s="12"/>
-      <c r="DT56" s="20"/>
+      <c r="DT56" s="14"/>
       <c r="DU56" s="18"/>
       <c r="DV56" s="18"/>
       <c r="DW56" s="18"/>
       <c r="DX56" s="10"/>
       <c r="DY56" s="12"/>
-      <c r="DZ56" s="20"/>
+      <c r="DZ56" s="14"/>
       <c r="EA56" s="18"/>
       <c r="EB56" s="18"/>
       <c r="EC56" s="18"/>
@@ -9813,142 +9883,144 @@
       <c r="EE56" s="12"/>
     </row>
     <row r="57" spans="1:135">
-      <c r="A57" s="2">
-        <v>41</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="C57" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="92"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="18"/>
       <c r="H57" s="10"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="20"/>
+      <c r="J57" s="92"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="10"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="20"/>
+      <c r="P57" s="92"/>
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
       <c r="T57" s="10"/>
       <c r="U57" s="12"/>
-      <c r="V57" s="20"/>
+      <c r="V57" s="92"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="20"/>
+      <c r="AB57" s="92"/>
       <c r="AC57" s="18"/>
       <c r="AD57" s="18"/>
       <c r="AE57" s="18"/>
       <c r="AF57" s="10"/>
       <c r="AG57" s="12"/>
-      <c r="AH57" s="20"/>
+      <c r="AH57" s="92"/>
       <c r="AI57" s="18"/>
       <c r="AJ57" s="18"/>
       <c r="AK57" s="18"/>
       <c r="AL57" s="10"/>
       <c r="AM57" s="12"/>
-      <c r="AN57" s="20"/>
+      <c r="AN57" s="92"/>
       <c r="AO57" s="18"/>
       <c r="AP57" s="18"/>
       <c r="AQ57" s="18"/>
       <c r="AR57" s="10"/>
       <c r="AS57" s="12"/>
-      <c r="AT57" s="20"/>
+      <c r="AT57" s="92"/>
       <c r="AU57" s="18"/>
       <c r="AV57" s="18"/>
       <c r="AW57" s="18"/>
       <c r="AX57" s="10"/>
       <c r="AY57" s="12"/>
-      <c r="AZ57" s="20"/>
+      <c r="AZ57" s="92"/>
       <c r="BA57" s="18"/>
       <c r="BB57" s="18"/>
       <c r="BC57" s="18"/>
       <c r="BD57" s="10"/>
       <c r="BE57" s="12"/>
-      <c r="BF57" s="20"/>
+      <c r="BF57" s="92"/>
       <c r="BG57" s="18"/>
       <c r="BH57" s="18"/>
       <c r="BI57" s="18"/>
       <c r="BJ57" s="10"/>
       <c r="BK57" s="12"/>
-      <c r="BL57" s="20"/>
+      <c r="BL57" s="92"/>
       <c r="BM57" s="18"/>
       <c r="BN57" s="18"/>
       <c r="BO57" s="18"/>
       <c r="BP57" s="10"/>
       <c r="BQ57" s="12"/>
-      <c r="BR57" s="20"/>
+      <c r="BR57" s="92"/>
       <c r="BS57" s="18"/>
       <c r="BT57" s="18"/>
       <c r="BU57" s="18"/>
       <c r="BV57" s="10"/>
       <c r="BW57" s="12"/>
-      <c r="BX57" s="20"/>
+      <c r="BX57" s="92"/>
       <c r="BY57" s="18"/>
       <c r="BZ57" s="18"/>
       <c r="CA57" s="18"/>
       <c r="CB57" s="10"/>
       <c r="CC57" s="12"/>
-      <c r="CD57" s="20"/>
+      <c r="CD57" s="92"/>
       <c r="CE57" s="18"/>
       <c r="CF57" s="18"/>
       <c r="CG57" s="18"/>
       <c r="CH57" s="10"/>
       <c r="CI57" s="12"/>
-      <c r="CJ57" s="20"/>
+      <c r="CJ57" s="92"/>
       <c r="CK57" s="18"/>
       <c r="CL57" s="18"/>
       <c r="CM57" s="18"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="12"/>
-      <c r="CP57" s="20"/>
+      <c r="CP57" s="92"/>
       <c r="CQ57" s="18"/>
       <c r="CR57" s="18"/>
       <c r="CS57" s="18"/>
       <c r="CT57" s="10"/>
       <c r="CU57" s="12"/>
-      <c r="CV57" s="20"/>
+      <c r="CV57" s="92"/>
       <c r="CW57" s="18"/>
       <c r="CX57" s="18"/>
       <c r="CY57" s="18"/>
       <c r="CZ57" s="10"/>
       <c r="DA57" s="12"/>
-      <c r="DB57" s="20"/>
-      <c r="DC57" s="18"/>
+      <c r="DB57" s="92">
+        <v>0</v>
+      </c>
+      <c r="DC57" s="83">
+        <v>6.25E-2</v>
+      </c>
       <c r="DD57" s="18"/>
       <c r="DE57" s="18"/>
-      <c r="DF57" s="10"/>
+      <c r="DF57" s="53"/>
       <c r="DG57" s="12"/>
-      <c r="DH57" s="20"/>
+      <c r="DH57" s="92"/>
       <c r="DI57" s="18"/>
       <c r="DJ57" s="18"/>
       <c r="DK57" s="18"/>
       <c r="DL57" s="10"/>
       <c r="DM57" s="12"/>
-      <c r="DN57" s="20"/>
+      <c r="DN57" s="92"/>
       <c r="DO57" s="18"/>
       <c r="DP57" s="18"/>
       <c r="DQ57" s="18"/>
       <c r="DR57" s="10"/>
       <c r="DS57" s="12"/>
-      <c r="DT57" s="20"/>
+      <c r="DT57" s="92"/>
       <c r="DU57" s="18"/>
       <c r="DV57" s="18"/>
       <c r="DW57" s="18"/>
       <c r="DX57" s="10"/>
       <c r="DY57" s="12"/>
-      <c r="DZ57" s="20"/>
+      <c r="DZ57" s="92"/>
       <c r="EA57" s="18"/>
       <c r="EB57" s="18"/>
       <c r="EC57" s="18"/>
@@ -9957,13 +10029,13 @@
     </row>
     <row r="58" spans="1:135">
       <c r="A58" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="18"/>
@@ -10100,141 +10172,141 @@
     </row>
     <row r="59" spans="1:135">
       <c r="A59" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D59" s="20"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="10"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="14"/>
+      <c r="J59" s="20"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="10"/>
       <c r="O59" s="12"/>
-      <c r="P59" s="14"/>
+      <c r="P59" s="20"/>
       <c r="Q59" s="18"/>
       <c r="R59" s="18"/>
       <c r="S59" s="18"/>
       <c r="T59" s="10"/>
       <c r="U59" s="12"/>
-      <c r="V59" s="14"/>
+      <c r="V59" s="20"/>
       <c r="W59" s="18"/>
       <c r="X59" s="18"/>
       <c r="Y59" s="18"/>
       <c r="Z59" s="10"/>
       <c r="AA59" s="12"/>
-      <c r="AB59" s="14"/>
+      <c r="AB59" s="20"/>
       <c r="AC59" s="18"/>
       <c r="AD59" s="18"/>
       <c r="AE59" s="18"/>
       <c r="AF59" s="10"/>
       <c r="AG59" s="12"/>
-      <c r="AH59" s="14"/>
+      <c r="AH59" s="20"/>
       <c r="AI59" s="18"/>
       <c r="AJ59" s="18"/>
       <c r="AK59" s="18"/>
       <c r="AL59" s="10"/>
       <c r="AM59" s="12"/>
-      <c r="AN59" s="14"/>
+      <c r="AN59" s="20"/>
       <c r="AO59" s="18"/>
       <c r="AP59" s="18"/>
       <c r="AQ59" s="18"/>
       <c r="AR59" s="10"/>
       <c r="AS59" s="12"/>
-      <c r="AT59" s="14"/>
+      <c r="AT59" s="20"/>
       <c r="AU59" s="18"/>
       <c r="AV59" s="18"/>
       <c r="AW59" s="18"/>
       <c r="AX59" s="10"/>
       <c r="AY59" s="12"/>
-      <c r="AZ59" s="14"/>
+      <c r="AZ59" s="20"/>
       <c r="BA59" s="18"/>
       <c r="BB59" s="18"/>
       <c r="BC59" s="18"/>
       <c r="BD59" s="10"/>
       <c r="BE59" s="12"/>
-      <c r="BF59" s="14"/>
+      <c r="BF59" s="20"/>
       <c r="BG59" s="18"/>
       <c r="BH59" s="18"/>
       <c r="BI59" s="18"/>
       <c r="BJ59" s="10"/>
       <c r="BK59" s="12"/>
-      <c r="BL59" s="14"/>
+      <c r="BL59" s="20"/>
       <c r="BM59" s="18"/>
       <c r="BN59" s="18"/>
       <c r="BO59" s="18"/>
       <c r="BP59" s="10"/>
       <c r="BQ59" s="12"/>
-      <c r="BR59" s="14"/>
+      <c r="BR59" s="20"/>
       <c r="BS59" s="18"/>
       <c r="BT59" s="18"/>
       <c r="BU59" s="18"/>
       <c r="BV59" s="10"/>
       <c r="BW59" s="12"/>
-      <c r="BX59" s="14"/>
+      <c r="BX59" s="20"/>
       <c r="BY59" s="18"/>
       <c r="BZ59" s="18"/>
       <c r="CA59" s="18"/>
       <c r="CB59" s="10"/>
       <c r="CC59" s="12"/>
-      <c r="CD59" s="14"/>
+      <c r="CD59" s="20"/>
       <c r="CE59" s="18"/>
       <c r="CF59" s="18"/>
       <c r="CG59" s="18"/>
       <c r="CH59" s="10"/>
       <c r="CI59" s="12"/>
-      <c r="CJ59" s="14"/>
+      <c r="CJ59" s="20"/>
       <c r="CK59" s="18"/>
       <c r="CL59" s="18"/>
       <c r="CM59" s="18"/>
       <c r="CN59" s="10"/>
       <c r="CO59" s="12"/>
-      <c r="CP59" s="14"/>
+      <c r="CP59" s="20"/>
       <c r="CQ59" s="18"/>
       <c r="CR59" s="18"/>
       <c r="CS59" s="18"/>
       <c r="CT59" s="10"/>
       <c r="CU59" s="12"/>
-      <c r="CV59" s="14"/>
+      <c r="CV59" s="20"/>
       <c r="CW59" s="18"/>
       <c r="CX59" s="18"/>
       <c r="CY59" s="18"/>
       <c r="CZ59" s="10"/>
       <c r="DA59" s="12"/>
-      <c r="DB59" s="14"/>
+      <c r="DB59" s="20"/>
       <c r="DC59" s="18"/>
       <c r="DD59" s="18"/>
       <c r="DE59" s="18"/>
       <c r="DF59" s="10"/>
       <c r="DG59" s="12"/>
-      <c r="DH59" s="14"/>
+      <c r="DH59" s="20"/>
       <c r="DI59" s="18"/>
       <c r="DJ59" s="18"/>
       <c r="DK59" s="18"/>
       <c r="DL59" s="10"/>
       <c r="DM59" s="12"/>
-      <c r="DN59" s="14"/>
+      <c r="DN59" s="20"/>
       <c r="DO59" s="18"/>
       <c r="DP59" s="18"/>
       <c r="DQ59" s="18"/>
       <c r="DR59" s="10"/>
       <c r="DS59" s="12"/>
-      <c r="DT59" s="14"/>
+      <c r="DT59" s="20"/>
       <c r="DU59" s="18"/>
       <c r="DV59" s="18"/>
       <c r="DW59" s="18"/>
       <c r="DX59" s="10"/>
       <c r="DY59" s="12"/>
-      <c r="DZ59" s="14"/>
+      <c r="DZ59" s="20"/>
       <c r="EA59" s="18"/>
       <c r="EB59" s="18"/>
       <c r="EC59" s="18"/>
@@ -10243,141 +10315,141 @@
     </row>
     <row r="60" spans="1:135">
       <c r="A60" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="14"/>
+      <c r="C60" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="20"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="10"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="14"/>
+      <c r="J60" s="20"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="10"/>
       <c r="O60" s="12"/>
-      <c r="P60" s="14"/>
+      <c r="P60" s="20"/>
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
       <c r="S60" s="18"/>
       <c r="T60" s="10"/>
       <c r="U60" s="12"/>
-      <c r="V60" s="14"/>
+      <c r="V60" s="20"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
       <c r="Y60" s="18"/>
       <c r="Z60" s="10"/>
       <c r="AA60" s="12"/>
-      <c r="AB60" s="14"/>
+      <c r="AB60" s="20"/>
       <c r="AC60" s="18"/>
       <c r="AD60" s="18"/>
       <c r="AE60" s="18"/>
       <c r="AF60" s="10"/>
       <c r="AG60" s="12"/>
-      <c r="AH60" s="14"/>
+      <c r="AH60" s="20"/>
       <c r="AI60" s="18"/>
       <c r="AJ60" s="18"/>
       <c r="AK60" s="18"/>
       <c r="AL60" s="10"/>
       <c r="AM60" s="12"/>
-      <c r="AN60" s="14"/>
+      <c r="AN60" s="20"/>
       <c r="AO60" s="18"/>
       <c r="AP60" s="18"/>
       <c r="AQ60" s="18"/>
       <c r="AR60" s="10"/>
       <c r="AS60" s="12"/>
-      <c r="AT60" s="14"/>
+      <c r="AT60" s="20"/>
       <c r="AU60" s="18"/>
       <c r="AV60" s="18"/>
       <c r="AW60" s="18"/>
       <c r="AX60" s="10"/>
       <c r="AY60" s="12"/>
-      <c r="AZ60" s="14"/>
+      <c r="AZ60" s="20"/>
       <c r="BA60" s="18"/>
       <c r="BB60" s="18"/>
       <c r="BC60" s="18"/>
       <c r="BD60" s="10"/>
       <c r="BE60" s="12"/>
-      <c r="BF60" s="14"/>
+      <c r="BF60" s="20"/>
       <c r="BG60" s="18"/>
       <c r="BH60" s="18"/>
       <c r="BI60" s="18"/>
       <c r="BJ60" s="10"/>
       <c r="BK60" s="12"/>
-      <c r="BL60" s="14"/>
+      <c r="BL60" s="20"/>
       <c r="BM60" s="18"/>
       <c r="BN60" s="18"/>
       <c r="BO60" s="18"/>
       <c r="BP60" s="10"/>
       <c r="BQ60" s="12"/>
-      <c r="BR60" s="14"/>
+      <c r="BR60" s="20"/>
       <c r="BS60" s="18"/>
       <c r="BT60" s="18"/>
       <c r="BU60" s="18"/>
       <c r="BV60" s="10"/>
       <c r="BW60" s="12"/>
-      <c r="BX60" s="14"/>
+      <c r="BX60" s="20"/>
       <c r="BY60" s="18"/>
       <c r="BZ60" s="18"/>
       <c r="CA60" s="18"/>
       <c r="CB60" s="10"/>
       <c r="CC60" s="12"/>
-      <c r="CD60" s="14"/>
+      <c r="CD60" s="20"/>
       <c r="CE60" s="18"/>
       <c r="CF60" s="18"/>
       <c r="CG60" s="18"/>
       <c r="CH60" s="10"/>
       <c r="CI60" s="12"/>
-      <c r="CJ60" s="14"/>
+      <c r="CJ60" s="20"/>
       <c r="CK60" s="18"/>
       <c r="CL60" s="18"/>
       <c r="CM60" s="18"/>
       <c r="CN60" s="10"/>
       <c r="CO60" s="12"/>
-      <c r="CP60" s="14"/>
+      <c r="CP60" s="20"/>
       <c r="CQ60" s="18"/>
       <c r="CR60" s="18"/>
       <c r="CS60" s="18"/>
       <c r="CT60" s="10"/>
       <c r="CU60" s="12"/>
-      <c r="CV60" s="14"/>
+      <c r="CV60" s="20"/>
       <c r="CW60" s="18"/>
       <c r="CX60" s="18"/>
       <c r="CY60" s="18"/>
       <c r="CZ60" s="10"/>
       <c r="DA60" s="12"/>
-      <c r="DB60" s="14"/>
+      <c r="DB60" s="20"/>
       <c r="DC60" s="18"/>
       <c r="DD60" s="18"/>
       <c r="DE60" s="18"/>
       <c r="DF60" s="10"/>
       <c r="DG60" s="12"/>
-      <c r="DH60" s="14"/>
+      <c r="DH60" s="20"/>
       <c r="DI60" s="18"/>
       <c r="DJ60" s="18"/>
       <c r="DK60" s="18"/>
       <c r="DL60" s="10"/>
       <c r="DM60" s="12"/>
-      <c r="DN60" s="14"/>
+      <c r="DN60" s="20"/>
       <c r="DO60" s="18"/>
       <c r="DP60" s="18"/>
       <c r="DQ60" s="18"/>
       <c r="DR60" s="10"/>
       <c r="DS60" s="12"/>
-      <c r="DT60" s="14"/>
+      <c r="DT60" s="20"/>
       <c r="DU60" s="18"/>
       <c r="DV60" s="18"/>
       <c r="DW60" s="18"/>
       <c r="DX60" s="10"/>
       <c r="DY60" s="12"/>
-      <c r="DZ60" s="14"/>
+      <c r="DZ60" s="20"/>
       <c r="EA60" s="18"/>
       <c r="EB60" s="18"/>
       <c r="EC60" s="18"/>
@@ -10386,12 +10458,14 @@
     </row>
     <row r="61" spans="1:135">
       <c r="A61" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="85"/>
+      <c r="C61" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="D61" s="14"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -10527,12 +10601,14 @@
     </row>
     <row r="62" spans="1:135">
       <c r="A62" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="85"/>
+      <c r="C62" s="87" t="s">
+        <v>30</v>
+      </c>
       <c r="D62" s="14"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
@@ -10668,141 +10744,139 @@
     </row>
     <row r="63" spans="1:135">
       <c r="A63" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="6"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="10"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="6"/>
+      <c r="J63" s="14"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
       <c r="N63" s="10"/>
       <c r="O63" s="12"/>
-      <c r="P63" s="6"/>
+      <c r="P63" s="14"/>
       <c r="Q63" s="18"/>
       <c r="R63" s="18"/>
       <c r="S63" s="18"/>
       <c r="T63" s="10"/>
       <c r="U63" s="12"/>
-      <c r="V63" s="6"/>
+      <c r="V63" s="14"/>
       <c r="W63" s="18"/>
       <c r="X63" s="18"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="10"/>
       <c r="AA63" s="12"/>
-      <c r="AB63" s="6"/>
+      <c r="AB63" s="14"/>
       <c r="AC63" s="18"/>
       <c r="AD63" s="18"/>
       <c r="AE63" s="18"/>
       <c r="AF63" s="10"/>
       <c r="AG63" s="12"/>
-      <c r="AH63" s="6"/>
+      <c r="AH63" s="14"/>
       <c r="AI63" s="18"/>
       <c r="AJ63" s="18"/>
       <c r="AK63" s="18"/>
       <c r="AL63" s="10"/>
       <c r="AM63" s="12"/>
-      <c r="AN63" s="6"/>
+      <c r="AN63" s="14"/>
       <c r="AO63" s="18"/>
       <c r="AP63" s="18"/>
       <c r="AQ63" s="18"/>
       <c r="AR63" s="10"/>
       <c r="AS63" s="12"/>
-      <c r="AT63" s="6"/>
+      <c r="AT63" s="14"/>
       <c r="AU63" s="18"/>
       <c r="AV63" s="18"/>
       <c r="AW63" s="18"/>
       <c r="AX63" s="10"/>
       <c r="AY63" s="12"/>
-      <c r="AZ63" s="6"/>
+      <c r="AZ63" s="14"/>
       <c r="BA63" s="18"/>
       <c r="BB63" s="18"/>
       <c r="BC63" s="18"/>
       <c r="BD63" s="10"/>
       <c r="BE63" s="12"/>
-      <c r="BF63" s="6"/>
+      <c r="BF63" s="14"/>
       <c r="BG63" s="18"/>
       <c r="BH63" s="18"/>
       <c r="BI63" s="18"/>
       <c r="BJ63" s="10"/>
       <c r="BK63" s="12"/>
-      <c r="BL63" s="6"/>
+      <c r="BL63" s="14"/>
       <c r="BM63" s="18"/>
       <c r="BN63" s="18"/>
       <c r="BO63" s="18"/>
       <c r="BP63" s="10"/>
       <c r="BQ63" s="12"/>
-      <c r="BR63" s="6"/>
+      <c r="BR63" s="14"/>
       <c r="BS63" s="18"/>
       <c r="BT63" s="18"/>
       <c r="BU63" s="18"/>
       <c r="BV63" s="10"/>
       <c r="BW63" s="12"/>
-      <c r="BX63" s="6"/>
+      <c r="BX63" s="14"/>
       <c r="BY63" s="18"/>
       <c r="BZ63" s="18"/>
       <c r="CA63" s="18"/>
       <c r="CB63" s="10"/>
       <c r="CC63" s="12"/>
-      <c r="CD63" s="6"/>
+      <c r="CD63" s="14"/>
       <c r="CE63" s="18"/>
       <c r="CF63" s="18"/>
       <c r="CG63" s="18"/>
       <c r="CH63" s="10"/>
       <c r="CI63" s="12"/>
-      <c r="CJ63" s="6"/>
+      <c r="CJ63" s="14"/>
       <c r="CK63" s="18"/>
       <c r="CL63" s="18"/>
       <c r="CM63" s="18"/>
       <c r="CN63" s="10"/>
       <c r="CO63" s="12"/>
-      <c r="CP63" s="6"/>
+      <c r="CP63" s="14"/>
       <c r="CQ63" s="18"/>
       <c r="CR63" s="18"/>
       <c r="CS63" s="18"/>
       <c r="CT63" s="10"/>
       <c r="CU63" s="12"/>
-      <c r="CV63" s="6"/>
+      <c r="CV63" s="14"/>
       <c r="CW63" s="18"/>
       <c r="CX63" s="18"/>
       <c r="CY63" s="18"/>
       <c r="CZ63" s="10"/>
       <c r="DA63" s="12"/>
-      <c r="DB63" s="6"/>
+      <c r="DB63" s="14"/>
       <c r="DC63" s="18"/>
       <c r="DD63" s="18"/>
       <c r="DE63" s="18"/>
       <c r="DF63" s="10"/>
       <c r="DG63" s="12"/>
-      <c r="DH63" s="6"/>
+      <c r="DH63" s="14"/>
       <c r="DI63" s="18"/>
       <c r="DJ63" s="18"/>
       <c r="DK63" s="18"/>
       <c r="DL63" s="10"/>
       <c r="DM63" s="12"/>
-      <c r="DN63" s="6"/>
+      <c r="DN63" s="14"/>
       <c r="DO63" s="18"/>
       <c r="DP63" s="18"/>
       <c r="DQ63" s="18"/>
       <c r="DR63" s="10"/>
       <c r="DS63" s="12"/>
-      <c r="DT63" s="6"/>
+      <c r="DT63" s="14"/>
       <c r="DU63" s="18"/>
       <c r="DV63" s="18"/>
       <c r="DW63" s="18"/>
       <c r="DX63" s="10"/>
       <c r="DY63" s="12"/>
-      <c r="DZ63" s="6"/>
+      <c r="DZ63" s="14"/>
       <c r="EA63" s="18"/>
       <c r="EB63" s="18"/>
       <c r="EC63" s="18"/>
@@ -10810,1567 +10884,1759 @@
       <c r="EE63" s="12"/>
     </row>
     <row r="64" spans="1:135">
-      <c r="D64" s="23"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="16"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="16"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="16"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="16"/>
-      <c r="AB64" s="23"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AF64" s="16"/>
-      <c r="AH64" s="23"/>
-      <c r="AI64" s="24"/>
-      <c r="AJ64" s="24"/>
-      <c r="AK64" s="24"/>
-      <c r="AL64" s="16"/>
-      <c r="AN64" s="23"/>
-      <c r="AO64" s="24"/>
-      <c r="AP64" s="24"/>
-      <c r="AQ64" s="24"/>
-      <c r="AR64" s="16"/>
-      <c r="AT64" s="23"/>
-      <c r="AU64" s="24"/>
-      <c r="AV64" s="24"/>
-      <c r="AW64" s="24"/>
-      <c r="AX64" s="16"/>
-      <c r="AZ64" s="23"/>
-      <c r="BA64" s="24"/>
-      <c r="BB64" s="24"/>
-      <c r="BC64" s="24"/>
-      <c r="BD64" s="16"/>
-      <c r="BF64" s="23"/>
-      <c r="BG64" s="24"/>
-      <c r="BH64" s="24"/>
-      <c r="BI64" s="24"/>
-      <c r="BJ64" s="16"/>
-      <c r="BL64" s="23"/>
-      <c r="BM64" s="24"/>
-      <c r="BN64" s="24"/>
-      <c r="BO64" s="24"/>
-      <c r="BP64" s="16"/>
-      <c r="BR64" s="23"/>
-      <c r="BS64" s="24"/>
-      <c r="BT64" s="24"/>
-      <c r="BU64" s="24"/>
-      <c r="BV64" s="16"/>
-      <c r="BX64" s="23"/>
-      <c r="BY64" s="24"/>
-      <c r="BZ64" s="24"/>
-      <c r="CA64" s="24"/>
-      <c r="CB64" s="16"/>
-      <c r="CD64" s="23"/>
-      <c r="CE64" s="24"/>
-      <c r="CF64" s="24"/>
-      <c r="CG64" s="24"/>
-      <c r="CH64" s="16"/>
-      <c r="CJ64" s="23"/>
-      <c r="CK64" s="24"/>
-      <c r="CL64" s="24"/>
-      <c r="CM64" s="24"/>
-      <c r="CN64" s="16"/>
-      <c r="CP64" s="23"/>
-      <c r="CQ64" s="24"/>
-      <c r="CR64" s="24"/>
-      <c r="CS64" s="24"/>
-      <c r="CT64" s="16"/>
-      <c r="CV64" s="23"/>
-      <c r="CW64" s="24"/>
-      <c r="CX64" s="24"/>
-      <c r="CY64" s="24"/>
-      <c r="CZ64" s="16"/>
-      <c r="DB64" s="23"/>
-      <c r="DC64" s="24"/>
-      <c r="DD64" s="24"/>
-      <c r="DE64" s="24"/>
-      <c r="DF64" s="16"/>
-      <c r="DH64" s="23"/>
-      <c r="DI64" s="24"/>
-      <c r="DJ64" s="24"/>
-      <c r="DK64" s="24"/>
-      <c r="DL64" s="16"/>
-      <c r="DN64" s="23"/>
-      <c r="DO64" s="24"/>
-      <c r="DP64" s="24"/>
-      <c r="DQ64" s="24"/>
-      <c r="DR64" s="16"/>
-      <c r="DT64" s="23"/>
-      <c r="DU64" s="24"/>
-      <c r="DV64" s="24"/>
-      <c r="DW64" s="24"/>
-      <c r="DX64" s="16"/>
-      <c r="DZ64" s="23"/>
-      <c r="EA64" s="24"/>
-      <c r="EB64" s="24"/>
-      <c r="EC64" s="24"/>
-      <c r="ED64" s="16"/>
+      <c r="A64" s="2">
+        <v>46</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="87"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="18"/>
+      <c r="X64" s="18"/>
+      <c r="Y64" s="18"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="18"/>
+      <c r="AD64" s="18"/>
+      <c r="AE64" s="18"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="14"/>
+      <c r="AI64" s="18"/>
+      <c r="AJ64" s="18"/>
+      <c r="AK64" s="18"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="14"/>
+      <c r="AO64" s="18"/>
+      <c r="AP64" s="18"/>
+      <c r="AQ64" s="18"/>
+      <c r="AR64" s="10"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="14"/>
+      <c r="AU64" s="18"/>
+      <c r="AV64" s="18"/>
+      <c r="AW64" s="18"/>
+      <c r="AX64" s="10"/>
+      <c r="AY64" s="12"/>
+      <c r="AZ64" s="14"/>
+      <c r="BA64" s="18"/>
+      <c r="BB64" s="18"/>
+      <c r="BC64" s="18"/>
+      <c r="BD64" s="10"/>
+      <c r="BE64" s="12"/>
+      <c r="BF64" s="14"/>
+      <c r="BG64" s="18"/>
+      <c r="BH64" s="18"/>
+      <c r="BI64" s="18"/>
+      <c r="BJ64" s="10"/>
+      <c r="BK64" s="12"/>
+      <c r="BL64" s="14"/>
+      <c r="BM64" s="18"/>
+      <c r="BN64" s="18"/>
+      <c r="BO64" s="18"/>
+      <c r="BP64" s="10"/>
+      <c r="BQ64" s="12"/>
+      <c r="BR64" s="14"/>
+      <c r="BS64" s="18"/>
+      <c r="BT64" s="18"/>
+      <c r="BU64" s="18"/>
+      <c r="BV64" s="10"/>
+      <c r="BW64" s="12"/>
+      <c r="BX64" s="14"/>
+      <c r="BY64" s="18"/>
+      <c r="BZ64" s="18"/>
+      <c r="CA64" s="18"/>
+      <c r="CB64" s="10"/>
+      <c r="CC64" s="12"/>
+      <c r="CD64" s="14"/>
+      <c r="CE64" s="18"/>
+      <c r="CF64" s="18"/>
+      <c r="CG64" s="18"/>
+      <c r="CH64" s="10"/>
+      <c r="CI64" s="12"/>
+      <c r="CJ64" s="14"/>
+      <c r="CK64" s="18"/>
+      <c r="CL64" s="18"/>
+      <c r="CM64" s="18"/>
+      <c r="CN64" s="10"/>
+      <c r="CO64" s="12"/>
+      <c r="CP64" s="14"/>
+      <c r="CQ64" s="18"/>
+      <c r="CR64" s="18"/>
+      <c r="CS64" s="18"/>
+      <c r="CT64" s="10"/>
+      <c r="CU64" s="12"/>
+      <c r="CV64" s="14"/>
+      <c r="CW64" s="18"/>
+      <c r="CX64" s="18"/>
+      <c r="CY64" s="18"/>
+      <c r="CZ64" s="10"/>
+      <c r="DA64" s="12"/>
+      <c r="DB64" s="14"/>
+      <c r="DC64" s="18"/>
+      <c r="DD64" s="18"/>
+      <c r="DE64" s="18"/>
+      <c r="DF64" s="10"/>
+      <c r="DG64" s="12"/>
+      <c r="DH64" s="14"/>
+      <c r="DI64" s="18"/>
+      <c r="DJ64" s="18"/>
+      <c r="DK64" s="18"/>
+      <c r="DL64" s="10"/>
+      <c r="DM64" s="12"/>
+      <c r="DN64" s="14"/>
+      <c r="DO64" s="18"/>
+      <c r="DP64" s="18"/>
+      <c r="DQ64" s="18"/>
+      <c r="DR64" s="10"/>
+      <c r="DS64" s="12"/>
+      <c r="DT64" s="14"/>
+      <c r="DU64" s="18"/>
+      <c r="DV64" s="18"/>
+      <c r="DW64" s="18"/>
+      <c r="DX64" s="10"/>
+      <c r="DY64" s="12"/>
+      <c r="DZ64" s="14"/>
+      <c r="EA64" s="18"/>
+      <c r="EB64" s="18"/>
+      <c r="EC64" s="18"/>
+      <c r="ED64" s="10"/>
+      <c r="EE64" s="12"/>
     </row>
-    <row r="65" spans="3:134">
-      <c r="D65" s="25" t="s">
+    <row r="65" spans="1:135">
+      <c r="A65" s="2">
+        <v>47</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="18"/>
+      <c r="AE65" s="18"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="18"/>
+      <c r="AJ65" s="18"/>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="6"/>
+      <c r="AO65" s="18"/>
+      <c r="AP65" s="18"/>
+      <c r="AQ65" s="18"/>
+      <c r="AR65" s="10"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="6"/>
+      <c r="AU65" s="18"/>
+      <c r="AV65" s="18"/>
+      <c r="AW65" s="18"/>
+      <c r="AX65" s="10"/>
+      <c r="AY65" s="12"/>
+      <c r="AZ65" s="6"/>
+      <c r="BA65" s="18"/>
+      <c r="BB65" s="18"/>
+      <c r="BC65" s="18"/>
+      <c r="BD65" s="10"/>
+      <c r="BE65" s="12"/>
+      <c r="BF65" s="6"/>
+      <c r="BG65" s="18"/>
+      <c r="BH65" s="18"/>
+      <c r="BI65" s="18"/>
+      <c r="BJ65" s="10"/>
+      <c r="BK65" s="12"/>
+      <c r="BL65" s="6"/>
+      <c r="BM65" s="18"/>
+      <c r="BN65" s="18"/>
+      <c r="BO65" s="18"/>
+      <c r="BP65" s="10"/>
+      <c r="BQ65" s="12"/>
+      <c r="BR65" s="6"/>
+      <c r="BS65" s="18"/>
+      <c r="BT65" s="18"/>
+      <c r="BU65" s="18"/>
+      <c r="BV65" s="10"/>
+      <c r="BW65" s="12"/>
+      <c r="BX65" s="6"/>
+      <c r="BY65" s="18"/>
+      <c r="BZ65" s="18"/>
+      <c r="CA65" s="18"/>
+      <c r="CB65" s="10"/>
+      <c r="CC65" s="12"/>
+      <c r="CD65" s="6"/>
+      <c r="CE65" s="18"/>
+      <c r="CF65" s="18"/>
+      <c r="CG65" s="18"/>
+      <c r="CH65" s="10"/>
+      <c r="CI65" s="12"/>
+      <c r="CJ65" s="6"/>
+      <c r="CK65" s="18"/>
+      <c r="CL65" s="18"/>
+      <c r="CM65" s="18"/>
+      <c r="CN65" s="10"/>
+      <c r="CO65" s="12"/>
+      <c r="CP65" s="6"/>
+      <c r="CQ65" s="18"/>
+      <c r="CR65" s="18"/>
+      <c r="CS65" s="18"/>
+      <c r="CT65" s="10"/>
+      <c r="CU65" s="12"/>
+      <c r="CV65" s="6"/>
+      <c r="CW65" s="18"/>
+      <c r="CX65" s="18"/>
+      <c r="CY65" s="18"/>
+      <c r="CZ65" s="10"/>
+      <c r="DA65" s="12"/>
+      <c r="DB65" s="6"/>
+      <c r="DC65" s="18"/>
+      <c r="DD65" s="18"/>
+      <c r="DE65" s="18"/>
+      <c r="DF65" s="10"/>
+      <c r="DG65" s="12"/>
+      <c r="DH65" s="6"/>
+      <c r="DI65" s="18"/>
+      <c r="DJ65" s="18"/>
+      <c r="DK65" s="18"/>
+      <c r="DL65" s="10"/>
+      <c r="DM65" s="12"/>
+      <c r="DN65" s="6"/>
+      <c r="DO65" s="18"/>
+      <c r="DP65" s="18"/>
+      <c r="DQ65" s="18"/>
+      <c r="DR65" s="10"/>
+      <c r="DS65" s="12"/>
+      <c r="DT65" s="6"/>
+      <c r="DU65" s="18"/>
+      <c r="DV65" s="18"/>
+      <c r="DW65" s="18"/>
+      <c r="DX65" s="10"/>
+      <c r="DY65" s="12"/>
+      <c r="DZ65" s="6"/>
+      <c r="EA65" s="18"/>
+      <c r="EB65" s="18"/>
+      <c r="EC65" s="18"/>
+      <c r="ED65" s="10"/>
+      <c r="EE65" s="12"/>
+    </row>
+    <row r="66" spans="1:135">
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="16"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="16"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="16"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="16"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="16"/>
+      <c r="AH66" s="23"/>
+      <c r="AI66" s="24"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="16"/>
+      <c r="AN66" s="23"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="24"/>
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="16"/>
+      <c r="AT66" s="23"/>
+      <c r="AU66" s="24"/>
+      <c r="AV66" s="24"/>
+      <c r="AW66" s="24"/>
+      <c r="AX66" s="16"/>
+      <c r="AZ66" s="23"/>
+      <c r="BA66" s="24"/>
+      <c r="BB66" s="24"/>
+      <c r="BC66" s="24"/>
+      <c r="BD66" s="16"/>
+      <c r="BF66" s="23"/>
+      <c r="BG66" s="24"/>
+      <c r="BH66" s="24"/>
+      <c r="BI66" s="24"/>
+      <c r="BJ66" s="16"/>
+      <c r="BL66" s="23"/>
+      <c r="BM66" s="24"/>
+      <c r="BN66" s="24"/>
+      <c r="BO66" s="24"/>
+      <c r="BP66" s="16"/>
+      <c r="BR66" s="23"/>
+      <c r="BS66" s="24"/>
+      <c r="BT66" s="24"/>
+      <c r="BU66" s="24"/>
+      <c r="BV66" s="16"/>
+      <c r="BX66" s="23"/>
+      <c r="BY66" s="24"/>
+      <c r="BZ66" s="24"/>
+      <c r="CA66" s="24"/>
+      <c r="CB66" s="16"/>
+      <c r="CD66" s="23"/>
+      <c r="CE66" s="24"/>
+      <c r="CF66" s="24"/>
+      <c r="CG66" s="24"/>
+      <c r="CH66" s="16"/>
+      <c r="CJ66" s="23"/>
+      <c r="CK66" s="24"/>
+      <c r="CL66" s="24"/>
+      <c r="CM66" s="24"/>
+      <c r="CN66" s="16"/>
+      <c r="CP66" s="23"/>
+      <c r="CQ66" s="24"/>
+      <c r="CR66" s="24"/>
+      <c r="CS66" s="24"/>
+      <c r="CT66" s="16"/>
+      <c r="CV66" s="23"/>
+      <c r="CW66" s="24"/>
+      <c r="CX66" s="24"/>
+      <c r="CY66" s="24"/>
+      <c r="CZ66" s="16"/>
+      <c r="DB66" s="23"/>
+      <c r="DC66" s="24"/>
+      <c r="DD66" s="24"/>
+      <c r="DE66" s="24"/>
+      <c r="DF66" s="16"/>
+      <c r="DH66" s="23"/>
+      <c r="DI66" s="24"/>
+      <c r="DJ66" s="24"/>
+      <c r="DK66" s="24"/>
+      <c r="DL66" s="16"/>
+      <c r="DN66" s="23"/>
+      <c r="DO66" s="24"/>
+      <c r="DP66" s="24"/>
+      <c r="DQ66" s="24"/>
+      <c r="DR66" s="16"/>
+      <c r="DT66" s="23"/>
+      <c r="DU66" s="24"/>
+      <c r="DV66" s="24"/>
+      <c r="DW66" s="24"/>
+      <c r="DX66" s="16"/>
+      <c r="DZ66" s="23"/>
+      <c r="EA66" s="24"/>
+      <c r="EB66" s="24"/>
+      <c r="EC66" s="24"/>
+      <c r="ED66" s="16"/>
+    </row>
+    <row r="67" spans="1:135">
+      <c r="D67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="16"/>
-      <c r="J65" s="25" t="s">
+      <c r="H67" s="16"/>
+      <c r="J67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K65" s="26" t="s">
+      <c r="K67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L65" s="26" t="s">
+      <c r="L67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M65" s="26" t="s">
+      <c r="M67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N65" s="16"/>
-      <c r="P65" s="25" t="s">
+      <c r="N67" s="16"/>
+      <c r="P67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q65" s="26" t="s">
+      <c r="Q67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="R65" s="26" t="s">
+      <c r="R67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="S65" s="26" t="s">
+      <c r="S67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="T65" s="16"/>
-      <c r="V65" s="25" t="s">
+      <c r="T67" s="16"/>
+      <c r="V67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="W65" s="26" t="s">
+      <c r="W67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="X65" s="26" t="s">
+      <c r="X67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Y65" s="26" t="s">
+      <c r="Y67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Z65" s="16"/>
-      <c r="AB65" s="25" t="s">
+      <c r="Z67" s="16"/>
+      <c r="AB67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AC65" s="26" t="s">
+      <c r="AC67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AD65" s="26" t="s">
+      <c r="AD67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AE65" s="26" t="s">
+      <c r="AE67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AF65" s="16"/>
-      <c r="AH65" s="25" t="s">
+      <c r="AF67" s="16"/>
+      <c r="AH67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AI65" s="26" t="s">
+      <c r="AI67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AJ65" s="26" t="s">
+      <c r="AJ67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AK65" s="26" t="s">
+      <c r="AK67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AL65" s="16"/>
-      <c r="AN65" s="25" t="s">
+      <c r="AL67" s="16"/>
+      <c r="AN67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AO65" s="26" t="s">
+      <c r="AO67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AP65" s="26" t="s">
+      <c r="AP67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AQ65" s="26" t="s">
+      <c r="AQ67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AR65" s="16"/>
-      <c r="AT65" s="25" t="s">
+      <c r="AR67" s="16"/>
+      <c r="AT67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AU65" s="26" t="s">
+      <c r="AU67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AV65" s="26" t="s">
+      <c r="AV67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AW65" s="26" t="s">
+      <c r="AW67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AX65" s="16"/>
-      <c r="AZ65" s="25" t="s">
+      <c r="AX67" s="16"/>
+      <c r="AZ67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="BA65" s="26" t="s">
+      <c r="BA67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="BB65" s="26" t="s">
+      <c r="BB67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BC65" s="26" t="s">
+      <c r="BC67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="BD65" s="16"/>
-      <c r="BF65" s="25" t="s">
+      <c r="BD67" s="16"/>
+      <c r="BF67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="BG65" s="26" t="s">
+      <c r="BG67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="BH65" s="26" t="s">
+      <c r="BH67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BI65" s="26" t="s">
+      <c r="BI67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="BJ65" s="16"/>
-      <c r="BL65" s="25" t="s">
+      <c r="BJ67" s="16"/>
+      <c r="BL67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="BM65" s="26" t="s">
+      <c r="BM67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="BN65" s="26" t="s">
+      <c r="BN67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BO65" s="26" t="s">
+      <c r="BO67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="BP65" s="16"/>
-      <c r="BR65" s="25" t="s">
+      <c r="BP67" s="16"/>
+      <c r="BR67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="BS65" s="26" t="s">
+      <c r="BS67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="BT65" s="26" t="s">
+      <c r="BT67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BU65" s="26" t="s">
+      <c r="BU67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="BV65" s="16"/>
-      <c r="BX65" s="25" t="s">
+      <c r="BV67" s="16"/>
+      <c r="BX67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="BY65" s="26" t="s">
+      <c r="BY67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="BZ65" s="26" t="s">
+      <c r="BZ67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="CA65" s="26" t="s">
+      <c r="CA67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="CB65" s="16"/>
-      <c r="CD65" s="25" t="s">
+      <c r="CB67" s="16"/>
+      <c r="CD67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="CE65" s="26" t="s">
+      <c r="CE67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="CF65" s="26" t="s">
+      <c r="CF67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="CG65" s="26" t="s">
+      <c r="CG67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="CH65" s="16"/>
-      <c r="CJ65" s="25" t="s">
+      <c r="CH67" s="16"/>
+      <c r="CJ67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="CK65" s="26" t="s">
+      <c r="CK67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="CL65" s="26" t="s">
+      <c r="CL67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="CM65" s="26" t="s">
+      <c r="CM67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="CN65" s="16"/>
-      <c r="CP65" s="25" t="s">
+      <c r="CN67" s="16"/>
+      <c r="CP67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="CQ65" s="26" t="s">
+      <c r="CQ67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="CR65" s="26" t="s">
+      <c r="CR67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="CS65" s="26" t="s">
+      <c r="CS67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="CT65" s="16"/>
-      <c r="CV65" s="25" t="s">
+      <c r="CT67" s="16"/>
+      <c r="CV67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="CW65" s="26" t="s">
+      <c r="CW67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="CX65" s="26" t="s">
+      <c r="CX67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="CY65" s="26" t="s">
+      <c r="CY67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="CZ65" s="16"/>
-      <c r="DB65" s="25" t="s">
+      <c r="CZ67" s="16"/>
+      <c r="DB67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="DC65" s="26" t="s">
+      <c r="DC67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="DD65" s="26" t="s">
+      <c r="DD67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="DE65" s="26" t="s">
+      <c r="DE67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="DF65" s="16"/>
-      <c r="DH65" s="25" t="s">
+      <c r="DF67" s="16"/>
+      <c r="DH67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="DI65" s="26" t="s">
+      <c r="DI67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="DJ65" s="26" t="s">
+      <c r="DJ67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="DK65" s="26" t="s">
+      <c r="DK67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="DL65" s="16"/>
-      <c r="DN65" s="25" t="s">
+      <c r="DL67" s="16"/>
+      <c r="DN67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="DO65" s="26" t="s">
+      <c r="DO67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="DP65" s="26" t="s">
+      <c r="DP67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="DQ65" s="26" t="s">
+      <c r="DQ67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="DR65" s="16"/>
-      <c r="DT65" s="25" t="s">
+      <c r="DR67" s="16"/>
+      <c r="DT67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="DU65" s="26" t="s">
+      <c r="DU67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="DV65" s="26" t="s">
+      <c r="DV67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="DW65" s="26" t="s">
+      <c r="DW67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="DX65" s="16"/>
-      <c r="DZ65" s="25" t="s">
+      <c r="DX67" s="16"/>
+      <c r="DZ67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="EA65" s="26" t="s">
+      <c r="EA67" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="EB65" s="26" t="s">
+      <c r="EB67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="EC65" s="26" t="s">
+      <c r="EC67" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="ED65" s="16"/>
+      <c r="ED67" s="16"/>
     </row>
-    <row r="66" spans="3:134" ht="15.75" thickBot="1">
-      <c r="C66" s="27" t="s">
+    <row r="68" spans="1:135" ht="15.75" thickBot="1">
+      <c r="C68" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="28">
-        <f>SUM(D3:D63)</f>
+      <c r="D68" s="28">
+        <f>SUM(D3:D65)</f>
         <v>0.62500000000000011</v>
       </c>
-      <c r="E66" s="29">
-        <f>SUM(E3:E63)</f>
+      <c r="E68" s="29">
+        <f>SUM(E3:E65)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="29">
-        <f>SUM(G3:G63)</f>
+      <c r="G68" s="29">
+        <f>SUM(G3:G65)</f>
         <v>1.125</v>
       </c>
-      <c r="H66" s="31"/>
-      <c r="J66" s="28">
-        <f>SUM(J3:J63)</f>
+      <c r="H68" s="31"/>
+      <c r="J68" s="28">
+        <f>SUM(J3:J65)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K66" s="29">
-        <f>SUM(K3:K63)</f>
+      <c r="K68" s="29">
+        <f>SUM(K3:K65)</f>
         <v>0</v>
       </c>
-      <c r="L66" s="30" t="s">
+      <c r="L68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="29">
-        <f>SUM(M3:M63)</f>
+      <c r="M68" s="29">
+        <f>SUM(M3:M65)</f>
         <v>0</v>
       </c>
-      <c r="N66" s="31"/>
-      <c r="P66" s="28">
-        <f>SUM(P3:P63)</f>
+      <c r="N68" s="31"/>
+      <c r="P68" s="28">
+        <f>SUM(P3:P65)</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="Q66" s="29">
-        <f>SUM(Q3:Q63)</f>
+      <c r="Q68" s="29">
+        <f>SUM(Q3:Q65)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="R66" s="30" t="s">
+      <c r="R68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="S66" s="29">
-        <f>SUM(S3:S63)</f>
+      <c r="S68" s="29">
+        <f>SUM(S3:S65)</f>
         <v>0</v>
       </c>
-      <c r="T66" s="31"/>
-      <c r="V66" s="28">
-        <f>SUM(V3:V63)</f>
+      <c r="T68" s="31"/>
+      <c r="V68" s="28">
+        <f>SUM(V3:V65)</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W66" s="29">
-        <f>SUM(W3:W63)</f>
+      <c r="W68" s="29">
+        <f>SUM(W3:W65)</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="X66" s="30" t="s">
+      <c r="X68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Y66" s="29">
-        <f>SUM(Y3:Y63)</f>
+      <c r="Y68" s="29">
+        <f>SUM(Y3:Y65)</f>
         <v>0</v>
       </c>
-      <c r="Z66" s="31"/>
-      <c r="AB66" s="28">
-        <f>SUM(AB3:AB63)</f>
+      <c r="Z68" s="31"/>
+      <c r="AB68" s="28">
+        <f>SUM(AB3:AB65)</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="AC66" s="29">
-        <f>SUM(AC3:AC63)</f>
+      <c r="AC68" s="29">
+        <f>SUM(AC3:AC65)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AD66" s="30" t="s">
+      <c r="AD68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AE66" s="29">
-        <f>SUM(AE3:AE63)</f>
+      <c r="AE68" s="29">
+        <f>SUM(AE3:AE65)</f>
         <v>0</v>
       </c>
-      <c r="AF66" s="31"/>
-      <c r="AH66" s="28">
-        <f>SUM(AH3:AH63)</f>
+      <c r="AF68" s="31"/>
+      <c r="AH68" s="28">
+        <f>SUM(AH3:AH65)</f>
         <v>0.25</v>
       </c>
-      <c r="AI66" s="29">
-        <f>SUM(AI3:AI63)</f>
+      <c r="AI68" s="29">
+        <f>SUM(AI3:AI65)</f>
         <v>0.5</v>
       </c>
-      <c r="AJ66" s="30" t="s">
+      <c r="AJ68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AK66" s="29">
-        <f>SUM(AK3:AK63)</f>
+      <c r="AK68" s="29">
+        <f>SUM(AK3:AK65)</f>
         <v>0</v>
       </c>
-      <c r="AL66" s="31"/>
-      <c r="AN66" s="28">
-        <f>SUM(AN3:AN63)</f>
+      <c r="AL68" s="31"/>
+      <c r="AN68" s="28">
+        <f>SUM(AN3:AN65)</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="AO66" s="29">
-        <f>SUM(AO3:AO63)</f>
+      <c r="AO68" s="29">
+        <f>SUM(AO3:AO65)</f>
         <v>0</v>
       </c>
-      <c r="AP66" s="30" t="s">
+      <c r="AP68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AQ66" s="29">
-        <f>SUM(AQ3:AQ63)</f>
+      <c r="AQ68" s="29">
+        <f>SUM(AQ3:AQ65)</f>
         <v>0</v>
       </c>
-      <c r="AR66" s="31"/>
-      <c r="AT66" s="28">
-        <f>SUM(AT3:AT63)</f>
+      <c r="AR68" s="31"/>
+      <c r="AT68" s="28">
+        <f>SUM(AT3:AT65)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AU66" s="29">
-        <f>SUM(AU3:AU63)</f>
+      <c r="AU68" s="29">
+        <f>SUM(AU3:AU65)</f>
         <v>0</v>
       </c>
-      <c r="AV66" s="30" t="s">
+      <c r="AV68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AW66" s="29">
-        <f>SUM(AW3:AW63)</f>
+      <c r="AW68" s="29">
+        <f>SUM(AW3:AW65)</f>
         <v>0</v>
       </c>
-      <c r="AX66" s="31"/>
-      <c r="AZ66" s="28">
-        <f>SUM(AZ3:AZ63)</f>
+      <c r="AX68" s="31"/>
+      <c r="AZ68" s="28">
+        <f>SUM(AZ3:AZ65)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="BA66" s="29">
-        <f>SUM(BA3:BA63)</f>
+      <c r="BA68" s="29">
+        <f>SUM(BA3:BA65)</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="BB68" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC68" s="29">
+        <f>SUM(BC3:BC65)</f>
         <v>0</v>
       </c>
-      <c r="BB66" s="30" t="s">
+      <c r="BD68" s="31"/>
+      <c r="BF68" s="28">
+        <f>SUM(BF3:BF65)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="BG68" s="29">
+        <f>SUM(BG3:BG65)</f>
+        <v>0.22916666666666669</v>
+      </c>
+      <c r="BH68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BC66" s="29">
-        <f>SUM(BC3:BC63)</f>
+      <c r="BI68" s="29">
+        <f>SUM(BI3:BI65)</f>
         <v>0</v>
       </c>
-      <c r="BD66" s="31"/>
-      <c r="BF66" s="28">
-        <f>SUM(BF3:BF63)</f>
+      <c r="BJ68" s="31"/>
+      <c r="BL68" s="28">
+        <f>SUM(BL3:BL65)</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="BG66" s="29">
-        <f>SUM(BG3:BG63)</f>
+      <c r="BM68" s="29">
+        <f>SUM(BM3:BM65)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="BN68" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO68" s="29">
+        <f>SUM(BO3:BO65)</f>
         <v>0</v>
       </c>
-      <c r="BH66" s="30" t="s">
+      <c r="BP68" s="31"/>
+      <c r="BR68" s="28">
+        <f>SUM(BR3:BR65)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="BS68" s="29">
+        <f>SUM(BS3:BS65)</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="BT68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BI66" s="29">
-        <f>SUM(BI3:BI63)</f>
+      <c r="BU68" s="29">
+        <f>SUM(BU3:BU65)</f>
         <v>0</v>
       </c>
-      <c r="BJ66" s="31"/>
-      <c r="BL66" s="28">
-        <f>SUM(BL3:BL63)</f>
+      <c r="BV68" s="31"/>
+      <c r="BX68" s="28">
+        <f>SUM(BX3:BX65)</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="BM66" s="29">
-        <f>SUM(BM3:BM63)</f>
+      <c r="BY68" s="29">
+        <f>SUM(BY3:BY65)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="BZ68" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA68" s="29">
+        <f>SUM(CA3:CA65)</f>
         <v>0</v>
       </c>
-      <c r="BN66" s="30" t="s">
+      <c r="CB68" s="31"/>
+      <c r="CD68" s="28">
+        <f>SUM(CD3:CD65)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="CE68" s="29">
+        <f>SUM(CE3:CE65)</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="CF68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BO66" s="29">
-        <f>SUM(BO3:BO63)</f>
+      <c r="CG68" s="29">
+        <f>SUM(CG3:CG65)</f>
         <v>0</v>
       </c>
-      <c r="BP66" s="31"/>
-      <c r="BR66" s="28">
-        <f>SUM(BR3:BR63)</f>
+      <c r="CH68" s="31"/>
+      <c r="CJ68" s="28">
+        <f>SUM(CJ3:CJ65)</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="CK68" s="29">
+        <f>SUM(CK3:CK65)</f>
+        <v>0</v>
+      </c>
+      <c r="CL68" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM68" s="29">
+        <f>SUM(CM3:CM65)</f>
+        <v>0</v>
+      </c>
+      <c r="CN68" s="31"/>
+      <c r="CP68" s="28">
+        <f>SUM(CP3:CP65)</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="BS66" s="29">
-        <f>SUM(BS3:BS63)</f>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="BT66" s="30" t="s">
+      <c r="CQ68" s="29">
+        <f>SUM(CQ3:CQ65)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="CR68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BU66" s="29">
-        <f>SUM(BU3:BU63)</f>
+      <c r="CS68" s="29">
+        <f>SUM(CS3:CS65)</f>
         <v>0</v>
       </c>
-      <c r="BV66" s="31"/>
-      <c r="BX66" s="28">
-        <f>SUM(BX3:BX63)</f>
+      <c r="CT68" s="31"/>
+      <c r="CV68" s="28">
+        <f>SUM(CV3:CV65)</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="BY66" s="29">
-        <f>SUM(BY3:BY63)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="BZ66" s="30" t="s">
+      <c r="CW68" s="29">
+        <f>SUM(CW3:CW65)</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="CX68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="CA66" s="29">
-        <f>SUM(CA3:CA63)</f>
+      <c r="CY68" s="29">
+        <f>SUM(CY3:CY65)</f>
         <v>0</v>
       </c>
-      <c r="CB66" s="31"/>
-      <c r="CD66" s="28">
-        <f>SUM(CD3:CD63)</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="CE66" s="29">
-        <f>SUM(CE3:CE63)</f>
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="CF66" s="30" t="s">
+      <c r="CZ68" s="31"/>
+      <c r="DB68" s="28">
+        <f>SUM(DB3:DB65)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="DC68" s="29">
+        <f>SUM(DC3:DC65)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="DD68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="CG66" s="29">
-        <f>SUM(CG3:CG63)</f>
+      <c r="DE68" s="29">
+        <f>SUM(DE3:DE65)</f>
         <v>0</v>
       </c>
-      <c r="CH66" s="31"/>
-      <c r="CJ66" s="28">
-        <f>SUM(CJ3:CJ63)</f>
-        <v>0.37499999999999994</v>
-      </c>
-      <c r="CK66" s="29">
-        <f>SUM(CK3:CK63)</f>
+      <c r="DF68" s="31"/>
+      <c r="DH68" s="28">
+        <f>SUM(DH3:DH65)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="DI68" s="29">
+        <f>SUM(DI3:DI65)</f>
         <v>0</v>
       </c>
-      <c r="CL66" s="30" t="s">
+      <c r="DJ68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="CM66" s="29">
-        <f>SUM(CM3:CM63)</f>
+      <c r="DK68" s="29">
+        <f>SUM(DK3:DK65)</f>
         <v>0</v>
       </c>
-      <c r="CN66" s="31"/>
-      <c r="CP66" s="28">
-        <f>SUM(CP3:CP63)</f>
+      <c r="DL68" s="31"/>
+      <c r="DN68" s="28">
+        <f>SUM(DN3:DN65)</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="CQ66" s="29">
-        <f>SUM(CQ3:CQ63)</f>
+      <c r="DO68" s="29">
+        <f>SUM(DO3:DO65)</f>
         <v>0</v>
       </c>
-      <c r="CR66" s="30" t="s">
+      <c r="DP68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="CS66" s="29">
-        <f>SUM(CS3:CS63)</f>
+      <c r="DQ68" s="29">
+        <f>SUM(DQ3:DQ65)</f>
         <v>0</v>
       </c>
-      <c r="CT66" s="31"/>
-      <c r="CV66" s="28">
-        <f>SUM(CV3:CV63)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="CW66" s="29">
-        <f>SUM(CW3:CW63)</f>
+      <c r="DR68" s="31"/>
+      <c r="DT68" s="28">
+        <f>SUM(DT3:DT65)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="DU68" s="29">
+        <f>SUM(DU3:DU65)</f>
         <v>0</v>
       </c>
-      <c r="CX66" s="30" t="s">
+      <c r="DV68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="CY66" s="29">
-        <f>SUM(CY3:CY63)</f>
+      <c r="DW68" s="29">
+        <f>SUM(DW3:DW65)</f>
         <v>0</v>
       </c>
-      <c r="CZ66" s="31"/>
-      <c r="DB66" s="28">
-        <f>SUM(DB3:DB63)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="DC66" s="29">
-        <f>SUM(DC3:DC63)</f>
+      <c r="DX68" s="31"/>
+      <c r="DZ68" s="28">
+        <f>SUM(DZ3:DZ65)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="EA68" s="29">
+        <f>SUM(EA3:EA65)</f>
         <v>0</v>
       </c>
-      <c r="DD66" s="30" t="s">
+      <c r="EB68" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="DE66" s="29">
-        <f>SUM(DE3:DE63)</f>
+      <c r="EC68" s="29">
+        <f>SUM(EC3:EC65)</f>
         <v>0</v>
       </c>
-      <c r="DF66" s="31"/>
-      <c r="DH66" s="28">
-        <f>SUM(DH3:DH63)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="DI66" s="29">
-        <f>SUM(DI3:DI63)</f>
-        <v>0</v>
-      </c>
-      <c r="DJ66" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="DK66" s="29">
-        <f>SUM(DK3:DK63)</f>
-        <v>0</v>
-      </c>
-      <c r="DL66" s="31"/>
-      <c r="DN66" s="28">
-        <f>SUM(DN3:DN63)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="DO66" s="29">
-        <f>SUM(DO3:DO63)</f>
-        <v>0</v>
-      </c>
-      <c r="DP66" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="DQ66" s="29">
-        <f>SUM(DQ3:DQ63)</f>
-        <v>0</v>
-      </c>
-      <c r="DR66" s="31"/>
-      <c r="DT66" s="28">
-        <f>SUM(DT3:DT63)</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="DU66" s="29">
-        <f>SUM(DU3:DU63)</f>
-        <v>0</v>
-      </c>
-      <c r="DV66" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="DW66" s="29">
-        <f>SUM(DW3:DW63)</f>
-        <v>0</v>
-      </c>
-      <c r="DX66" s="31"/>
-      <c r="DZ66" s="28">
-        <f>SUM(DZ3:DZ63)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="EA66" s="29">
-        <f>SUM(EA3:EA63)</f>
-        <v>0</v>
-      </c>
-      <c r="EB66" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="EC66" s="29">
-        <f>SUM(EC3:EC63)</f>
-        <v>0</v>
-      </c>
-      <c r="ED66" s="31"/>
+      <c r="ED68" s="31"/>
     </row>
-    <row r="67" spans="3:134">
-      <c r="D67" s="32" t="s">
+    <row r="69" spans="1:135">
+      <c r="D69" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="33">
-        <f>G66/E66</f>
+      <c r="E69" s="33">
+        <f>G68/E68</f>
         <v>6.75</v>
-      </c>
-      <c r="H67" s="34"/>
-      <c r="J67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K67" s="33" t="e">
-        <f>M66/K66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N67" s="34"/>
-      <c r="P67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q67" s="33">
-        <f>S66/Q66</f>
-        <v>0</v>
-      </c>
-      <c r="T67" s="34"/>
-      <c r="V67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="W67" s="33">
-        <f>Y66/W66</f>
-        <v>0</v>
-      </c>
-      <c r="Z67" s="34"/>
-      <c r="AB67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC67" s="33">
-        <f>AE66/AC66</f>
-        <v>0</v>
-      </c>
-      <c r="AF67" s="34"/>
-      <c r="AH67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI67" s="33">
-        <f>AK66/AI66</f>
-        <v>0</v>
-      </c>
-      <c r="AL67" s="34"/>
-      <c r="AN67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO67" s="33" t="e">
-        <f>AQ66/AO66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR67" s="34"/>
-      <c r="AT67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU67" s="33" t="e">
-        <f>AW66/AU66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX67" s="34"/>
-      <c r="AZ67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA67" s="33" t="e">
-        <f>BC66/BA66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD67" s="34"/>
-      <c r="BF67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG67" s="33" t="e">
-        <f>BI66/BG66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ67" s="34"/>
-      <c r="BL67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BM67" s="33" t="e">
-        <f>BO66/BM66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP67" s="34"/>
-      <c r="BR67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BS67" s="33">
-        <f>BU66/BS66</f>
-        <v>0</v>
-      </c>
-      <c r="BV67" s="34"/>
-      <c r="BX67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BY67" s="33">
-        <f>CA66/BY66</f>
-        <v>0</v>
-      </c>
-      <c r="CB67" s="34"/>
-      <c r="CD67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="CE67" s="33">
-        <f>CG66/CE66</f>
-        <v>0</v>
-      </c>
-      <c r="CH67" s="34"/>
-      <c r="CJ67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="CK67" s="33" t="e">
-        <f>CM66/CK66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CN67" s="34"/>
-      <c r="CP67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="CQ67" s="33" t="e">
-        <f>CS66/CQ66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CT67" s="34"/>
-      <c r="CV67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="CW67" s="33" t="e">
-        <f>CY66/CW66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CZ67" s="34"/>
-      <c r="DB67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC67" s="33" t="e">
-        <f>DE66/DC66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DF67" s="34"/>
-      <c r="DH67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI67" s="33" t="e">
-        <f>DK66/DI66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DL67" s="34"/>
-      <c r="DN67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO67" s="33" t="e">
-        <f>DQ66/DO66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DR67" s="34"/>
-      <c r="DT67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="DU67" s="33" t="e">
-        <f>DW66/DU66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DX67" s="34"/>
-      <c r="DZ67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="EA67" s="33" t="e">
-        <f>EC66/EA66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="ED67" s="34"/>
-    </row>
-    <row r="68" spans="3:134">
-      <c r="D68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="33">
-        <f>G66/D66</f>
-        <v>1.7999999999999996</v>
-      </c>
-      <c r="H68" s="34"/>
-      <c r="J68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K68" s="33">
-        <f>M66/J66</f>
-        <v>0</v>
-      </c>
-      <c r="N68" s="34"/>
-      <c r="P68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q68" s="33">
-        <f>S66/P66</f>
-        <v>0</v>
-      </c>
-      <c r="T68" s="34"/>
-      <c r="V68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W68" s="33">
-        <f>Y66/V66</f>
-        <v>0</v>
-      </c>
-      <c r="Z68" s="34"/>
-      <c r="AB68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC68" s="33">
-        <f>AE66/AB66</f>
-        <v>0</v>
-      </c>
-      <c r="AF68" s="34"/>
-      <c r="AH68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI68" s="33">
-        <f>AK66/AH66</f>
-        <v>0</v>
-      </c>
-      <c r="AL68" s="34"/>
-      <c r="AN68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO68" s="33">
-        <f>AQ66/AN66</f>
-        <v>0</v>
-      </c>
-      <c r="AR68" s="34"/>
-      <c r="AT68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU68" s="33">
-        <f>AW66/AT66</f>
-        <v>0</v>
-      </c>
-      <c r="AX68" s="34"/>
-      <c r="AZ68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA68" s="33">
-        <f>BC66/AZ66</f>
-        <v>0</v>
-      </c>
-      <c r="BD68" s="34"/>
-      <c r="BF68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG68" s="33">
-        <f>BI66/BF66</f>
-        <v>0</v>
-      </c>
-      <c r="BJ68" s="34"/>
-      <c r="BL68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM68" s="33">
-        <f>BO66/BL66</f>
-        <v>0</v>
-      </c>
-      <c r="BP68" s="34"/>
-      <c r="BR68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS68" s="33">
-        <f>BU66/BR66</f>
-        <v>0</v>
-      </c>
-      <c r="BV68" s="34"/>
-      <c r="BX68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY68" s="33">
-        <f>CA66/BX66</f>
-        <v>0</v>
-      </c>
-      <c r="CB68" s="34"/>
-      <c r="CD68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE68" s="33">
-        <f>CG66/CD66</f>
-        <v>0</v>
-      </c>
-      <c r="CH68" s="34"/>
-      <c r="CJ68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK68" s="33">
-        <f>CM66/CJ66</f>
-        <v>0</v>
-      </c>
-      <c r="CN68" s="34"/>
-      <c r="CP68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="CQ68" s="33">
-        <f>CS66/CP66</f>
-        <v>0</v>
-      </c>
-      <c r="CT68" s="34"/>
-      <c r="CV68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW68" s="33">
-        <f>CY66/CV66</f>
-        <v>0</v>
-      </c>
-      <c r="CZ68" s="34"/>
-      <c r="DB68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="DC68" s="33">
-        <f>DE66/DB66</f>
-        <v>0</v>
-      </c>
-      <c r="DF68" s="34"/>
-      <c r="DH68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="DI68" s="33">
-        <f>DK66/DH66</f>
-        <v>0</v>
-      </c>
-      <c r="DL68" s="34"/>
-      <c r="DN68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="DO68" s="33">
-        <f>DQ66/DN66</f>
-        <v>0</v>
-      </c>
-      <c r="DR68" s="34"/>
-      <c r="DT68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="DU68" s="33">
-        <f>DW66/DT66</f>
-        <v>0</v>
-      </c>
-      <c r="DX68" s="34"/>
-      <c r="DZ68" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="EA68" s="33">
-        <f>EC66/DZ66</f>
-        <v>0</v>
-      </c>
-      <c r="ED68" s="34"/>
-    </row>
-    <row r="69" spans="3:134">
-      <c r="D69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="35">
-        <f>1-E67</f>
-        <v>-5.75</v>
       </c>
       <c r="H69" s="34"/>
       <c r="J69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K69" s="35" t="e">
-        <f>1-K67</f>
+        <v>38</v>
+      </c>
+      <c r="K69" s="33" t="e">
+        <f>M68/K68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N69" s="34"/>
       <c r="P69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q69" s="35">
-        <f>1-Q67</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="Q69" s="33">
+        <f>S68/Q68</f>
+        <v>0</v>
       </c>
       <c r="T69" s="34"/>
       <c r="V69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W69" s="35">
-        <f>1-W67</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="W69" s="33">
+        <f>Y68/W68</f>
+        <v>0</v>
       </c>
       <c r="Z69" s="34"/>
       <c r="AB69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC69" s="35">
-        <f>1-AC67</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="AC69" s="33">
+        <f>AE68/AC68</f>
+        <v>0</v>
       </c>
       <c r="AF69" s="34"/>
       <c r="AH69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI69" s="35">
-        <f>1-AI67</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="AI69" s="33">
+        <f>AK68/AI68</f>
+        <v>0</v>
       </c>
       <c r="AL69" s="34"/>
       <c r="AN69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO69" s="35" t="e">
-        <f>1-AO67</f>
+        <v>38</v>
+      </c>
+      <c r="AO69" s="33" t="e">
+        <f>AQ68/AO68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR69" s="34"/>
       <c r="AT69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU69" s="35" t="e">
-        <f>1-AU67</f>
+        <v>38</v>
+      </c>
+      <c r="AU69" s="33" t="e">
+        <f>AW68/AU68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AX69" s="34"/>
       <c r="AZ69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA69" s="35" t="e">
-        <f>1-BA67</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="BA69" s="33">
+        <f>BC68/BA68</f>
+        <v>0</v>
       </c>
       <c r="BD69" s="34"/>
       <c r="BF69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG69" s="35" t="e">
-        <f>1-BG67</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="BG69" s="33">
+        <f>BI68/BG68</f>
+        <v>0</v>
       </c>
       <c r="BJ69" s="34"/>
       <c r="BL69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM69" s="35" t="e">
-        <f>1-BM67</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="BM69" s="33">
+        <f>BO68/BM68</f>
+        <v>0</v>
       </c>
       <c r="BP69" s="34"/>
       <c r="BR69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BS69" s="35">
-        <f>1-BS67</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="BS69" s="33">
+        <f>BU68/BS68</f>
+        <v>0</v>
       </c>
       <c r="BV69" s="34"/>
       <c r="BX69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BY69" s="35">
-        <f>1-BY67</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="BY69" s="33">
+        <f>CA68/BY68</f>
+        <v>0</v>
       </c>
       <c r="CB69" s="34"/>
       <c r="CD69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="CE69" s="35">
-        <f>1-CE67</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="CE69" s="33">
+        <f>CG68/CE68</f>
+        <v>0</v>
       </c>
       <c r="CH69" s="34"/>
       <c r="CJ69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="CK69" s="35" t="e">
-        <f>1-CK67</f>
+        <v>38</v>
+      </c>
+      <c r="CK69" s="33" t="e">
+        <f>CM68/CK68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CN69" s="34"/>
       <c r="CP69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="CQ69" s="35" t="e">
-        <f>1-CQ67</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="CQ69" s="33">
+        <f>CS68/CQ68</f>
+        <v>0</v>
       </c>
       <c r="CT69" s="34"/>
       <c r="CV69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="CW69" s="35" t="e">
-        <f>1-CW67</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="CW69" s="33">
+        <f>CY68/CW68</f>
+        <v>0</v>
       </c>
       <c r="CZ69" s="34"/>
       <c r="DB69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC69" s="35" t="e">
-        <f>1-DC67</f>
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="DC69" s="33">
+        <f>DE68/DC68</f>
+        <v>0</v>
       </c>
       <c r="DF69" s="34"/>
       <c r="DH69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI69" s="35" t="e">
-        <f>1-DI67</f>
+        <v>38</v>
+      </c>
+      <c r="DI69" s="33" t="e">
+        <f>DK68/DI68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DL69" s="34"/>
       <c r="DN69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="DO69" s="35" t="e">
-        <f>1-DO67</f>
+        <v>38</v>
+      </c>
+      <c r="DO69" s="33" t="e">
+        <f>DQ68/DO68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DR69" s="34"/>
       <c r="DT69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="DU69" s="35" t="e">
-        <f>1-DU67</f>
+        <v>38</v>
+      </c>
+      <c r="DU69" s="33" t="e">
+        <f>DW68/DU68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DX69" s="34"/>
       <c r="DZ69" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="EA69" s="35" t="e">
-        <f>1-EA67</f>
+        <v>38</v>
+      </c>
+      <c r="EA69" s="33" t="e">
+        <f>EC68/EA68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="ED69" s="34"/>
     </row>
-    <row r="70" spans="3:134">
+    <row r="70" spans="1:135">
       <c r="D70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="35">
-        <f>1-E68</f>
-        <v>-0.7999999999999996</v>
+        <v>39</v>
+      </c>
+      <c r="E70" s="33">
+        <f>G68/D68</f>
+        <v>1.7999999999999996</v>
       </c>
       <c r="H70" s="34"/>
       <c r="J70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K70" s="35">
-        <f>1-K68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="K70" s="33">
+        <f>M68/J68</f>
+        <v>0</v>
       </c>
       <c r="N70" s="34"/>
       <c r="P70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q70" s="35">
-        <f>1-Q68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="Q70" s="33">
+        <f>S68/P68</f>
+        <v>0</v>
       </c>
       <c r="T70" s="34"/>
       <c r="V70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="W70" s="35">
-        <f>1-W68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="W70" s="33">
+        <f>Y68/V68</f>
+        <v>0</v>
       </c>
       <c r="Z70" s="34"/>
       <c r="AB70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC70" s="35">
-        <f>1-AC68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AC70" s="33">
+        <f>AE68/AB68</f>
+        <v>0</v>
       </c>
       <c r="AF70" s="34"/>
       <c r="AH70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI70" s="35">
-        <f>1-AI68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AI70" s="33">
+        <f>AK68/AH68</f>
+        <v>0</v>
       </c>
       <c r="AL70" s="34"/>
       <c r="AN70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO70" s="35">
-        <f>1-AO68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AO70" s="33">
+        <f>AQ68/AN68</f>
+        <v>0</v>
       </c>
       <c r="AR70" s="34"/>
       <c r="AT70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU70" s="35">
-        <f>1-AU68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AU70" s="33">
+        <f>AW68/AT68</f>
+        <v>0</v>
       </c>
       <c r="AX70" s="34"/>
       <c r="AZ70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA70" s="35">
-        <f>1-BA68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BA70" s="33">
+        <f>BC68/AZ68</f>
+        <v>0</v>
       </c>
       <c r="BD70" s="34"/>
       <c r="BF70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG70" s="35">
-        <f>1-BG68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BG70" s="33">
+        <f>BI68/BF68</f>
+        <v>0</v>
       </c>
       <c r="BJ70" s="34"/>
       <c r="BL70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM70" s="35">
-        <f>1-BM68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BM70" s="33">
+        <f>BO68/BL68</f>
+        <v>0</v>
       </c>
       <c r="BP70" s="34"/>
       <c r="BR70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BS70" s="35">
-        <f>1-BS68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BS70" s="33">
+        <f>BU68/BR68</f>
+        <v>0</v>
       </c>
       <c r="BV70" s="34"/>
       <c r="BX70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY70" s="35">
-        <f>1-BY68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="BY70" s="33">
+        <f>CA68/BX68</f>
+        <v>0</v>
       </c>
       <c r="CB70" s="34"/>
       <c r="CD70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="CE70" s="35">
-        <f>1-CE68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="CE70" s="33">
+        <f>CG68/CD68</f>
+        <v>0</v>
       </c>
       <c r="CH70" s="34"/>
       <c r="CJ70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="CK70" s="35">
-        <f>1-CK68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="CK70" s="33">
+        <f>CM68/CJ68</f>
+        <v>0</v>
       </c>
       <c r="CN70" s="34"/>
       <c r="CP70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="CQ70" s="35">
-        <f>1-CQ68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="CQ70" s="33">
+        <f>CS68/CP68</f>
+        <v>0</v>
       </c>
       <c r="CT70" s="34"/>
       <c r="CV70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="CW70" s="35">
-        <f>1-CW68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="CW70" s="33">
+        <f>CY68/CV68</f>
+        <v>0</v>
       </c>
       <c r="CZ70" s="34"/>
       <c r="DB70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DC70" s="35">
-        <f>1-DC68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="DC70" s="33">
+        <f>DE68/DB68</f>
+        <v>0</v>
       </c>
       <c r="DF70" s="34"/>
       <c r="DH70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DI70" s="35">
-        <f>1-DI68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="DI70" s="33">
+        <f>DK68/DH68</f>
+        <v>0</v>
       </c>
       <c r="DL70" s="34"/>
       <c r="DN70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DO70" s="35">
-        <f>1-DO68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="DO70" s="33">
+        <f>DQ68/DN68</f>
+        <v>0</v>
       </c>
       <c r="DR70" s="34"/>
       <c r="DT70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DU70" s="35">
-        <f>1-DU68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="DU70" s="33">
+        <f>DW68/DT68</f>
+        <v>0</v>
       </c>
       <c r="DX70" s="34"/>
       <c r="DZ70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="EA70" s="35">
-        <f>1-EA68</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="EA70" s="33">
+        <f>EC68/DZ68</f>
+        <v>0</v>
       </c>
       <c r="ED70" s="34"/>
     </row>
-    <row r="71" spans="3:134">
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-      <c r="AB71"/>
-      <c r="AC71"/>
-      <c r="AH71"/>
-      <c r="AI71"/>
-      <c r="AN71"/>
-      <c r="AO71"/>
-      <c r="AT71"/>
-      <c r="AU71"/>
-      <c r="AZ71"/>
-      <c r="BA71"/>
-      <c r="BF71"/>
-      <c r="BG71"/>
-      <c r="BL71"/>
-      <c r="BM71"/>
-      <c r="BR71"/>
-      <c r="BS71"/>
-      <c r="BX71"/>
-      <c r="BY71"/>
-      <c r="CD71"/>
-      <c r="CE71"/>
-      <c r="CJ71"/>
-      <c r="CK71"/>
-      <c r="CP71"/>
-      <c r="CQ71"/>
-      <c r="CV71"/>
-      <c r="CW71"/>
-      <c r="DB71"/>
-      <c r="DC71"/>
-      <c r="DH71"/>
-      <c r="DI71"/>
-      <c r="DN71"/>
-      <c r="DO71"/>
-      <c r="DT71"/>
-      <c r="DU71"/>
-      <c r="DZ71"/>
-      <c r="EA71"/>
+    <row r="71" spans="1:135">
+      <c r="D71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="35">
+        <f>1-E69</f>
+        <v>-5.75</v>
+      </c>
+      <c r="H71" s="34"/>
+      <c r="J71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="35" t="e">
+        <f>1-K69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N71" s="34"/>
+      <c r="P71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q71" s="35">
+        <f>1-Q69</f>
+        <v>1</v>
+      </c>
+      <c r="T71" s="34"/>
+      <c r="V71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="W71" s="35">
+        <f>1-W69</f>
+        <v>1</v>
+      </c>
+      <c r="Z71" s="34"/>
+      <c r="AB71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC71" s="35">
+        <f>1-AC69</f>
+        <v>1</v>
+      </c>
+      <c r="AF71" s="34"/>
+      <c r="AH71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI71" s="35">
+        <f>1-AI69</f>
+        <v>1</v>
+      </c>
+      <c r="AL71" s="34"/>
+      <c r="AN71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO71" s="35" t="e">
+        <f>1-AO69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR71" s="34"/>
+      <c r="AT71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU71" s="35" t="e">
+        <f>1-AU69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX71" s="34"/>
+      <c r="AZ71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA71" s="35">
+        <f>1-BA69</f>
+        <v>1</v>
+      </c>
+      <c r="BD71" s="34"/>
+      <c r="BF71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG71" s="35">
+        <f>1-BG69</f>
+        <v>1</v>
+      </c>
+      <c r="BJ71" s="34"/>
+      <c r="BL71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM71" s="35">
+        <f>1-BM69</f>
+        <v>1</v>
+      </c>
+      <c r="BP71" s="34"/>
+      <c r="BR71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BS71" s="35">
+        <f>1-BS69</f>
+        <v>1</v>
+      </c>
+      <c r="BV71" s="34"/>
+      <c r="BX71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY71" s="35">
+        <f>1-BY69</f>
+        <v>1</v>
+      </c>
+      <c r="CB71" s="34"/>
+      <c r="CD71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="CE71" s="35">
+        <f>1-CE69</f>
+        <v>1</v>
+      </c>
+      <c r="CH71" s="34"/>
+      <c r="CJ71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="CK71" s="35" t="e">
+        <f>1-CK69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CN71" s="34"/>
+      <c r="CP71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="CQ71" s="35">
+        <f>1-CQ69</f>
+        <v>1</v>
+      </c>
+      <c r="CT71" s="34"/>
+      <c r="CV71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW71" s="35">
+        <f>1-CW69</f>
+        <v>1</v>
+      </c>
+      <c r="CZ71" s="34"/>
+      <c r="DB71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC71" s="35">
+        <f>1-DC69</f>
+        <v>1</v>
+      </c>
+      <c r="DF71" s="34"/>
+      <c r="DH71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI71" s="35" t="e">
+        <f>1-DI69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DL71" s="34"/>
+      <c r="DN71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="DO71" s="35" t="e">
+        <f>1-DO69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DR71" s="34"/>
+      <c r="DT71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="DU71" s="35" t="e">
+        <f>1-DU69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DX71" s="34"/>
+      <c r="DZ71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="EA71" s="35" t="e">
+        <f>1-EA69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="ED71" s="34"/>
     </row>
-    <row r="72" spans="3:134">
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AH72"/>
-      <c r="AI72"/>
-      <c r="AN72"/>
-      <c r="AO72"/>
-      <c r="AT72"/>
-      <c r="AU72"/>
-      <c r="AZ72"/>
-      <c r="BA72"/>
-      <c r="BF72"/>
-      <c r="BG72"/>
-      <c r="BL72"/>
-      <c r="BM72"/>
-      <c r="BR72"/>
-      <c r="BS72"/>
-      <c r="BX72"/>
-      <c r="BY72"/>
-      <c r="CD72"/>
-      <c r="CE72"/>
-      <c r="CJ72"/>
-      <c r="CK72"/>
-      <c r="CP72"/>
-      <c r="CQ72"/>
-      <c r="CV72"/>
-      <c r="CW72"/>
-      <c r="DB72"/>
-      <c r="DC72"/>
-      <c r="DH72"/>
-      <c r="DI72"/>
-      <c r="DN72"/>
-      <c r="DO72"/>
-      <c r="DT72"/>
-      <c r="DU72"/>
-      <c r="DZ72"/>
-      <c r="EA72"/>
+    <row r="72" spans="1:135">
+      <c r="D72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="35">
+        <f>1-E70</f>
+        <v>-0.7999999999999996</v>
+      </c>
+      <c r="H72" s="34"/>
+      <c r="J72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="35">
+        <f>1-K70</f>
+        <v>1</v>
+      </c>
+      <c r="N72" s="34"/>
+      <c r="P72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q72" s="35">
+        <f>1-Q70</f>
+        <v>1</v>
+      </c>
+      <c r="T72" s="34"/>
+      <c r="V72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="W72" s="35">
+        <f>1-W70</f>
+        <v>1</v>
+      </c>
+      <c r="Z72" s="34"/>
+      <c r="AB72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC72" s="35">
+        <f>1-AC70</f>
+        <v>1</v>
+      </c>
+      <c r="AF72" s="34"/>
+      <c r="AH72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI72" s="35">
+        <f>1-AI70</f>
+        <v>1</v>
+      </c>
+      <c r="AL72" s="34"/>
+      <c r="AN72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO72" s="35">
+        <f>1-AO70</f>
+        <v>1</v>
+      </c>
+      <c r="AR72" s="34"/>
+      <c r="AT72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU72" s="35">
+        <f>1-AU70</f>
+        <v>1</v>
+      </c>
+      <c r="AX72" s="34"/>
+      <c r="AZ72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA72" s="35">
+        <f>1-BA70</f>
+        <v>1</v>
+      </c>
+      <c r="BD72" s="34"/>
+      <c r="BF72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG72" s="35">
+        <f>1-BG70</f>
+        <v>1</v>
+      </c>
+      <c r="BJ72" s="34"/>
+      <c r="BL72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM72" s="35">
+        <f>1-BM70</f>
+        <v>1</v>
+      </c>
+      <c r="BP72" s="34"/>
+      <c r="BR72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS72" s="35">
+        <f>1-BS70</f>
+        <v>1</v>
+      </c>
+      <c r="BV72" s="34"/>
+      <c r="BX72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY72" s="35">
+        <f>1-BY70</f>
+        <v>1</v>
+      </c>
+      <c r="CB72" s="34"/>
+      <c r="CD72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="CE72" s="35">
+        <f>1-CE70</f>
+        <v>1</v>
+      </c>
+      <c r="CH72" s="34"/>
+      <c r="CJ72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="CK72" s="35">
+        <f>1-CK70</f>
+        <v>1</v>
+      </c>
+      <c r="CN72" s="34"/>
+      <c r="CP72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="CQ72" s="35">
+        <f>1-CQ70</f>
+        <v>1</v>
+      </c>
+      <c r="CT72" s="34"/>
+      <c r="CV72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="CW72" s="35">
+        <f>1-CW70</f>
+        <v>1</v>
+      </c>
+      <c r="CZ72" s="34"/>
+      <c r="DB72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="DC72" s="35">
+        <f>1-DC70</f>
+        <v>1</v>
+      </c>
+      <c r="DF72" s="34"/>
+      <c r="DH72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="DI72" s="35">
+        <f>1-DI70</f>
+        <v>1</v>
+      </c>
+      <c r="DL72" s="34"/>
+      <c r="DN72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="DO72" s="35">
+        <f>1-DO70</f>
+        <v>1</v>
+      </c>
+      <c r="DR72" s="34"/>
+      <c r="DT72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="DU72" s="35">
+        <f>1-DU70</f>
+        <v>1</v>
+      </c>
+      <c r="DX72" s="34"/>
+      <c r="DZ72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="EA72" s="35">
+        <f>1-EA70</f>
+        <v>1</v>
+      </c>
+      <c r="ED72" s="34"/>
     </row>
-    <row r="73" spans="3:134">
+    <row r="73" spans="1:135">
       <c r="D73"/>
       <c r="E73"/>
       <c r="J73"/>
@@ -12416,7 +12682,7 @@
       <c r="DZ73"/>
       <c r="EA73"/>
     </row>
-    <row r="74" spans="3:134">
+    <row r="74" spans="1:135">
       <c r="D74"/>
       <c r="E74"/>
       <c r="J74"/>
@@ -12462,204 +12728,314 @@
       <c r="DZ74"/>
       <c r="EA74"/>
     </row>
-    <row r="75" spans="3:134">
-      <c r="C75" s="32" t="s">
+    <row r="75" spans="1:135">
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AN75"/>
+      <c r="AO75"/>
+      <c r="AT75"/>
+      <c r="AU75"/>
+      <c r="AZ75"/>
+      <c r="BA75"/>
+      <c r="BF75"/>
+      <c r="BG75"/>
+      <c r="BL75"/>
+      <c r="BM75"/>
+      <c r="BR75"/>
+      <c r="BS75"/>
+      <c r="BX75"/>
+      <c r="BY75"/>
+      <c r="CD75"/>
+      <c r="CE75"/>
+      <c r="CJ75"/>
+      <c r="CK75"/>
+      <c r="CP75"/>
+      <c r="CQ75"/>
+      <c r="CV75"/>
+      <c r="CW75"/>
+      <c r="DB75"/>
+      <c r="DC75"/>
+      <c r="DH75"/>
+      <c r="DI75"/>
+      <c r="DN75"/>
+      <c r="DO75"/>
+      <c r="DT75"/>
+      <c r="DU75"/>
+      <c r="DZ75"/>
+      <c r="EA75"/>
+    </row>
+    <row r="76" spans="1:135">
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AN76"/>
+      <c r="AO76"/>
+      <c r="AT76"/>
+      <c r="AU76"/>
+      <c r="AZ76"/>
+      <c r="BA76"/>
+      <c r="BF76"/>
+      <c r="BG76"/>
+      <c r="BL76"/>
+      <c r="BM76"/>
+      <c r="BR76"/>
+      <c r="BS76"/>
+      <c r="BX76"/>
+      <c r="BY76"/>
+      <c r="CD76"/>
+      <c r="CE76"/>
+      <c r="CJ76"/>
+      <c r="CK76"/>
+      <c r="CP76"/>
+      <c r="CQ76"/>
+      <c r="CV76"/>
+      <c r="CW76"/>
+      <c r="DB76"/>
+      <c r="DC76"/>
+      <c r="DH76"/>
+      <c r="DI76"/>
+      <c r="DN76"/>
+      <c r="DO76"/>
+      <c r="DT76"/>
+      <c r="DU76"/>
+      <c r="DZ76"/>
+      <c r="EA76"/>
+    </row>
+    <row r="77" spans="1:135">
+      <c r="C77" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="36" t="e">
-        <f>SUM(D3:D63)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
+      <c r="D77" s="36" t="e">
+        <f>SUM(D3:D65)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E75" s="37"/>
-      <c r="J75" s="36" t="e">
-        <f>SUM(J3:J63)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
+      <c r="E77" s="37"/>
+      <c r="J77" s="36" t="e">
+        <f>SUM(J3:J65)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K75" s="37"/>
-      <c r="P75" s="36" t="e">
-        <f>SUM(P3:P63)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
+      <c r="K77" s="37"/>
+      <c r="P77" s="36" t="e">
+        <f>SUM(P3:P65)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Q75" s="37"/>
-      <c r="V75" s="36" t="e">
-        <f>SUM(V3:V63)+SUM(#REF!)+SUM(#REF!)+SUM(AE3:AE63)</f>
+      <c r="Q77" s="37"/>
+      <c r="V77" s="36" t="e">
+        <f>SUM(V3:V65)+SUM(#REF!)+SUM(#REF!)+SUM(AE3:AE65)</f>
         <v>#REF!</v>
       </c>
-      <c r="W75" s="37"/>
-      <c r="AB75" s="36" t="e">
-        <f>SUM(AB3:AB63)+SUM(#REF!)+SUM(#REF!)+SUM(AK3:AK63)</f>
+      <c r="W77" s="37"/>
+      <c r="AB77" s="36" t="e">
+        <f>SUM(AB3:AB65)+SUM(#REF!)+SUM(#REF!)+SUM(AK3:AK65)</f>
         <v>#REF!</v>
       </c>
-      <c r="AC75" s="37"/>
-      <c r="AH75" s="36" t="e">
-        <f>SUM(AH3:AH63)+SUM(#REF!)+SUM(#REF!)+SUM(AQ3:AQ63)</f>
+      <c r="AC77" s="37"/>
+      <c r="AH77" s="36" t="e">
+        <f>SUM(AH3:AH65)+SUM(#REF!)+SUM(#REF!)+SUM(AQ3:AQ65)</f>
         <v>#REF!</v>
       </c>
-      <c r="AI75" s="37"/>
-      <c r="AN75" s="36" t="e">
-        <f>SUM(AN3:AN63)+SUM(#REF!)+SUM(#REF!)+SUM(AW3:AW63)</f>
+      <c r="AI77" s="37"/>
+      <c r="AN77" s="36" t="e">
+        <f>SUM(AN3:AN65)+SUM(#REF!)+SUM(#REF!)+SUM(AW3:AW65)</f>
         <v>#REF!</v>
       </c>
-      <c r="AO75" s="37"/>
-      <c r="AT75" s="36" t="e">
-        <f>SUM(AT3:AT63)+SUM(#REF!)+SUM(#REF!)+SUM(BC3:BC63)</f>
+      <c r="AO77" s="37"/>
+      <c r="AT77" s="36" t="e">
+        <f>SUM(AT3:AT65)+SUM(#REF!)+SUM(#REF!)+SUM(BC3:BC65)</f>
         <v>#REF!</v>
       </c>
-      <c r="AU75" s="37"/>
-      <c r="AZ75" s="36" t="e">
-        <f>SUM(AZ3:AZ63)+SUM(#REF!)+SUM(#REF!)+SUM(BI3:BI63)</f>
+      <c r="AU77" s="37"/>
+      <c r="AZ77" s="36" t="e">
+        <f>SUM(AZ3:AZ65)+SUM(#REF!)+SUM(#REF!)+SUM(BI3:BI65)</f>
         <v>#REF!</v>
       </c>
-      <c r="BA75" s="37"/>
-      <c r="BF75" s="36" t="e">
-        <f>SUM(BF3:BF63)+SUM(#REF!)+SUM(#REF!)+SUM(BO3:BO63)</f>
+      <c r="BA77" s="37"/>
+      <c r="BF77" s="36" t="e">
+        <f>SUM(BF3:BF65)+SUM(#REF!)+SUM(#REF!)+SUM(BO3:BO65)</f>
         <v>#REF!</v>
       </c>
-      <c r="BG75" s="37"/>
-      <c r="BL75" s="36" t="e">
-        <f>SUM(BL3:BL63)+SUM(#REF!)+SUM(#REF!)+SUM(BU3:BU63)</f>
+      <c r="BG77" s="37"/>
+      <c r="BL77" s="36" t="e">
+        <f>SUM(BL3:BL65)+SUM(#REF!)+SUM(#REF!)+SUM(BU3:BU65)</f>
         <v>#REF!</v>
       </c>
-      <c r="BM75" s="37"/>
-      <c r="BR75" s="36" t="e">
-        <f>SUM(BR3:BR63)+SUM(#REF!)+SUM(#REF!)+SUM(CA3:CA63)</f>
+      <c r="BM77" s="37"/>
+      <c r="BR77" s="36" t="e">
+        <f>SUM(BR3:BR65)+SUM(#REF!)+SUM(#REF!)+SUM(CA3:CA65)</f>
         <v>#REF!</v>
       </c>
-      <c r="BS75" s="37"/>
-      <c r="BX75" s="36" t="e">
-        <f>SUM(BX3:BX63)+SUM(#REF!)+SUM(#REF!)+SUM(CG3:CG63)</f>
+      <c r="BS77" s="37"/>
+      <c r="BX77" s="36" t="e">
+        <f>SUM(BX3:BX65)+SUM(#REF!)+SUM(#REF!)+SUM(CG3:CG65)</f>
         <v>#REF!</v>
       </c>
-      <c r="BY75" s="37"/>
-      <c r="CD75" s="36" t="e">
-        <f>SUM(CD3:CD63)+SUM(#REF!)+SUM(#REF!)+SUM(CM3:CM63)</f>
+      <c r="BY77" s="37"/>
+      <c r="CD77" s="36" t="e">
+        <f>SUM(CD3:CD65)+SUM(#REF!)+SUM(#REF!)+SUM(CM3:CM65)</f>
         <v>#REF!</v>
       </c>
-      <c r="CE75" s="37"/>
-      <c r="CJ75" s="36" t="e">
-        <f>SUM(CJ3:CJ63)+SUM(#REF!)+SUM(#REF!)+SUM(CS3:CS63)</f>
+      <c r="CE77" s="37"/>
+      <c r="CJ77" s="36" t="e">
+        <f>SUM(CJ3:CJ65)+SUM(#REF!)+SUM(#REF!)+SUM(CS3:CS65)</f>
         <v>#REF!</v>
       </c>
-      <c r="CK75" s="37"/>
-      <c r="CP75" s="36" t="e">
-        <f>SUM(CP3:CP63)+SUM(#REF!)+SUM(#REF!)+SUM(CY3:CY63)</f>
+      <c r="CK77" s="37"/>
+      <c r="CP77" s="36" t="e">
+        <f>SUM(CP3:CP65)+SUM(#REF!)+SUM(#REF!)+SUM(CY3:CY65)</f>
         <v>#REF!</v>
       </c>
-      <c r="CQ75" s="37"/>
-      <c r="CV75" s="36" t="e">
-        <f>SUM(CV3:CV63)+SUM(#REF!)+SUM(#REF!)+SUM(DE3:DE63)</f>
+      <c r="CQ77" s="37"/>
+      <c r="CV77" s="36" t="e">
+        <f>SUM(CV3:CV65)+SUM(#REF!)+SUM(#REF!)+SUM(DE3:DE65)</f>
         <v>#REF!</v>
       </c>
-      <c r="CW75" s="37"/>
-      <c r="DB75" s="36" t="e">
-        <f>SUM(DB3:DB63)+SUM(#REF!)+SUM(#REF!)+SUM(DK3:DK63)</f>
+      <c r="CW77" s="37"/>
+      <c r="DB77" s="36" t="e">
+        <f>SUM(DB3:DB65)+SUM(#REF!)+SUM(#REF!)+SUM(DK3:DK65)</f>
         <v>#REF!</v>
       </c>
-      <c r="DC75" s="37"/>
-      <c r="DH75" s="36" t="e">
-        <f>SUM(DH3:DH63)+SUM(#REF!)+SUM(#REF!)+SUM(DQ3:DQ63)</f>
+      <c r="DC77" s="37"/>
+      <c r="DH77" s="36" t="e">
+        <f>SUM(DH3:DH65)+SUM(#REF!)+SUM(#REF!)+SUM(DQ3:DQ65)</f>
         <v>#REF!</v>
       </c>
-      <c r="DI75" s="37"/>
-      <c r="DN75" s="36" t="e">
-        <f>SUM(DN3:DN63)+SUM(#REF!)+SUM(#REF!)+SUM(DW3:DW63)</f>
+      <c r="DI77" s="37"/>
+      <c r="DN77" s="36" t="e">
+        <f>SUM(DN3:DN65)+SUM(#REF!)+SUM(#REF!)+SUM(DW3:DW65)</f>
         <v>#REF!</v>
       </c>
-      <c r="DO75" s="37"/>
-      <c r="DT75" s="36" t="e">
-        <f>SUM(DT3:DT63)+SUM(#REF!)+SUM(#REF!)+SUM(EC3:EC63)</f>
+      <c r="DO77" s="37"/>
+      <c r="DT77" s="36" t="e">
+        <f>SUM(DT3:DT65)+SUM(#REF!)+SUM(#REF!)+SUM(EC3:EC65)</f>
         <v>#REF!</v>
       </c>
-      <c r="DU75" s="37"/>
-      <c r="DZ75" s="36" t="e">
-        <f>SUM(DZ3:DZ63)+SUM(#REF!)+SUM(#REF!)+SUM(EI3:EI63)</f>
+      <c r="DU77" s="37"/>
+      <c r="DZ77" s="36" t="e">
+        <f>SUM(DZ3:DZ65)+SUM(#REF!)+SUM(#REF!)+SUM(EI3:EI65)</f>
         <v>#REF!</v>
       </c>
-      <c r="EA75" s="37"/>
+      <c r="EA77" s="37"/>
     </row>
-    <row r="76" spans="3:134">
-      <c r="C76" s="32" t="s">
+    <row r="78" spans="1:135">
+      <c r="C78" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="V76" s="36"/>
-      <c r="AB76" s="36"/>
-      <c r="AH76" s="36"/>
-      <c r="AN76" s="36"/>
-      <c r="AT76" s="36"/>
-      <c r="AZ76" s="36"/>
-      <c r="BF76" s="36"/>
-      <c r="BL76" s="36"/>
-      <c r="BR76" s="36"/>
-      <c r="BX76" s="36"/>
-      <c r="CD76" s="36"/>
-      <c r="CJ76" s="36"/>
-      <c r="CP76" s="36"/>
-      <c r="CV76" s="36"/>
-      <c r="DB76" s="36"/>
-      <c r="DH76" s="36"/>
-      <c r="DN76" s="36"/>
-      <c r="DT76" s="36"/>
-      <c r="DZ76" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="V78" s="36"/>
+      <c r="AB78" s="36"/>
+      <c r="AH78" s="36"/>
+      <c r="AN78" s="36"/>
+      <c r="AT78" s="36"/>
+      <c r="AZ78" s="36"/>
+      <c r="BF78" s="36"/>
+      <c r="BL78" s="36"/>
+      <c r="BR78" s="36"/>
+      <c r="BX78" s="36"/>
+      <c r="CD78" s="36"/>
+      <c r="CJ78" s="36"/>
+      <c r="CP78" s="36"/>
+      <c r="CV78" s="36"/>
+      <c r="DB78" s="36"/>
+      <c r="DH78" s="36"/>
+      <c r="DN78" s="36"/>
+      <c r="DT78" s="36"/>
+      <c r="DZ78" s="36"/>
     </row>
-    <row r="77" spans="3:134">
-      <c r="C77" s="32" t="s">
+    <row r="79" spans="1:135">
+      <c r="C79" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="V77" s="36"/>
-      <c r="AB77" s="36"/>
-      <c r="AH77" s="36"/>
-      <c r="AN77" s="36"/>
-      <c r="AT77" s="36"/>
-      <c r="AZ77" s="36"/>
-      <c r="BF77" s="36"/>
-      <c r="BL77" s="36"/>
-      <c r="BR77" s="36"/>
-      <c r="BX77" s="36"/>
-      <c r="CD77" s="36"/>
-      <c r="CJ77" s="36"/>
-      <c r="CP77" s="36"/>
-      <c r="CV77" s="36"/>
-      <c r="DB77" s="36"/>
-      <c r="DH77" s="36"/>
-      <c r="DN77" s="36"/>
-      <c r="DT77" s="36"/>
-      <c r="DZ77" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="V79" s="36"/>
+      <c r="AB79" s="36"/>
+      <c r="AH79" s="36"/>
+      <c r="AN79" s="36"/>
+      <c r="AT79" s="36"/>
+      <c r="AZ79" s="36"/>
+      <c r="BF79" s="36"/>
+      <c r="BL79" s="36"/>
+      <c r="BR79" s="36"/>
+      <c r="BX79" s="36"/>
+      <c r="CD79" s="36"/>
+      <c r="CJ79" s="36"/>
+      <c r="CP79" s="36"/>
+      <c r="CV79" s="36"/>
+      <c r="DB79" s="36"/>
+      <c r="DH79" s="36"/>
+      <c r="DN79" s="36"/>
+      <c r="DT79" s="36"/>
+      <c r="DZ79" s="36"/>
     </row>
-    <row r="78" spans="3:134">
-      <c r="C78" s="32" t="s">
+    <row r="80" spans="1:135">
+      <c r="C80" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="P78" s="33"/>
-      <c r="V78" s="33"/>
-      <c r="AB78" s="33"/>
-      <c r="AH78" s="33"/>
-      <c r="AN78" s="33"/>
-      <c r="AT78" s="33"/>
-      <c r="AZ78" s="33"/>
-      <c r="BF78" s="33"/>
-      <c r="BL78" s="33"/>
-      <c r="BR78" s="33"/>
-      <c r="BX78" s="33"/>
-      <c r="CD78" s="33"/>
-      <c r="CJ78" s="33"/>
-      <c r="CP78" s="33"/>
-      <c r="CV78" s="33"/>
-      <c r="DB78" s="33"/>
-      <c r="DH78" s="33"/>
-      <c r="DN78" s="33"/>
-      <c r="DT78" s="33"/>
-      <c r="DZ78" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="P80" s="33"/>
+      <c r="V80" s="33"/>
+      <c r="AB80" s="33"/>
+      <c r="AH80" s="33"/>
+      <c r="AN80" s="33"/>
+      <c r="AT80" s="33"/>
+      <c r="AZ80" s="33"/>
+      <c r="BF80" s="33"/>
+      <c r="BL80" s="33"/>
+      <c r="BR80" s="33"/>
+      <c r="BX80" s="33"/>
+      <c r="CD80" s="33"/>
+      <c r="CJ80" s="33"/>
+      <c r="CP80" s="33"/>
+      <c r="CV80" s="33"/>
+      <c r="DB80" s="33"/>
+      <c r="DH80" s="33"/>
+      <c r="DN80" s="33"/>
+      <c r="DT80" s="33"/>
+      <c r="DZ80" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -12672,24 +13048,6 @@
     <mergeCell ref="BX1:CB1"/>
     <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -12770,18 +13128,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -807,14 +807,20 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -830,12 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1203,10 +1203,10 @@
   <dimension ref="A1:EE80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="CZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="DV3" sqref="DV3"/>
+      <selection pane="bottomRight" activeCell="DL51" sqref="DL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1298,181 +1298,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84">
+      <c r="D1" s="87">
         <v>42322</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="84">
+      <c r="J1" s="87">
         <v>42323</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="84">
+      <c r="P1" s="87">
         <v>42324</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="84">
+      <c r="V1" s="87">
         <v>42325</v>
       </c>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="84">
+      <c r="AB1" s="87">
         <v>42326</v>
       </c>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="84">
+      <c r="AH1" s="87">
         <v>42327</v>
       </c>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="84">
+      <c r="AN1" s="87">
         <v>42328</v>
       </c>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="88"/>
+      <c r="AR1" s="88"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="84">
+      <c r="AT1" s="87">
         <v>42329</v>
       </c>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
-      <c r="AW1" s="85"/>
-      <c r="AX1" s="85"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="84">
+      <c r="AZ1" s="87">
         <v>42330</v>
       </c>
-      <c r="BA1" s="85"/>
-      <c r="BB1" s="85"/>
-      <c r="BC1" s="85"/>
-      <c r="BD1" s="85"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="88"/>
+      <c r="BD1" s="88"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="84">
+      <c r="BF1" s="87">
         <v>42331</v>
       </c>
-      <c r="BG1" s="85"/>
-      <c r="BH1" s="85"/>
-      <c r="BI1" s="85"/>
-      <c r="BJ1" s="85"/>
+      <c r="BG1" s="88"/>
+      <c r="BH1" s="88"/>
+      <c r="BI1" s="88"/>
+      <c r="BJ1" s="88"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="84">
+      <c r="BL1" s="87">
         <v>42332</v>
       </c>
-      <c r="BM1" s="85"/>
-      <c r="BN1" s="85"/>
-      <c r="BO1" s="85"/>
-      <c r="BP1" s="85"/>
+      <c r="BM1" s="88"/>
+      <c r="BN1" s="88"/>
+      <c r="BO1" s="88"/>
+      <c r="BP1" s="88"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="84">
+      <c r="BR1" s="87">
         <v>42333</v>
       </c>
-      <c r="BS1" s="85"/>
-      <c r="BT1" s="85"/>
-      <c r="BU1" s="85"/>
-      <c r="BV1" s="85"/>
+      <c r="BS1" s="88"/>
+      <c r="BT1" s="88"/>
+      <c r="BU1" s="88"/>
+      <c r="BV1" s="88"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="84">
+      <c r="BX1" s="87">
         <v>42334</v>
       </c>
-      <c r="BY1" s="85"/>
-      <c r="BZ1" s="85"/>
-      <c r="CA1" s="85"/>
-      <c r="CB1" s="85"/>
+      <c r="BY1" s="88"/>
+      <c r="BZ1" s="88"/>
+      <c r="CA1" s="88"/>
+      <c r="CB1" s="88"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="84">
+      <c r="CD1" s="87">
         <v>42335</v>
       </c>
-      <c r="CE1" s="85"/>
-      <c r="CF1" s="85"/>
-      <c r="CG1" s="85"/>
-      <c r="CH1" s="85"/>
+      <c r="CE1" s="88"/>
+      <c r="CF1" s="88"/>
+      <c r="CG1" s="88"/>
+      <c r="CH1" s="88"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="84">
+      <c r="CJ1" s="87">
         <v>42336</v>
       </c>
-      <c r="CK1" s="85"/>
-      <c r="CL1" s="85"/>
-      <c r="CM1" s="85"/>
-      <c r="CN1" s="85"/>
+      <c r="CK1" s="88"/>
+      <c r="CL1" s="88"/>
+      <c r="CM1" s="88"/>
+      <c r="CN1" s="88"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="84">
+      <c r="CP1" s="87">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="85"/>
-      <c r="CR1" s="85"/>
-      <c r="CS1" s="85"/>
-      <c r="CT1" s="85"/>
+      <c r="CQ1" s="88"/>
+      <c r="CR1" s="88"/>
+      <c r="CS1" s="88"/>
+      <c r="CT1" s="88"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="84">
+      <c r="CV1" s="87">
         <v>42338</v>
       </c>
-      <c r="CW1" s="85"/>
-      <c r="CX1" s="85"/>
-      <c r="CY1" s="85"/>
-      <c r="CZ1" s="85"/>
+      <c r="CW1" s="88"/>
+      <c r="CX1" s="88"/>
+      <c r="CY1" s="88"/>
+      <c r="CZ1" s="88"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="84">
+      <c r="DB1" s="87">
         <v>42339</v>
       </c>
-      <c r="DC1" s="85"/>
-      <c r="DD1" s="85"/>
-      <c r="DE1" s="85"/>
-      <c r="DF1" s="85"/>
+      <c r="DC1" s="88"/>
+      <c r="DD1" s="88"/>
+      <c r="DE1" s="88"/>
+      <c r="DF1" s="88"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="84">
+      <c r="DH1" s="87">
         <v>42340</v>
       </c>
-      <c r="DI1" s="85"/>
-      <c r="DJ1" s="85"/>
-      <c r="DK1" s="85"/>
-      <c r="DL1" s="85"/>
+      <c r="DI1" s="88"/>
+      <c r="DJ1" s="88"/>
+      <c r="DK1" s="88"/>
+      <c r="DL1" s="88"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="84">
+      <c r="DN1" s="87">
         <v>42341</v>
       </c>
-      <c r="DO1" s="85"/>
-      <c r="DP1" s="85"/>
-      <c r="DQ1" s="85"/>
-      <c r="DR1" s="85"/>
+      <c r="DO1" s="88"/>
+      <c r="DP1" s="88"/>
+      <c r="DQ1" s="88"/>
+      <c r="DR1" s="88"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="84">
+      <c r="DT1" s="87">
         <v>42342</v>
       </c>
-      <c r="DU1" s="85"/>
-      <c r="DV1" s="85"/>
-      <c r="DW1" s="85"/>
-      <c r="DX1" s="85"/>
+      <c r="DU1" s="88"/>
+      <c r="DV1" s="88"/>
+      <c r="DW1" s="88"/>
+      <c r="DX1" s="88"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="84">
+      <c r="DZ1" s="87">
         <v>42343</v>
       </c>
-      <c r="EA1" s="85"/>
-      <c r="EB1" s="85"/>
-      <c r="EC1" s="85"/>
-      <c r="ED1" s="85"/>
+      <c r="EA1" s="88"/>
+      <c r="EB1" s="88"/>
+      <c r="EC1" s="88"/>
+      <c r="ED1" s="88"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -2025,7 +2025,9 @@
       <c r="DH3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="DI3" s="77"/>
+      <c r="DI3" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="DJ3" s="74"/>
       <c r="DK3" s="74"/>
       <c r="DL3" s="75"/>
@@ -2962,7 +2964,7 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="90" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="6">
@@ -3260,7 +3262,7 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="90" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="6">
@@ -5313,7 +5315,7 @@
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="91" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="6"/>
@@ -5458,7 +5460,7 @@
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -8910,7 +8912,9 @@
       <c r="DH50" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DI50" s="18"/>
+      <c r="DI50" s="83">
+        <v>0</v>
+      </c>
       <c r="DJ50" s="18"/>
       <c r="DK50" s="18"/>
       <c r="DL50" s="52"/>
@@ -9429,7 +9433,9 @@
       <c r="DH53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DI53" s="18"/>
+      <c r="DI53" s="83">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="DJ53" s="18"/>
       <c r="DK53" s="18"/>
       <c r="DL53" s="53"/>
@@ -9462,7 +9468,7 @@
       <c r="B54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="89" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="14"/>
@@ -9605,7 +9611,7 @@
       <c r="B55" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="87"/>
+      <c r="C55" s="89"/>
       <c r="D55" s="14"/>
       <c r="E55" s="18"/>
       <c r="F55" s="8"/>
@@ -9887,112 +9893,112 @@
       <c r="B57" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="93" t="s">
+      <c r="C57" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="92"/>
+      <c r="D57" s="84"/>
       <c r="E57" s="18"/>
       <c r="F57" s="8"/>
       <c r="G57" s="18"/>
       <c r="H57" s="10"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="92"/>
+      <c r="J57" s="84"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="10"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="92"/>
+      <c r="P57" s="84"/>
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
       <c r="T57" s="10"/>
       <c r="U57" s="12"/>
-      <c r="V57" s="92"/>
+      <c r="V57" s="84"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="92"/>
+      <c r="AB57" s="84"/>
       <c r="AC57" s="18"/>
       <c r="AD57" s="18"/>
       <c r="AE57" s="18"/>
       <c r="AF57" s="10"/>
       <c r="AG57" s="12"/>
-      <c r="AH57" s="92"/>
+      <c r="AH57" s="84"/>
       <c r="AI57" s="18"/>
       <c r="AJ57" s="18"/>
       <c r="AK57" s="18"/>
       <c r="AL57" s="10"/>
       <c r="AM57" s="12"/>
-      <c r="AN57" s="92"/>
+      <c r="AN57" s="84"/>
       <c r="AO57" s="18"/>
       <c r="AP57" s="18"/>
       <c r="AQ57" s="18"/>
       <c r="AR57" s="10"/>
       <c r="AS57" s="12"/>
-      <c r="AT57" s="92"/>
+      <c r="AT57" s="84"/>
       <c r="AU57" s="18"/>
       <c r="AV57" s="18"/>
       <c r="AW57" s="18"/>
       <c r="AX57" s="10"/>
       <c r="AY57" s="12"/>
-      <c r="AZ57" s="92"/>
+      <c r="AZ57" s="84"/>
       <c r="BA57" s="18"/>
       <c r="BB57" s="18"/>
       <c r="BC57" s="18"/>
       <c r="BD57" s="10"/>
       <c r="BE57" s="12"/>
-      <c r="BF57" s="92"/>
+      <c r="BF57" s="84"/>
       <c r="BG57" s="18"/>
       <c r="BH57" s="18"/>
       <c r="BI57" s="18"/>
       <c r="BJ57" s="10"/>
       <c r="BK57" s="12"/>
-      <c r="BL57" s="92"/>
+      <c r="BL57" s="84"/>
       <c r="BM57" s="18"/>
       <c r="BN57" s="18"/>
       <c r="BO57" s="18"/>
       <c r="BP57" s="10"/>
       <c r="BQ57" s="12"/>
-      <c r="BR57" s="92"/>
+      <c r="BR57" s="84"/>
       <c r="BS57" s="18"/>
       <c r="BT57" s="18"/>
       <c r="BU57" s="18"/>
       <c r="BV57" s="10"/>
       <c r="BW57" s="12"/>
-      <c r="BX57" s="92"/>
+      <c r="BX57" s="84"/>
       <c r="BY57" s="18"/>
       <c r="BZ57" s="18"/>
       <c r="CA57" s="18"/>
       <c r="CB57" s="10"/>
       <c r="CC57" s="12"/>
-      <c r="CD57" s="92"/>
+      <c r="CD57" s="84"/>
       <c r="CE57" s="18"/>
       <c r="CF57" s="18"/>
       <c r="CG57" s="18"/>
       <c r="CH57" s="10"/>
       <c r="CI57" s="12"/>
-      <c r="CJ57" s="92"/>
+      <c r="CJ57" s="84"/>
       <c r="CK57" s="18"/>
       <c r="CL57" s="18"/>
       <c r="CM57" s="18"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="12"/>
-      <c r="CP57" s="92"/>
+      <c r="CP57" s="84"/>
       <c r="CQ57" s="18"/>
       <c r="CR57" s="18"/>
       <c r="CS57" s="18"/>
       <c r="CT57" s="10"/>
       <c r="CU57" s="12"/>
-      <c r="CV57" s="92"/>
+      <c r="CV57" s="84"/>
       <c r="CW57" s="18"/>
       <c r="CX57" s="18"/>
       <c r="CY57" s="18"/>
       <c r="CZ57" s="10"/>
       <c r="DA57" s="12"/>
-      <c r="DB57" s="92">
+      <c r="DB57" s="84">
         <v>0</v>
       </c>
       <c r="DC57" s="83">
@@ -10002,25 +10008,25 @@
       <c r="DE57" s="18"/>
       <c r="DF57" s="53"/>
       <c r="DG57" s="12"/>
-      <c r="DH57" s="92"/>
+      <c r="DH57" s="84"/>
       <c r="DI57" s="18"/>
       <c r="DJ57" s="18"/>
       <c r="DK57" s="18"/>
       <c r="DL57" s="10"/>
       <c r="DM57" s="12"/>
-      <c r="DN57" s="92"/>
+      <c r="DN57" s="84"/>
       <c r="DO57" s="18"/>
       <c r="DP57" s="18"/>
       <c r="DQ57" s="18"/>
       <c r="DR57" s="10"/>
       <c r="DS57" s="12"/>
-      <c r="DT57" s="92"/>
+      <c r="DT57" s="84"/>
       <c r="DU57" s="18"/>
       <c r="DV57" s="18"/>
       <c r="DW57" s="18"/>
       <c r="DX57" s="10"/>
       <c r="DY57" s="12"/>
-      <c r="DZ57" s="92"/>
+      <c r="DZ57" s="84"/>
       <c r="EA57" s="18"/>
       <c r="EB57" s="18"/>
       <c r="EC57" s="18"/>
@@ -10606,7 +10612,7 @@
       <c r="B62" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="89" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="14"/>
@@ -10749,7 +10755,7 @@
       <c r="B63" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="87"/>
+      <c r="C63" s="89"/>
       <c r="D63" s="14"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -10890,7 +10896,7 @@
       <c r="B64" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="87"/>
+      <c r="C64" s="89"/>
       <c r="D64" s="14"/>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
@@ -11865,7 +11871,7 @@
       </c>
       <c r="DI68" s="29">
         <f>SUM(DI3:DI65)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DJ68" s="30" t="s">
         <v>37</v>
@@ -12072,9 +12078,9 @@
       <c r="DH69" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="DI69" s="33" t="e">
+      <c r="DI69" s="33">
         <f>DK68/DI68</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="DL69" s="34"/>
       <c r="DN69" s="32" t="s">
@@ -12428,9 +12434,9 @@
       <c r="DH71" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="DI71" s="35" t="e">
+      <c r="DI71" s="35">
         <f>1-DI69</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="DL71" s="34"/>
       <c r="DN71" s="32" t="s">
@@ -13018,6 +13024,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DT1:DX1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="BR1:BV1"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AN1:AR1"/>
@@ -13030,24 +13054,6 @@
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DT1:DX1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="AB1:AF1"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -13128,18 +13134,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -813,14 +813,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1203,10 +1203,10 @@
   <dimension ref="A1:EE80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="CZ46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="DL51" sqref="DL51"/>
+      <selection pane="bottomRight" activeCell="DI61" sqref="DI61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1298,181 +1298,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87">
+      <c r="D1" s="86">
         <v>42322</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="87">
+      <c r="J1" s="86">
         <v>42323</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="87">
+      <c r="P1" s="86">
         <v>42324</v>
       </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="87">
+      <c r="V1" s="86">
         <v>42325</v>
       </c>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="87">
+      <c r="AB1" s="86">
         <v>42326</v>
       </c>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="87">
+      <c r="AH1" s="86">
         <v>42327</v>
       </c>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="87">
+      <c r="AN1" s="86">
         <v>42328</v>
       </c>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
-      <c r="AR1" s="88"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="87">
+      <c r="AT1" s="86">
         <v>42329</v>
       </c>
-      <c r="AU1" s="88"/>
-      <c r="AV1" s="88"/>
-      <c r="AW1" s="88"/>
-      <c r="AX1" s="88"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="87">
+      <c r="AZ1" s="86">
         <v>42330</v>
       </c>
-      <c r="BA1" s="88"/>
-      <c r="BB1" s="88"/>
-      <c r="BC1" s="88"/>
-      <c r="BD1" s="88"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="87"/>
+      <c r="BD1" s="87"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="87">
+      <c r="BF1" s="86">
         <v>42331</v>
       </c>
-      <c r="BG1" s="88"/>
-      <c r="BH1" s="88"/>
-      <c r="BI1" s="88"/>
-      <c r="BJ1" s="88"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="87">
+      <c r="BL1" s="86">
         <v>42332</v>
       </c>
-      <c r="BM1" s="88"/>
-      <c r="BN1" s="88"/>
-      <c r="BO1" s="88"/>
-      <c r="BP1" s="88"/>
+      <c r="BM1" s="87"/>
+      <c r="BN1" s="87"/>
+      <c r="BO1" s="87"/>
+      <c r="BP1" s="87"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="87">
+      <c r="BR1" s="86">
         <v>42333</v>
       </c>
-      <c r="BS1" s="88"/>
-      <c r="BT1" s="88"/>
-      <c r="BU1" s="88"/>
-      <c r="BV1" s="88"/>
+      <c r="BS1" s="87"/>
+      <c r="BT1" s="87"/>
+      <c r="BU1" s="87"/>
+      <c r="BV1" s="87"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="87">
+      <c r="BX1" s="86">
         <v>42334</v>
       </c>
-      <c r="BY1" s="88"/>
-      <c r="BZ1" s="88"/>
-      <c r="CA1" s="88"/>
-      <c r="CB1" s="88"/>
+      <c r="BY1" s="87"/>
+      <c r="BZ1" s="87"/>
+      <c r="CA1" s="87"/>
+      <c r="CB1" s="87"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="87">
+      <c r="CD1" s="86">
         <v>42335</v>
       </c>
-      <c r="CE1" s="88"/>
-      <c r="CF1" s="88"/>
-      <c r="CG1" s="88"/>
-      <c r="CH1" s="88"/>
+      <c r="CE1" s="87"/>
+      <c r="CF1" s="87"/>
+      <c r="CG1" s="87"/>
+      <c r="CH1" s="87"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="87">
+      <c r="CJ1" s="86">
         <v>42336</v>
       </c>
-      <c r="CK1" s="88"/>
-      <c r="CL1" s="88"/>
-      <c r="CM1" s="88"/>
-      <c r="CN1" s="88"/>
+      <c r="CK1" s="87"/>
+      <c r="CL1" s="87"/>
+      <c r="CM1" s="87"/>
+      <c r="CN1" s="87"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="87">
+      <c r="CP1" s="86">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="88"/>
-      <c r="CR1" s="88"/>
-      <c r="CS1" s="88"/>
-      <c r="CT1" s="88"/>
+      <c r="CQ1" s="87"/>
+      <c r="CR1" s="87"/>
+      <c r="CS1" s="87"/>
+      <c r="CT1" s="87"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="87">
+      <c r="CV1" s="86">
         <v>42338</v>
       </c>
-      <c r="CW1" s="88"/>
-      <c r="CX1" s="88"/>
-      <c r="CY1" s="88"/>
-      <c r="CZ1" s="88"/>
+      <c r="CW1" s="87"/>
+      <c r="CX1" s="87"/>
+      <c r="CY1" s="87"/>
+      <c r="CZ1" s="87"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="87">
+      <c r="DB1" s="86">
         <v>42339</v>
       </c>
-      <c r="DC1" s="88"/>
-      <c r="DD1" s="88"/>
-      <c r="DE1" s="88"/>
-      <c r="DF1" s="88"/>
+      <c r="DC1" s="87"/>
+      <c r="DD1" s="87"/>
+      <c r="DE1" s="87"/>
+      <c r="DF1" s="87"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="87">
+      <c r="DH1" s="86">
         <v>42340</v>
       </c>
-      <c r="DI1" s="88"/>
-      <c r="DJ1" s="88"/>
-      <c r="DK1" s="88"/>
-      <c r="DL1" s="88"/>
+      <c r="DI1" s="87"/>
+      <c r="DJ1" s="87"/>
+      <c r="DK1" s="87"/>
+      <c r="DL1" s="87"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="87">
+      <c r="DN1" s="86">
         <v>42341</v>
       </c>
-      <c r="DO1" s="88"/>
-      <c r="DP1" s="88"/>
-      <c r="DQ1" s="88"/>
-      <c r="DR1" s="88"/>
+      <c r="DO1" s="87"/>
+      <c r="DP1" s="87"/>
+      <c r="DQ1" s="87"/>
+      <c r="DR1" s="87"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="87">
+      <c r="DT1" s="86">
         <v>42342</v>
       </c>
-      <c r="DU1" s="88"/>
-      <c r="DV1" s="88"/>
-      <c r="DW1" s="88"/>
-      <c r="DX1" s="88"/>
+      <c r="DU1" s="87"/>
+      <c r="DV1" s="87"/>
+      <c r="DW1" s="87"/>
+      <c r="DX1" s="87"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="87">
+      <c r="DZ1" s="86">
         <v>42343</v>
       </c>
-      <c r="EA1" s="88"/>
-      <c r="EB1" s="88"/>
-      <c r="EC1" s="88"/>
-      <c r="ED1" s="88"/>
+      <c r="EA1" s="87"/>
+      <c r="EB1" s="87"/>
+      <c r="EC1" s="87"/>
+      <c r="ED1" s="87"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -2664,7 +2664,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="88" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2814,7 +2814,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="86"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="88" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6"/>
@@ -6036,7 +6036,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="86"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6179,7 +6179,7 @@
       <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="86"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -7049,7 +7049,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="88" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6"/>
@@ -7192,7 +7192,7 @@
       <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="86"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -9256,7 +9256,9 @@
       <c r="DH52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DI52" s="18"/>
+      <c r="DI52" s="83">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="DJ52" s="18"/>
       <c r="DK52" s="18"/>
       <c r="DL52" s="54"/>
@@ -11871,7 +11873,7 @@
       </c>
       <c r="DI68" s="29">
         <f>SUM(DI3:DI65)</f>
-        <v>0.125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="DJ68" s="30" t="s">
         <v>37</v>
@@ -13024,6 +13026,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -13036,24 +13056,6 @@
     <mergeCell ref="BX1:CB1"/>
     <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -264,9 +264,6 @@
     <t>Criar arquivo de apresentacao PPT</t>
   </si>
   <si>
-    <t>Criar arquivo sprintbacklog.pdf</t>
-  </si>
-  <si>
     <t>Criar arquivo sprintbacklog INICIAL.pdf</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
   </si>
   <si>
     <t>Entregar dia 21/11 os arquivos do projeto seguro.eap</t>
-  </si>
-  <si>
-    <t>Copia do Seguro.eap da sprint 2</t>
   </si>
   <si>
     <t>1.0</t>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>Alterações de projeto</t>
+  </si>
+  <si>
+    <t>Criar arquivo sprint_backlog_2.pdf</t>
+  </si>
+  <si>
+    <t>Criar do Seguro_v2.eap da sprint 2</t>
   </si>
 </sst>
 </file>
@@ -813,14 +813,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1203,10 +1203,10 @@
   <dimension ref="A1:EE80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CZ46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="DH39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="DI61" sqref="DI61"/>
+      <selection pane="bottomRight" activeCell="DR34" sqref="DR34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1298,181 +1298,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86">
+      <c r="D1" s="87">
         <v>42322</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="86">
+      <c r="J1" s="87">
         <v>42323</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="86">
+      <c r="P1" s="87">
         <v>42324</v>
       </c>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="86">
+      <c r="V1" s="87">
         <v>42325</v>
       </c>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="86">
+      <c r="AB1" s="87">
         <v>42326</v>
       </c>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="86">
+      <c r="AH1" s="87">
         <v>42327</v>
       </c>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="86">
+      <c r="AN1" s="87">
         <v>42328</v>
       </c>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="88"/>
+      <c r="AR1" s="88"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="86">
+      <c r="AT1" s="87">
         <v>42329</v>
       </c>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="86">
+      <c r="AZ1" s="87">
         <v>42330</v>
       </c>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="87"/>
-      <c r="BD1" s="87"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="88"/>
+      <c r="BD1" s="88"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="86">
+      <c r="BF1" s="87">
         <v>42331</v>
       </c>
-      <c r="BG1" s="87"/>
-      <c r="BH1" s="87"/>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="87"/>
+      <c r="BG1" s="88"/>
+      <c r="BH1" s="88"/>
+      <c r="BI1" s="88"/>
+      <c r="BJ1" s="88"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="86">
+      <c r="BL1" s="87">
         <v>42332</v>
       </c>
-      <c r="BM1" s="87"/>
-      <c r="BN1" s="87"/>
-      <c r="BO1" s="87"/>
-      <c r="BP1" s="87"/>
+      <c r="BM1" s="88"/>
+      <c r="BN1" s="88"/>
+      <c r="BO1" s="88"/>
+      <c r="BP1" s="88"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="86">
+      <c r="BR1" s="87">
         <v>42333</v>
       </c>
-      <c r="BS1" s="87"/>
-      <c r="BT1" s="87"/>
-      <c r="BU1" s="87"/>
-      <c r="BV1" s="87"/>
+      <c r="BS1" s="88"/>
+      <c r="BT1" s="88"/>
+      <c r="BU1" s="88"/>
+      <c r="BV1" s="88"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="86">
+      <c r="BX1" s="87">
         <v>42334</v>
       </c>
-      <c r="BY1" s="87"/>
-      <c r="BZ1" s="87"/>
-      <c r="CA1" s="87"/>
-      <c r="CB1" s="87"/>
+      <c r="BY1" s="88"/>
+      <c r="BZ1" s="88"/>
+      <c r="CA1" s="88"/>
+      <c r="CB1" s="88"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="86">
+      <c r="CD1" s="87">
         <v>42335</v>
       </c>
-      <c r="CE1" s="87"/>
-      <c r="CF1" s="87"/>
-      <c r="CG1" s="87"/>
-      <c r="CH1" s="87"/>
+      <c r="CE1" s="88"/>
+      <c r="CF1" s="88"/>
+      <c r="CG1" s="88"/>
+      <c r="CH1" s="88"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="86">
+      <c r="CJ1" s="87">
         <v>42336</v>
       </c>
-      <c r="CK1" s="87"/>
-      <c r="CL1" s="87"/>
-      <c r="CM1" s="87"/>
-      <c r="CN1" s="87"/>
+      <c r="CK1" s="88"/>
+      <c r="CL1" s="88"/>
+      <c r="CM1" s="88"/>
+      <c r="CN1" s="88"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="86">
+      <c r="CP1" s="87">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="87"/>
-      <c r="CR1" s="87"/>
-      <c r="CS1" s="87"/>
-      <c r="CT1" s="87"/>
+      <c r="CQ1" s="88"/>
+      <c r="CR1" s="88"/>
+      <c r="CS1" s="88"/>
+      <c r="CT1" s="88"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="86">
+      <c r="CV1" s="87">
         <v>42338</v>
       </c>
-      <c r="CW1" s="87"/>
-      <c r="CX1" s="87"/>
-      <c r="CY1" s="87"/>
-      <c r="CZ1" s="87"/>
+      <c r="CW1" s="88"/>
+      <c r="CX1" s="88"/>
+      <c r="CY1" s="88"/>
+      <c r="CZ1" s="88"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="86">
+      <c r="DB1" s="87">
         <v>42339</v>
       </c>
-      <c r="DC1" s="87"/>
-      <c r="DD1" s="87"/>
-      <c r="DE1" s="87"/>
-      <c r="DF1" s="87"/>
+      <c r="DC1" s="88"/>
+      <c r="DD1" s="88"/>
+      <c r="DE1" s="88"/>
+      <c r="DF1" s="88"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="86">
+      <c r="DH1" s="87">
         <v>42340</v>
       </c>
-      <c r="DI1" s="87"/>
-      <c r="DJ1" s="87"/>
-      <c r="DK1" s="87"/>
-      <c r="DL1" s="87"/>
+      <c r="DI1" s="88"/>
+      <c r="DJ1" s="88"/>
+      <c r="DK1" s="88"/>
+      <c r="DL1" s="88"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="86">
+      <c r="DN1" s="87">
         <v>42341</v>
       </c>
-      <c r="DO1" s="87"/>
-      <c r="DP1" s="87"/>
-      <c r="DQ1" s="87"/>
-      <c r="DR1" s="87"/>
+      <c r="DO1" s="88"/>
+      <c r="DP1" s="88"/>
+      <c r="DQ1" s="88"/>
+      <c r="DR1" s="88"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="86">
+      <c r="DT1" s="87">
         <v>42342</v>
       </c>
-      <c r="DU1" s="87"/>
-      <c r="DV1" s="87"/>
-      <c r="DW1" s="87"/>
-      <c r="DX1" s="87"/>
+      <c r="DU1" s="88"/>
+      <c r="DV1" s="88"/>
+      <c r="DW1" s="88"/>
+      <c r="DX1" s="88"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="86">
+      <c r="DZ1" s="87">
         <v>42343</v>
       </c>
-      <c r="EA1" s="87"/>
-      <c r="EB1" s="87"/>
-      <c r="EC1" s="87"/>
-      <c r="ED1" s="87"/>
+      <c r="EA1" s="88"/>
+      <c r="EB1" s="88"/>
+      <c r="EC1" s="88"/>
+      <c r="ED1" s="88"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -2035,7 +2035,9 @@
       <c r="DN3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="DO3" s="77"/>
+      <c r="DO3" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="DP3" s="74"/>
       <c r="DQ3" s="74"/>
       <c r="DR3" s="75"/>
@@ -2664,7 +2666,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="86" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2814,7 +2816,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3114,7 +3116,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3424,7 +3426,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3578,7 +3580,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="88"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -4158,7 +4160,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -4305,7 +4307,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -4448,7 +4450,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -5024,7 +5026,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -5169,7 +5171,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -5891,7 +5893,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="86" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6"/>
@@ -6036,7 +6038,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="88"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6179,7 +6181,7 @@
       <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="88"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -6321,7 +6323,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -6437,11 +6439,15 @@
       <c r="DK33" s="9"/>
       <c r="DL33" s="10"/>
       <c r="DM33" s="12"/>
-      <c r="DN33" s="6"/>
-      <c r="DO33" s="7"/>
+      <c r="DN33" s="6">
+        <v>0</v>
+      </c>
+      <c r="DO33" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="DP33" s="8"/>
       <c r="DQ33" s="9"/>
-      <c r="DR33" s="10"/>
+      <c r="DR33" s="53"/>
       <c r="DS33" s="12"/>
       <c r="DT33" s="6">
         <v>4.1666666666666664E-2</v>
@@ -6464,7 +6470,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -6582,11 +6588,15 @@
       <c r="DK34" s="9"/>
       <c r="DL34" s="10"/>
       <c r="DM34" s="12"/>
-      <c r="DN34" s="6"/>
-      <c r="DO34" s="7"/>
+      <c r="DN34" s="6">
+        <v>0</v>
+      </c>
+      <c r="DO34" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DP34" s="8"/>
       <c r="DQ34" s="9"/>
-      <c r="DR34" s="10"/>
+      <c r="DR34" s="53"/>
       <c r="DS34" s="12"/>
       <c r="DT34" s="6">
         <v>8.3333333333333329E-2</v>
@@ -7049,7 +7059,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="86" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6"/>
@@ -7192,7 +7202,7 @@
       <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -7479,7 +7489,7 @@
         <v>77</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -7902,7 +7912,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
@@ -8047,7 +8057,7 @@
         <v>79</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -8190,7 +8200,7 @@
         <v>79</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -8306,11 +8316,15 @@
       <c r="DK46" s="9"/>
       <c r="DL46" s="10"/>
       <c r="DM46" s="12"/>
-      <c r="DN46" s="6"/>
-      <c r="DO46" s="7"/>
+      <c r="DN46" s="6">
+        <v>0</v>
+      </c>
+      <c r="DO46" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="DP46" s="8"/>
       <c r="DQ46" s="9"/>
-      <c r="DR46" s="10"/>
+      <c r="DR46" s="53"/>
       <c r="DS46" s="12"/>
       <c r="DT46" s="6">
         <v>4.1666666666666664E-2</v>
@@ -8630,7 +8644,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
@@ -9445,7 +9459,9 @@
       <c r="DN53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DO53" s="18"/>
+      <c r="DO53" s="83">
+        <v>0</v>
+      </c>
       <c r="DP53" s="18"/>
       <c r="DQ53" s="18"/>
       <c r="DR53" s="53"/>
@@ -9896,7 +9912,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D57" s="84"/>
       <c r="E57" s="18"/>
@@ -11889,7 +11905,7 @@
       </c>
       <c r="DO68" s="29">
         <f>SUM(DO3:DO65)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="DP68" s="30" t="s">
         <v>37</v>
@@ -12088,9 +12104,9 @@
       <c r="DN69" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="DO69" s="33" t="e">
+      <c r="DO69" s="33">
         <f>DQ68/DO68</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="DR69" s="34"/>
       <c r="DT69" s="32" t="s">
@@ -12444,9 +12460,9 @@
       <c r="DN71" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="DO71" s="35" t="e">
+      <c r="DO71" s="35">
         <f>1-DO69</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="DR71" s="34"/>
       <c r="DT71" s="32" t="s">
@@ -13026,6 +13042,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DT1:DX1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="BR1:BV1"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AN1:AR1"/>
@@ -13038,24 +13072,6 @@
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DT1:DX1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="AB1:AF1"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -13171,7 +13187,7 @@
         <v>42322</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>55</v>

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="701"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="701"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -813,14 +813,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1203,89 +1203,89 @@
   <dimension ref="A1:EE80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DH39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="DK48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="DR34" sqref="DR34"/>
+      <selection pane="bottomRight" activeCell="DV51" sqref="DV51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125"/>
-    <col min="2" max="2" width="29.42578125"/>
-    <col min="3" max="3" width="33.5703125"/>
-    <col min="4" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625"/>
+    <col min="2" max="2" width="29.44140625"/>
+    <col min="3" max="3" width="33.5546875"/>
+    <col min="4" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" customWidth="1"/>
     <col min="16" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" customWidth="1"/>
-    <col min="22" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="8.7109375" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" customWidth="1"/>
-    <col min="28" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="8.7109375" customWidth="1"/>
-    <col min="33" max="33" width="3.85546875" customWidth="1"/>
-    <col min="34" max="37" width="9.140625" style="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1"/>
-    <col min="39" max="39" width="3.85546875" customWidth="1"/>
-    <col min="40" max="43" width="9.140625" style="1"/>
-    <col min="44" max="44" width="8.7109375" customWidth="1"/>
-    <col min="45" max="45" width="3.85546875" customWidth="1"/>
-    <col min="46" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="8.7109375" customWidth="1"/>
-    <col min="51" max="51" width="3.85546875" customWidth="1"/>
-    <col min="52" max="55" width="9.140625" style="1"/>
-    <col min="56" max="56" width="8.7109375" customWidth="1"/>
-    <col min="57" max="57" width="3.85546875" customWidth="1"/>
-    <col min="58" max="61" width="9.140625" style="1"/>
-    <col min="62" max="62" width="8.7109375" customWidth="1"/>
-    <col min="63" max="63" width="3.85546875" customWidth="1"/>
-    <col min="64" max="67" width="9.140625" style="1"/>
-    <col min="68" max="68" width="8.7109375" customWidth="1"/>
-    <col min="69" max="69" width="3.85546875" customWidth="1"/>
-    <col min="70" max="73" width="9.140625" style="1"/>
-    <col min="74" max="74" width="8.7109375" customWidth="1"/>
-    <col min="75" max="75" width="3.85546875" customWidth="1"/>
-    <col min="76" max="79" width="9.140625" style="1"/>
-    <col min="80" max="80" width="8.7109375" customWidth="1"/>
-    <col min="81" max="81" width="3.85546875" customWidth="1"/>
-    <col min="82" max="85" width="9.140625" style="1"/>
-    <col min="86" max="86" width="8.7109375" customWidth="1"/>
-    <col min="87" max="87" width="3.85546875" customWidth="1"/>
-    <col min="88" max="91" width="9.140625" style="1"/>
-    <col min="92" max="92" width="8.7109375" customWidth="1"/>
-    <col min="93" max="93" width="3.85546875" customWidth="1"/>
-    <col min="94" max="97" width="9.140625" style="1"/>
-    <col min="98" max="98" width="8.7109375" customWidth="1"/>
-    <col min="99" max="99" width="3.85546875" customWidth="1"/>
-    <col min="100" max="103" width="9.140625" style="1"/>
-    <col min="104" max="104" width="8.7109375" customWidth="1"/>
-    <col min="105" max="105" width="3.85546875" customWidth="1"/>
-    <col min="106" max="109" width="9.140625" style="1"/>
-    <col min="110" max="110" width="8.7109375" customWidth="1"/>
-    <col min="111" max="111" width="3.85546875" customWidth="1"/>
-    <col min="112" max="115" width="9.140625" style="1"/>
-    <col min="116" max="116" width="8.7109375" customWidth="1"/>
-    <col min="117" max="117" width="3.85546875" customWidth="1"/>
-    <col min="118" max="121" width="9.140625" style="1"/>
-    <col min="122" max="122" width="8.7109375" customWidth="1"/>
-    <col min="123" max="123" width="3.85546875" customWidth="1"/>
-    <col min="124" max="127" width="9.140625" style="1"/>
-    <col min="128" max="128" width="8.7109375" customWidth="1"/>
-    <col min="129" max="129" width="3.85546875" customWidth="1"/>
-    <col min="130" max="132" width="9.140625" style="1"/>
-    <col min="133" max="133" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.7109375" customWidth="1"/>
-    <col min="135" max="135" width="3.85546875" customWidth="1"/>
+    <col min="17" max="19" width="9.109375" style="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" customWidth="1"/>
+    <col min="22" max="25" width="9.109375" style="1"/>
+    <col min="26" max="26" width="8.6640625" customWidth="1"/>
+    <col min="27" max="27" width="3.88671875" customWidth="1"/>
+    <col min="28" max="31" width="9.109375" style="1"/>
+    <col min="32" max="32" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="3.88671875" customWidth="1"/>
+    <col min="34" max="37" width="9.109375" style="1"/>
+    <col min="38" max="38" width="8.6640625" customWidth="1"/>
+    <col min="39" max="39" width="3.88671875" customWidth="1"/>
+    <col min="40" max="43" width="9.109375" style="1"/>
+    <col min="44" max="44" width="8.6640625" customWidth="1"/>
+    <col min="45" max="45" width="3.88671875" customWidth="1"/>
+    <col min="46" max="49" width="9.109375" style="1"/>
+    <col min="50" max="50" width="8.6640625" customWidth="1"/>
+    <col min="51" max="51" width="3.88671875" customWidth="1"/>
+    <col min="52" max="55" width="9.109375" style="1"/>
+    <col min="56" max="56" width="8.6640625" customWidth="1"/>
+    <col min="57" max="57" width="3.88671875" customWidth="1"/>
+    <col min="58" max="61" width="9.109375" style="1"/>
+    <col min="62" max="62" width="8.6640625" customWidth="1"/>
+    <col min="63" max="63" width="3.88671875" customWidth="1"/>
+    <col min="64" max="67" width="9.109375" style="1"/>
+    <col min="68" max="68" width="8.6640625" customWidth="1"/>
+    <col min="69" max="69" width="3.88671875" customWidth="1"/>
+    <col min="70" max="73" width="9.109375" style="1"/>
+    <col min="74" max="74" width="8.6640625" customWidth="1"/>
+    <col min="75" max="75" width="3.88671875" customWidth="1"/>
+    <col min="76" max="79" width="9.109375" style="1"/>
+    <col min="80" max="80" width="8.6640625" customWidth="1"/>
+    <col min="81" max="81" width="3.88671875" customWidth="1"/>
+    <col min="82" max="85" width="9.109375" style="1"/>
+    <col min="86" max="86" width="8.6640625" customWidth="1"/>
+    <col min="87" max="87" width="3.88671875" customWidth="1"/>
+    <col min="88" max="91" width="9.109375" style="1"/>
+    <col min="92" max="92" width="8.6640625" customWidth="1"/>
+    <col min="93" max="93" width="3.88671875" customWidth="1"/>
+    <col min="94" max="97" width="9.109375" style="1"/>
+    <col min="98" max="98" width="8.6640625" customWidth="1"/>
+    <col min="99" max="99" width="3.88671875" customWidth="1"/>
+    <col min="100" max="103" width="9.109375" style="1"/>
+    <col min="104" max="104" width="8.6640625" customWidth="1"/>
+    <col min="105" max="105" width="3.88671875" customWidth="1"/>
+    <col min="106" max="109" width="9.109375" style="1"/>
+    <col min="110" max="110" width="8.6640625" customWidth="1"/>
+    <col min="111" max="111" width="3.88671875" customWidth="1"/>
+    <col min="112" max="115" width="9.109375" style="1"/>
+    <col min="116" max="116" width="8.6640625" customWidth="1"/>
+    <col min="117" max="117" width="3.88671875" customWidth="1"/>
+    <col min="118" max="121" width="9.109375" style="1"/>
+    <col min="122" max="122" width="8.6640625" customWidth="1"/>
+    <col min="123" max="123" width="3.88671875" customWidth="1"/>
+    <col min="124" max="127" width="9.109375" style="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="3.88671875" customWidth="1"/>
+    <col min="130" max="132" width="9.109375" style="1"/>
+    <col min="133" max="133" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.6640625" customWidth="1"/>
+    <col min="135" max="135" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:135">
@@ -1298,181 +1298,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87">
+      <c r="D1" s="86">
         <v>42322</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="87">
+      <c r="J1" s="86">
         <v>42323</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="87">
+      <c r="P1" s="86">
         <v>42324</v>
       </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="87">
+      <c r="V1" s="86">
         <v>42325</v>
       </c>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="87">
+      <c r="AB1" s="86">
         <v>42326</v>
       </c>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="87">
+      <c r="AH1" s="86">
         <v>42327</v>
       </c>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="87">
+      <c r="AN1" s="86">
         <v>42328</v>
       </c>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
-      <c r="AR1" s="88"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="87">
+      <c r="AT1" s="86">
         <v>42329</v>
       </c>
-      <c r="AU1" s="88"/>
-      <c r="AV1" s="88"/>
-      <c r="AW1" s="88"/>
-      <c r="AX1" s="88"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="87">
+      <c r="AZ1" s="86">
         <v>42330</v>
       </c>
-      <c r="BA1" s="88"/>
-      <c r="BB1" s="88"/>
-      <c r="BC1" s="88"/>
-      <c r="BD1" s="88"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="87"/>
+      <c r="BD1" s="87"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="87">
+      <c r="BF1" s="86">
         <v>42331</v>
       </c>
-      <c r="BG1" s="88"/>
-      <c r="BH1" s="88"/>
-      <c r="BI1" s="88"/>
-      <c r="BJ1" s="88"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="87">
+      <c r="BL1" s="86">
         <v>42332</v>
       </c>
-      <c r="BM1" s="88"/>
-      <c r="BN1" s="88"/>
-      <c r="BO1" s="88"/>
-      <c r="BP1" s="88"/>
+      <c r="BM1" s="87"/>
+      <c r="BN1" s="87"/>
+      <c r="BO1" s="87"/>
+      <c r="BP1" s="87"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="87">
+      <c r="BR1" s="86">
         <v>42333</v>
       </c>
-      <c r="BS1" s="88"/>
-      <c r="BT1" s="88"/>
-      <c r="BU1" s="88"/>
-      <c r="BV1" s="88"/>
+      <c r="BS1" s="87"/>
+      <c r="BT1" s="87"/>
+      <c r="BU1" s="87"/>
+      <c r="BV1" s="87"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="87">
+      <c r="BX1" s="86">
         <v>42334</v>
       </c>
-      <c r="BY1" s="88"/>
-      <c r="BZ1" s="88"/>
-      <c r="CA1" s="88"/>
-      <c r="CB1" s="88"/>
+      <c r="BY1" s="87"/>
+      <c r="BZ1" s="87"/>
+      <c r="CA1" s="87"/>
+      <c r="CB1" s="87"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="87">
+      <c r="CD1" s="86">
         <v>42335</v>
       </c>
-      <c r="CE1" s="88"/>
-      <c r="CF1" s="88"/>
-      <c r="CG1" s="88"/>
-      <c r="CH1" s="88"/>
+      <c r="CE1" s="87"/>
+      <c r="CF1" s="87"/>
+      <c r="CG1" s="87"/>
+      <c r="CH1" s="87"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="87">
+      <c r="CJ1" s="86">
         <v>42336</v>
       </c>
-      <c r="CK1" s="88"/>
-      <c r="CL1" s="88"/>
-      <c r="CM1" s="88"/>
-      <c r="CN1" s="88"/>
+      <c r="CK1" s="87"/>
+      <c r="CL1" s="87"/>
+      <c r="CM1" s="87"/>
+      <c r="CN1" s="87"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="87">
+      <c r="CP1" s="86">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="88"/>
-      <c r="CR1" s="88"/>
-      <c r="CS1" s="88"/>
-      <c r="CT1" s="88"/>
+      <c r="CQ1" s="87"/>
+      <c r="CR1" s="87"/>
+      <c r="CS1" s="87"/>
+      <c r="CT1" s="87"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="87">
+      <c r="CV1" s="86">
         <v>42338</v>
       </c>
-      <c r="CW1" s="88"/>
-      <c r="CX1" s="88"/>
-      <c r="CY1" s="88"/>
-      <c r="CZ1" s="88"/>
+      <c r="CW1" s="87"/>
+      <c r="CX1" s="87"/>
+      <c r="CY1" s="87"/>
+      <c r="CZ1" s="87"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="87">
+      <c r="DB1" s="86">
         <v>42339</v>
       </c>
-      <c r="DC1" s="88"/>
-      <c r="DD1" s="88"/>
-      <c r="DE1" s="88"/>
-      <c r="DF1" s="88"/>
+      <c r="DC1" s="87"/>
+      <c r="DD1" s="87"/>
+      <c r="DE1" s="87"/>
+      <c r="DF1" s="87"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="87">
+      <c r="DH1" s="86">
         <v>42340</v>
       </c>
-      <c r="DI1" s="88"/>
-      <c r="DJ1" s="88"/>
-      <c r="DK1" s="88"/>
-      <c r="DL1" s="88"/>
+      <c r="DI1" s="87"/>
+      <c r="DJ1" s="87"/>
+      <c r="DK1" s="87"/>
+      <c r="DL1" s="87"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="87">
+      <c r="DN1" s="86">
         <v>42341</v>
       </c>
-      <c r="DO1" s="88"/>
-      <c r="DP1" s="88"/>
-      <c r="DQ1" s="88"/>
-      <c r="DR1" s="88"/>
+      <c r="DO1" s="87"/>
+      <c r="DP1" s="87"/>
+      <c r="DQ1" s="87"/>
+      <c r="DR1" s="87"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="87">
+      <c r="DT1" s="86">
         <v>42342</v>
       </c>
-      <c r="DU1" s="88"/>
-      <c r="DV1" s="88"/>
-      <c r="DW1" s="88"/>
-      <c r="DX1" s="88"/>
+      <c r="DU1" s="87"/>
+      <c r="DV1" s="87"/>
+      <c r="DW1" s="87"/>
+      <c r="DX1" s="87"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="87">
+      <c r="DZ1" s="86">
         <v>42343</v>
       </c>
-      <c r="EA1" s="88"/>
-      <c r="EB1" s="88"/>
-      <c r="EC1" s="88"/>
-      <c r="ED1" s="88"/>
+      <c r="EA1" s="87"/>
+      <c r="EB1" s="87"/>
+      <c r="EC1" s="87"/>
+      <c r="ED1" s="87"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -2666,7 +2666,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="88" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2816,7 +2816,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="86"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="ED17" s="10"/>
       <c r="EE17" s="12"/>
     </row>
-    <row r="18" spans="1:135" ht="30">
+    <row r="18" spans="1:135">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>66</v>
@@ -4301,7 +4301,7 @@
       <c r="ED18" s="10"/>
       <c r="EE18" s="12"/>
     </row>
-    <row r="19" spans="1:135" ht="30">
+    <row r="19" spans="1:135">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>66</v>
@@ -4444,7 +4444,7 @@
       <c r="ED19" s="10"/>
       <c r="EE19" s="12"/>
     </row>
-    <row r="20" spans="1:135" ht="30">
+    <row r="20" spans="1:135">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>66</v>
@@ -5893,7 +5893,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="88" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6"/>
@@ -6038,7 +6038,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="86"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6181,7 +6181,7 @@
       <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="86"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -7059,7 +7059,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="88" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6"/>
@@ -7202,7 +7202,7 @@
       <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="86"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -7483,7 +7483,7 @@
       <c r="ED40" s="10"/>
       <c r="EE40" s="12"/>
     </row>
-    <row r="41" spans="1:135" ht="30">
+    <row r="41" spans="1:135" ht="28.8">
       <c r="A41" s="2"/>
       <c r="B41" s="17" t="s">
         <v>77</v>
@@ -7626,7 +7626,7 @@
       <c r="ED41" s="10"/>
       <c r="EE41" s="12"/>
     </row>
-    <row r="42" spans="1:135" ht="30">
+    <row r="42" spans="1:135" ht="28.8">
       <c r="A42" s="2"/>
       <c r="B42" s="17" t="s">
         <v>77</v>
@@ -9079,31 +9079,41 @@
       <c r="CT51" s="52"/>
       <c r="CU51" s="12"/>
       <c r="CV51" s="14"/>
-      <c r="CW51" s="18"/>
+      <c r="CW51" s="83">
+        <v>0.125</v>
+      </c>
       <c r="CX51" s="18"/>
       <c r="CY51" s="18"/>
       <c r="CZ51" s="52"/>
       <c r="DA51" s="12"/>
       <c r="DB51" s="14"/>
-      <c r="DC51" s="18"/>
+      <c r="DC51" s="83">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="DD51" s="18"/>
       <c r="DE51" s="18"/>
       <c r="DF51" s="52"/>
       <c r="DG51" s="12"/>
       <c r="DH51" s="14"/>
-      <c r="DI51" s="18"/>
+      <c r="DI51" s="83">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="DJ51" s="18"/>
       <c r="DK51" s="18"/>
       <c r="DL51" s="52"/>
       <c r="DM51" s="12"/>
       <c r="DN51" s="14"/>
-      <c r="DO51" s="18"/>
+      <c r="DO51" s="83">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="DP51" s="18"/>
       <c r="DQ51" s="18"/>
       <c r="DR51" s="52"/>
       <c r="DS51" s="12"/>
       <c r="DT51" s="14"/>
-      <c r="DU51" s="18"/>
+      <c r="DU51" s="83">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="DV51" s="18"/>
       <c r="DW51" s="18"/>
       <c r="DX51" s="10"/>
@@ -11591,7 +11601,7 @@
       </c>
       <c r="ED67" s="16"/>
     </row>
-    <row r="68" spans="1:135" ht="15.75" thickBot="1">
+    <row r="68" spans="1:135" ht="15" thickBot="1">
       <c r="C68" s="27" t="s">
         <v>36</v>
       </c>
@@ -11857,7 +11867,7 @@
       </c>
       <c r="CW68" s="29">
         <f>SUM(CW3:CW65)</f>
-        <v>0.14583333333333334</v>
+        <v>0.27083333333333337</v>
       </c>
       <c r="CX68" s="30" t="s">
         <v>37</v>
@@ -11873,7 +11883,7 @@
       </c>
       <c r="DC68" s="29">
         <f>SUM(DC3:DC65)</f>
-        <v>0.29166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="DD68" s="30" t="s">
         <v>37</v>
@@ -11889,7 +11899,7 @@
       </c>
       <c r="DI68" s="29">
         <f>SUM(DI3:DI65)</f>
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="DJ68" s="30" t="s">
         <v>37</v>
@@ -11905,7 +11915,7 @@
       </c>
       <c r="DO68" s="29">
         <f>SUM(DO3:DO65)</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="DP68" s="30" t="s">
         <v>37</v>
@@ -11921,7 +11931,7 @@
       </c>
       <c r="DU68" s="29">
         <f>SUM(DU3:DU65)</f>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="DV68" s="30" t="s">
         <v>37</v>
@@ -12112,9 +12122,9 @@
       <c r="DT69" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="DU69" s="33" t="e">
+      <c r="DU69" s="33">
         <f>DW68/DU68</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="DX69" s="34"/>
       <c r="DZ69" s="32" t="s">
@@ -12468,9 +12478,9 @@
       <c r="DT71" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="DU71" s="35" t="e">
+      <c r="DU71" s="35">
         <f>1-DU69</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="DX71" s="34"/>
       <c r="DZ71" s="32" t="s">
@@ -13042,6 +13052,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -13054,24 +13082,6 @@
     <mergeCell ref="BX1:CB1"/>
     <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -13087,19 +13097,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.42578125"/>
-    <col min="2" max="2" width="10.28515625"/>
+    <col min="1" max="1" width="33.44140625"/>
+    <col min="2" max="2" width="10.33203125"/>
     <col min="3" max="3" width="32"/>
     <col min="4" max="4" width="16"/>
-    <col min="5" max="5" width="12.85546875"/>
-    <col min="6" max="6" width="14.28515625"/>
-    <col min="7" max="7" width="18.7109375"/>
+    <col min="5" max="5" width="12.88671875"/>
+    <col min="6" max="6" width="14.33203125"/>
+    <col min="7" max="7" width="18.6640625"/>
     <col min="8" max="8" width="21"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="19.42578125"/>
-    <col min="11" max="11" width="23.42578125"/>
+    <col min="9" max="9" width="14.44140625"/>
+    <col min="10" max="10" width="19.44140625"/>
+    <col min="11" max="11" width="23.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13142,13 +13152,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="56.85546875"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875"/>
+    <col min="4" max="4" width="56.88671875"/>
+    <col min="5" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="701"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="701"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,9 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1203,89 +1200,89 @@
   <dimension ref="A1:EE80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DK48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="DT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="DV51" sqref="DV51"/>
+      <selection pane="bottomRight" activeCell="EA4" sqref="EA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.44140625"/>
-    <col min="2" max="2" width="29.44140625"/>
-    <col min="3" max="3" width="33.5546875"/>
-    <col min="4" max="5" width="11.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125"/>
+    <col min="2" max="2" width="29.42578125"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="3.44140625" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
     <col min="16" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9.109375" style="1"/>
-    <col min="20" max="20" width="8.6640625" customWidth="1"/>
-    <col min="21" max="21" width="3.44140625" customWidth="1"/>
-    <col min="22" max="25" width="9.109375" style="1"/>
-    <col min="26" max="26" width="8.6640625" customWidth="1"/>
-    <col min="27" max="27" width="3.88671875" customWidth="1"/>
-    <col min="28" max="31" width="9.109375" style="1"/>
-    <col min="32" max="32" width="8.6640625" customWidth="1"/>
-    <col min="33" max="33" width="3.88671875" customWidth="1"/>
-    <col min="34" max="37" width="9.109375" style="1"/>
-    <col min="38" max="38" width="8.6640625" customWidth="1"/>
-    <col min="39" max="39" width="3.88671875" customWidth="1"/>
-    <col min="40" max="43" width="9.109375" style="1"/>
-    <col min="44" max="44" width="8.6640625" customWidth="1"/>
-    <col min="45" max="45" width="3.88671875" customWidth="1"/>
-    <col min="46" max="49" width="9.109375" style="1"/>
-    <col min="50" max="50" width="8.6640625" customWidth="1"/>
-    <col min="51" max="51" width="3.88671875" customWidth="1"/>
-    <col min="52" max="55" width="9.109375" style="1"/>
-    <col min="56" max="56" width="8.6640625" customWidth="1"/>
-    <col min="57" max="57" width="3.88671875" customWidth="1"/>
-    <col min="58" max="61" width="9.109375" style="1"/>
-    <col min="62" max="62" width="8.6640625" customWidth="1"/>
-    <col min="63" max="63" width="3.88671875" customWidth="1"/>
-    <col min="64" max="67" width="9.109375" style="1"/>
-    <col min="68" max="68" width="8.6640625" customWidth="1"/>
-    <col min="69" max="69" width="3.88671875" customWidth="1"/>
-    <col min="70" max="73" width="9.109375" style="1"/>
-    <col min="74" max="74" width="8.6640625" customWidth="1"/>
-    <col min="75" max="75" width="3.88671875" customWidth="1"/>
-    <col min="76" max="79" width="9.109375" style="1"/>
-    <col min="80" max="80" width="8.6640625" customWidth="1"/>
-    <col min="81" max="81" width="3.88671875" customWidth="1"/>
-    <col min="82" max="85" width="9.109375" style="1"/>
-    <col min="86" max="86" width="8.6640625" customWidth="1"/>
-    <col min="87" max="87" width="3.88671875" customWidth="1"/>
-    <col min="88" max="91" width="9.109375" style="1"/>
-    <col min="92" max="92" width="8.6640625" customWidth="1"/>
-    <col min="93" max="93" width="3.88671875" customWidth="1"/>
-    <col min="94" max="97" width="9.109375" style="1"/>
-    <col min="98" max="98" width="8.6640625" customWidth="1"/>
-    <col min="99" max="99" width="3.88671875" customWidth="1"/>
-    <col min="100" max="103" width="9.109375" style="1"/>
-    <col min="104" max="104" width="8.6640625" customWidth="1"/>
-    <col min="105" max="105" width="3.88671875" customWidth="1"/>
-    <col min="106" max="109" width="9.109375" style="1"/>
-    <col min="110" max="110" width="8.6640625" customWidth="1"/>
-    <col min="111" max="111" width="3.88671875" customWidth="1"/>
-    <col min="112" max="115" width="9.109375" style="1"/>
-    <col min="116" max="116" width="8.6640625" customWidth="1"/>
-    <col min="117" max="117" width="3.88671875" customWidth="1"/>
-    <col min="118" max="121" width="9.109375" style="1"/>
-    <col min="122" max="122" width="8.6640625" customWidth="1"/>
-    <col min="123" max="123" width="3.88671875" customWidth="1"/>
-    <col min="124" max="127" width="9.109375" style="1"/>
-    <col min="128" max="128" width="8.6640625" customWidth="1"/>
-    <col min="129" max="129" width="3.88671875" customWidth="1"/>
-    <col min="130" max="132" width="9.109375" style="1"/>
-    <col min="133" max="133" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.6640625" customWidth="1"/>
-    <col min="135" max="135" width="3.88671875" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" customWidth="1"/>
+    <col min="22" max="25" width="9.140625" style="1"/>
+    <col min="26" max="26" width="8.7109375" customWidth="1"/>
+    <col min="27" max="27" width="3.85546875" customWidth="1"/>
+    <col min="28" max="31" width="9.140625" style="1"/>
+    <col min="32" max="32" width="8.7109375" customWidth="1"/>
+    <col min="33" max="33" width="3.85546875" customWidth="1"/>
+    <col min="34" max="37" width="9.140625" style="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1"/>
+    <col min="39" max="39" width="3.85546875" customWidth="1"/>
+    <col min="40" max="43" width="9.140625" style="1"/>
+    <col min="44" max="44" width="8.7109375" customWidth="1"/>
+    <col min="45" max="45" width="3.85546875" customWidth="1"/>
+    <col min="46" max="49" width="9.140625" style="1"/>
+    <col min="50" max="50" width="8.7109375" customWidth="1"/>
+    <col min="51" max="51" width="3.85546875" customWidth="1"/>
+    <col min="52" max="55" width="9.140625" style="1"/>
+    <col min="56" max="56" width="8.7109375" customWidth="1"/>
+    <col min="57" max="57" width="3.85546875" customWidth="1"/>
+    <col min="58" max="61" width="9.140625" style="1"/>
+    <col min="62" max="62" width="8.7109375" customWidth="1"/>
+    <col min="63" max="63" width="3.85546875" customWidth="1"/>
+    <col min="64" max="67" width="9.140625" style="1"/>
+    <col min="68" max="68" width="8.7109375" customWidth="1"/>
+    <col min="69" max="69" width="3.85546875" customWidth="1"/>
+    <col min="70" max="73" width="9.140625" style="1"/>
+    <col min="74" max="74" width="8.7109375" customWidth="1"/>
+    <col min="75" max="75" width="3.85546875" customWidth="1"/>
+    <col min="76" max="79" width="9.140625" style="1"/>
+    <col min="80" max="80" width="8.7109375" customWidth="1"/>
+    <col min="81" max="81" width="3.85546875" customWidth="1"/>
+    <col min="82" max="85" width="9.140625" style="1"/>
+    <col min="86" max="86" width="8.7109375" customWidth="1"/>
+    <col min="87" max="87" width="3.85546875" customWidth="1"/>
+    <col min="88" max="91" width="9.140625" style="1"/>
+    <col min="92" max="92" width="8.7109375" customWidth="1"/>
+    <col min="93" max="93" width="3.85546875" customWidth="1"/>
+    <col min="94" max="97" width="9.140625" style="1"/>
+    <col min="98" max="98" width="8.7109375" customWidth="1"/>
+    <col min="99" max="99" width="3.85546875" customWidth="1"/>
+    <col min="100" max="103" width="9.140625" style="1"/>
+    <col min="104" max="104" width="8.7109375" customWidth="1"/>
+    <col min="105" max="105" width="3.85546875" customWidth="1"/>
+    <col min="106" max="109" width="9.140625" style="1"/>
+    <col min="110" max="110" width="8.7109375" customWidth="1"/>
+    <col min="111" max="111" width="3.85546875" customWidth="1"/>
+    <col min="112" max="115" width="9.140625" style="1"/>
+    <col min="116" max="116" width="8.7109375" customWidth="1"/>
+    <col min="117" max="117" width="3.85546875" customWidth="1"/>
+    <col min="118" max="121" width="9.140625" style="1"/>
+    <col min="122" max="122" width="8.7109375" customWidth="1"/>
+    <col min="123" max="123" width="3.85546875" customWidth="1"/>
+    <col min="124" max="127" width="9.140625" style="1"/>
+    <col min="128" max="128" width="8.7109375" customWidth="1"/>
+    <col min="129" max="129" width="3.85546875" customWidth="1"/>
+    <col min="130" max="132" width="9.140625" style="1"/>
+    <col min="133" max="133" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.7109375" customWidth="1"/>
+    <col min="135" max="135" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:135">
@@ -1298,181 +1295,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86">
+      <c r="D1" s="85">
         <v>42322</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="86">
+      <c r="J1" s="85">
         <v>42323</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="86">
+      <c r="P1" s="85">
         <v>42324</v>
       </c>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="86">
+      <c r="V1" s="85">
         <v>42325</v>
       </c>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="86">
+      <c r="AB1" s="85">
         <v>42326</v>
       </c>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="86">
+      <c r="AH1" s="85">
         <v>42327</v>
       </c>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="86">
+      <c r="AN1" s="85">
         <v>42328</v>
       </c>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="86">
+      <c r="AT1" s="85">
         <v>42329</v>
       </c>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="86">
+      <c r="AZ1" s="85">
         <v>42330</v>
       </c>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="87"/>
-      <c r="BD1" s="87"/>
+      <c r="BA1" s="86"/>
+      <c r="BB1" s="86"/>
+      <c r="BC1" s="86"/>
+      <c r="BD1" s="86"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="86">
+      <c r="BF1" s="85">
         <v>42331</v>
       </c>
-      <c r="BG1" s="87"/>
-      <c r="BH1" s="87"/>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="87"/>
+      <c r="BG1" s="86"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="86">
+      <c r="BL1" s="85">
         <v>42332</v>
       </c>
-      <c r="BM1" s="87"/>
-      <c r="BN1" s="87"/>
-      <c r="BO1" s="87"/>
-      <c r="BP1" s="87"/>
+      <c r="BM1" s="86"/>
+      <c r="BN1" s="86"/>
+      <c r="BO1" s="86"/>
+      <c r="BP1" s="86"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="86">
+      <c r="BR1" s="85">
         <v>42333</v>
       </c>
-      <c r="BS1" s="87"/>
-      <c r="BT1" s="87"/>
-      <c r="BU1" s="87"/>
-      <c r="BV1" s="87"/>
+      <c r="BS1" s="86"/>
+      <c r="BT1" s="86"/>
+      <c r="BU1" s="86"/>
+      <c r="BV1" s="86"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="86">
+      <c r="BX1" s="85">
         <v>42334</v>
       </c>
-      <c r="BY1" s="87"/>
-      <c r="BZ1" s="87"/>
-      <c r="CA1" s="87"/>
-      <c r="CB1" s="87"/>
+      <c r="BY1" s="86"/>
+      <c r="BZ1" s="86"/>
+      <c r="CA1" s="86"/>
+      <c r="CB1" s="86"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="86">
+      <c r="CD1" s="85">
         <v>42335</v>
       </c>
-      <c r="CE1" s="87"/>
-      <c r="CF1" s="87"/>
-      <c r="CG1" s="87"/>
-      <c r="CH1" s="87"/>
+      <c r="CE1" s="86"/>
+      <c r="CF1" s="86"/>
+      <c r="CG1" s="86"/>
+      <c r="CH1" s="86"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="86">
+      <c r="CJ1" s="85">
         <v>42336</v>
       </c>
-      <c r="CK1" s="87"/>
-      <c r="CL1" s="87"/>
-      <c r="CM1" s="87"/>
-      <c r="CN1" s="87"/>
+      <c r="CK1" s="86"/>
+      <c r="CL1" s="86"/>
+      <c r="CM1" s="86"/>
+      <c r="CN1" s="86"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="86">
+      <c r="CP1" s="85">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="87"/>
-      <c r="CR1" s="87"/>
-      <c r="CS1" s="87"/>
-      <c r="CT1" s="87"/>
+      <c r="CQ1" s="86"/>
+      <c r="CR1" s="86"/>
+      <c r="CS1" s="86"/>
+      <c r="CT1" s="86"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="86">
+      <c r="CV1" s="85">
         <v>42338</v>
       </c>
-      <c r="CW1" s="87"/>
-      <c r="CX1" s="87"/>
-      <c r="CY1" s="87"/>
-      <c r="CZ1" s="87"/>
+      <c r="CW1" s="86"/>
+      <c r="CX1" s="86"/>
+      <c r="CY1" s="86"/>
+      <c r="CZ1" s="86"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="86">
+      <c r="DB1" s="85">
         <v>42339</v>
       </c>
-      <c r="DC1" s="87"/>
-      <c r="DD1" s="87"/>
-      <c r="DE1" s="87"/>
-      <c r="DF1" s="87"/>
+      <c r="DC1" s="86"/>
+      <c r="DD1" s="86"/>
+      <c r="DE1" s="86"/>
+      <c r="DF1" s="86"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="86">
+      <c r="DH1" s="85">
         <v>42340</v>
       </c>
-      <c r="DI1" s="87"/>
-      <c r="DJ1" s="87"/>
-      <c r="DK1" s="87"/>
-      <c r="DL1" s="87"/>
+      <c r="DI1" s="86"/>
+      <c r="DJ1" s="86"/>
+      <c r="DK1" s="86"/>
+      <c r="DL1" s="86"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="86">
+      <c r="DN1" s="85">
         <v>42341</v>
       </c>
-      <c r="DO1" s="87"/>
-      <c r="DP1" s="87"/>
-      <c r="DQ1" s="87"/>
-      <c r="DR1" s="87"/>
+      <c r="DO1" s="86"/>
+      <c r="DP1" s="86"/>
+      <c r="DQ1" s="86"/>
+      <c r="DR1" s="86"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="86">
+      <c r="DT1" s="85">
         <v>42342</v>
       </c>
-      <c r="DU1" s="87"/>
-      <c r="DV1" s="87"/>
-      <c r="DW1" s="87"/>
-      <c r="DX1" s="87"/>
+      <c r="DU1" s="86"/>
+      <c r="DV1" s="86"/>
+      <c r="DW1" s="86"/>
+      <c r="DX1" s="86"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="86">
+      <c r="DZ1" s="85">
         <v>42343</v>
       </c>
-      <c r="EA1" s="87"/>
-      <c r="EB1" s="87"/>
-      <c r="EC1" s="87"/>
-      <c r="ED1" s="87"/>
+      <c r="EA1" s="86"/>
+      <c r="EB1" s="86"/>
+      <c r="EC1" s="86"/>
+      <c r="ED1" s="86"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -1834,7 +1831,7 @@
       </c>
       <c r="EE2" s="12"/>
     </row>
-    <row r="3" spans="1:135" s="78" customFormat="1">
+    <row r="3" spans="1:135" s="77" customFormat="1">
       <c r="A3" s="73">
         <v>2</v>
       </c>
@@ -1907,7 +1904,9 @@
       <c r="AN3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AO3" s="77"/>
+      <c r="AO3" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="AP3" s="74"/>
       <c r="AQ3" s="74"/>
       <c r="AR3" s="75"/>
@@ -2045,7 +2044,9 @@
       <c r="DT3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="DU3" s="77"/>
+      <c r="DU3" s="72">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="DV3" s="74"/>
       <c r="DW3" s="74"/>
       <c r="DX3" s="75"/>
@@ -2053,7 +2054,9 @@
       <c r="DZ3" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="EA3" s="77"/>
+      <c r="EA3" s="72">
+        <v>0</v>
+      </c>
       <c r="EB3" s="74"/>
       <c r="EC3" s="74"/>
       <c r="ED3" s="75"/>
@@ -2519,7 +2522,9 @@
       <c r="D7" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F7" s="8">
         <v>1</v>
       </c>
@@ -2666,13 +2671,15 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="87" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
@@ -2816,7 +2823,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2966,13 +2973,15 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="89" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
@@ -3116,11 +3125,13 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
@@ -3264,13 +3275,15 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="89" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
@@ -3426,11 +3439,13 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
       <c r="F13" s="8">
         <v>0</v>
       </c>
@@ -3456,13 +3471,11 @@
       <c r="S13" s="9"/>
       <c r="T13" s="54"/>
       <c r="U13" s="12"/>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
+      <c r="V13" s="6"/>
       <c r="W13" s="7"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="54"/>
+      <c r="Z13" s="69"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="7"/>
@@ -3580,11 +3593,13 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="88"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
@@ -3768,7 +3783,9 @@
       <c r="AN15" s="56">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AO15" s="7"/>
+      <c r="AO15" s="7">
+        <v>0</v>
+      </c>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="53"/>
@@ -3915,7 +3932,9 @@
       <c r="AN16" s="56">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AO16" s="7"/>
+      <c r="AO16" s="7">
+        <v>0</v>
+      </c>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="62"/>
@@ -4058,7 +4077,9 @@
       <c r="AN17" s="56">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AO17" s="7"/>
+      <c r="AO17" s="7">
+        <v>0</v>
+      </c>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="9"/>
       <c r="AR17" s="63"/>
@@ -4201,10 +4222,12 @@
       <c r="AN18" s="56">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AO18" s="7"/>
+      <c r="AO18" s="7">
+        <v>0</v>
+      </c>
       <c r="AP18" s="8"/>
       <c r="AQ18" s="9"/>
-      <c r="AR18" s="81"/>
+      <c r="AR18" s="80"/>
       <c r="AS18" s="12"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="7"/>
@@ -4390,7 +4413,9 @@
       <c r="CD19" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CE19" s="7"/>
+      <c r="CE19" s="7">
+        <v>0</v>
+      </c>
       <c r="CF19" s="8"/>
       <c r="CG19" s="9"/>
       <c r="CH19" s="52"/>
@@ -4533,7 +4558,9 @@
       <c r="CD20" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CE20" s="7"/>
+      <c r="CE20" s="7">
+        <v>0</v>
+      </c>
       <c r="CF20" s="8"/>
       <c r="CG20" s="9"/>
       <c r="CH20" s="54"/>
@@ -4634,7 +4661,9 @@
       <c r="AN21" s="66">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AO21" s="7"/>
+      <c r="AO21" s="7">
+        <v>0</v>
+      </c>
       <c r="AP21" s="8"/>
       <c r="AQ21" s="9"/>
       <c r="AR21" s="53"/>
@@ -4777,7 +4806,9 @@
       <c r="AN22" s="66">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AO22" s="7"/>
+      <c r="AO22" s="7">
+        <v>0</v>
+      </c>
       <c r="AP22" s="8"/>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="62"/>
@@ -4924,7 +4955,9 @@
       <c r="AN23" s="66">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AO23" s="7"/>
+      <c r="AO23" s="7">
+        <v>0</v>
+      </c>
       <c r="AP23" s="8"/>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="63"/>
@@ -5212,10 +5245,12 @@
       <c r="AN25" s="56">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AO25" s="7"/>
+      <c r="AO25" s="7">
+        <v>0</v>
+      </c>
       <c r="AP25" s="8"/>
       <c r="AQ25" s="9"/>
-      <c r="AR25" s="80"/>
+      <c r="AR25" s="79"/>
       <c r="AS25" s="12"/>
       <c r="AT25" s="6"/>
       <c r="AU25" s="7"/>
@@ -5256,7 +5291,9 @@
       <c r="CD25" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CE25" s="7"/>
+      <c r="CE25" s="7">
+        <v>0</v>
+      </c>
       <c r="CF25" s="8"/>
       <c r="CG25" s="9"/>
       <c r="CH25" s="52"/>
@@ -5317,7 +5354,7 @@
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="6"/>
@@ -5407,7 +5444,9 @@
       <c r="CJ26" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="CK26" s="7"/>
+      <c r="CK26" s="7">
+        <v>0</v>
+      </c>
       <c r="CL26" s="8"/>
       <c r="CM26" s="9"/>
       <c r="CN26" s="52"/>
@@ -5462,7 +5501,7 @@
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -5550,7 +5589,9 @@
       <c r="CJ27" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="CK27" s="7"/>
+      <c r="CK27" s="7">
+        <v>0</v>
+      </c>
       <c r="CL27" s="8"/>
       <c r="CM27" s="9"/>
       <c r="CN27" s="54"/>
@@ -5893,7 +5934,7 @@
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6"/>
@@ -6025,7 +6066,9 @@
       <c r="DZ30" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="EA30" s="7"/>
+      <c r="EA30" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="EB30" s="8"/>
       <c r="EC30" s="8"/>
       <c r="ED30" s="53"/>
@@ -6038,7 +6081,7 @@
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="88"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6168,7 +6211,9 @@
       <c r="DZ31" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="EA31" s="7"/>
+      <c r="EA31" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="EB31" s="8"/>
       <c r="EC31" s="9"/>
       <c r="ED31" s="52"/>
@@ -6181,7 +6226,7 @@
       <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="88"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -6311,7 +6356,9 @@
       <c r="DZ32" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="EA32" s="7"/>
+      <c r="EA32" s="7">
+        <v>0</v>
+      </c>
       <c r="EB32" s="8"/>
       <c r="EC32" s="9"/>
       <c r="ED32" s="54"/>
@@ -6452,7 +6499,9 @@
       <c r="DT33" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="DU33" s="7"/>
+      <c r="DU33" s="7">
+        <v>0</v>
+      </c>
       <c r="DV33" s="8"/>
       <c r="DW33" s="9"/>
       <c r="DX33" s="54"/>
@@ -6461,7 +6510,7 @@
       <c r="EA33" s="7"/>
       <c r="EB33" s="8"/>
       <c r="EC33" s="9"/>
-      <c r="ED33" s="54"/>
+      <c r="ED33" s="69"/>
       <c r="EE33" s="12"/>
     </row>
     <row r="34" spans="1:135">
@@ -6553,7 +6602,9 @@
       <c r="CD34" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CE34" s="7"/>
+      <c r="CE34" s="7">
+        <v>0</v>
+      </c>
       <c r="CF34" s="8"/>
       <c r="CG34" s="9"/>
       <c r="CH34" s="52"/>
@@ -6601,7 +6652,9 @@
       <c r="DT34" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DU34" s="7"/>
+      <c r="DU34" s="7">
+        <v>0</v>
+      </c>
       <c r="DV34" s="8"/>
       <c r="DW34" s="9"/>
       <c r="DX34" s="52"/>
@@ -6709,7 +6762,7 @@
       <c r="CK35" s="7"/>
       <c r="CL35" s="8"/>
       <c r="CM35" s="9"/>
-      <c r="CN35" s="54"/>
+      <c r="CN35" s="69"/>
       <c r="CO35" s="12"/>
       <c r="CP35" s="6"/>
       <c r="CQ35" s="7"/>
@@ -6744,7 +6797,9 @@
       <c r="DT35" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DU35" s="7"/>
+      <c r="DU35" s="7">
+        <v>0</v>
+      </c>
       <c r="DV35" s="8"/>
       <c r="DW35" s="9"/>
       <c r="DX35" s="53"/>
@@ -6947,7 +7002,9 @@
       <c r="AE37" s="9"/>
       <c r="AF37" s="10"/>
       <c r="AG37" s="12"/>
-      <c r="AH37" s="6"/>
+      <c r="AH37" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AI37" s="7">
         <v>0.10416666666666667</v>
       </c>
@@ -7059,7 +7116,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="87" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6"/>
@@ -7202,7 +7259,7 @@
       <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="87"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -7483,7 +7540,7 @@
       <c r="ED40" s="10"/>
       <c r="EE40" s="12"/>
     </row>
-    <row r="41" spans="1:135" ht="28.8">
+    <row r="41" spans="1:135" ht="30">
       <c r="A41" s="2"/>
       <c r="B41" s="17" t="s">
         <v>77</v>
@@ -7536,7 +7593,9 @@
       <c r="AT41" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AU41" s="7"/>
+      <c r="AU41" s="7">
+        <v>0</v>
+      </c>
       <c r="AV41" s="8"/>
       <c r="AW41" s="9"/>
       <c r="AX41" s="54"/>
@@ -7626,7 +7685,7 @@
       <c r="ED41" s="10"/>
       <c r="EE41" s="12"/>
     </row>
-    <row r="42" spans="1:135" ht="28.8">
+    <row r="42" spans="1:135" ht="30">
       <c r="A42" s="2"/>
       <c r="B42" s="17" t="s">
         <v>77</v>
@@ -7721,7 +7780,9 @@
       <c r="CJ42" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CK42" s="7"/>
+      <c r="CK42" s="7">
+        <v>0</v>
+      </c>
       <c r="CL42" s="8"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="54"/>
@@ -7861,7 +7922,7 @@
       <c r="CK43" s="7"/>
       <c r="CL43" s="8"/>
       <c r="CM43" s="9"/>
-      <c r="CN43" s="54"/>
+      <c r="CN43" s="69"/>
       <c r="CO43" s="12"/>
       <c r="CP43" s="6"/>
       <c r="CQ43" s="7"/>
@@ -8006,7 +8067,7 @@
       <c r="CK44" s="7"/>
       <c r="CL44" s="8"/>
       <c r="CM44" s="9"/>
-      <c r="CN44" s="54"/>
+      <c r="CN44" s="69"/>
       <c r="CO44" s="12"/>
       <c r="CP44" s="6"/>
       <c r="CQ44" s="7"/>
@@ -8140,7 +8201,9 @@
       <c r="CD45" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="CE45" s="7"/>
+      <c r="CE45" s="7">
+        <v>0</v>
+      </c>
       <c r="CF45" s="8"/>
       <c r="CG45" s="9"/>
       <c r="CH45" s="54"/>
@@ -8149,7 +8212,7 @@
       <c r="CK45" s="7"/>
       <c r="CL45" s="8"/>
       <c r="CM45" s="9"/>
-      <c r="CN45" s="54"/>
+      <c r="CN45" s="69"/>
       <c r="CO45" s="12"/>
       <c r="CP45" s="6"/>
       <c r="CQ45" s="7"/>
@@ -8290,7 +8353,7 @@
       <c r="CK46" s="7"/>
       <c r="CL46" s="8"/>
       <c r="CM46" s="9"/>
-      <c r="CN46" s="54"/>
+      <c r="CN46" s="69"/>
       <c r="CO46" s="12"/>
       <c r="CP46" s="6"/>
       <c r="CQ46" s="7"/>
@@ -8329,7 +8392,9 @@
       <c r="DT46" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="DU46" s="7"/>
+      <c r="DU46" s="7">
+        <v>0</v>
+      </c>
       <c r="DV46" s="8"/>
       <c r="DW46" s="9"/>
       <c r="DX46" s="54"/>
@@ -8393,7 +8458,7 @@
       </c>
       <c r="AJ47" s="59"/>
       <c r="AK47" s="60"/>
-      <c r="AL47" s="79"/>
+      <c r="AL47" s="78"/>
       <c r="AM47" s="12"/>
       <c r="AN47" s="6"/>
       <c r="AO47" s="7"/>
@@ -8685,7 +8750,9 @@
       <c r="AN49" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AO49" s="7"/>
+      <c r="AO49" s="7">
+        <v>6.25E-2</v>
+      </c>
       <c r="AP49" s="8"/>
       <c r="AQ49" s="9"/>
       <c r="AR49" s="53"/>
@@ -8845,45 +8912,29 @@
       <c r="BC50" s="18"/>
       <c r="BD50" s="10"/>
       <c r="BE50" s="12"/>
-      <c r="BF50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BG50" s="83">
-        <v>0</v>
-      </c>
+      <c r="BF50" s="14"/>
+      <c r="BG50" s="82"/>
       <c r="BH50" s="18"/>
       <c r="BI50" s="18"/>
-      <c r="BJ50" s="52"/>
+      <c r="BJ50" s="69"/>
       <c r="BK50" s="12"/>
-      <c r="BL50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BM50" s="18">
-        <v>0</v>
-      </c>
+      <c r="BL50" s="14"/>
+      <c r="BM50" s="18"/>
       <c r="BN50" s="18"/>
       <c r="BO50" s="18"/>
-      <c r="BP50" s="52"/>
+      <c r="BP50" s="69"/>
       <c r="BQ50" s="12"/>
-      <c r="BR50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BS50" s="83">
-        <v>0</v>
-      </c>
+      <c r="BR50" s="14"/>
+      <c r="BS50" s="82"/>
       <c r="BT50" s="18"/>
       <c r="BU50" s="18"/>
-      <c r="BV50" s="52"/>
+      <c r="BV50" s="69"/>
       <c r="BW50" s="12"/>
-      <c r="BX50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BY50" s="83">
-        <v>0</v>
-      </c>
+      <c r="BX50" s="14"/>
+      <c r="BY50" s="82"/>
       <c r="BZ50" s="18"/>
       <c r="CA50" s="18"/>
-      <c r="CB50" s="52"/>
+      <c r="CB50" s="69"/>
       <c r="CC50" s="12"/>
       <c r="CD50" s="14"/>
       <c r="CE50" s="18"/>
@@ -8891,55 +8942,40 @@
       <c r="CG50" s="18"/>
       <c r="CH50" s="10"/>
       <c r="CI50" s="12"/>
-      <c r="CJ50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
       <c r="CK50" s="18"/>
       <c r="CL50" s="18"/>
       <c r="CM50" s="18"/>
-      <c r="CN50" s="52"/>
+      <c r="CN50" s="69"/>
       <c r="CO50" s="12"/>
-      <c r="CP50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="CP50" s="14"/>
       <c r="CQ50" s="18"/>
       <c r="CR50" s="18"/>
       <c r="CS50" s="18"/>
-      <c r="CT50" s="52"/>
+      <c r="CT50" s="69"/>
       <c r="CU50" s="12"/>
-      <c r="CV50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="CV50" s="14"/>
       <c r="CW50" s="18"/>
       <c r="CX50" s="18"/>
       <c r="CY50" s="18"/>
-      <c r="CZ50" s="52"/>
+      <c r="CZ50" s="69"/>
       <c r="DA50" s="12"/>
-      <c r="DB50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="DB50" s="14"/>
       <c r="DC50" s="18"/>
       <c r="DD50" s="18"/>
       <c r="DE50" s="18"/>
-      <c r="DF50" s="52"/>
+      <c r="DF50" s="69"/>
       <c r="DG50" s="12"/>
-      <c r="DH50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="DI50" s="83">
-        <v>0</v>
-      </c>
+      <c r="DH50" s="14"/>
+      <c r="DI50" s="82"/>
       <c r="DJ50" s="18"/>
       <c r="DK50" s="18"/>
-      <c r="DL50" s="52"/>
+      <c r="DL50" s="69"/>
       <c r="DM50" s="12"/>
-      <c r="DN50" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="DN50" s="14"/>
       <c r="DO50" s="18"/>
       <c r="DP50" s="18"/>
       <c r="DQ50" s="18"/>
-      <c r="DR50" s="52"/>
+      <c r="DR50" s="69"/>
       <c r="DS50" s="12"/>
       <c r="DT50" s="14"/>
       <c r="DU50" s="18"/>
@@ -8959,7 +8995,7 @@
       <c r="B51" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="81" t="s">
         <v>64</v>
       </c>
       <c r="D51" s="14"/>
@@ -9013,7 +9049,7 @@
       <c r="AZ51" s="14">
         <v>0</v>
       </c>
-      <c r="BA51" s="83">
+      <c r="BA51" s="82">
         <v>0.33333333333333331</v>
       </c>
       <c r="BB51" s="18"/>
@@ -9021,9 +9057,9 @@
       <c r="BD51" s="52"/>
       <c r="BE51" s="12"/>
       <c r="BF51" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG51" s="83">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BG51" s="82">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="BH51" s="18"/>
@@ -9031,9 +9067,9 @@
       <c r="BJ51" s="52"/>
       <c r="BK51" s="12"/>
       <c r="BL51" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM51" s="83">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BM51" s="82">
         <v>0.20833333333333334</v>
       </c>
       <c r="BN51" s="18"/>
@@ -9041,9 +9077,9 @@
       <c r="BP51" s="52"/>
       <c r="BQ51" s="12"/>
       <c r="BR51" s="14">
-        <v>0</v>
-      </c>
-      <c r="BS51" s="83">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BS51" s="82">
         <v>0.125</v>
       </c>
       <c r="BT51" s="18"/>
@@ -9051,9 +9087,9 @@
       <c r="BV51" s="52"/>
       <c r="BW51" s="12"/>
       <c r="BX51" s="14">
-        <v>0</v>
-      </c>
-      <c r="BY51" s="83">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BY51" s="82">
         <v>0.16666666666666666</v>
       </c>
       <c r="BZ51" s="18"/>
@@ -9066,57 +9102,75 @@
       <c r="CG51" s="18"/>
       <c r="CH51" s="10"/>
       <c r="CI51" s="12"/>
-      <c r="CJ51" s="14"/>
-      <c r="CK51" s="18"/>
+      <c r="CJ51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="CK51" s="82">
+        <v>0</v>
+      </c>
       <c r="CL51" s="18"/>
       <c r="CM51" s="18"/>
       <c r="CN51" s="52"/>
       <c r="CO51" s="12"/>
-      <c r="CP51" s="14"/>
-      <c r="CQ51" s="18"/>
+      <c r="CP51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="CQ51" s="82">
+        <v>0</v>
+      </c>
       <c r="CR51" s="18"/>
       <c r="CS51" s="18"/>
       <c r="CT51" s="52"/>
       <c r="CU51" s="12"/>
-      <c r="CV51" s="14"/>
-      <c r="CW51" s="83">
+      <c r="CV51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="CW51" s="82">
         <v>0.125</v>
       </c>
       <c r="CX51" s="18"/>
       <c r="CY51" s="18"/>
       <c r="CZ51" s="52"/>
       <c r="DA51" s="12"/>
-      <c r="DB51" s="14"/>
-      <c r="DC51" s="83">
+      <c r="DB51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="DC51" s="82">
         <v>0.16666666666666666</v>
       </c>
       <c r="DD51" s="18"/>
       <c r="DE51" s="18"/>
       <c r="DF51" s="52"/>
       <c r="DG51" s="12"/>
-      <c r="DH51" s="14"/>
-      <c r="DI51" s="83">
+      <c r="DH51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="DI51" s="82">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="DJ51" s="18"/>
       <c r="DK51" s="18"/>
       <c r="DL51" s="52"/>
       <c r="DM51" s="12"/>
-      <c r="DN51" s="14"/>
-      <c r="DO51" s="83">
+      <c r="DN51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="DO51" s="82">
         <v>0.16666666666666666</v>
       </c>
       <c r="DP51" s="18"/>
       <c r="DQ51" s="18"/>
       <c r="DR51" s="52"/>
       <c r="DS51" s="12"/>
-      <c r="DT51" s="14"/>
-      <c r="DU51" s="83">
-        <v>0.10416666666666667</v>
+      <c r="DT51" s="14">
+        <v>0</v>
+      </c>
+      <c r="DU51" s="82">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="DV51" s="18"/>
       <c r="DW51" s="18"/>
-      <c r="DX51" s="10"/>
+      <c r="DX51" s="52"/>
       <c r="DY51" s="12"/>
       <c r="DZ51" s="14"/>
       <c r="EA51" s="18"/>
@@ -9186,7 +9240,7 @@
       <c r="AZ52" s="14">
         <v>0</v>
       </c>
-      <c r="BA52" s="83">
+      <c r="BA52" s="82">
         <v>0.20833333333333334</v>
       </c>
       <c r="BB52" s="18"/>
@@ -9196,7 +9250,7 @@
       <c r="BF52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG52" s="83">
+      <c r="BG52" s="82">
         <v>0.14583333333333334</v>
       </c>
       <c r="BH52" s="18"/>
@@ -9206,7 +9260,7 @@
       <c r="BL52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BM52" s="83">
+      <c r="BM52" s="82">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="BN52" s="18"/>
@@ -9216,7 +9270,7 @@
       <c r="BR52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BS52" s="83">
+      <c r="BS52" s="82">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="BT52" s="18"/>
@@ -9226,7 +9280,7 @@
       <c r="BX52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BY52" s="83">
+      <c r="BY52" s="82">
         <v>6.25E-2</v>
       </c>
       <c r="BZ52" s="18"/>
@@ -9242,7 +9296,9 @@
       <c r="CJ52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CK52" s="18"/>
+      <c r="CK52" s="82">
+        <v>4.1666666666666699E-2</v>
+      </c>
       <c r="CL52" s="18"/>
       <c r="CM52" s="18"/>
       <c r="CN52" s="54"/>
@@ -9250,7 +9306,7 @@
       <c r="CP52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CQ52" s="83">
+      <c r="CQ52" s="82">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="CR52" s="18"/>
@@ -9260,7 +9316,7 @@
       <c r="CV52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CW52" s="83">
+      <c r="CW52" s="82">
         <v>0.14583333333333334</v>
       </c>
       <c r="CX52" s="18"/>
@@ -9270,7 +9326,7 @@
       <c r="DB52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DC52" s="83">
+      <c r="DC52" s="82">
         <v>0.125</v>
       </c>
       <c r="DD52" s="18"/>
@@ -9280,7 +9336,7 @@
       <c r="DH52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DI52" s="83">
+      <c r="DI52" s="82">
         <v>0.16666666666666666</v>
       </c>
       <c r="DJ52" s="18"/>
@@ -9290,7 +9346,9 @@
       <c r="DN52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DO52" s="18"/>
+      <c r="DO52" s="82">
+        <v>0.125</v>
+      </c>
       <c r="DP52" s="18"/>
       <c r="DQ52" s="18"/>
       <c r="DR52" s="54"/>
@@ -9375,7 +9433,7 @@
       <c r="BF53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BG53" s="83">
+      <c r="BG53" s="82">
         <v>0</v>
       </c>
       <c r="BH53" s="18"/>
@@ -9385,7 +9443,7 @@
       <c r="BL53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BM53" s="83">
+      <c r="BM53" s="82">
         <v>0</v>
       </c>
       <c r="BN53" s="18"/>
@@ -9395,7 +9453,7 @@
       <c r="BR53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BS53" s="83">
+      <c r="BS53" s="82">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="BT53" s="18"/>
@@ -9405,7 +9463,7 @@
       <c r="BX53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="BY53" s="83">
+      <c r="BY53" s="82">
         <v>6.25E-2</v>
       </c>
       <c r="BZ53" s="18"/>
@@ -9421,7 +9479,9 @@
       <c r="CJ53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CK53" s="18"/>
+      <c r="CK53" s="82">
+        <v>8.3333333333333301E-2</v>
+      </c>
       <c r="CL53" s="18"/>
       <c r="CM53" s="18"/>
       <c r="CN53" s="53"/>
@@ -9429,7 +9489,7 @@
       <c r="CP53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CQ53" s="83">
+      <c r="CQ53" s="82">
         <v>0</v>
       </c>
       <c r="CR53" s="18"/>
@@ -9439,7 +9499,7 @@
       <c r="CV53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="CW53" s="83">
+      <c r="CW53" s="82">
         <v>0</v>
       </c>
       <c r="CX53" s="18"/>
@@ -9449,7 +9509,7 @@
       <c r="DB53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DC53" s="83">
+      <c r="DC53" s="82">
         <v>6.25E-2</v>
       </c>
       <c r="DD53" s="18"/>
@@ -9459,7 +9519,7 @@
       <c r="DH53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DI53" s="83">
+      <c r="DI53" s="82">
         <v>0.10416666666666667</v>
       </c>
       <c r="DJ53" s="18"/>
@@ -9469,7 +9529,7 @@
       <c r="DN53" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="DO53" s="83">
+      <c r="DO53" s="82">
         <v>0</v>
       </c>
       <c r="DP53" s="18"/>
@@ -9496,7 +9556,7 @@
       <c r="B54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="89" t="s">
+      <c r="C54" s="88" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="14"/>
@@ -9639,7 +9699,7 @@
       <c r="B55" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="89"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="14"/>
       <c r="E55" s="18"/>
       <c r="F55" s="8"/>
@@ -9921,140 +9981,144 @@
       <c r="B57" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="84"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="18"/>
       <c r="F57" s="8"/>
       <c r="G57" s="18"/>
       <c r="H57" s="10"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="84"/>
+      <c r="J57" s="83"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="10"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="84"/>
+      <c r="P57" s="83"/>
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
       <c r="T57" s="10"/>
       <c r="U57" s="12"/>
-      <c r="V57" s="84"/>
+      <c r="V57" s="83"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="84"/>
+      <c r="AB57" s="83"/>
       <c r="AC57" s="18"/>
       <c r="AD57" s="18"/>
       <c r="AE57" s="18"/>
       <c r="AF57" s="10"/>
       <c r="AG57" s="12"/>
-      <c r="AH57" s="84"/>
+      <c r="AH57" s="83"/>
       <c r="AI57" s="18"/>
       <c r="AJ57" s="18"/>
       <c r="AK57" s="18"/>
       <c r="AL57" s="10"/>
       <c r="AM57" s="12"/>
-      <c r="AN57" s="84"/>
+      <c r="AN57" s="83"/>
       <c r="AO57" s="18"/>
       <c r="AP57" s="18"/>
       <c r="AQ57" s="18"/>
       <c r="AR57" s="10"/>
       <c r="AS57" s="12"/>
-      <c r="AT57" s="84"/>
+      <c r="AT57" s="83"/>
       <c r="AU57" s="18"/>
       <c r="AV57" s="18"/>
       <c r="AW57" s="18"/>
       <c r="AX57" s="10"/>
       <c r="AY57" s="12"/>
-      <c r="AZ57" s="84"/>
+      <c r="AZ57" s="83"/>
       <c r="BA57" s="18"/>
       <c r="BB57" s="18"/>
       <c r="BC57" s="18"/>
       <c r="BD57" s="10"/>
       <c r="BE57" s="12"/>
-      <c r="BF57" s="84"/>
+      <c r="BF57" s="83"/>
       <c r="BG57" s="18"/>
       <c r="BH57" s="18"/>
       <c r="BI57" s="18"/>
       <c r="BJ57" s="10"/>
       <c r="BK57" s="12"/>
-      <c r="BL57" s="84"/>
+      <c r="BL57" s="83"/>
       <c r="BM57" s="18"/>
       <c r="BN57" s="18"/>
       <c r="BO57" s="18"/>
       <c r="BP57" s="10"/>
       <c r="BQ57" s="12"/>
-      <c r="BR57" s="84"/>
+      <c r="BR57" s="83"/>
       <c r="BS57" s="18"/>
       <c r="BT57" s="18"/>
       <c r="BU57" s="18"/>
       <c r="BV57" s="10"/>
       <c r="BW57" s="12"/>
-      <c r="BX57" s="84"/>
+      <c r="BX57" s="83"/>
       <c r="BY57" s="18"/>
       <c r="BZ57" s="18"/>
       <c r="CA57" s="18"/>
       <c r="CB57" s="10"/>
       <c r="CC57" s="12"/>
-      <c r="CD57" s="84"/>
+      <c r="CD57" s="83"/>
       <c r="CE57" s="18"/>
       <c r="CF57" s="18"/>
       <c r="CG57" s="18"/>
       <c r="CH57" s="10"/>
       <c r="CI57" s="12"/>
-      <c r="CJ57" s="84"/>
+      <c r="CJ57" s="83"/>
       <c r="CK57" s="18"/>
       <c r="CL57" s="18"/>
       <c r="CM57" s="18"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="12"/>
-      <c r="CP57" s="84"/>
+      <c r="CP57" s="83"/>
       <c r="CQ57" s="18"/>
       <c r="CR57" s="18"/>
       <c r="CS57" s="18"/>
       <c r="CT57" s="10"/>
       <c r="CU57" s="12"/>
-      <c r="CV57" s="84"/>
+      <c r="CV57" s="83"/>
       <c r="CW57" s="18"/>
       <c r="CX57" s="18"/>
       <c r="CY57" s="18"/>
       <c r="CZ57" s="10"/>
       <c r="DA57" s="12"/>
-      <c r="DB57" s="84">
-        <v>0</v>
-      </c>
-      <c r="DC57" s="83">
+      <c r="DB57" s="83">
+        <v>0</v>
+      </c>
+      <c r="DC57" s="82">
         <v>6.25E-2</v>
       </c>
       <c r="DD57" s="18"/>
       <c r="DE57" s="18"/>
       <c r="DF57" s="53"/>
       <c r="DG57" s="12"/>
-      <c r="DH57" s="84"/>
+      <c r="DH57" s="83"/>
       <c r="DI57" s="18"/>
       <c r="DJ57" s="18"/>
       <c r="DK57" s="18"/>
       <c r="DL57" s="10"/>
       <c r="DM57" s="12"/>
-      <c r="DN57" s="84"/>
+      <c r="DN57" s="83"/>
       <c r="DO57" s="18"/>
       <c r="DP57" s="18"/>
       <c r="DQ57" s="18"/>
       <c r="DR57" s="10"/>
       <c r="DS57" s="12"/>
-      <c r="DT57" s="84"/>
-      <c r="DU57" s="18"/>
+      <c r="DT57" s="83">
+        <v>0</v>
+      </c>
+      <c r="DU57" s="82">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="DV57" s="18"/>
       <c r="DW57" s="18"/>
-      <c r="DX57" s="10"/>
+      <c r="DX57" s="53"/>
       <c r="DY57" s="12"/>
-      <c r="DZ57" s="84"/>
+      <c r="DZ57" s="83"/>
       <c r="EA57" s="18"/>
       <c r="EB57" s="18"/>
       <c r="EC57" s="18"/>
@@ -10640,7 +10704,7 @@
       <c r="B62" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="89" t="s">
+      <c r="C62" s="88" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="14"/>
@@ -10783,7 +10847,7 @@
       <c r="B63" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="89"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="14"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -10924,7 +10988,7 @@
       <c r="B64" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="89"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="14"/>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
@@ -11601,7 +11665,7 @@
       </c>
       <c r="ED67" s="16"/>
     </row>
-    <row r="68" spans="1:135" ht="15" thickBot="1">
+    <row r="68" spans="1:135" ht="15.75" thickBot="1">
       <c r="C68" s="27" t="s">
         <v>36</v>
       </c>
@@ -11611,7 +11675,7 @@
       </c>
       <c r="E68" s="29">
         <f>SUM(E3:E65)</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F68" s="30" t="s">
         <v>37</v>
@@ -11687,7 +11751,7 @@
       <c r="AF68" s="31"/>
       <c r="AH68" s="28">
         <f>SUM(AH3:AH65)</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AI68" s="29">
         <f>SUM(AI3:AI65)</f>
@@ -11707,7 +11771,7 @@
       </c>
       <c r="AO68" s="29">
         <f>SUM(AO3:AO65)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AP68" s="30" t="s">
         <v>37</v>
@@ -11835,7 +11899,7 @@
       </c>
       <c r="CK68" s="29">
         <f>SUM(CK3:CK65)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CL68" s="30" t="s">
         <v>37</v>
@@ -11915,7 +11979,7 @@
       </c>
       <c r="DO68" s="29">
         <f>SUM(DO3:DO65)</f>
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="DP68" s="30" t="s">
         <v>37</v>
@@ -11931,7 +11995,7 @@
       </c>
       <c r="DU68" s="29">
         <f>SUM(DU3:DU65)</f>
-        <v>0.10416666666666667</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="DV68" s="30" t="s">
         <v>37</v>
@@ -11947,7 +12011,7 @@
       </c>
       <c r="EA68" s="29">
         <f>SUM(EA3:EA65)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="EB68" s="30" t="s">
         <v>37</v>
@@ -11964,7 +12028,7 @@
       </c>
       <c r="E69" s="33">
         <f>G68/E68</f>
-        <v>6.75</v>
+        <v>3.375</v>
       </c>
       <c r="H69" s="34"/>
       <c r="J69" s="32" t="s">
@@ -12010,9 +12074,9 @@
       <c r="AN69" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AO69" s="33" t="e">
+      <c r="AO69" s="33">
         <f>AQ68/AO68</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AR69" s="34"/>
       <c r="AT69" s="32" t="s">
@@ -12074,9 +12138,9 @@
       <c r="CJ69" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="CK69" s="33" t="e">
+      <c r="CK69" s="33">
         <f>CM68/CK68</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="CN69" s="34"/>
       <c r="CP69" s="32" t="s">
@@ -12130,9 +12194,9 @@
       <c r="DZ69" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="EA69" s="33" t="e">
+      <c r="EA69" s="33">
         <f>EC68/EA68</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="ED69" s="34"/>
     </row>
@@ -12320,7 +12384,7 @@
       </c>
       <c r="E71" s="35">
         <f>1-E69</f>
-        <v>-5.75</v>
+        <v>-2.375</v>
       </c>
       <c r="H71" s="34"/>
       <c r="J71" s="32" t="s">
@@ -12366,9 +12430,9 @@
       <c r="AN71" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AO71" s="35" t="e">
+      <c r="AO71" s="35">
         <f>1-AO69</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AR71" s="34"/>
       <c r="AT71" s="32" t="s">
@@ -12430,9 +12494,9 @@
       <c r="CJ71" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="CK71" s="35" t="e">
+      <c r="CK71" s="35">
         <f>1-CK69</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="CN71" s="34"/>
       <c r="CP71" s="32" t="s">
@@ -12486,9 +12550,9 @@
       <c r="DZ71" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="EA71" s="35" t="e">
+      <c r="EA71" s="35">
         <f>1-EA69</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="ED71" s="34"/>
     </row>
@@ -13097,19 +13161,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.44140625"/>
-    <col min="2" max="2" width="10.33203125"/>
+    <col min="1" max="1" width="33.42578125"/>
+    <col min="2" max="2" width="10.28515625"/>
     <col min="3" max="3" width="32"/>
     <col min="4" max="4" width="16"/>
-    <col min="5" max="5" width="12.88671875"/>
-    <col min="6" max="6" width="14.33203125"/>
-    <col min="7" max="7" width="18.6640625"/>
+    <col min="5" max="5" width="12.85546875"/>
+    <col min="6" max="6" width="14.28515625"/>
+    <col min="7" max="7" width="18.7109375"/>
     <col min="8" max="8" width="21"/>
-    <col min="9" max="9" width="14.44140625"/>
-    <col min="10" max="10" width="19.44140625"/>
-    <col min="11" max="11" width="23.44140625"/>
+    <col min="9" max="9" width="14.42578125"/>
+    <col min="10" max="10" width="19.42578125"/>
+    <col min="11" max="11" width="23.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13152,28 +13216,28 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875"/>
-    <col min="4" max="4" width="56.88671875"/>
-    <col min="5" max="1025" width="10.5546875"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="56.85546875"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">

--- a/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
+++ b/Docs/Planilha de atividades/Sistema_Seguradora_Planejamento_de_Atividades_v1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="96">
   <si>
     <t>Cód.</t>
   </si>
@@ -145,18 +145,6 @@
   </si>
   <si>
     <t>Percentual atrasado do tempo estimado:</t>
-  </si>
-  <si>
-    <t>Total de horas do projeto =</t>
-  </si>
-  <si>
-    <t>Realizado =</t>
-  </si>
-  <si>
-    <t>Restantes =</t>
-  </si>
-  <si>
-    <t>Percentual concluído =</t>
   </si>
   <si>
     <t>Recurso</t>
@@ -293,6 +281,33 @@
   <si>
     <t>Criar do Seguro_v2.eap da sprint 2</t>
   </si>
+  <si>
+    <t>Horas orçadas sprint 1</t>
+  </si>
+  <si>
+    <t>Horas trabalhadas sprint 1</t>
+  </si>
+  <si>
+    <t>Horas orçadas sprint 2</t>
+  </si>
+  <si>
+    <t>Horas trabalhadas sprint 2</t>
+  </si>
+  <si>
+    <t>Horas orçadas documentação</t>
+  </si>
+  <si>
+    <t>Horas trabalhadas documentação</t>
+  </si>
+  <si>
+    <t>Horas orçadas total</t>
+  </si>
+  <si>
+    <t>Horas trabalhadas total</t>
+  </si>
+  <si>
+    <t>Esforço (Horas)</t>
+  </si>
 </sst>
 </file>
 
@@ -304,7 +319,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="h:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,6 +364,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -614,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,14 +832,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -832,6 +854,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1197,19 +1234,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EE80"/>
+  <dimension ref="A1:EE81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="DT69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="EA4" sqref="EA4"/>
+      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125"/>
-    <col min="2" max="2" width="29.42578125"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1295,181 +1332,181 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85">
+      <c r="D1" s="86">
         <v>42322</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="85">
+      <c r="J1" s="86">
         <v>42323</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="85">
+      <c r="P1" s="86">
         <v>42324</v>
       </c>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="85">
+      <c r="V1" s="86">
         <v>42325</v>
       </c>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="85">
+      <c r="AB1" s="86">
         <v>42326</v>
       </c>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="85">
+      <c r="AH1" s="86">
         <v>42327</v>
       </c>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
       <c r="AM1" s="12"/>
-      <c r="AN1" s="85">
+      <c r="AN1" s="86">
         <v>42328</v>
       </c>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
       <c r="AS1" s="12"/>
-      <c r="AT1" s="85">
+      <c r="AT1" s="86">
         <v>42329</v>
       </c>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="85">
+      <c r="AZ1" s="86">
         <v>42330</v>
       </c>
-      <c r="BA1" s="86"/>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="86"/>
-      <c r="BD1" s="86"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="87"/>
+      <c r="BD1" s="87"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="85">
+      <c r="BF1" s="86">
         <v>42331</v>
       </c>
-      <c r="BG1" s="86"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="86"/>
-      <c r="BJ1" s="86"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
       <c r="BK1" s="12"/>
-      <c r="BL1" s="85">
+      <c r="BL1" s="86">
         <v>42332</v>
       </c>
-      <c r="BM1" s="86"/>
-      <c r="BN1" s="86"/>
-      <c r="BO1" s="86"/>
-      <c r="BP1" s="86"/>
+      <c r="BM1" s="87"/>
+      <c r="BN1" s="87"/>
+      <c r="BO1" s="87"/>
+      <c r="BP1" s="87"/>
       <c r="BQ1" s="12"/>
-      <c r="BR1" s="85">
+      <c r="BR1" s="86">
         <v>42333</v>
       </c>
-      <c r="BS1" s="86"/>
-      <c r="BT1" s="86"/>
-      <c r="BU1" s="86"/>
-      <c r="BV1" s="86"/>
+      <c r="BS1" s="87"/>
+      <c r="BT1" s="87"/>
+      <c r="BU1" s="87"/>
+      <c r="BV1" s="87"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="85">
+      <c r="BX1" s="86">
         <v>42334</v>
       </c>
-      <c r="BY1" s="86"/>
-      <c r="BZ1" s="86"/>
-      <c r="CA1" s="86"/>
-      <c r="CB1" s="86"/>
+      <c r="BY1" s="87"/>
+      <c r="BZ1" s="87"/>
+      <c r="CA1" s="87"/>
+      <c r="CB1" s="87"/>
       <c r="CC1" s="12"/>
-      <c r="CD1" s="85">
+      <c r="CD1" s="86">
         <v>42335</v>
       </c>
-      <c r="CE1" s="86"/>
-      <c r="CF1" s="86"/>
-      <c r="CG1" s="86"/>
-      <c r="CH1" s="86"/>
+      <c r="CE1" s="87"/>
+      <c r="CF1" s="87"/>
+      <c r="CG1" s="87"/>
+      <c r="CH1" s="87"/>
       <c r="CI1" s="12"/>
-      <c r="CJ1" s="85">
+      <c r="CJ1" s="86">
         <v>42336</v>
       </c>
-      <c r="CK1" s="86"/>
-      <c r="CL1" s="86"/>
-      <c r="CM1" s="86"/>
-      <c r="CN1" s="86"/>
+      <c r="CK1" s="87"/>
+      <c r="CL1" s="87"/>
+      <c r="CM1" s="87"/>
+      <c r="CN1" s="87"/>
       <c r="CO1" s="12"/>
-      <c r="CP1" s="85">
+      <c r="CP1" s="86">
         <v>42337</v>
       </c>
-      <c r="CQ1" s="86"/>
-      <c r="CR1" s="86"/>
-      <c r="CS1" s="86"/>
-      <c r="CT1" s="86"/>
+      <c r="CQ1" s="87"/>
+      <c r="CR1" s="87"/>
+      <c r="CS1" s="87"/>
+      <c r="CT1" s="87"/>
       <c r="CU1" s="12"/>
-      <c r="CV1" s="85">
+      <c r="CV1" s="86">
         <v>42338</v>
       </c>
-      <c r="CW1" s="86"/>
-      <c r="CX1" s="86"/>
-      <c r="CY1" s="86"/>
-      <c r="CZ1" s="86"/>
+      <c r="CW1" s="87"/>
+      <c r="CX1" s="87"/>
+      <c r="CY1" s="87"/>
+      <c r="CZ1" s="87"/>
       <c r="DA1" s="12"/>
-      <c r="DB1" s="85">
+      <c r="DB1" s="86">
         <v>42339</v>
       </c>
-      <c r="DC1" s="86"/>
-      <c r="DD1" s="86"/>
-      <c r="DE1" s="86"/>
-      <c r="DF1" s="86"/>
+      <c r="DC1" s="87"/>
+      <c r="DD1" s="87"/>
+      <c r="DE1" s="87"/>
+      <c r="DF1" s="87"/>
       <c r="DG1" s="12"/>
-      <c r="DH1" s="85">
+      <c r="DH1" s="86">
         <v>42340</v>
       </c>
-      <c r="DI1" s="86"/>
-      <c r="DJ1" s="86"/>
-      <c r="DK1" s="86"/>
-      <c r="DL1" s="86"/>
+      <c r="DI1" s="87"/>
+      <c r="DJ1" s="87"/>
+      <c r="DK1" s="87"/>
+      <c r="DL1" s="87"/>
       <c r="DM1" s="12"/>
-      <c r="DN1" s="85">
+      <c r="DN1" s="86">
         <v>42341</v>
       </c>
-      <c r="DO1" s="86"/>
-      <c r="DP1" s="86"/>
-      <c r="DQ1" s="86"/>
-      <c r="DR1" s="86"/>
+      <c r="DO1" s="87"/>
+      <c r="DP1" s="87"/>
+      <c r="DQ1" s="87"/>
+      <c r="DR1" s="87"/>
       <c r="DS1" s="12"/>
-      <c r="DT1" s="85">
+      <c r="DT1" s="86">
         <v>42342</v>
       </c>
-      <c r="DU1" s="86"/>
-      <c r="DV1" s="86"/>
-      <c r="DW1" s="86"/>
-      <c r="DX1" s="86"/>
+      <c r="DU1" s="87"/>
+      <c r="DV1" s="87"/>
+      <c r="DW1" s="87"/>
+      <c r="DX1" s="87"/>
       <c r="DY1" s="12"/>
-      <c r="DZ1" s="85">
+      <c r="DZ1" s="86">
         <v>42343</v>
       </c>
-      <c r="EA1" s="86"/>
-      <c r="EB1" s="86"/>
-      <c r="EC1" s="86"/>
-      <c r="ED1" s="86"/>
+      <c r="EA1" s="87"/>
+      <c r="EB1" s="87"/>
+      <c r="EC1" s="87"/>
+      <c r="ED1" s="87"/>
       <c r="EE1" s="12"/>
     </row>
     <row r="2" spans="1:135" ht="45" customHeight="1">
@@ -1491,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="43" t="s">
@@ -1507,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="43" t="s">
@@ -1523,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="T2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U2" s="12"/>
       <c r="V2" s="43" t="s">
@@ -1539,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="Z2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA2" s="12"/>
       <c r="AB2" s="43" t="s">
@@ -1555,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="AF2" s="61" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="43" t="s">
@@ -1571,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="AL2" s="61" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="43" t="s">
@@ -1587,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="AR2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AS2" s="12"/>
       <c r="AT2" s="43" t="s">
@@ -1603,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="AX2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AY2" s="12"/>
       <c r="AZ2" s="43" t="s">
@@ -1619,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="BD2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BE2" s="12"/>
       <c r="BF2" s="43" t="s">
@@ -1635,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="BJ2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BK2" s="12"/>
       <c r="BL2" s="43" t="s">
@@ -1651,7 +1688,7 @@
         <v>6</v>
       </c>
       <c r="BP2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BQ2" s="12"/>
       <c r="BR2" s="43" t="s">
@@ -1667,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="BV2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BW2" s="12"/>
       <c r="BX2" s="43" t="s">
@@ -1683,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="CB2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="CC2" s="12"/>
       <c r="CD2" s="43" t="s">
@@ -1699,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="CH2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="CI2" s="12"/>
       <c r="CJ2" s="43" t="s">
@@ -1715,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="CN2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="CO2" s="12"/>
       <c r="CP2" s="43" t="s">
@@ -1731,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="CT2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="CU2" s="12"/>
       <c r="CV2" s="43" t="s">
@@ -1747,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="CZ2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="DA2" s="12"/>
       <c r="DB2" s="43" t="s">
@@ -1763,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="DF2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="DG2" s="12"/>
       <c r="DH2" s="43" t="s">
@@ -1779,7 +1816,7 @@
         <v>6</v>
       </c>
       <c r="DL2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="DM2" s="12"/>
       <c r="DN2" s="43" t="s">
@@ -1795,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="DR2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="DS2" s="12"/>
       <c r="DT2" s="43" t="s">
@@ -1811,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="DX2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="DY2" s="12"/>
       <c r="DZ2" s="43" t="s">
@@ -1827,7 +1864,7 @@
         <v>6</v>
       </c>
       <c r="ED2" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="EE2" s="12"/>
     </row>
@@ -2055,7 +2092,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="EA3" s="72">
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="EB3" s="74"/>
       <c r="EC3" s="74"/>
@@ -2070,7 +2107,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -2218,7 +2255,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="46" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
@@ -2362,10 +2399,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="14">
         <v>8.3333333333333301E-2</v>
@@ -2514,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="14">
         <v>4.1666666666666664E-2</v>
@@ -2671,7 +2708,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="85" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2823,7 +2860,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2974,7 +3011,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" s="6">
         <v>4.1666666666666699E-2</v>
@@ -3125,7 +3162,7 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3276,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="6">
         <v>4.1666666666666699E-2</v>
@@ -3439,7 +3476,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3593,7 +3630,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="87"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="6">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3739,10 +3776,10 @@
     <row r="15" spans="1:135">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -3886,14 +3923,12 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="45"/>
@@ -4033,10 +4068,10 @@
     <row r="17" spans="1:135">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -4178,10 +4213,10 @@
     <row r="18" spans="1:135">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -4327,10 +4362,10 @@
     <row r="19" spans="1:135">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -4472,10 +4507,10 @@
     <row r="20" spans="1:135">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -4617,10 +4652,10 @@
     <row r="21" spans="1:135">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
@@ -4762,10 +4797,10 @@
     <row r="22" spans="1:135">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
@@ -4909,14 +4944,12 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="45"/>
@@ -5056,10 +5089,10 @@
     <row r="24" spans="1:135">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -5201,10 +5234,10 @@
     <row r="25" spans="1:135">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -5352,7 +5385,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" s="90" t="s">
         <v>23</v>
@@ -5499,7 +5532,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="6"/>
@@ -5642,10 +5675,10 @@
     <row r="28" spans="1:135">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -5789,10 +5822,10 @@
         <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="46" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>73</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -5932,9 +5965,9 @@
         <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="85" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6"/>
@@ -6079,9 +6112,9 @@
         <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="87"/>
+        <v>65</v>
+      </c>
+      <c r="C31" s="85"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -6224,9 +6257,9 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="87"/>
+        <v>65</v>
+      </c>
+      <c r="C32" s="85"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -6367,10 +6400,10 @@
     <row r="33" spans="1:135">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -6516,10 +6549,10 @@
     <row r="34" spans="1:135">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -6669,10 +6702,10 @@
     <row r="35" spans="1:135">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -6817,7 +6850,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -6966,7 +6999,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
@@ -7116,7 +7149,7 @@
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="85" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6"/>
@@ -7259,7 +7292,7 @@
       <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="87"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -7543,10 +7576,10 @@
     <row r="41" spans="1:135" ht="30">
       <c r="A41" s="2"/>
       <c r="B41" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -7688,10 +7721,10 @@
     <row r="42" spans="1:135" ht="30">
       <c r="A42" s="2"/>
       <c r="B42" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -7970,10 +8003,10 @@
     <row r="44" spans="1:135">
       <c r="A44" s="2"/>
       <c r="B44" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
@@ -8115,10 +8148,10 @@
     <row r="45" spans="1:135">
       <c r="A45" s="2"/>
       <c r="B45" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -8260,10 +8293,10 @@
     <row r="46" spans="1:135">
       <c r="A46" s="2"/>
       <c r="B46" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -8709,7 +8742,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
@@ -8853,10 +8886,10 @@
         <v>27</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="18"/>
@@ -8993,10 +9026,10 @@
     <row r="51" spans="1:135" ht="14.1" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="18"/>
@@ -9172,11 +9205,15 @@
       <c r="DW51" s="18"/>
       <c r="DX51" s="52"/>
       <c r="DY51" s="12"/>
-      <c r="DZ51" s="14"/>
-      <c r="EA51" s="18"/>
+      <c r="DZ51" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA51" s="82">
+        <v>0.125</v>
+      </c>
       <c r="EB51" s="18"/>
       <c r="EC51" s="18"/>
-      <c r="ED51" s="10"/>
+      <c r="ED51" s="54"/>
       <c r="EE51" s="12"/>
     </row>
     <row r="52" spans="1:135" ht="14.1" customHeight="1">
@@ -9184,10 +9221,10 @@
         <v>28</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="18"/>
@@ -9374,7 +9411,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="18"/>
@@ -9542,11 +9579,15 @@
       <c r="DW53" s="18"/>
       <c r="DX53" s="10"/>
       <c r="DY53" s="12"/>
-      <c r="DZ53" s="14"/>
-      <c r="EA53" s="18"/>
+      <c r="DZ53" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA53" s="82">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="EB53" s="18"/>
       <c r="EC53" s="18"/>
-      <c r="ED53" s="10"/>
+      <c r="ED53" s="53"/>
       <c r="EE53" s="12"/>
     </row>
     <row r="54" spans="1:135">
@@ -9982,7 +10023,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="84" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D57" s="83"/>
       <c r="E57" s="18"/>
@@ -11671,7 +11712,7 @@
       </c>
       <c r="D68" s="28">
         <f>SUM(D3:D65)</f>
-        <v>0.62500000000000011</v>
+        <v>0.45833333333333343</v>
       </c>
       <c r="E68" s="29">
         <f>SUM(E3:E65)</f>
@@ -12011,7 +12052,7 @@
       </c>
       <c r="EA68" s="29">
         <f>SUM(EA3:EA65)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="EB68" s="30" t="s">
         <v>37</v>
@@ -12201,12 +12242,15 @@
       <c r="ED69" s="34"/>
     </row>
     <row r="70" spans="1:135">
+      <c r="B70" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="D70" s="32" t="s">
         <v>39</v>
       </c>
       <c r="E70" s="33">
         <f>G68/D68</f>
-        <v>1.7999999999999996</v>
+        <v>2.4545454545454541</v>
       </c>
       <c r="H70" s="34"/>
       <c r="J70" s="32" t="s">
@@ -12379,6 +12423,13 @@
       <c r="ED70" s="34"/>
     </row>
     <row r="71" spans="1:135">
+      <c r="B71" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="96">
+        <f>SUM(D68+J68+P68+V68+AN68+AB68+AH68)</f>
+        <v>2.5000000000000004</v>
+      </c>
       <c r="D71" s="32" t="s">
         <v>40</v>
       </c>
@@ -12557,12 +12608,19 @@
       <c r="ED71" s="34"/>
     </row>
     <row r="72" spans="1:135">
+      <c r="B72" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="96">
+        <f>SUM(E68+K68+Q68+W68+AC68+AI68+AO68)</f>
+        <v>1.8124999999999998</v>
+      </c>
       <c r="D72" s="32" t="s">
         <v>41</v>
       </c>
       <c r="E72" s="35">
         <f>1-E70</f>
-        <v>-0.7999999999999996</v>
+        <v>-1.4545454545454541</v>
       </c>
       <c r="H72" s="34"/>
       <c r="J72" s="32" t="s">
@@ -12735,6 +12793,8 @@
       <c r="ED72" s="34"/>
     </row>
     <row r="73" spans="1:135">
+      <c r="B73" s="22"/>
+      <c r="C73" s="97"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="J73"/>
@@ -12781,6 +12841,13 @@
       <c r="EA73"/>
     </row>
     <row r="74" spans="1:135">
+      <c r="B74" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="96">
+        <f>SUM(AT68+AZ68+BF68+BR68+BL68+BX68+CD68)</f>
+        <v>1.7499999999999998</v>
+      </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="J74"/>
@@ -12827,6 +12894,13 @@
       <c r="EA74"/>
     </row>
     <row r="75" spans="1:135">
+      <c r="B75" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="96">
+        <f>SUM(AU68+BA68+BG68+BM68+BS68+BY68+CE68)</f>
+        <v>1.6666666666666667</v>
+      </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="J75"/>
@@ -12873,6 +12947,8 @@
       <c r="EA75"/>
     </row>
     <row r="76" spans="1:135">
+      <c r="B76" s="93"/>
+      <c r="C76" s="97"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="J76"/>
@@ -12919,18 +12995,16 @@
       <c r="EA76"/>
     </row>
     <row r="77" spans="1:135">
-      <c r="C77" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="36" t="e">
-        <f>SUM(D3:D65)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B77" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="98">
+        <f>SUM(CJ68+CP68+CV68+DB68+DH68+DN68+DT68+DZ68)</f>
+        <v>2.2916666666666661</v>
+      </c>
+      <c r="D77" s="36"/>
       <c r="E77" s="37"/>
-      <c r="J77" s="36" t="e">
-        <f>SUM(J3:J65)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="J77" s="36"/>
       <c r="K77" s="37"/>
       <c r="P77" s="36" t="e">
         <f>SUM(P3:P65)+SUM(#REF!)+SUM(#REF!)+SUM(#REF!)</f>
@@ -13034,8 +13108,12 @@
       <c r="EA77" s="37"/>
     </row>
     <row r="78" spans="1:135">
-      <c r="C78" s="32" t="s">
-        <v>43</v>
+      <c r="B78" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="98">
+        <f>SUM(CK68+CQ68+CW68+DC68+DI68+DO68+DU68+EA68)</f>
+        <v>2.208333333333333</v>
       </c>
       <c r="D78" s="36"/>
       <c r="J78" s="36"/>
@@ -13061,9 +13139,8 @@
       <c r="DZ78" s="36"/>
     </row>
     <row r="79" spans="1:135">
-      <c r="C79" s="32" t="s">
-        <v>44</v>
-      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="99"/>
       <c r="D79" s="36"/>
       <c r="J79" s="36"/>
       <c r="P79" s="36"/>
@@ -13088,8 +13165,12 @@
       <c r="DZ79" s="36"/>
     </row>
     <row r="80" spans="1:135">
-      <c r="C80" s="32" t="s">
-        <v>45</v>
+      <c r="B80" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="98">
+        <f>SUM(C71+C74+C77)</f>
+        <v>6.5416666666666661</v>
       </c>
       <c r="D80" s="33"/>
       <c r="J80" s="33"/>
@@ -13114,8 +13195,35 @@
       <c r="DT80" s="33"/>
       <c r="DZ80" s="33"/>
     </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="96">
+        <f>SUM(C72+C75+C78)</f>
+        <v>5.6875</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DT1:DX1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="BR1:BV1"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DH1:DL1"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AN1:AR1"/>
@@ -13128,24 +13236,6 @@
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DT1:DX1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="AB1:AF1"/>
   </mergeCells>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.35416666666666702" bottom="0.35416666666666702" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -13178,27 +13268,27 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="51"/>
     </row>
@@ -13227,7 +13317,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="92" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -13241,30 +13331,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="40">
         <v>42322</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
